--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1ED691-EA64-4824-9F0E-422E078788AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E22BE3-7625-4C0F-994E-B6B7837F5C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1272" yWindow="-96" windowWidth="21864" windowHeight="13152" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="564">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1708,18 +1708,9 @@
     <t>without modflow</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>modflow_coupling</t>
   </si>
   <si>
-    <t>Faster if False. Requires having daily reference ET as an input. This can be generated in CWatM.</t>
-  </si>
-  <si>
-    <t>Previous input</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira_28Apr20_19990501.nc</t>
   </si>
   <si>
@@ -1733,13 +1724,16 @@
   </si>
   <si>
     <t xml:space="preserve"> 27/04/2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/metaNetcdf.xml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1776,14 +1770,20 @@
     </font>
     <font>
       <b/>
-      <sz val="9.8000000000000007"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,8 +1814,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1823,11 +1841,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1889,11 +2021,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2209,200 +2388,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62071E38-783F-4567-BA81-7A39AFFE25E7}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.3125" style="24" customWidth="1"/>
     <col min="2" max="2" width="47.734375" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.41796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="25"/>
+    <col min="3" max="16384" width="8.83984375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27" t="s">
+      <c r="B6" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="40"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="26" t="b">
+      <c r="B13" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="26" t="s">
+    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="B14" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="25"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="25"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="25"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="25"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="25"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="25"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="25"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="25"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="25"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="25"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -2917,21 +3093,6 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="25"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="25"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="25"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="25"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="25"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3225,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
   <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E22BE3-7625-4C0F-994E-B6B7837F5C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E984CB-D8D5-4251-A27C-F20574650E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="-96" windowWidth="21864" windowHeight="13152" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="12870" yWindow="2088" windowWidth="12258" windowHeight="9960" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="572">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1717,23 +1717,47 @@
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/01/1995</t>
-  </si>
-  <si>
-    <t>modflowWaterLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27/04/2008</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/metaNetcdf.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT_MAP_MonthTot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT_MAP_AnnualEnd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT_MAP_AnnualTot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT_MAP_TotalEnd </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modflowtotalSoilThickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lakeResInflowDis, lakeResOutflowDis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27/04/2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modflowWaterLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1994</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1779,6 +1803,11 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2055,9 +2084,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2073,6 +2099,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2388,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62071E38-783F-4567-BA81-7A39AFFE25E7}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2402,42 +2431,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>9</v>
+      <c r="B3" s="38" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="39">
-        <v>10</v>
+      <c r="B4" s="38" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
     </row>
@@ -2445,7 +2474,7 @@
       <c r="A6" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="B6" s="40" t="b">
+      <c r="B6" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2453,127 +2482,143 @@
       <c r="A7" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="27" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="42" t="s">
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="39"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="39"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="44" t="s">
+    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>77</v>
+        <v>103</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>558</v>
+        <v>117</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="33" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B17" s="35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B22" s="35" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="36" t="s">
+    <row r="23" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25"/>
+      <c r="B23" s="37" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="31"/>
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="25"/>
@@ -3093,6 +3138,18 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="25"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="25"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="25"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="25"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E984CB-D8D5-4251-A27C-F20574650E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43A181-A814-4AD4-8CA8-B90084111FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="2088" windowWidth="12258" windowHeight="9960" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="8166" yWindow="1434" windowWidth="12258" windowHeight="9960" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="573">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1735,22 +1735,25 @@
     <t xml:space="preserve"> modflowtotalSoilThickness</t>
   </si>
   <si>
-    <t xml:space="preserve"> lakeResInflowDis, lakeResOutflowDis</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/05/1995</t>
   </si>
   <si>
     <t xml:space="preserve"> 01/05/1996</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27/04/2002</t>
-  </si>
-  <si>
     <t xml:space="preserve"> modflowWaterLevel</t>
   </si>
   <si>
     <t xml:space="preserve"> 01/05/1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27/04/1997</t>
+  </si>
+  <si>
+    <t>capillar</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2423,7 @@
   <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2443,7 +2446,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2451,7 +2454,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2459,7 +2462,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2483,7 +2486,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2491,7 +2494,7 @@
         <v>517</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2504,7 +2507,9 @@
       <c r="A10" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="39" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
@@ -2589,7 +2594,7 @@
         <v>129</v>
       </c>
       <c r="B21" s="35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2605,7 +2610,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA43A181-A814-4AD4-8CA8-B90084111FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA6101-DC2A-48F4-9114-89945936808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8166" yWindow="1434" windowWidth="12258" windowHeight="9960" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="1764" yWindow="-96" windowWidth="21372" windowHeight="13152" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
     <sheet name="Notepad" sheetId="1" r:id="rId2"/>
     <sheet name="All_Settings_Template" sheetId="2" r:id="rId3"/>
+    <sheet name="Crops" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="592">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1735,32 +1736,89 @@
     <t xml:space="preserve"> modflowtotalSoilThickness</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/05/1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> modflowWaterLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/05/1994</t>
+    <t xml:space="preserve"> 01/05/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27/04/2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira_20070427.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/EWRef_daily_Nira.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/ETRef_daily_Nira.nc</t>
   </si>
   <si>
     <t xml:space="preserve"> discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27/04/1997</t>
-  </si>
-  <si>
-    <t>capillar</t>
+    <t>modflowWaterLevel</t>
+  </si>
+  <si>
+    <t>GW_ex1</t>
+  </si>
+  <si>
+    <t>GW_ex2</t>
+  </si>
+  <si>
+    <t>GW_ex3</t>
+  </si>
+  <si>
+    <t>GW_ex4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/08/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28/05/1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cropKC[3], cropKC[1], currentKC[3], currentKC[1], sum_landCover, fracCrops[1], fracCrops[2], fracVegCover[0],  fracVegCover[1], fracVegCover[2], fracVegCover[3], </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28/04/1996</t>
+  </si>
+  <si>
+    <t>fracCrop_rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(PathLandcover)/Rice_30sec.tif</t>
+  </si>
+  <si>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, sum_landCover, cropKC[3], cropKC[1], currentKC[3], currentKC[1], sum_landCover, fracCrops[1], fracCrops[2], fracVegCover[0],  fracVegCover[1], fracVegCover[2], fracVegCover[3]</t>
+  </si>
+  <si>
+    <t>Crop name</t>
+  </si>
+  <si>
+    <t>Planting month</t>
+  </si>
+  <si>
+    <t>Growth Stage 1</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Ky</t>
+  </si>
+  <si>
+    <t>GS 2</t>
+  </si>
+  <si>
+    <t>GS 3</t>
+  </si>
+  <si>
+    <t>GS 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1798,24 +1856,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Abadi Extra Light"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1842,60 +1936,52 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1911,43 +1997,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1975,15 +2030,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1991,7 +2085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2041,70 +2135,85 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,741 +2529,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62071E38-783F-4567-BA81-7A39AFFE25E7}">
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.3125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="47.734375" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="25"/>
+    <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.734375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="73" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="28" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="42">
+        <v>10</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="33" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="B6" s="39" t="b">
+      <c r="B6" s="42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27" t="s">
+      <c r="B7" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="27" t="s">
+      <c r="B8" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="41" t="s">
         <v>561</v>
       </c>
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="27" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="41" t="s">
         <v>563</v>
       </c>
-      <c r="B11" s="39"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="43" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="27"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="41" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="43" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="42" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="42" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33" t="s">
+      <c r="B17" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33" t="s">
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33" t="s">
+      <c r="B21" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="42" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="36" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31"/>
-      <c r="B24" s="30"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="25"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="25"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="25"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="25"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="25"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="25"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="25"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="25"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="25"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="25"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="25"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="25"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="25"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="25"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="25"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="25"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="25"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="25"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="25"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="25"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="25"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="25"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="25"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="25"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="25"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="25"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="25"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="25"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="25"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="25"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="25"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="25"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="25"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="25"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="25"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="25"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="25"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="25"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="25"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="25"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="25"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="25"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="25"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="25"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="25"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="25"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="25"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="25"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="25"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="25"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="25"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="25"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="25"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="25"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="25"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="25"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="25"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="25"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="25"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="25"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="25"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="25"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="25"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="25"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="25"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="25"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="25"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="25"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="25"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="25"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="25"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="25"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="25"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="25"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="25"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="25"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="25"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="25"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="25"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="25"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="25"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="25"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="25"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="25"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="25"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="25"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="25"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="25"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="25"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="25"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="25"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="25"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="25"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="25"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="25"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="25"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="25"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="25"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="25"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="25"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="25"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="25"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="25"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="25"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="25"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="25"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="25"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="25"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="25"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="25"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="25"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="25"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="25"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="25"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="25"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="25"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="25"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="25"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="25"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="25"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="25"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="25"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="25"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="25"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="25"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="25"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="25"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="25"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="25"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="25"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="25"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="25"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="25"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="25"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="25"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="25"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="25"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="25"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="25"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="25"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="25"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="25"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="25"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="25"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="25"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="25"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="25"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="25"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="25"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="25"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="25"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="25"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="25"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="25"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="25"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="25"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="25"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="25"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="25"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="25"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="25"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="25"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="25"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="25"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="25"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="25"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="25"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="25"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="25"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="25"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="25"/>
+      <c r="B23" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="45">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="36">
+        <v>8.0484411999999994E-6</v>
+      </c>
+      <c r="E26" s="36">
+        <v>3.0484411999999999E-6</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G26" s="24">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="46">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F27" s="21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="47"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="47"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="47"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="47"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="47"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="47"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="47"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="47"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3446,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C36"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3784,14 +3611,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="21" t="s">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4999,10 +4826,10 @@
         <v>60</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>273</v>
+        <v>581</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>274</v>
+        <v>582</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5010,10 +4837,10 @@
         <v>60</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5021,10 +4848,10 @@
         <v>60</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5032,10 +4859,10 @@
         <v>60</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5043,10 +4870,10 @@
         <v>60</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5054,10 +4881,10 @@
         <v>60</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5065,21 +4892,21 @@
         <v>60</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C144" s="9">
-        <v>1961</v>
+        <v>283</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="C145" s="9">
+        <v>1961</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5087,10 +4914,10 @@
         <v>61</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C146" s="9">
-        <v>0.2</v>
+        <v>285</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5098,10 +4925,10 @@
         <v>61</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="C147" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5109,10 +4936,10 @@
         <v>61</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5120,10 +4947,10 @@
         <v>61</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>227</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5131,10 +4958,10 @@
         <v>61</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5142,10 +4969,10 @@
         <v>61</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5153,10 +4980,10 @@
         <v>61</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5164,10 +4991,10 @@
         <v>61</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5175,10 +5002,10 @@
         <v>61</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5186,10 +5013,10 @@
         <v>61</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5197,10 +5024,10 @@
         <v>61</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5208,10 +5035,10 @@
         <v>61</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5219,10 +5046,10 @@
         <v>61</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5230,10 +5057,10 @@
         <v>61</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5241,10 +5068,10 @@
         <v>61</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5252,10 +5079,10 @@
         <v>61</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5263,10 +5090,10 @@
         <v>61</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C162" s="9">
-        <v>1E-3</v>
+        <v>312</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5274,10 +5101,10 @@
         <v>61</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C163" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5285,10 +5112,10 @@
         <v>61</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="C164" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5296,10 +5123,10 @@
         <v>61</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5307,10 +5134,10 @@
         <v>61</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5318,10 +5145,10 @@
         <v>61</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5329,21 +5156,21 @@
         <v>61</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5351,10 +5178,10 @@
         <v>62</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C170" s="9">
-        <v>0</v>
+        <v>325</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5362,10 +5189,10 @@
         <v>62</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C171" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5373,10 +5200,10 @@
         <v>62</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C172" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5384,10 +5211,10 @@
         <v>62</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="C173" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5395,10 +5222,10 @@
         <v>62</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5406,10 +5233,10 @@
         <v>62</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5417,10 +5244,10 @@
         <v>62</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5428,21 +5255,21 @@
         <v>62</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5450,10 +5277,10 @@
         <v>63</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C179" s="9">
-        <v>0.2</v>
+        <v>340</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5461,10 +5288,10 @@
         <v>63</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C180" s="9">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5472,10 +5299,10 @@
         <v>63</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C181" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5483,10 +5310,10 @@
         <v>63</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
+      </c>
+      <c r="C182" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5494,10 +5321,10 @@
         <v>63</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5505,10 +5332,10 @@
         <v>63</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5516,10 +5343,10 @@
         <v>63</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5527,21 +5354,21 @@
         <v>63</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C186" s="9">
-        <v>0.05</v>
+        <v>351</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="C187" s="9">
+        <v>0.05</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5549,10 +5376,10 @@
         <v>64</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C188" s="9">
-        <v>0.2</v>
+        <v>354</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5560,10 +5387,10 @@
         <v>64</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C189" s="9">
-        <v>1E-3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5571,10 +5398,10 @@
         <v>64</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C190" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5582,10 +5409,10 @@
         <v>64</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
+      </c>
+      <c r="C191" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5593,10 +5420,10 @@
         <v>64</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5604,10 +5431,10 @@
         <v>64</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5615,32 +5442,32 @@
         <v>64</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C195" s="9">
-        <v>1E-3</v>
+        <v>365</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
+      </c>
+      <c r="C196" s="9">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5648,21 +5475,21 @@
         <v>66</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C197" s="9">
-        <v>0</v>
+        <v>368</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="C198" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5670,10 +5497,10 @@
         <v>67</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5681,10 +5508,10 @@
         <v>67</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5692,21 +5519,21 @@
         <v>67</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5714,10 +5541,10 @@
         <v>68</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5725,10 +5552,10 @@
         <v>68</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5736,10 +5563,10 @@
         <v>68</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5747,10 +5574,10 @@
         <v>68</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5758,10 +5585,10 @@
         <v>68</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>77</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5769,10 +5596,10 @@
         <v>68</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5780,10 +5607,10 @@
         <v>68</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5791,10 +5618,10 @@
         <v>68</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="C210" s="9">
-        <v>500</v>
+        <v>391</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5802,10 +5629,10 @@
         <v>68</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
+      </c>
+      <c r="C211" s="9">
+        <v>500</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5813,10 +5640,10 @@
         <v>68</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5824,10 +5651,10 @@
         <v>68</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5835,10 +5662,10 @@
         <v>68</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5846,10 +5673,10 @@
         <v>68</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>77</v>
+        <v>400</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5857,10 +5684,10 @@
         <v>68</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5868,10 +5695,10 @@
         <v>68</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>546</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5879,10 +5706,10 @@
         <v>68</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>405</v>
+        <v>546</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5890,10 +5717,10 @@
         <v>68</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C219" s="9">
-        <v>500</v>
+        <v>404</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5901,10 +5728,10 @@
         <v>68</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C220" s="9">
-        <v>7</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5912,10 +5739,10 @@
         <v>68</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C221" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5923,10 +5750,10 @@
         <v>68</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="C222" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5934,10 +5761,10 @@
         <v>68</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5945,10 +5772,10 @@
         <v>68</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5956,10 +5783,10 @@
         <v>68</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C225" s="9">
-        <v>100</v>
+        <v>413</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5967,10 +5794,10 @@
         <v>68</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="C226" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5978,10 +5805,10 @@
         <v>68</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -5989,43 +5816,43 @@
         <v>68</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="C230" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>422</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C231" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6033,10 +5860,10 @@
         <v>69</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>77</v>
+        <v>549</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6044,10 +5871,10 @@
         <v>69</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>427</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6055,10 +5882,10 @@
         <v>69</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>428</v>
+        <v>17</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>77</v>
+        <v>427</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6066,10 +5893,10 @@
         <v>69</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>429</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6077,10 +5904,10 @@
         <v>69</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6088,10 +5915,10 @@
         <v>69</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6099,10 +5926,10 @@
         <v>69</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>77</v>
+        <v>433</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6110,10 +5937,10 @@
         <v>69</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>436</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6121,10 +5948,10 @@
         <v>69</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6132,10 +5959,10 @@
         <v>69</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>77</v>
+        <v>438</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6143,10 +5970,10 @@
         <v>69</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>441</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6154,10 +5981,10 @@
         <v>69</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>77</v>
+        <v>441</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6165,10 +5992,10 @@
         <v>69</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>444</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6176,10 +6003,10 @@
         <v>69</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6187,10 +6014,10 @@
         <v>69</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>447</v>
+        <v>85</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6198,10 +6025,10 @@
         <v>69</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C247" s="9">
-        <v>0.7</v>
+        <v>446</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6209,10 +6036,10 @@
         <v>69</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C248" s="9">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6220,32 +6047,32 @@
         <v>69</v>
       </c>
       <c r="B249" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C249" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B250" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C249" s="9">
+      <c r="C250" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" s="15" t="s">
+    <row r="251" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B251" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="C250" s="16">
+      <c r="C251" s="16">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C251" s="9" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6253,10 +6080,10 @@
         <v>69</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6264,21 +6091,21 @@
         <v>69</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>77</v>
+        <v>454</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C254" s="9">
-        <v>1</v>
+        <v>455</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6286,10 +6113,10 @@
         <v>70</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C255" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6297,7 +6124,7 @@
         <v>70</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C256" s="9">
         <v>0.5</v>
@@ -6308,7 +6135,7 @@
         <v>70</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C257" s="9">
         <v>0.5</v>
@@ -6319,10 +6146,10 @@
         <v>70</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C258" s="9">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6330,10 +6157,10 @@
         <v>70</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C259" s="9">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6341,10 +6168,10 @@
         <v>70</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C260" s="9">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6352,21 +6179,21 @@
         <v>70</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C261" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
+      </c>
+      <c r="C262" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6374,10 +6201,10 @@
         <v>71</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C263" s="9">
-        <v>200</v>
+        <v>464</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6385,10 +6212,10 @@
         <v>71</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C264" s="9">
-        <v>0.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6396,10 +6223,10 @@
         <v>71</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
+      </c>
+      <c r="C265" s="9">
+        <v>0.6</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6407,10 +6234,10 @@
         <v>71</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C266" s="9">
-        <v>1E-4</v>
+        <v>468</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6418,10 +6245,10 @@
         <v>71</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="C267" s="9">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6429,10 +6256,10 @@
         <v>71</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6440,10 +6267,10 @@
         <v>71</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6451,21 +6278,21 @@
         <v>71</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6473,10 +6300,10 @@
         <v>72</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>77</v>
+        <v>480</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6484,7 +6311,7 @@
         <v>72</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>77</v>
@@ -6495,10 +6322,10 @@
         <v>72</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C274" s="9">
-        <v>1961</v>
+        <v>482</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6506,10 +6333,10 @@
         <v>72</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+      <c r="C275" s="9">
+        <v>1961</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6517,10 +6344,10 @@
         <v>72</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6528,10 +6355,10 @@
         <v>72</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6539,10 +6366,10 @@
         <v>72</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6550,10 +6377,10 @@
         <v>72</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>85</v>
+        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6561,10 +6388,10 @@
         <v>72</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>494</v>
+        <v>85</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6572,10 +6399,10 @@
         <v>72</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6583,10 +6410,10 @@
         <v>72</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>543</v>
+        <v>496</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6594,10 +6421,10 @@
         <v>72</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6605,10 +6432,10 @@
         <v>72</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C284" s="9">
-        <v>0.02</v>
+        <v>498</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6616,10 +6443,10 @@
         <v>72</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C285" s="9">
-        <v>0.9</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6627,10 +6454,10 @@
         <v>72</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C286" s="9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6638,10 +6465,10 @@
         <v>72</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C287" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6649,10 +6476,10 @@
         <v>72</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C288" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6660,10 +6487,10 @@
         <v>72</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C289" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6671,10 +6498,10 @@
         <v>72</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>109</v>
+        <v>504</v>
+      </c>
+      <c r="C290" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6682,10 +6509,10 @@
         <v>72</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C291" s="9">
-        <v>0.92969999999999997</v>
+        <v>108</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6693,10 +6520,10 @@
         <v>72</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C292" s="9">
-        <v>0.94969999999999999</v>
+        <v>0.92969999999999997</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6704,10 +6531,10 @@
         <v>72</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C293" s="9">
-        <v>0.98499999999999999</v>
+        <v>0.94969999999999999</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6715,21 +6542,21 @@
         <v>72</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>531</v>
+        <v>112</v>
       </c>
       <c r="C294" s="9">
-        <v>0.7</v>
+        <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>506</v>
+        <v>531</v>
+      </c>
+      <c r="C295" s="9">
+        <v>0.7</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6737,10 +6564,10 @@
         <v>73</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6748,21 +6575,21 @@
         <v>73</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>77</v>
+        <v>510</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6770,10 +6597,10 @@
         <v>74</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>513</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6781,21 +6608,21 @@
         <v>74</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>85</v>
+        <v>513</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>516</v>
+        <v>85</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6803,25 +6630,33 @@
         <v>75</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B304" t="s">
         <v>544</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C304" s="9" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B304"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B305"/>
@@ -7413,8 +7248,218 @@
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B501"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B502"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="9.3671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.20703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.62890625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83984375" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C1" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>589</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>590</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDA6101-DC2A-48F4-9114-89945936808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65337B38-6F92-4FEB-9348-1014593CB67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="-96" windowWidth="21372" windowHeight="13152" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="9606" yWindow="3936" windowWidth="2424" windowHeight="732" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
     <sheet name="Notepad" sheetId="1" r:id="rId2"/>
     <sheet name="All_Settings_Template" sheetId="2" r:id="rId3"/>
     <sheet name="Crops" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="609">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1751,9 +1752,6 @@
     <t>$(FILE_PATHS:PathMeteo)/ETRef_daily_Nira.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc</t>
-  </si>
-  <si>
     <t>modflowWaterLevel</t>
   </si>
   <si>
@@ -1775,9 +1773,6 @@
     <t xml:space="preserve"> 28/05/1990</t>
   </si>
   <si>
-    <t xml:space="preserve">cropKC[3], cropKC[1], currentKC[3], currentKC[1], sum_landCover, fracCrops[1], fracCrops[2], fracVegCover[0],  fracVegCover[1], fracVegCover[2], fracVegCover[3], </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 28/04/1996</t>
   </si>
   <si>
@@ -1787,38 +1782,95 @@
     <t xml:space="preserve"> $(PathLandcover)/Rice_30sec.tif</t>
   </si>
   <si>
-    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, sum_landCover, cropKC[3], cropKC[1], currentKC[3], currentKC[1], sum_landCover, fracCrops[1], fracCrops[2], fracVegCover[0],  fracVegCover[1], fracVegCover[2], fracVegCover[3]</t>
-  </si>
-  <si>
-    <t>Crop name</t>
-  </si>
-  <si>
     <t>Planting month</t>
   </si>
   <si>
-    <t>Growth Stage 1</t>
-  </si>
-  <si>
-    <t>Kc</t>
-  </si>
-  <si>
-    <t>Ky</t>
-  </si>
-  <si>
-    <t>GS 2</t>
-  </si>
-  <si>
-    <t>GS 3</t>
-  </si>
-  <si>
-    <t>GS 4</t>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, sum_landCover</t>
+  </si>
+  <si>
+    <t>Sugar 1</t>
+  </si>
+  <si>
+    <t>Sugar 2</t>
+  </si>
+  <si>
+    <t>Sugar 3</t>
+  </si>
+  <si>
+    <t>Sorghum</t>
+  </si>
+  <si>
+    <t>Adali</t>
+  </si>
+  <si>
+    <t>Groundnut</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Ratoon</t>
+  </si>
+  <si>
+    <t>80% is grown in Kharif</t>
+  </si>
+  <si>
+    <t>Maize</t>
+  </si>
+  <si>
+    <t>EM1</t>
+  </si>
+  <si>
+    <t>EM2</t>
+  </si>
+  <si>
+    <t>EM3</t>
+  </si>
+  <si>
+    <t>EM4</t>
+  </si>
+  <si>
+    <t>KC1</t>
+  </si>
+  <si>
+    <t>KC2</t>
+  </si>
+  <si>
+    <t>KC3</t>
+  </si>
+  <si>
+    <t>KC4</t>
+  </si>
+  <si>
+    <t>KY1</t>
+  </si>
+  <si>
+    <t>KY2</t>
+  </si>
+  <si>
+    <t>KY3</t>
+  </si>
+  <si>
+    <t>KY4</t>
+  </si>
+  <si>
+    <t>Notes: Ending Month (EM)</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Excel_settings_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathRoot)/CWatM_settings/cwatm_settings.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1903,13 +1955,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Abadi Extra Light"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1966,18 +2050,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00CC96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF15FFC2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2046,38 +2142,276 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2085,7 +2419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2204,23 +2538,56 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC96"/>
+      <color rgb="FF15FFC2"/>
+      <color rgb="FF00966F"/>
+      <color rgb="FF00A87C"/>
+      <color rgb="FF007A5A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2230,6 +2597,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>826770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8981CA1-6D6E-4B83-92FF-0E4D2CCF23B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="25604"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156210" y="664474"/>
+          <a:ext cx="670560" cy="714746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2532,7 +2953,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2560,11 +2981,11 @@
         <v>123</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E2" s="32"/>
     </row>
@@ -2584,7 +3005,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="33" t="s">
@@ -2592,7 +3013,7 @@
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2622,22 +3043,18 @@
         <v>544</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>579</v>
-      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="41" t="s">
         <v>517</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="32"/>
@@ -2824,16 +3241,16 @@
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="F25" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="G25" s="21" t="s">
         <v>575</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2922,14 +3339,23 @@
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="47"/>
+      <c r="A32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="C32" s="29"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="47"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>608</v>
+      </c>
       <c r="C33" s="29"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
@@ -3275,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4826,10 +5252,10 @@
         <v>60</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7259,207 +7685,921 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.3671875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.20703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.734375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.62890625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83984375" style="48"/>
+    <col min="1" max="1" width="13.3125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="11.3671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.05078125" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="3.68359375" style="49" customWidth="1"/>
+    <col min="8" max="15" width="4.1015625" style="49" customWidth="1"/>
+    <col min="16" max="16" width="3.68359375" style="49" customWidth="1"/>
+    <col min="17" max="17" width="38.20703125" style="49" customWidth="1"/>
+    <col min="18" max="16384" width="8.83984375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="52"/>
+      <c r="B1" s="74" t="s">
+        <v>606</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>596</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>597</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>600</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="O1" s="77" t="s">
+        <v>604</v>
+      </c>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="73" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57">
+        <v>3</v>
+      </c>
+      <c r="F2" s="57">
+        <v>9</v>
+      </c>
+      <c r="G2" s="58">
+        <v>11</v>
+      </c>
+      <c r="H2" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="K2" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M2" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N2" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="66">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="71" t="s">
         <v>587</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="50" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A3" s="53"/>
+      <c r="B3" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="59">
+        <v>6</v>
+      </c>
+      <c r="D3" s="60">
+        <v>2</v>
+      </c>
+      <c r="E3" s="61">
+        <v>5</v>
+      </c>
+      <c r="F3" s="61">
+        <v>14</v>
+      </c>
+      <c r="G3" s="62">
+        <v>17</v>
+      </c>
+      <c r="H3" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="K3" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N3" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="72"/>
+    </row>
+    <row r="4" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A4" s="53"/>
+      <c r="B4" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" s="59">
+        <v>10</v>
+      </c>
+      <c r="D4" s="60">
+        <v>1</v>
+      </c>
+      <c r="E4" s="61">
+        <v>4</v>
+      </c>
+      <c r="F4" s="61">
+        <v>12</v>
+      </c>
+      <c r="G4" s="62">
+        <v>15</v>
+      </c>
+      <c r="H4" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="K4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="72"/>
+    </row>
+    <row r="5" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A5" s="53"/>
+      <c r="B5" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="C5" s="59">
+        <v>1</v>
+      </c>
+      <c r="D5" s="60">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61">
+        <v>3</v>
+      </c>
+      <c r="F5" s="61">
+        <v>10</v>
+      </c>
+      <c r="G5" s="62">
+        <v>12</v>
+      </c>
+      <c r="H5" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="K5" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="72"/>
+    </row>
+    <row r="6" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A6" s="53"/>
+      <c r="B6" s="63" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="59">
+        <v>11</v>
+      </c>
+      <c r="D6" s="60">
+        <v>1</v>
+      </c>
+      <c r="E6" s="61">
+        <v>2</v>
+      </c>
+      <c r="F6" s="61">
+        <v>3</v>
+      </c>
+      <c r="G6" s="62">
+        <v>4</v>
+      </c>
+      <c r="H6" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="68">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J6" s="68">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K6" s="69">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="M6" s="68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N6" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="O6" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="72"/>
+    </row>
+    <row r="7" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A7" s="53"/>
+      <c r="B7" s="63" t="s">
         <v>588</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C7" s="59">
+        <v>6</v>
+      </c>
+      <c r="D7" s="60">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <v>2</v>
+      </c>
+      <c r="F7" s="61">
+        <v>4</v>
+      </c>
+      <c r="G7" s="62">
+        <v>5</v>
+      </c>
+      <c r="H7" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="I7" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="72" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A8" s="53"/>
+      <c r="B8" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>590</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>591</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>586</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>589</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>590</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="C8" s="59">
+        <v>11</v>
+      </c>
+      <c r="D8" s="60">
+        <v>1</v>
+      </c>
+      <c r="E8" s="61">
+        <v>2</v>
+      </c>
+      <c r="F8" s="61">
+        <v>4</v>
+      </c>
+      <c r="G8" s="62">
+        <v>5</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="M8" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="72"/>
+    </row>
+    <row r="9" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A9" s="53"/>
+      <c r="B9" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="59">
+        <v>11</v>
+      </c>
+      <c r="D9" s="60">
+        <v>1</v>
+      </c>
+      <c r="E9" s="61">
+        <v>2</v>
+      </c>
+      <c r="F9" s="61">
+        <v>4</v>
+      </c>
+      <c r="G9" s="62">
+        <v>5</v>
+      </c>
+      <c r="H9" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="I9" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="K9" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="69">
+        <v>0.2</v>
+      </c>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="72"/>
+    </row>
+    <row r="10" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="P10" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB740-2696-4061-9D1F-96ECA011A915}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.734375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="73" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="42">
+        <v>10</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="45">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="36">
+        <v>8.0484411999999994E-6</v>
+      </c>
+      <c r="E26" s="36">
+        <v>3.0484411999999999E-6</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G26" s="24">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="46">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F27" s="21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="47"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="47"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="47"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="47"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="47"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="47"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="47"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65337B38-6F92-4FEB-9348-1014593CB67D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417F54F8-1291-410C-A494-5100CB1ABF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9606" yWindow="3936" windowWidth="2424" windowHeight="732" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="868" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
-    <sheet name="Notepad" sheetId="1" r:id="rId2"/>
-    <sheet name="All_Settings_Template" sheetId="2" r:id="rId3"/>
-    <sheet name="Crops" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Crops" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Notepad" sheetId="1" r:id="rId4"/>
+    <sheet name="All_Settings_Template" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="653">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1788,21 +1790,9 @@
     <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, sum_landCover</t>
   </si>
   <si>
-    <t>Sugar 1</t>
-  </si>
-  <si>
-    <t>Sugar 2</t>
-  </si>
-  <si>
-    <t>Sugar 3</t>
-  </si>
-  <si>
     <t>Sorghum</t>
   </si>
   <si>
-    <t>Adali</t>
-  </si>
-  <si>
     <t>Groundnut</t>
   </si>
   <si>
@@ -1864,13 +1854,157 @@
   </si>
   <si>
     <t xml:space="preserve"> $(FILE_PATHS:PathRoot)/CWatM_settings/cwatm_settings.xlsx</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landcover/crops/sugar_max_frac.tif</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landcover/crops/Maize_30sec.tif</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landcover/crops/Sorghum_1km.tif</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landcover/crops/Groundnut_30sec.tif</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landcover/crops/Wheat_30sec.tif</t>
+  </si>
+  <si>
+    <t>Sugar1</t>
+  </si>
+  <si>
+    <t>Sugar2</t>
+  </si>
+  <si>
+    <t>Sugar3</t>
+  </si>
+  <si>
+    <t>GWex5_22052020</t>
+  </si>
+  <si>
+    <t>GW experiment</t>
+  </si>
+  <si>
+    <t>Porosity</t>
+  </si>
+  <si>
+    <t>Permeability</t>
+  </si>
+  <si>
+    <t>Not enough fluctuation potentially</t>
+  </si>
+  <si>
+    <t>, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28/04/1993</t>
+  </si>
+  <si>
+    <t>Lower limit: 0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lower limit: 1.00E-07 (perhaps not so small), trying 5.00E-07, Upper limit: 0.00001 (1.00E-05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2007 Maximum with ETRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> modflowtotalSoilThickness, swAbstractionFraction</t>
+  </si>
+  <si>
+    <t>$(PathWaterdemand)/swAbstractionFraction_output.nc</t>
+  </si>
+  <si>
+    <t>Adsali</t>
+  </si>
+  <si>
+    <t>Pre-seasonal</t>
+  </si>
+  <si>
+    <t>Suru</t>
+  </si>
+  <si>
+    <t>Growing length</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/areamaps/UB_mask.map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwstorage_cell, </t>
+  </si>
+  <si>
+    <t>modflowWaterLevel, fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7],  fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(PathGroundwaterModflow)/modflow_inputs/ModFlow_inputs500m_Bhima</t>
+  </si>
+  <si>
+    <t>75.895 17.4</t>
+  </si>
+  <si>
+    <t>modflowtotalSoilThickness, swAbstractionFraction</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>Nira</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/UB</t>
+  </si>
+  <si>
+    <t>modflow_steadyInit</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Nira_steady_April9_3.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28/04/2007</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/EWRef_daily.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/ETRef_daily.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/UB_20070428.nc</t>
+  </si>
+  <si>
+    <t>NIRA</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_NEW.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poro </t>
+  </si>
+  <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, EWRef, ETRef, gwstorage_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(PathGroundwaterModflow)/modflow_inputs/2_ModFlow_inputs500m_Bhima</t>
+  </si>
+  <si>
+    <t>75.12083 17.97083</t>
+  </si>
+  <si>
+    <t>75.12083 17.97083 75.0075 17.911389</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_3rdFill.hds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1992,8 +2126,34 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3644F8"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2072,8 +2232,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00966F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF636EFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2415,11 +2605,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2573,17 +2859,299 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="18" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="19" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00CC96"/>
+      <color rgb="FF3644F8"/>
+      <color rgb="FF636EFA"/>
+      <color rgb="FF6699FF"/>
       <color rgb="FF15FFC2"/>
       <color rgb="FF00966F"/>
+      <color rgb="FF00CC96"/>
       <color rgb="FF00A87C"/>
       <color rgb="FF007A5A"/>
     </mruColors>
@@ -2600,6 +3168,60 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>869632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047B9DA9-04B7-497E-8C8E-89A1F3E04025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="25604"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12049125" y="176213"/>
+          <a:ext cx="670560" cy="714746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2950,480 +3572,1254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62071E38-783F-4567-BA81-7A39AFFE25E7}">
-  <dimension ref="A1:G40"/>
+  <sheetPr>
+    <tabColor rgb="FF636EFA"/>
+  </sheetPr>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="1.734375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="73" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="21"/>
+    <col min="1" max="1" width="21" style="83" customWidth="1"/>
+    <col min="2" max="2" width="55.3125" style="90" customWidth="1"/>
+    <col min="3" max="3" width="4.5234375" style="91" customWidth="1"/>
+    <col min="4" max="4" width="44.5234375" style="116" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.1015625" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.20703125" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.578125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="9.15625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.89453125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="8.89453125" style="83" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83984375" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41" t="s">
+      <c r="C1" s="106"/>
+      <c r="D1" s="115" t="s">
+        <v>636</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>635</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="100"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="108" t="s">
+        <v>577</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>619</v>
+      </c>
+      <c r="G2" s="100"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="108" t="s">
         <v>578</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="41" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="42">
-        <v>3</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="108">
+        <v>35</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>622</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="104" t="s">
         <v>407</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="108">
+        <v>5</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="108" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="41" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="42" t="b">
+      <c r="F6" s="93" t="s">
+        <v>630</v>
+      </c>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="104" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>648</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>618</v>
+      </c>
+      <c r="G7" s="100"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>571</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>631</v>
+      </c>
+      <c r="G8" s="100"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="104" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="109"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="100"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="104" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="104" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="100"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="93" t="s">
+        <v>623</v>
+      </c>
+      <c r="G12" s="100"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="100"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="100"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="93"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>560</v>
+      </c>
+      <c r="F16" s="93"/>
+      <c r="G16" s="100"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="108" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="41" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="41" t="s">
-        <v>562</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="42" t="b">
+      <c r="D17" s="116" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="41" t="s">
+      <c r="F17" s="93"/>
+      <c r="G17" s="100"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="41" t="s">
+      <c r="F18" s="93"/>
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="41" t="s">
+      <c r="B19" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="93"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="108" t="s">
         <v>568</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="35" t="s">
-        <v>558</v>
-      </c>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="41" t="s">
+      <c r="D20" s="108" t="s">
+        <v>568</v>
+      </c>
+      <c r="E20" s="108" t="s">
+        <v>643</v>
+      </c>
+      <c r="F20" s="108" t="s">
+        <v>568</v>
+      </c>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="42" t="b">
+      <c r="B21" s="108" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="41" t="s">
+      <c r="F21" s="93"/>
+      <c r="G21" s="100"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>559</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="41" t="s">
+      <c r="B22" s="108" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>636</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>635</v>
+      </c>
+      <c r="F22" s="93"/>
+      <c r="G22" s="100"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="44" t="s">
+      <c r="B23" s="108" t="s">
+        <v>640</v>
+      </c>
+      <c r="F23" s="93"/>
+      <c r="G23" s="100"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="104" t="s">
         <v>390</v>
       </c>
-      <c r="B24" s="42" t="b">
+      <c r="B24" s="108" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="44" t="s">
+      <c r="F24" s="93"/>
+      <c r="G24" s="100"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="104" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="45">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="36">
-        <v>8.0484411999999994E-6</v>
-      </c>
-      <c r="E26" s="36">
-        <v>3.0484411999999999E-6</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G26" s="24">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="B27" s="46">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="37">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F27" s="21">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="44" t="s">
+      <c r="B25" s="108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="122" t="s">
+        <v>644</v>
+      </c>
+      <c r="F25" s="93"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="98"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="44" t="s">
+      <c r="B26" s="108" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="G26" s="101"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7" t="s">
+      <c r="B27" s="108" t="s">
+        <v>642</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="93" t="s">
+        <v>620</v>
+      </c>
+      <c r="G27" s="102"/>
+      <c r="H27" s="98"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B28" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7" t="s">
+      <c r="F28" s="93">
+        <f>0.00003*24*60*60</f>
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B29" s="108" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
+      <c r="F29" s="93"/>
+      <c r="G29" s="100"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B30" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="47" t="s">
+      <c r="F30" s="93"/>
+      <c r="G30" s="100"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="103" t="s">
+        <v>603</v>
+      </c>
+      <c r="B31" s="108" t="s">
+        <v>604</v>
+      </c>
+      <c r="F31" s="93"/>
+      <c r="G31" s="100"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="103" t="s">
+        <v>586</v>
+      </c>
+      <c r="B32" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="F32" s="93"/>
+      <c r="G32" s="100"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="103" t="s">
+        <v>610</v>
+      </c>
+      <c r="B33" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="100"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="103" t="s">
+        <v>611</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="F34" s="93"/>
+      <c r="G34" s="100"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="103" t="s">
+        <v>612</v>
+      </c>
+      <c r="B35" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="F35" s="93"/>
+      <c r="G35" s="100"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="103" t="s">
+        <v>583</v>
+      </c>
+      <c r="B36" s="108" t="s">
         <v>607</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="F36" s="93"/>
+      <c r="G36" s="100"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="103" t="s">
+        <v>584</v>
+      </c>
+      <c r="B37" s="108" t="s">
         <v>608</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="47"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="47"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="47"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="47"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="47"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="47"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="47"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="100"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="103" t="s">
+        <v>585</v>
+      </c>
+      <c r="B38" s="108" t="s">
+        <v>609</v>
+      </c>
+      <c r="F38" s="93"/>
+      <c r="G38" s="100"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.7" thickBot="1">
+      <c r="A39" s="103" t="s">
+        <v>588</v>
+      </c>
+      <c r="B39" s="111" t="s">
+        <v>606</v>
+      </c>
+      <c r="F39" s="93"/>
+      <c r="G39" s="100"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="120" t="s">
+        <v>650</v>
+      </c>
+      <c r="D42" s="116" t="s">
+        <v>651</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="83" t="s">
+        <v>638</v>
+      </c>
+      <c r="B44" s="116" t="s">
+        <v>652</v>
+      </c>
+      <c r="D44" s="116" t="s">
+        <v>639</v>
+      </c>
+      <c r="E44" s="90" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B45" s="9">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
+    <cfRule type="notContainsErrors" dxfId="24" priority="44">
+      <formula>NOT(ISERROR(B5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="notContainsErrors" dxfId="23" priority="42">
+      <formula>NOT(ISERROR(F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="notContainsErrors" dxfId="22" priority="40">
+      <formula>NOT(ISERROR(F2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="notContainsErrors" dxfId="21" priority="39">
+      <formula>NOT(ISERROR(F3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="notContainsErrors" dxfId="16" priority="12">
+      <formula>NOT(ISERROR(B23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="notContainsErrors" dxfId="10" priority="11">
+      <formula>NOT(ISERROR(F20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="7" priority="8">
+      <formula>NOT(ISERROR(B4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="notContainsErrors" dxfId="4" priority="5">
+      <formula>NOT(ISERROR(B2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="notContainsErrors" dxfId="3" priority="4">
+      <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="notContainsErrors" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(E20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
+      <formula>NOT(ISERROR(D20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(B20))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
+  <sheetPr>
+    <tabColor rgb="FF15FFC2"/>
+  </sheetPr>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.3"/>
+  <cols>
+    <col min="1" max="1" width="13.3125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.3671875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05078125" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3.68359375" style="49" customWidth="1"/>
+    <col min="9" max="16" width="4.1015625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="7.68359375" style="49" customWidth="1"/>
+    <col min="18" max="18" width="38.20703125" style="49" customWidth="1"/>
+    <col min="19" max="16384" width="8.83984375" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A1" s="52"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="74" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>591</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>592</v>
+      </c>
+      <c r="I1" s="78" t="s">
+        <v>593</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>596</v>
+      </c>
+      <c r="M1" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>599</v>
+      </c>
+      <c r="P1" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="73" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="12.9">
+      <c r="A2" s="53"/>
+      <c r="B2" s="114">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="55">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56">
+        <v>1</v>
+      </c>
+      <c r="F2" s="57">
+        <v>3</v>
+      </c>
+      <c r="G2" s="57">
+        <v>9</v>
+      </c>
+      <c r="H2" s="58">
+        <v>11</v>
+      </c>
+      <c r="I2" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="L2" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M2" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N2" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="1:18" ht="12.9">
+      <c r="A3" s="53"/>
+      <c r="B3" s="114">
+        <v>1</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="59">
+        <v>7</v>
+      </c>
+      <c r="E3" s="60">
+        <v>2</v>
+      </c>
+      <c r="F3" s="61">
+        <v>5</v>
+      </c>
+      <c r="G3" s="61">
+        <v>14</v>
+      </c>
+      <c r="H3" s="62">
+        <v>17</v>
+      </c>
+      <c r="I3" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="L3" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N3" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="72" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.9">
+      <c r="A4" s="53"/>
+      <c r="B4" s="114">
+        <v>2</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="59">
+        <v>10</v>
+      </c>
+      <c r="E4" s="60">
+        <v>1</v>
+      </c>
+      <c r="F4" s="61">
+        <v>4</v>
+      </c>
+      <c r="G4" s="61">
+        <v>12</v>
+      </c>
+      <c r="H4" s="62">
+        <v>15</v>
+      </c>
+      <c r="I4" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="L4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="O4" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="72" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.9">
+      <c r="A5" s="53"/>
+      <c r="B5" s="114">
+        <v>3</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1</v>
+      </c>
+      <c r="E5" s="60">
+        <v>1</v>
+      </c>
+      <c r="F5" s="61">
+        <v>3</v>
+      </c>
+      <c r="G5" s="61">
+        <v>10</v>
+      </c>
+      <c r="H5" s="62">
+        <v>12</v>
+      </c>
+      <c r="I5" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="65">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="80">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="72" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.9">
+      <c r="A6" s="53"/>
+      <c r="B6" s="114">
+        <v>4</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>583</v>
+      </c>
+      <c r="D6" s="59">
+        <v>11</v>
+      </c>
+      <c r="E6" s="60">
+        <v>1</v>
+      </c>
+      <c r="F6" s="61">
+        <v>2</v>
+      </c>
+      <c r="G6" s="61">
+        <v>3</v>
+      </c>
+      <c r="H6" s="62">
+        <v>4</v>
+      </c>
+      <c r="I6" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="J6" s="68">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K6" s="68">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L6" s="69">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M6" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O6" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="P6" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="72"/>
+    </row>
+    <row r="7" spans="1:18" ht="12.9">
+      <c r="A7" s="53"/>
+      <c r="B7" s="114">
+        <v>5</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" s="59">
+        <v>6</v>
+      </c>
+      <c r="E7" s="60">
+        <v>1</v>
+      </c>
+      <c r="F7" s="61">
+        <v>2</v>
+      </c>
+      <c r="G7" s="61">
+        <v>4</v>
+      </c>
+      <c r="H7" s="62">
+        <v>5</v>
+      </c>
+      <c r="I7" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="J7" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="M7" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="O7" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="P7" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="72" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.9">
+      <c r="A8" s="53"/>
+      <c r="B8" s="114">
+        <v>6</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="D8" s="59">
+        <v>11</v>
+      </c>
+      <c r="E8" s="60">
+        <v>1</v>
+      </c>
+      <c r="F8" s="61">
+        <v>2</v>
+      </c>
+      <c r="G8" s="61">
+        <v>4</v>
+      </c>
+      <c r="H8" s="62">
+        <v>5</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="L8" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="O8" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="P8" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="72"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.9">
+      <c r="A9" s="53"/>
+      <c r="B9" s="114">
+        <v>7</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9" s="59">
+        <v>11</v>
+      </c>
+      <c r="E9" s="60">
+        <v>1</v>
+      </c>
+      <c r="F9" s="61">
+        <v>2</v>
+      </c>
+      <c r="G9" s="61">
+        <v>4</v>
+      </c>
+      <c r="H9" s="62">
+        <v>5</v>
+      </c>
+      <c r="I9" s="67">
+        <v>0.45</v>
+      </c>
+      <c r="J9" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="L9" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="70">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="72"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.9">
+      <c r="Q10" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DE2398-4D66-4F9C-BA4E-2DE4F9D6B687}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="B1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="13.05078125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1015625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.7" thickBot="1">
+      <c r="A1" s="113"/>
+      <c r="B1" s="74" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="114">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="59">
+        <v>7</v>
+      </c>
+      <c r="D2" s="62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="114">
+        <v>2</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>611</v>
+      </c>
+      <c r="C3" s="59">
+        <v>10</v>
+      </c>
+      <c r="D3" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="114">
+        <v>3</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="59">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="114">
+        <v>4</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="59">
+        <v>11</v>
+      </c>
+      <c r="D5" s="62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="114">
+        <v>5</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" s="59">
+        <v>6</v>
+      </c>
+      <c r="D6" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="114">
+        <v>6</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="59">
+        <v>11</v>
+      </c>
+      <c r="D7" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="114">
+        <v>7</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>588</v>
+      </c>
+      <c r="C8" s="59">
+        <v>11</v>
+      </c>
+      <c r="D8" s="62">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.15625" style="2" bestFit="1" customWidth="1"/>
@@ -3432,7 +4828,7 @@
     <col min="5" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3446,7 +4842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +4856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3474,7 +4870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3488,7 +4884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3502,7 +4898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +4912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3530,7 +4926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3544,7 +4940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -3558,7 +4954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +4968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -3586,7 +4982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -3600,7 +4996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -3611,7 +5007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3622,7 +5018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -3633,7 +5029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3641,7 +5037,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -3652,17 +5048,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" ht="14.4">
       <c r="A22" s="7" t="s">
         <v>544</v>
       </c>
@@ -3670,12 +5066,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5">
       <c r="B23" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="14.4">
       <c r="A25" s="2" t="s">
         <v>554</v>
       </c>
@@ -3683,12 +5079,164 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" ht="14.4">
       <c r="A29" s="2" t="s">
         <v>556</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4">
+      <c r="A32" s="93" t="s">
+        <v>572</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>573</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.4">
+      <c r="A33" s="94">
+        <v>8.0484411999999994E-6</v>
+      </c>
+      <c r="B33" s="85">
+        <v>3.0484411999999999E-6</v>
+      </c>
+      <c r="C33" s="86">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D33" s="87">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E33" s="88">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4">
+      <c r="A34" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="B34" s="89">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C34" s="84">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D34" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="E34" s="83">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="88">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C41" s="84">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42" s="88">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C42" s="83">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="88">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.4">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="88">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="112">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="112">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3697,15 +5245,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.83984375" style="8" bestFit="1" customWidth="1"/>
@@ -3716,7 +5264,7 @@
     <col min="7" max="7" width="16.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>519</v>
       </c>
@@ -3739,7 +5287,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
@@ -3750,7 +5298,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
@@ -3761,7 +5309,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -3772,7 +5320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" s="17" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -3786,7 +5334,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -3797,7 +5345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -3808,7 +5356,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
@@ -3819,7 +5367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -3830,7 +5378,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -3841,7 +5389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -3852,7 +5400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -3863,7 +5411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -3874,7 +5422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -3885,7 +5433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -3896,7 +5444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -3907,7 +5455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -3918,7 +5466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -3929,7 +5477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -3940,7 +5488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -3951,7 +5499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -3962,7 +5510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -3973,7 +5521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -3984,7 +5532,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -3998,7 +5546,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -4012,7 +5560,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
@@ -4026,7 +5574,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>46</v>
       </c>
@@ -4037,7 +5585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" s="8" customFormat="1">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -4048,7 +5596,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
@@ -4059,7 +5607,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -4070,7 +5618,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
@@ -4081,7 +5629,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
@@ -4092,7 +5640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -4103,7 +5651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
@@ -4114,7 +5662,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
         <v>48</v>
       </c>
@@ -4125,7 +5673,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
@@ -4136,7 +5684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -4147,7 +5695,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -4158,7 +5706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -4169,7 +5717,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
@@ -4180,7 +5728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
@@ -4191,7 +5739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3">
       <c r="A42" s="7" t="s">
         <v>51</v>
       </c>
@@ -4202,7 +5750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
         <v>51</v>
       </c>
@@ -4213,7 +5761,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -4224,7 +5772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
@@ -4235,7 +5783,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -4246,7 +5794,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3">
       <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
@@ -4257,7 +5805,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -4268,7 +5816,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -4279,7 +5827,7 @@
         <v>1.6724858092486401</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
@@ -4290,7 +5838,7 @@
         <v>1.4522320737216501</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -4301,7 +5849,7 @@
         <v>3.9792416752925099</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
@@ -4312,7 +5860,7 @@
         <v>0.172979234117665</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3">
       <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
@@ -4323,7 +5871,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3">
       <c r="A54" s="7" t="s">
         <v>52</v>
       </c>
@@ -4334,7 +5882,7 @@
         <v>5.08489365888276</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -4345,7 +5893,7 @@
         <v>2.3669378692197398</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -4356,7 +5904,7 @@
         <v>4.4825774640604799</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3">
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
@@ -4367,7 +5915,7 @@
         <v>0.645563228322237</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -4378,7 +5926,7 @@
         <v>1.8965519432548701</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -4389,7 +5937,7 @@
         <v>1.66966067574903</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -4400,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3">
       <c r="A61" s="7" t="s">
         <v>52</v>
       </c>
@@ -4411,7 +5959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3">
       <c r="A62" s="7" t="s">
         <v>53</v>
       </c>
@@ -4422,7 +5970,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" s="17" customFormat="1">
       <c r="A63" s="15" t="s">
         <v>53</v>
       </c>
@@ -4433,7 +5981,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" s="17" customFormat="1">
       <c r="A64" s="15" t="s">
         <v>53</v>
       </c>
@@ -4444,7 +5992,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3">
       <c r="A65" s="7" t="s">
         <v>53</v>
       </c>
@@ -4455,7 +6003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3">
       <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
@@ -4466,7 +6014,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3">
       <c r="A67" s="7" t="s">
         <v>53</v>
       </c>
@@ -4477,7 +6025,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
@@ -4488,7 +6036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3">
       <c r="A69" s="7" t="s">
         <v>54</v>
       </c>
@@ -4499,7 +6047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3">
       <c r="A70" s="7" t="s">
         <v>54</v>
       </c>
@@ -4510,7 +6058,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3">
       <c r="A71" s="7" t="s">
         <v>54</v>
       </c>
@@ -4521,7 +6069,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3">
       <c r="A72" s="7" t="s">
         <v>54</v>
       </c>
@@ -4532,7 +6080,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3">
       <c r="A73" s="7" t="s">
         <v>54</v>
       </c>
@@ -4543,7 +6091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3">
       <c r="A74" s="7" t="s">
         <v>54</v>
       </c>
@@ -4554,7 +6102,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3">
       <c r="A75" s="7" t="s">
         <v>54</v>
       </c>
@@ -4565,7 +6113,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3">
       <c r="A76" s="7" t="s">
         <v>54</v>
       </c>
@@ -4576,7 +6124,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3">
       <c r="A77" s="7" t="s">
         <v>54</v>
       </c>
@@ -4587,7 +6135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3">
       <c r="A78" s="7" t="s">
         <v>54</v>
       </c>
@@ -4598,7 +6146,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3">
       <c r="A79" s="7" t="s">
         <v>54</v>
       </c>
@@ -4609,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3">
       <c r="A80" s="7" t="s">
         <v>55</v>
       </c>
@@ -4620,7 +6168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3">
       <c r="A81" s="7" t="s">
         <v>55</v>
       </c>
@@ -4631,7 +6179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3">
       <c r="A82" s="7" t="s">
         <v>55</v>
       </c>
@@ -4642,7 +6190,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3">
       <c r="A83" s="7" t="s">
         <v>55</v>
       </c>
@@ -4653,7 +6201,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3">
       <c r="A84" s="7" t="s">
         <v>55</v>
       </c>
@@ -4664,7 +6212,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
         <v>55</v>
       </c>
@@ -4675,7 +6223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3">
       <c r="A86" s="7" t="s">
         <v>55</v>
       </c>
@@ -4686,7 +6234,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3">
       <c r="A87" s="7" t="s">
         <v>55</v>
       </c>
@@ -4697,7 +6245,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3">
       <c r="A88" s="7" t="s">
         <v>55</v>
       </c>
@@ -4708,7 +6256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
         <v>55</v>
       </c>
@@ -4719,7 +6267,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>55</v>
       </c>
@@ -4730,7 +6278,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>55</v>
       </c>
@@ -4741,7 +6289,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>55</v>
       </c>
@@ -4752,7 +6300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>56</v>
       </c>
@@ -4763,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>56</v>
       </c>
@@ -4774,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>56</v>
       </c>
@@ -4785,7 +6333,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>56</v>
       </c>
@@ -4796,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>56</v>
       </c>
@@ -4807,7 +6355,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>56</v>
       </c>
@@ -4818,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>56</v>
       </c>
@@ -4829,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>56</v>
       </c>
@@ -4840,7 +6388,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>57</v>
       </c>
@@ -4851,7 +6399,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>57</v>
       </c>
@@ -4862,7 +6410,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>57</v>
       </c>
@@ -4873,7 +6421,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>57</v>
       </c>
@@ -4884,7 +6432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>58</v>
       </c>
@@ -4895,7 +6443,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>59</v>
       </c>
@@ -4906,7 +6454,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>59</v>
       </c>
@@ -4917,7 +6465,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3">
       <c r="A108" s="7" t="s">
         <v>59</v>
       </c>
@@ -4928,7 +6476,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>59</v>
       </c>
@@ -4939,7 +6487,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>59</v>
       </c>
@@ -4950,7 +6498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>59</v>
       </c>
@@ -4961,7 +6509,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>59</v>
       </c>
@@ -4972,7 +6520,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>59</v>
       </c>
@@ -4983,7 +6531,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3">
       <c r="A114" s="7" t="s">
         <v>59</v>
       </c>
@@ -4994,7 +6542,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3">
       <c r="A115" s="7" t="s">
         <v>59</v>
       </c>
@@ -5005,7 +6553,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3">
       <c r="A116" s="7" t="s">
         <v>59</v>
       </c>
@@ -5016,7 +6564,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3">
       <c r="A117" s="7" t="s">
         <v>59</v>
       </c>
@@ -5027,7 +6575,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3">
       <c r="A118" s="7" t="s">
         <v>59</v>
       </c>
@@ -5038,7 +6586,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3">
       <c r="A119" s="7" t="s">
         <v>59</v>
       </c>
@@ -5049,7 +6597,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3">
       <c r="A120" s="7" t="s">
         <v>59</v>
       </c>
@@ -5060,7 +6608,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3">
       <c r="A121" s="7" t="s">
         <v>59</v>
       </c>
@@ -5071,7 +6619,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3">
       <c r="A122" s="7" t="s">
         <v>59</v>
       </c>
@@ -5082,7 +6630,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3">
       <c r="A123" s="7" t="s">
         <v>59</v>
       </c>
@@ -5093,7 +6641,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3">
       <c r="A124" s="7" t="s">
         <v>59</v>
       </c>
@@ -5104,7 +6652,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>59</v>
       </c>
@@ -5115,7 +6663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3">
       <c r="A126" s="7" t="s">
         <v>59</v>
       </c>
@@ -5126,7 +6674,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3">
       <c r="A127" s="7" t="s">
         <v>59</v>
       </c>
@@ -5137,7 +6685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3">
       <c r="A128" s="7" t="s">
         <v>59</v>
       </c>
@@ -5148,7 +6696,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3">
       <c r="A129" s="7" t="s">
         <v>59</v>
       </c>
@@ -5159,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3">
       <c r="A130" s="7" t="s">
         <v>59</v>
       </c>
@@ -5170,7 +6718,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3">
       <c r="A131" s="7" t="s">
         <v>59</v>
       </c>
@@ -5181,7 +6729,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3">
       <c r="A132" s="7" t="s">
         <v>60</v>
       </c>
@@ -5192,7 +6740,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3">
       <c r="A133" s="7" t="s">
         <v>60</v>
       </c>
@@ -5203,7 +6751,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3">
       <c r="A134" s="7" t="s">
         <v>60</v>
       </c>
@@ -5214,7 +6762,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:3">
       <c r="A135" s="7" t="s">
         <v>60</v>
       </c>
@@ -5225,7 +6773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3">
       <c r="A136" s="7" t="s">
         <v>60</v>
       </c>
@@ -5236,7 +6784,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:3">
       <c r="A137" s="7" t="s">
         <v>60</v>
       </c>
@@ -5247,7 +6795,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:3">
       <c r="A138" s="7" t="s">
         <v>60</v>
       </c>
@@ -5258,7 +6806,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:3">
       <c r="A139" s="7" t="s">
         <v>60</v>
       </c>
@@ -5269,7 +6817,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:3">
       <c r="A140" s="7" t="s">
         <v>60</v>
       </c>
@@ -5280,7 +6828,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:3">
       <c r="A141" s="7" t="s">
         <v>60</v>
       </c>
@@ -5291,7 +6839,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:3">
       <c r="A142" s="7" t="s">
         <v>60</v>
       </c>
@@ -5302,7 +6850,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:3">
       <c r="A143" s="7" t="s">
         <v>60</v>
       </c>
@@ -5313,7 +6861,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>60</v>
       </c>
@@ -5324,7 +6872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:3">
       <c r="A145" s="7" t="s">
         <v>60</v>
       </c>
@@ -5335,7 +6883,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:3">
       <c r="A146" s="7" t="s">
         <v>61</v>
       </c>
@@ -5346,7 +6894,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:3">
       <c r="A147" s="7" t="s">
         <v>61</v>
       </c>
@@ -5357,7 +6905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:3">
       <c r="A148" s="7" t="s">
         <v>61</v>
       </c>
@@ -5368,7 +6916,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:3">
       <c r="A149" s="7" t="s">
         <v>61</v>
       </c>
@@ -5379,7 +6927,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:3">
       <c r="A150" s="7" t="s">
         <v>61</v>
       </c>
@@ -5390,7 +6938,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:3">
       <c r="A151" s="7" t="s">
         <v>61</v>
       </c>
@@ -5401,7 +6949,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:3">
       <c r="A152" s="7" t="s">
         <v>61</v>
       </c>
@@ -5412,7 +6960,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:3">
       <c r="A153" s="7" t="s">
         <v>61</v>
       </c>
@@ -5423,7 +6971,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:3">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5434,7 +6982,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:3">
       <c r="A155" s="7" t="s">
         <v>61</v>
       </c>
@@ -5445,7 +6993,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:3">
       <c r="A156" s="7" t="s">
         <v>61</v>
       </c>
@@ -5456,7 +7004,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:3">
       <c r="A157" s="7" t="s">
         <v>61</v>
       </c>
@@ -5467,7 +7015,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:3">
       <c r="A158" s="7" t="s">
         <v>61</v>
       </c>
@@ -5478,7 +7026,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:3">
       <c r="A159" s="7" t="s">
         <v>61</v>
       </c>
@@ -5489,7 +7037,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:3">
       <c r="A160" s="7" t="s">
         <v>61</v>
       </c>
@@ -5500,7 +7048,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3">
       <c r="A161" s="7" t="s">
         <v>61</v>
       </c>
@@ -5511,7 +7059,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3">
       <c r="A162" s="7" t="s">
         <v>61</v>
       </c>
@@ -5522,7 +7070,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3">
       <c r="A163" s="7" t="s">
         <v>61</v>
       </c>
@@ -5533,7 +7081,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3">
       <c r="A164" s="7" t="s">
         <v>61</v>
       </c>
@@ -5544,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3">
       <c r="A165" s="7" t="s">
         <v>61</v>
       </c>
@@ -5555,7 +7103,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3">
       <c r="A166" s="7" t="s">
         <v>61</v>
       </c>
@@ -5566,7 +7114,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3">
       <c r="A167" s="7" t="s">
         <v>61</v>
       </c>
@@ -5577,7 +7125,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3">
       <c r="A168" s="7" t="s">
         <v>61</v>
       </c>
@@ -5588,7 +7136,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3">
       <c r="A169" s="7" t="s">
         <v>61</v>
       </c>
@@ -5599,7 +7147,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3">
       <c r="A170" s="7" t="s">
         <v>62</v>
       </c>
@@ -5610,7 +7158,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3">
       <c r="A171" s="7" t="s">
         <v>62</v>
       </c>
@@ -5621,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3">
       <c r="A172" s="7" t="s">
         <v>62</v>
       </c>
@@ -5632,7 +7180,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:3">
       <c r="A173" s="7" t="s">
         <v>62</v>
       </c>
@@ -5643,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3">
       <c r="A174" s="7" t="s">
         <v>62</v>
       </c>
@@ -5654,7 +7202,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3">
       <c r="A175" s="7" t="s">
         <v>62</v>
       </c>
@@ -5665,7 +7213,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3">
       <c r="A176" s="7" t="s">
         <v>62</v>
       </c>
@@ -5676,7 +7224,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:3">
       <c r="A177" s="7" t="s">
         <v>62</v>
       </c>
@@ -5687,7 +7235,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:3">
       <c r="A178" s="7" t="s">
         <v>62</v>
       </c>
@@ -5698,7 +7246,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:3">
       <c r="A179" s="7" t="s">
         <v>63</v>
       </c>
@@ -5709,7 +7257,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:3">
       <c r="A180" s="7" t="s">
         <v>63</v>
       </c>
@@ -5720,7 +7268,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:3">
       <c r="A181" s="7" t="s">
         <v>63</v>
       </c>
@@ -5731,7 +7279,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:3">
       <c r="A182" s="7" t="s">
         <v>63</v>
       </c>
@@ -5742,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:3">
       <c r="A183" s="7" t="s">
         <v>63</v>
       </c>
@@ -5753,7 +7301,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:3">
       <c r="A184" s="7" t="s">
         <v>63</v>
       </c>
@@ -5764,7 +7312,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:3">
       <c r="A185" s="7" t="s">
         <v>63</v>
       </c>
@@ -5775,7 +7323,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:3">
       <c r="A186" s="7" t="s">
         <v>63</v>
       </c>
@@ -5786,7 +7334,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:3">
       <c r="A187" s="7" t="s">
         <v>63</v>
       </c>
@@ -5797,7 +7345,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:3">
       <c r="A188" s="7" t="s">
         <v>64</v>
       </c>
@@ -5808,7 +7356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:3">
       <c r="A189" s="7" t="s">
         <v>64</v>
       </c>
@@ -5819,7 +7367,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:3">
       <c r="A190" s="7" t="s">
         <v>64</v>
       </c>
@@ -5830,7 +7378,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:3">
       <c r="A191" s="7" t="s">
         <v>64</v>
       </c>
@@ -5841,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:3">
       <c r="A192" s="7" t="s">
         <v>64</v>
       </c>
@@ -5852,7 +7400,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:3">
       <c r="A193" s="7" t="s">
         <v>64</v>
       </c>
@@ -5863,7 +7411,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:3">
       <c r="A194" s="7" t="s">
         <v>64</v>
       </c>
@@ -5874,7 +7422,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:3">
       <c r="A195" s="7" t="s">
         <v>64</v>
       </c>
@@ -5885,7 +7433,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:3">
       <c r="A196" s="7" t="s">
         <v>65</v>
       </c>
@@ -5896,7 +7444,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:3">
       <c r="A197" s="7" t="s">
         <v>66</v>
       </c>
@@ -5907,7 +7455,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:3">
       <c r="A198" s="7" t="s">
         <v>66</v>
       </c>
@@ -5918,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:3">
       <c r="A199" s="7" t="s">
         <v>67</v>
       </c>
@@ -5929,7 +7477,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:3">
       <c r="A200" s="7" t="s">
         <v>67</v>
       </c>
@@ -5940,7 +7488,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:3">
       <c r="A201" s="7" t="s">
         <v>67</v>
       </c>
@@ -5951,7 +7499,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
         <v>67</v>
       </c>
@@ -5962,7 +7510,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:3">
       <c r="A203" s="7" t="s">
         <v>68</v>
       </c>
@@ -5973,7 +7521,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:3">
       <c r="A204" s="7" t="s">
         <v>68</v>
       </c>
@@ -5984,7 +7532,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:3">
       <c r="A205" s="7" t="s">
         <v>68</v>
       </c>
@@ -5995,7 +7543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:3">
       <c r="A206" s="7" t="s">
         <v>68</v>
       </c>
@@ -6006,7 +7554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:3">
       <c r="A207" s="7" t="s">
         <v>68</v>
       </c>
@@ -6017,7 +7565,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:3">
       <c r="A208" s="7" t="s">
         <v>68</v>
       </c>
@@ -6028,7 +7576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:3">
       <c r="A209" s="7" t="s">
         <v>68</v>
       </c>
@@ -6039,7 +7587,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:3">
       <c r="A210" s="7" t="s">
         <v>68</v>
       </c>
@@ -6050,7 +7598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:3">
       <c r="A211" s="7" t="s">
         <v>68</v>
       </c>
@@ -6061,7 +7609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:3">
       <c r="A212" s="7" t="s">
         <v>68</v>
       </c>
@@ -6072,7 +7620,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:3">
       <c r="A213" s="7" t="s">
         <v>68</v>
       </c>
@@ -6083,7 +7631,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:3">
       <c r="A214" s="7" t="s">
         <v>68</v>
       </c>
@@ -6094,7 +7642,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:3">
       <c r="A215" s="7" t="s">
         <v>68</v>
       </c>
@@ -6105,7 +7653,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:3">
       <c r="A216" s="7" t="s">
         <v>68</v>
       </c>
@@ -6116,7 +7664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:3">
       <c r="A217" s="7" t="s">
         <v>68</v>
       </c>
@@ -6127,7 +7675,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:3">
       <c r="A218" s="7" t="s">
         <v>68</v>
       </c>
@@ -6138,7 +7686,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:3">
       <c r="A219" s="7" t="s">
         <v>68</v>
       </c>
@@ -6149,7 +7697,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:3">
       <c r="A220" s="7" t="s">
         <v>68</v>
       </c>
@@ -6160,7 +7708,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:3">
       <c r="A221" s="7" t="s">
         <v>68</v>
       </c>
@@ -6171,7 +7719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:3">
       <c r="A222" s="7" t="s">
         <v>68</v>
       </c>
@@ -6182,7 +7730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:3">
       <c r="A223" s="7" t="s">
         <v>68</v>
       </c>
@@ -6193,7 +7741,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:3">
       <c r="A224" s="7" t="s">
         <v>68</v>
       </c>
@@ -6204,7 +7752,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:3">
       <c r="A225" s="7" t="s">
         <v>68</v>
       </c>
@@ -6215,7 +7763,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:3">
       <c r="A226" s="7" t="s">
         <v>68</v>
       </c>
@@ -6226,7 +7774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:3">
       <c r="A227" s="7" t="s">
         <v>68</v>
       </c>
@@ -6237,7 +7785,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:3">
       <c r="A228" s="7" t="s">
         <v>68</v>
       </c>
@@ -6248,7 +7796,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:3">
       <c r="A229" s="7" t="s">
         <v>68</v>
       </c>
@@ -6259,7 +7807,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:3">
       <c r="A230" s="7" t="s">
         <v>69</v>
       </c>
@@ -6270,7 +7818,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:3" s="8" customFormat="1">
       <c r="A231" s="7" t="s">
         <v>69</v>
       </c>
@@ -6281,7 +7829,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:3">
       <c r="A232" s="7" t="s">
         <v>69</v>
       </c>
@@ -6292,7 +7840,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:3">
       <c r="A233" s="7" t="s">
         <v>69</v>
       </c>
@@ -6303,7 +7851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:3">
       <c r="A234" s="7" t="s">
         <v>69</v>
       </c>
@@ -6314,7 +7862,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:3">
       <c r="A235" s="7" t="s">
         <v>69</v>
       </c>
@@ -6325,7 +7873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:3">
       <c r="A236" s="7" t="s">
         <v>69</v>
       </c>
@@ -6336,7 +7884,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:3">
       <c r="A237" s="7" t="s">
         <v>69</v>
       </c>
@@ -6347,7 +7895,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:3">
       <c r="A238" s="7" t="s">
         <v>69</v>
       </c>
@@ -6358,7 +7906,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:3">
       <c r="A239" s="7" t="s">
         <v>69</v>
       </c>
@@ -6369,7 +7917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:3">
       <c r="A240" s="7" t="s">
         <v>69</v>
       </c>
@@ -6380,7 +7928,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:3">
       <c r="A241" s="7" t="s">
         <v>69</v>
       </c>
@@ -6391,7 +7939,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:3">
       <c r="A242" s="7" t="s">
         <v>69</v>
       </c>
@@ -6402,7 +7950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:3">
       <c r="A243" s="7" t="s">
         <v>69</v>
       </c>
@@ -6413,7 +7961,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:3">
       <c r="A244" s="7" t="s">
         <v>69</v>
       </c>
@@ -6424,7 +7972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:3">
       <c r="A245" s="7" t="s">
         <v>69</v>
       </c>
@@ -6435,7 +7983,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:3">
       <c r="A246" s="7" t="s">
         <v>69</v>
       </c>
@@ -6446,7 +7994,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:3">
       <c r="A247" s="7" t="s">
         <v>69</v>
       </c>
@@ -6457,7 +8005,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:3">
       <c r="A248" s="7" t="s">
         <v>69</v>
       </c>
@@ -6468,7 +8016,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:3">
       <c r="A249" s="7" t="s">
         <v>69</v>
       </c>
@@ -6479,7 +8027,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:3">
       <c r="A250" s="7" t="s">
         <v>69</v>
       </c>
@@ -6490,7 +8038,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:3" s="17" customFormat="1">
       <c r="A251" s="15" t="s">
         <v>69</v>
       </c>
@@ -6501,7 +8049,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:3">
       <c r="A252" s="7" t="s">
         <v>69</v>
       </c>
@@ -6512,7 +8060,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:3">
       <c r="A253" s="7" t="s">
         <v>69</v>
       </c>
@@ -6523,7 +8071,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:3">
       <c r="A254" s="7" t="s">
         <v>69</v>
       </c>
@@ -6534,7 +8082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:3">
       <c r="A255" s="7" t="s">
         <v>70</v>
       </c>
@@ -6545,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:3">
       <c r="A256" s="7" t="s">
         <v>70</v>
       </c>
@@ -6556,7 +8104,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:3">
       <c r="A257" s="7" t="s">
         <v>70</v>
       </c>
@@ -6567,7 +8115,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:3">
       <c r="A258" s="7" t="s">
         <v>70</v>
       </c>
@@ -6578,7 +8126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:3">
       <c r="A259" s="7" t="s">
         <v>70</v>
       </c>
@@ -6589,7 +8137,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:3">
       <c r="A260" s="7" t="s">
         <v>70</v>
       </c>
@@ -6600,7 +8148,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:3">
       <c r="A261" s="7" t="s">
         <v>70</v>
       </c>
@@ -6611,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:3">
       <c r="A262" s="7" t="s">
         <v>70</v>
       </c>
@@ -6622,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:3">
       <c r="A263" s="7" t="s">
         <v>71</v>
       </c>
@@ -6633,7 +8181,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:3">
       <c r="A264" s="7" t="s">
         <v>71</v>
       </c>
@@ -6644,7 +8192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:3">
       <c r="A265" s="7" t="s">
         <v>71</v>
       </c>
@@ -6655,7 +8203,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:3">
       <c r="A266" s="7" t="s">
         <v>71</v>
       </c>
@@ -6666,7 +8214,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:3">
       <c r="A267" s="7" t="s">
         <v>71</v>
       </c>
@@ -6677,7 +8225,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:3">
       <c r="A268" s="7" t="s">
         <v>71</v>
       </c>
@@ -6688,7 +8236,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:3">
       <c r="A269" s="7" t="s">
         <v>71</v>
       </c>
@@ -6699,7 +8247,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:3">
       <c r="A270" s="7" t="s">
         <v>71</v>
       </c>
@@ -6710,7 +8258,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:3">
       <c r="A271" s="7" t="s">
         <v>71</v>
       </c>
@@ -6721,7 +8269,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:3">
       <c r="A272" s="7" t="s">
         <v>72</v>
       </c>
@@ -6732,7 +8280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:3">
       <c r="A273" s="7" t="s">
         <v>72</v>
       </c>
@@ -6743,7 +8291,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:3">
       <c r="A274" s="7" t="s">
         <v>72</v>
       </c>
@@ -6754,7 +8302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:3">
       <c r="A275" s="7" t="s">
         <v>72</v>
       </c>
@@ -6765,7 +8313,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:3">
       <c r="A276" s="7" t="s">
         <v>72</v>
       </c>
@@ -6776,7 +8324,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:3">
       <c r="A277" s="7" t="s">
         <v>72</v>
       </c>
@@ -6787,7 +8335,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:3">
       <c r="A278" s="7" t="s">
         <v>72</v>
       </c>
@@ -6798,7 +8346,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:3">
       <c r="A279" s="7" t="s">
         <v>72</v>
       </c>
@@ -6809,7 +8357,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:3">
       <c r="A280" s="7" t="s">
         <v>72</v>
       </c>
@@ -6820,7 +8368,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:3">
       <c r="A281" s="7" t="s">
         <v>72</v>
       </c>
@@ -6831,7 +8379,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:3">
       <c r="A282" s="7" t="s">
         <v>72</v>
       </c>
@@ -6842,7 +8390,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:3">
       <c r="A283" s="7" t="s">
         <v>72</v>
       </c>
@@ -6853,7 +8401,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:3">
       <c r="A284" s="7" t="s">
         <v>72</v>
       </c>
@@ -6864,7 +8412,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:3">
       <c r="A285" s="7" t="s">
         <v>72</v>
       </c>
@@ -6875,7 +8423,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:3">
       <c r="A286" s="7" t="s">
         <v>72</v>
       </c>
@@ -6886,7 +8434,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:3">
       <c r="A287" s="7" t="s">
         <v>72</v>
       </c>
@@ -6897,7 +8445,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:3">
       <c r="A288" s="7" t="s">
         <v>72</v>
       </c>
@@ -6908,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3">
       <c r="A289" s="7" t="s">
         <v>72</v>
       </c>
@@ -6919,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3">
       <c r="A290" s="7" t="s">
         <v>72</v>
       </c>
@@ -6930,7 +8478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3">
       <c r="A291" s="7" t="s">
         <v>72</v>
       </c>
@@ -6941,7 +8489,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3">
       <c r="A292" s="7" t="s">
         <v>72</v>
       </c>
@@ -6952,7 +8500,7 @@
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3">
       <c r="A293" s="7" t="s">
         <v>72</v>
       </c>
@@ -6963,7 +8511,7 @@
         <v>0.94969999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3">
       <c r="A294" s="7" t="s">
         <v>72</v>
       </c>
@@ -6974,7 +8522,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3">
       <c r="A295" s="7" t="s">
         <v>72</v>
       </c>
@@ -6985,7 +8533,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3">
       <c r="A296" s="7" t="s">
         <v>73</v>
       </c>
@@ -6996,7 +8544,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3">
       <c r="A297" s="7" t="s">
         <v>73</v>
       </c>
@@ -7007,7 +8555,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3">
       <c r="A298" s="7" t="s">
         <v>73</v>
       </c>
@@ -7018,7 +8566,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3">
       <c r="A299" s="7" t="s">
         <v>74</v>
       </c>
@@ -7029,7 +8577,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3">
       <c r="A300" s="7" t="s">
         <v>74</v>
       </c>
@@ -7040,7 +8588,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3">
       <c r="A301" s="7" t="s">
         <v>74</v>
       </c>
@@ -7051,7 +8599,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3">
       <c r="A302" s="7" t="s">
         <v>75</v>
       </c>
@@ -7062,7 +8610,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3">
       <c r="A303" s="7" t="s">
         <v>75</v>
       </c>
@@ -7073,7 +8621,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3">
       <c r="A304" s="7" t="s">
         <v>75</v>
       </c>
@@ -7084,598 +8632,608 @@
         <v>545</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B305"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B306"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="2:3">
+      <c r="B305" t="s">
+        <v>646</v>
+      </c>
+      <c r="C305" s="9">
+        <v>1.5726409471325802E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" t="s">
+        <v>647</v>
+      </c>
+      <c r="C306" s="10">
+        <v>9.0740750883425193E-6</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="2:3">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="2:3">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="2:3">
       <c r="B310"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="2:3">
       <c r="B311"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="2:3">
       <c r="B312"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="2:3">
       <c r="B313"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="2:3">
       <c r="B314"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="2:3">
       <c r="B315"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="2:3">
       <c r="B316"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="2:3">
       <c r="B317"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="2:3">
       <c r="B318"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="2:3">
       <c r="B319"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="2:3">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="2:2">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="2:2">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="2:2">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="2:2">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="2:2">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="2:2">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="2:2">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="2:2">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="2:2">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="2:2">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="2:2">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="2:2">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="2:2">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="2:2">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="2:2">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="2:2">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="2:2">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="2:2">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="2:2">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="2:2">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="2:2">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="2:2">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="2:2">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="2:2">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="2:2">
       <c r="B345"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="2:2">
       <c r="B346"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="2:2">
       <c r="B347"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="2:2">
       <c r="B348"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="2:2">
       <c r="B349"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="2:2">
       <c r="B350"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="2:2">
       <c r="B351"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="2:2">
       <c r="B352"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="2:2">
       <c r="B353"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="2:2">
       <c r="B354"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="2:2">
       <c r="B355"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="2:2">
       <c r="B356"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="2:2">
       <c r="B357"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="2:2">
       <c r="B358"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="2:2">
       <c r="B359"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="2:2">
       <c r="B360"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="2:2">
       <c r="B361"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="2:2">
       <c r="B362"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="2:2">
       <c r="B363"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="2:2">
       <c r="B364"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="2:2">
       <c r="B365"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="2:2">
       <c r="B366"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="2:2">
       <c r="B367"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="2:2">
       <c r="B368"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="2:2">
       <c r="B369"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="2:2">
       <c r="B370"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="2:2">
       <c r="B371"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="2:2">
       <c r="B372"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="2:2">
       <c r="B373"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="2:2">
       <c r="B374"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="2:2">
       <c r="B375"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="2:2">
       <c r="B376"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="2:2">
       <c r="B377"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="2:2">
       <c r="B378"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="2:2">
       <c r="B379"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="2:2">
       <c r="B380"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="2:2">
       <c r="B381"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="2:2">
       <c r="B382"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="2:2">
       <c r="B383"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="2:2">
       <c r="B384"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="2:2">
       <c r="B385"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="2:2">
       <c r="B386"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="2:2">
       <c r="B387"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="2:2">
       <c r="B388"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="2:2">
       <c r="B389"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="2:2">
       <c r="B390"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="2:2">
       <c r="B391"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="2:2">
       <c r="B392"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="2:2">
       <c r="B393"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="2:2">
       <c r="B394"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="2:2">
       <c r="B395"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="2:2">
       <c r="B396"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="2:2">
       <c r="B397"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="2:2">
       <c r="B398"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="2:2">
       <c r="B399"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="2:2">
       <c r="B400"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="2:2">
       <c r="B401"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="2:2">
       <c r="B402"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="2:2">
       <c r="B403"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="2:2">
       <c r="B404"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="2:2">
       <c r="B405"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="2:2">
       <c r="B406"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="2:2">
       <c r="B407"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="2:2">
       <c r="B408"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="2:2">
       <c r="B409"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="2:2">
       <c r="B410"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="2:2">
       <c r="B411"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="2:2">
       <c r="B412"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="2:2">
       <c r="B413"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="2:2">
       <c r="B414"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="2:2">
       <c r="B415"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="2:2">
       <c r="B416"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="2:2">
       <c r="B417"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="2:2">
       <c r="B418"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="2:2">
       <c r="B419"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="2:2">
       <c r="B420"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="2:2">
       <c r="B421"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="2:2">
       <c r="B422"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="2:2">
       <c r="B423"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="2:2">
       <c r="B424"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="2:2">
       <c r="B425"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="2:2">
       <c r="B426"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="2:2">
       <c r="B427"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="2:2">
       <c r="B428"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="2:2">
       <c r="B429"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="2:2">
       <c r="B430"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="2:2">
       <c r="B431"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="2:2">
       <c r="B432"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="2:2">
       <c r="B433"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="2:2">
       <c r="B434"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="2:2">
       <c r="B435"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="2:2">
       <c r="B436"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="2:2">
       <c r="B437"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="2:2">
       <c r="B438"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="2:2">
       <c r="B439"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="2:2">
       <c r="B440"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="2:2">
       <c r="B441"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="2:2">
       <c r="B442"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="2:2">
       <c r="B443"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="2:2">
       <c r="B444"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="2:2">
       <c r="B445"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="2:2">
       <c r="B446"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="2:2">
       <c r="B447"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="2:2">
       <c r="B448"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="2:2">
       <c r="B449"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="2:2">
       <c r="B450"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="2:2">
       <c r="B451"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="2:2">
       <c r="B452"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="2:2">
       <c r="B453"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="2:2">
       <c r="B454"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="2:2">
       <c r="B455"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="2:2">
       <c r="B456"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="2:2">
       <c r="B457"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="2:2">
       <c r="B458"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="2:2">
       <c r="B459"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="2:2">
       <c r="B460"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="2:2">
       <c r="B461"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="2:2">
       <c r="B462"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="2:2">
       <c r="B463"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="2:2">
       <c r="B464"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="2:2">
       <c r="B465"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="2:2">
       <c r="B466"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="2:2">
       <c r="B467"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="2:2">
       <c r="B468"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="2:2">
       <c r="B469"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="2:2">
       <c r="B470"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="2:2">
       <c r="B471"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="2:2">
       <c r="B472"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="2:2">
       <c r="B473"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="2:2">
       <c r="B474"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="2:2">
       <c r="B475"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="2:2">
       <c r="B476"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="2:2">
       <c r="B477"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="2:2">
       <c r="B478"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="2:2">
       <c r="B479"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="2:2">
       <c r="B480"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="2:2">
       <c r="B481"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="2:2">
       <c r="B482"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="2:2">
       <c r="B483"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="2:2">
       <c r="B484"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="2:2">
       <c r="B485"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="2:2">
       <c r="B486"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="2:2">
       <c r="B487"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="2:2">
       <c r="B488"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="2:2">
       <c r="B489"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="2:2">
       <c r="B490"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="2:2">
       <c r="B491"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="2:2">
       <c r="B492"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="2:2">
       <c r="B493"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="2:2">
       <c r="B494"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="2:2">
       <c r="B495"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="2:2">
       <c r="B496"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="2:2">
       <c r="B497"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="2:2">
       <c r="B498"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="2:2">
       <c r="B499"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="2:2">
       <c r="B500"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="2:2">
       <c r="B501"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="2:2">
       <c r="B502"/>
     </row>
   </sheetData>
@@ -7683,474 +9241,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.3125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="11.3671875" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.05078125" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="3.68359375" style="49" customWidth="1"/>
-    <col min="8" max="15" width="4.1015625" style="49" customWidth="1"/>
-    <col min="16" max="16" width="3.68359375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="38.20703125" style="49" customWidth="1"/>
-    <col min="18" max="16384" width="8.83984375" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="52"/>
-      <c r="B1" s="74" t="s">
-        <v>606</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>581</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>594</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>596</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>597</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>598</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>599</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>600</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>601</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>602</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>603</v>
-      </c>
-      <c r="O1" s="77" t="s">
-        <v>604</v>
-      </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="73" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="C2" s="55">
-        <v>1</v>
-      </c>
-      <c r="D2" s="56">
-        <v>1</v>
-      </c>
-      <c r="E2" s="57">
-        <v>3</v>
-      </c>
-      <c r="F2" s="57">
-        <v>9</v>
-      </c>
-      <c r="G2" s="58">
-        <v>11</v>
-      </c>
-      <c r="H2" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="65">
-        <v>0.8</v>
-      </c>
-      <c r="J2" s="65">
-        <v>1.25</v>
-      </c>
-      <c r="K2" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="L2" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="M2" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="N2" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="O2" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="71" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" s="59">
-        <v>6</v>
-      </c>
-      <c r="D3" s="60">
-        <v>2</v>
-      </c>
-      <c r="E3" s="61">
-        <v>5</v>
-      </c>
-      <c r="F3" s="61">
-        <v>14</v>
-      </c>
-      <c r="G3" s="62">
-        <v>17</v>
-      </c>
-      <c r="H3" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="65">
-        <v>0.8</v>
-      </c>
-      <c r="J3" s="65">
-        <v>1.25</v>
-      </c>
-      <c r="K3" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="M3" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="N3" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="72"/>
-    </row>
-    <row r="4" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A4" s="53"/>
-      <c r="B4" s="63" t="s">
-        <v>584</v>
-      </c>
-      <c r="C4" s="59">
-        <v>10</v>
-      </c>
-      <c r="D4" s="60">
-        <v>1</v>
-      </c>
-      <c r="E4" s="61">
-        <v>4</v>
-      </c>
-      <c r="F4" s="61">
-        <v>12</v>
-      </c>
-      <c r="G4" s="62">
-        <v>15</v>
-      </c>
-      <c r="H4" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="I4" s="65">
-        <v>0.8</v>
-      </c>
-      <c r="J4" s="65">
-        <v>1.25</v>
-      </c>
-      <c r="K4" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="L4" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="M4" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="N4" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="72"/>
-    </row>
-    <row r="5" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="63" t="s">
-        <v>585</v>
-      </c>
-      <c r="C5" s="59">
-        <v>1</v>
-      </c>
-      <c r="D5" s="60">
-        <v>1</v>
-      </c>
-      <c r="E5" s="61">
-        <v>3</v>
-      </c>
-      <c r="F5" s="61">
-        <v>10</v>
-      </c>
-      <c r="G5" s="62">
-        <v>12</v>
-      </c>
-      <c r="H5" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="I5" s="65">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="65">
-        <v>1.25</v>
-      </c>
-      <c r="K5" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="L5" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="M5" s="66">
-        <v>0.75</v>
-      </c>
-      <c r="N5" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="72"/>
-    </row>
-    <row r="6" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="63" t="s">
-        <v>586</v>
-      </c>
-      <c r="C6" s="59">
-        <v>11</v>
-      </c>
-      <c r="D6" s="60">
-        <v>1</v>
-      </c>
-      <c r="E6" s="61">
-        <v>2</v>
-      </c>
-      <c r="F6" s="61">
-        <v>3</v>
-      </c>
-      <c r="G6" s="62">
-        <v>4</v>
-      </c>
-      <c r="H6" s="67">
-        <v>0.7</v>
-      </c>
-      <c r="I6" s="68">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="J6" s="68">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K6" s="69">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L6" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="68">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N6" s="68">
-        <v>0.45</v>
-      </c>
-      <c r="O6" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="72"/>
-    </row>
-    <row r="7" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A7" s="53"/>
-      <c r="B7" s="63" t="s">
-        <v>588</v>
-      </c>
-      <c r="C7" s="59">
-        <v>6</v>
-      </c>
-      <c r="D7" s="60">
-        <v>1</v>
-      </c>
-      <c r="E7" s="61">
-        <v>2</v>
-      </c>
-      <c r="F7" s="61">
-        <v>4</v>
-      </c>
-      <c r="G7" s="62">
-        <v>5</v>
-      </c>
-      <c r="H7" s="67">
-        <v>0.45</v>
-      </c>
-      <c r="I7" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="J7" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="K7" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="L7" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="N7" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="O7" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="72" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A8" s="53"/>
-      <c r="B8" s="63" t="s">
-        <v>589</v>
-      </c>
-      <c r="C8" s="59">
-        <v>11</v>
-      </c>
-      <c r="D8" s="60">
-        <v>1</v>
-      </c>
-      <c r="E8" s="61">
-        <v>2</v>
-      </c>
-      <c r="F8" s="61">
-        <v>4</v>
-      </c>
-      <c r="G8" s="62">
-        <v>5</v>
-      </c>
-      <c r="H8" s="67">
-        <v>0.45</v>
-      </c>
-      <c r="I8" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="J8" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="K8" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="L8" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="N8" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="O8" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="72"/>
-    </row>
-    <row r="9" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A9" s="53"/>
-      <c r="B9" s="63" t="s">
-        <v>592</v>
-      </c>
-      <c r="C9" s="59">
-        <v>11</v>
-      </c>
-      <c r="D9" s="60">
-        <v>1</v>
-      </c>
-      <c r="E9" s="61">
-        <v>2</v>
-      </c>
-      <c r="F9" s="61">
-        <v>4</v>
-      </c>
-      <c r="G9" s="62">
-        <v>5</v>
-      </c>
-      <c r="H9" s="67">
-        <v>0.45</v>
-      </c>
-      <c r="I9" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="J9" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="K9" s="69">
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="70">
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="N9" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="O9" s="69">
-        <v>0.2</v>
-      </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="72"/>
-    </row>
-    <row r="10" spans="1:17" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="P10" s="51"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB740-2696-4061-9D1F-96ECA011A915}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
     <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
@@ -8159,7 +9258,7 @@
     <col min="5" max="16384" width="8.83984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="18.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -8170,7 +9269,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6">
       <c r="A2" s="41" t="s">
         <v>123</v>
       </c>
@@ -8183,7 +9282,7 @@
       </c>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="14.7" thickBot="1">
       <c r="A3" s="41" t="s">
         <v>124</v>
       </c>
@@ -8194,7 +9293,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6">
       <c r="A4" s="41" t="s">
         <v>126</v>
       </c>
@@ -8210,7 +9309,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6">
       <c r="A5" s="41" t="s">
         <v>407</v>
       </c>
@@ -8221,7 +9320,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6">
       <c r="A6" s="41" t="s">
         <v>557</v>
       </c>
@@ -8232,7 +9331,7 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>544</v>
       </c>
@@ -8243,7 +9342,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6">
       <c r="A8" s="41" t="s">
         <v>517</v>
       </c>
@@ -8254,7 +9353,7 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6">
       <c r="A9" s="41" t="s">
         <v>561</v>
       </c>
@@ -8263,7 +9362,7 @@
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6">
       <c r="A10" s="41" t="s">
         <v>562</v>
       </c>
@@ -8272,7 +9371,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6">
       <c r="A11" s="41" t="s">
         <v>563</v>
       </c>
@@ -8281,7 +9380,7 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6">
       <c r="A12" s="41" t="s">
         <v>564</v>
       </c>
@@ -8292,7 +9391,7 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6">
       <c r="A13" s="41" t="s">
         <v>100</v>
       </c>
@@ -8303,7 +9402,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6">
       <c r="A14" s="41" t="s">
         <v>101</v>
       </c>
@@ -8314,7 +9413,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6">
       <c r="A15" s="41" t="s">
         <v>103</v>
       </c>
@@ -8325,7 +9424,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6">
       <c r="A16" s="41" t="s">
         <v>117</v>
       </c>
@@ -8336,7 +9435,7 @@
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7">
       <c r="A17" s="41" t="s">
         <v>79</v>
       </c>
@@ -8347,7 +9446,7 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7">
       <c r="A18" s="41" t="s">
         <v>105</v>
       </c>
@@ -8358,7 +9457,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7">
       <c r="A19" s="41" t="s">
         <v>127</v>
       </c>
@@ -8369,7 +9468,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7">
       <c r="A20" s="41" t="s">
         <v>128</v>
       </c>
@@ -8382,7 +9481,7 @@
       </c>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7">
       <c r="A21" s="41" t="s">
         <v>129</v>
       </c>
@@ -8393,7 +9492,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:7" ht="14.7" thickBot="1">
       <c r="A22" s="41" t="s">
         <v>130</v>
       </c>
@@ -8404,7 +9503,7 @@
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7">
       <c r="A23" s="41" t="s">
         <v>131</v>
       </c>
@@ -8415,7 +9514,7 @@
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7">
       <c r="A24" s="44" t="s">
         <v>390</v>
       </c>
@@ -8426,7 +9525,7 @@
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7">
       <c r="A25" s="44" t="s">
         <v>391</v>
       </c>
@@ -8447,7 +9546,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7">
       <c r="A26" s="44" t="s">
         <v>132</v>
       </c>
@@ -8468,7 +9567,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7">
       <c r="A27" s="44" t="s">
         <v>551</v>
       </c>
@@ -8489,7 +9588,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7">
       <c r="A28" s="44" t="s">
         <v>171</v>
       </c>
@@ -8500,7 +9599,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7">
       <c r="A29" s="44" t="s">
         <v>173</v>
       </c>
@@ -8511,7 +9610,7 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7">
       <c r="A30" s="7" t="s">
         <v>277</v>
       </c>
@@ -8522,7 +9621,7 @@
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
         <v>269</v>
       </c>
@@ -8532,7 +9631,7 @@
       <c r="C31" s="29"/>
       <c r="E31" s="32"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7">
       <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
@@ -8543,56 +9642,56 @@
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5">
       <c r="A33" s="47"/>
       <c r="B33" s="42"/>
       <c r="C33" s="29"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5">
       <c r="A34" s="47"/>
       <c r="B34" s="42"/>
       <c r="C34" s="29"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5">
       <c r="A35" s="47"/>
       <c r="B35" s="42"/>
       <c r="C35" s="29"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5">
       <c r="A36" s="47"/>
       <c r="B36" s="42"/>
       <c r="C36" s="29"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5">
       <c r="A37" s="47"/>
       <c r="B37" s="42"/>
       <c r="C37" s="29"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5">
       <c r="A38" s="47"/>
       <c r="B38" s="42"/>
       <c r="C38" s="29"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5">
       <c r="A39" s="47"/>
       <c r="B39" s="42"/>
       <c r="C39" s="29"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5">
       <c r="A40" s="47"/>
       <c r="B40" s="42"/>
       <c r="C40" s="29"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417F54F8-1291-410C-A494-5100CB1ABF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CE072-5428-4B9E-AB6D-1184B95D1A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="868" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="1044" yWindow="-96" windowWidth="22092" windowHeight="13152" tabRatio="868" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
-    <sheet name="Crops" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="Notepad" sheetId="1" r:id="rId4"/>
-    <sheet name="All_Settings_Template" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="Crops" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Notepad" sheetId="1" r:id="rId5"/>
+    <sheet name="All_Settings_Template" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="719">
   <si>
     <t>PathRoot</t>
   </si>
@@ -1943,27 +1944,18 @@
     <t>75.895 17.4</t>
   </si>
   <si>
-    <t>modflowtotalSoilThickness, swAbstractionFraction</t>
-  </si>
-  <si>
     <t>UB</t>
   </si>
   <si>
     <t>Nira</t>
   </si>
   <si>
-    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/UB</t>
-  </si>
-  <si>
     <t>modflow_steadyInit</t>
   </si>
   <si>
     <t>$(PathGroundwaterModflowOutput)/Nira_steady_April9_3.hds</t>
   </si>
   <si>
-    <t xml:space="preserve"> 28/04/2007</t>
-  </si>
-  <si>
     <t>$(FILE_PATHS:PathMeteo)/EWRef_daily.nc</t>
   </si>
   <si>
@@ -1985,9 +1977,6 @@
     <t>permeability</t>
   </si>
   <si>
-    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, EWRef, ETRef, gwstorage_cell</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $(PathGroundwaterModflow)/modflow_inputs/2_ModFlow_inputs500m_Bhima</t>
   </si>
   <si>
@@ -1998,13 +1987,223 @@
   </si>
   <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_3rdFill.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/06/1990</t>
+  </si>
+  <si>
+    <t>$(PathWaterdemand)/domesticWaterDemand_pop2015_200609.nc</t>
+  </si>
+  <si>
+    <t>demand_unit</t>
+  </si>
+  <si>
+    <t>Inputs'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Outputs'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Storage Change'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Balance'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Rain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'River discharge at outlet'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Evapotranspiration (soil)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Bare soil evaporation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Intercept evaporation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          'Transpiration'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               'Transpiration (Forest)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              'Transpiration (Grasslands)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Transpiration (Paddy)'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Transpiration (non-Paddy)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Open water evaporation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Evap loss from withdrawals'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Channel evaporation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Water bodies evaporation'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'non-Irrigation consumption'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'GW storage Change'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Adjusted pumping'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Channel storage Change'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Water bodies storage Change'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Soil &amp; Intercept storage Change'</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Storage Change</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Adjusted pumping</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>River discharge at outlet</t>
+  </si>
+  <si>
+    <t>Evapotranspiration (soil)</t>
+  </si>
+  <si>
+    <t>Channel evaporation</t>
+  </si>
+  <si>
+    <t>Water bodies evaporation</t>
+  </si>
+  <si>
+    <t>non-Irrigation consumption</t>
+  </si>
+  <si>
+    <t>GW storage Change</t>
+  </si>
+  <si>
+    <t>Channel storage Change</t>
+  </si>
+  <si>
+    <t>Water bodies storage Change</t>
+  </si>
+  <si>
+    <t>Soil &amp; Intercept storage Change</t>
+  </si>
+  <si>
+    <t>Transpiration</t>
+  </si>
+  <si>
+    <t>Bare soil evaporation</t>
+  </si>
+  <si>
+    <t>Intercept evaporation</t>
+  </si>
+  <si>
+    <t>Open water evaporation</t>
+  </si>
+  <si>
+    <t>Evap loss from withdrawals</t>
+  </si>
+  <si>
+    <t>Transpiration (Forest)</t>
+  </si>
+  <si>
+    <t>Transpiration (Grasslands)</t>
+  </si>
+  <si>
+    <t>Transpiration (Paddy)</t>
+  </si>
+  <si>
+    <t>Transpiration (non-Paddy)</t>
+  </si>
+  <si>
+    <t>15M3/month</t>
+  </si>
+  <si>
+    <t>1500M3/month</t>
+  </si>
+  <si>
+    <t>absDiff/val(1500M3)</t>
+  </si>
+  <si>
+    <t>All units in m3</t>
+  </si>
+  <si>
+    <t>absDiff</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwstorage_cell, unmetDemand, act_irrWithdrawal, act_nonIrrWithdrawal, act_irrNonpaddyWithdrawal,  act_irrPaddyWithdrawal, act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, nonFossilGroundwaterAbs, swAbstractionFraction_Local, act_channelAbstract </t>
+  </si>
+  <si>
+    <t>, EWRef, ETRef, act_irrWithdrawal, act_nonIrrWithdrawal, act_irrNonpaddyWithdrawal,  act_irrPaddyWithdrawal, act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, nonFossilGroundwaterAbs, swAbstractionFraction_Local</t>
+  </si>
+  <si>
+    <t>modflowtotalSoilThickness, cellArea</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_nonLocal</t>
+  </si>
+  <si>
+    <t>gwAbstractionFraction_Irr</t>
+  </si>
+  <si>
+    <t>scaleDomesticDemand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/11/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira_20070427.nc, Nira_20061101.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27/04/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27/05/2006</t>
+  </si>
+  <si>
+    <t>cellArea, discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, gwstorage_cell, unmetDemand, act_irrWithdrawal, act_nonIrrWithdrawal, act_irrNonpaddyWithdrawal,  act_irrPaddyWithdrawal, act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, nonFossilGroundwaterAbs, swAbstractionFraction_Local, act_channelAbstract, domesticDemand</t>
+  </si>
+  <si>
+    <t>modflowWaterLevel, cellArea, fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7],  fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/12/2007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2152,8 +2351,32 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF72737A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2262,8 +2485,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2701,11 +2936,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2962,11 +3221,93 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3575,15 +3916,15 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21" style="83" customWidth="1"/>
+    <col min="1" max="1" width="28.20703125" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.3125" style="90" customWidth="1"/>
     <col min="3" max="3" width="4.5234375" style="91" customWidth="1"/>
     <col min="4" max="4" width="44.5234375" style="116" bestFit="1" customWidth="1"/>
@@ -3596,7 +3937,7 @@
     <col min="11" max="16384" width="8.83984375" style="83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>5</v>
       </c>
@@ -3605,34 +3946,34 @@
       </c>
       <c r="C1" s="106"/>
       <c r="D1" s="115" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E1" s="121" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F1" s="107" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="100"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="104" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>577</v>
+        <v>714</v>
       </c>
       <c r="F2" s="108" t="s">
         <v>619</v>
       </c>
       <c r="G2" s="100"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="104" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>9</v>
+        <v>715</v>
       </c>
       <c r="F3" s="108" t="s">
         <v>578</v>
@@ -3641,12 +3982,15 @@
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="108">
-        <v>35</v>
+      <c r="B4" s="126" t="s">
+        <v>718</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>649</v>
       </c>
       <c r="F4" s="108" t="s">
         <v>622</v>
@@ -3655,7 +3999,7 @@
       <c r="H4" s="91"/>
       <c r="I4" s="97"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="104" t="s">
         <v>407</v>
       </c>
@@ -3667,7 +4011,7 @@
       <c r="H5" s="97"/>
       <c r="I5" s="97"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="104" t="s">
         <v>557</v>
       </c>
@@ -3679,31 +4023,37 @@
       </c>
       <c r="G6" s="100"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="104" t="s">
         <v>544</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>648</v>
+        <v>716</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>706</v>
       </c>
       <c r="F7" s="92" t="s">
         <v>618</v>
       </c>
       <c r="G7" s="100"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="104" t="s">
         <v>517</v>
       </c>
       <c r="B8" s="108" t="s">
-        <v>571</v>
+        <v>717</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>707</v>
       </c>
       <c r="F8" s="93" t="s">
         <v>631</v>
       </c>
       <c r="G8" s="100"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="104" t="s">
         <v>561</v>
       </c>
@@ -3711,7 +4061,7 @@
       <c r="F9" s="93"/>
       <c r="G9" s="100"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="104" t="s">
         <v>562</v>
       </c>
@@ -3719,7 +4069,7 @@
       <c r="F10" s="93"/>
       <c r="G10" s="100"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="104" t="s">
         <v>563</v>
       </c>
@@ -3727,12 +4077,12 @@
       <c r="F11" s="93"/>
       <c r="G11" s="100"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="104" t="s">
         <v>564</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="C12" s="95"/>
       <c r="D12" s="117"/>
@@ -3742,7 +4092,7 @@
       </c>
       <c r="G12" s="100"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="104" t="s">
         <v>100</v>
       </c>
@@ -3752,7 +4102,7 @@
       <c r="F13" s="93"/>
       <c r="G13" s="100"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="104" t="s">
         <v>101</v>
       </c>
@@ -3762,7 +4112,7 @@
       <c r="F14" s="93"/>
       <c r="G14" s="100"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="104" t="s">
         <v>103</v>
       </c>
@@ -3772,7 +4122,7 @@
       <c r="F15" s="93"/>
       <c r="G15" s="100"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="104" t="s">
         <v>117</v>
       </c>
@@ -3782,7 +4132,7 @@
       <c r="F16" s="93"/>
       <c r="G16" s="100"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="104" t="s">
         <v>79</v>
       </c>
@@ -3795,7 +4145,7 @@
       <c r="F17" s="93"/>
       <c r="G17" s="100"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="104" t="s">
         <v>105</v>
       </c>
@@ -3805,7 +4155,7 @@
       <c r="F18" s="93"/>
       <c r="G18" s="100"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="104" t="s">
         <v>127</v>
       </c>
@@ -3815,7 +4165,7 @@
       <c r="F19" s="93"/>
       <c r="G19" s="100"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="104" t="s">
         <v>128</v>
       </c>
@@ -3826,50 +4176,52 @@
         <v>568</v>
       </c>
       <c r="E20" s="108" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F20" s="108" t="s">
-        <v>568</v>
+        <v>713</v>
       </c>
       <c r="G20" s="100"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="104" t="s">
         <v>129</v>
       </c>
       <c r="B21" s="108" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="93"/>
+      <c r="F21" s="93" t="s">
+        <v>537</v>
+      </c>
       <c r="G21" s="100"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="104" t="s">
         <v>130</v>
       </c>
       <c r="B22" s="108" t="s">
-        <v>637</v>
+        <v>559</v>
       </c>
       <c r="D22" s="116" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E22" s="122" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F22" s="93"/>
       <c r="G22" s="100"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="104" t="s">
         <v>131</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="104" t="s">
         <v>390</v>
       </c>
@@ -3879,7 +4231,7 @@
       <c r="F24" s="93"/>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="104" t="s">
         <v>391</v>
       </c>
@@ -3887,18 +4239,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="122" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="100"/>
       <c r="H25" s="98"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="104" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="108" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C26" s="96"/>
       <c r="D26" s="118"/>
@@ -3911,12 +4263,12 @@
       <c r="I26" s="87"/>
       <c r="J26" s="88"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="104" t="s">
         <v>173</v>
       </c>
       <c r="B27" s="108" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="119"/>
@@ -3927,7 +4279,7 @@
       <c r="G27" s="102"/>
       <c r="H27" s="98"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="104" t="s">
         <v>277</v>
       </c>
@@ -3940,7 +4292,7 @@
       </c>
       <c r="G28" s="100"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="104" t="s">
         <v>269</v>
       </c>
@@ -3950,7 +4302,7 @@
       <c r="F29" s="93"/>
       <c r="G29" s="100"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="104" t="s">
         <v>118</v>
       </c>
@@ -3960,7 +4312,7 @@
       <c r="F30" s="93"/>
       <c r="G30" s="100"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="103" t="s">
         <v>603</v>
       </c>
@@ -3970,7 +4322,7 @@
       <c r="F31" s="93"/>
       <c r="G31" s="100"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="103" t="s">
         <v>586</v>
       </c>
@@ -3980,7 +4332,7 @@
       <c r="F32" s="93"/>
       <c r="G32" s="100"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="103" t="s">
         <v>610</v>
       </c>
@@ -3990,7 +4342,7 @@
       <c r="F33" s="93"/>
       <c r="G33" s="100"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="103" t="s">
         <v>611</v>
       </c>
@@ -4000,7 +4352,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="100"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="103" t="s">
         <v>612</v>
       </c>
@@ -4010,7 +4362,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="100"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="103" t="s">
         <v>583</v>
       </c>
@@ -4020,7 +4372,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="100"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="103" t="s">
         <v>584</v>
       </c>
@@ -4030,7 +4382,7 @@
       <c r="F37" s="93"/>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="103" t="s">
         <v>585</v>
       </c>
@@ -4040,7 +4392,7 @@
       <c r="F38" s="93"/>
       <c r="G38" s="100"/>
     </row>
-    <row r="39" spans="1:7" ht="14.7" thickBot="1">
+    <row r="39" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="103" t="s">
         <v>588</v>
       </c>
@@ -4050,7 +4402,7 @@
       <c r="F39" s="93"/>
       <c r="G39" s="100"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="15" t="s">
         <v>547</v>
       </c>
@@ -4058,7 +4410,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>118</v>
       </c>
@@ -4072,116 +4424,202 @@
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>387</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="83" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E44" s="90" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>642</v>
+      </c>
+      <c r="F44" s="116" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>466</v>
       </c>
       <c r="B45" s="9">
         <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="116" t="s">
+        <v>650</v>
+      </c>
+      <c r="D46" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="90" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="B47" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="145" t="s">
+        <v>705</v>
+      </c>
+      <c r="B48" s="90">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="145" t="s">
+        <v>709</v>
+      </c>
+      <c r="B49" s="90">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="83" t="s">
+        <v>710</v>
+      </c>
+      <c r="B50" s="90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="146" t="s">
+        <v>711</v>
+      </c>
+      <c r="B52" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="90">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B54" s="9">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="24" priority="44">
+    <cfRule type="notContainsErrors" dxfId="27" priority="66">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="23" priority="42">
+    <cfRule type="notContainsErrors" dxfId="26" priority="64">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="22" priority="40">
+    <cfRule type="notContainsErrors" dxfId="25" priority="62">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="21" priority="39">
+    <cfRule type="notContainsErrors" dxfId="24" priority="61">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="notContainsErrors" dxfId="22" priority="33">
+      <formula>NOT(ISERROR(F20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="notContainsErrors" dxfId="21" priority="25">
+      <formula>NOT(ISERROR(E20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="notContainsErrors" dxfId="20" priority="23">
+      <formula>NOT(ISERROR(B20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="notContainsErrors" dxfId="19" priority="24">
+      <formula>NOT(ISERROR(D20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="notContainsErrors" dxfId="16" priority="17">
+      <formula>NOT(ISERROR(D4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="notContainsErrors" dxfId="4" priority="5">
+      <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="16" priority="12">
+    <cfRule type="notContainsErrors" dxfId="2" priority="3">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="10" priority="11">
-      <formula>NOT(ISERROR(F20))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="7" priority="8">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="4" priority="5">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(B2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="3" priority="4">
-      <formula>NOT(ISERROR(B3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="2" priority="3">
-      <formula>NOT(ISERROR(E20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="1" priority="2">
-      <formula>NOT(ISERROR(D20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4191,6 +4629,239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E8FC2-B4BB-4D64-99B8-6E6C78B89461}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="28.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" style="144" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="129" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" s="130">
+        <v>747707200</v>
+      </c>
+      <c r="C1" s="144">
+        <f>B5+B21</f>
+        <v>747707212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="127" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2" s="128">
+        <v>1155793096</v>
+      </c>
+      <c r="C2" s="144">
+        <f>C7+B6+C17</f>
+        <v>1155793078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="127" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="128">
+        <v>757213060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="127" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" s="128">
+        <v>5192159.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="131" t="s">
+        <v>656</v>
+      </c>
+      <c r="B5" s="130">
+        <v>738842700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="127" t="s">
+        <v>657</v>
+      </c>
+      <c r="B6" s="128">
+        <v>75489490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="139" t="s">
+        <v>658</v>
+      </c>
+      <c r="B7" s="140">
+        <v>523226370</v>
+      </c>
+      <c r="C7" s="144">
+        <f>C10+B9+B8+B15</f>
+        <v>523226348.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="141" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="140">
+        <v>163009870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="141" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="140">
+        <v>127722570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="136" t="s">
+        <v>661</v>
+      </c>
+      <c r="B10" s="137">
+        <v>228440740</v>
+      </c>
+      <c r="C10" s="144">
+        <f>B11+B12</f>
+        <v>228440710</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="138" t="s">
+        <v>662</v>
+      </c>
+      <c r="B11" s="137">
+        <v>41074040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="138" t="s">
+        <v>663</v>
+      </c>
+      <c r="B12" s="137">
+        <v>187366670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="138" t="s">
+        <v>664</v>
+      </c>
+      <c r="B13" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="138" t="s">
+        <v>665</v>
+      </c>
+      <c r="B14" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="142" t="s">
+        <v>666</v>
+      </c>
+      <c r="B15" s="143">
+        <v>4053198.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="134" t="s">
+        <v>667</v>
+      </c>
+      <c r="B16" s="135">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="134" t="s">
+        <v>668</v>
+      </c>
+      <c r="B17" s="135">
+        <v>5999509.5</v>
+      </c>
+      <c r="C17" s="144">
+        <f>SUM(B17:B19)</f>
+        <v>557077239.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="134" t="s">
+        <v>669</v>
+      </c>
+      <c r="B18" s="135">
+        <v>13030370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="132" t="s">
+        <v>670</v>
+      </c>
+      <c r="B19" s="133">
+        <v>538047360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="127" t="s">
+        <v>671</v>
+      </c>
+      <c r="B20" s="128">
+        <v>562593800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="129" t="s">
+        <v>672</v>
+      </c>
+      <c r="B21" s="130">
+        <v>8864512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="127" t="s">
+        <v>673</v>
+      </c>
+      <c r="B22" s="128">
+        <v>7366905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="127" t="s">
+        <v>674</v>
+      </c>
+      <c r="B23" s="128">
+        <v>22651744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="127" t="s">
+        <v>675</v>
+      </c>
+      <c r="B24" s="128">
+        <v>164600580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
@@ -4198,10 +4869,10 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.3125" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.3671875" style="49" customWidth="1"/>
@@ -4214,7 +4885,7 @@
     <col min="19" max="16384" width="8.83984375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="52"/>
       <c r="B1" s="113"/>
       <c r="C1" s="74" t="s">
@@ -4264,7 +4935,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12.9">
+    <row r="2" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A2" s="53"/>
       <c r="B2" s="114">
         <v>0</v>
@@ -4314,7 +4985,7 @@
       <c r="Q2" s="51"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="1:18" ht="12.9">
+    <row r="3" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A3" s="53"/>
       <c r="B3" s="114">
         <v>1</v>
@@ -4366,7 +5037,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12.9">
+    <row r="4" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A4" s="53"/>
       <c r="B4" s="114">
         <v>2</v>
@@ -4418,7 +5089,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12.9">
+    <row r="5" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A5" s="53"/>
       <c r="B5" s="114">
         <v>3</v>
@@ -4470,7 +5141,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12.9">
+    <row r="6" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A6" s="53"/>
       <c r="B6" s="114">
         <v>4</v>
@@ -4520,7 +5191,7 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="72"/>
     </row>
-    <row r="7" spans="1:18" ht="12.9">
+    <row r="7" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A7" s="53"/>
       <c r="B7" s="114">
         <v>5</v>
@@ -4572,7 +5243,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12.9">
+    <row r="8" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A8" s="53"/>
       <c r="B8" s="114">
         <v>6</v>
@@ -4622,7 +5293,7 @@
       <c r="Q8" s="51"/>
       <c r="R8" s="72"/>
     </row>
-    <row r="9" spans="1:18" ht="12.9">
+    <row r="9" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A9" s="53"/>
       <c r="B9" s="114">
         <v>7</v>
@@ -4672,7 +5343,7 @@
       <c r="Q9" s="51"/>
       <c r="R9" s="72"/>
     </row>
-    <row r="10" spans="1:18" ht="12.9">
+    <row r="10" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
       <c r="Q10" s="51"/>
     </row>
   </sheetData>
@@ -4682,7 +5353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DE2398-4D66-4F9C-BA4E-2DE4F9D6B687}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -4690,13 +5361,13 @@
       <selection activeCell="D8" sqref="B1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="13.05078125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1">
+    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="113"/>
       <c r="B1" s="74" t="s">
         <v>602</v>
@@ -4708,7 +5379,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="114">
         <v>1</v>
       </c>
@@ -4722,7 +5393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="114">
         <v>2</v>
       </c>
@@ -4736,7 +5407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="114">
         <v>3</v>
       </c>
@@ -4750,7 +5421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="114">
         <v>4</v>
       </c>
@@ -4764,7 +5435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="114">
         <v>5</v>
       </c>
@@ -4778,7 +5449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="114">
         <v>6</v>
       </c>
@@ -4792,7 +5463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="114">
         <v>7</v>
       </c>
@@ -4811,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -4819,7 +5490,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.15625" style="2" bestFit="1" customWidth="1"/>
@@ -4828,7 +5499,7 @@
     <col min="5" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4842,7 +5513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4856,7 +5527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4870,7 +5541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4884,7 +5555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4898,7 +5569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -4912,7 +5583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -4926,7 +5597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4940,7 +5611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +5625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -4968,7 +5639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -4982,7 +5653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -4996,7 +5667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -5007,7 +5678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
@@ -5018,7 +5689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -5029,7 +5700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5037,7 +5708,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -5048,17 +5719,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4">
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>544</v>
       </c>
@@ -5066,12 +5737,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.4">
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>554</v>
       </c>
@@ -5079,7 +5750,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.4">
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>556</v>
       </c>
@@ -5087,7 +5758,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.4">
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="93" t="s">
         <v>572</v>
       </c>
@@ -5104,7 +5775,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.4">
+    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="94">
         <v>8.0484411999999994E-6</v>
       </c>
@@ -5121,7 +5792,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4">
+    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="93">
         <v>0.01</v>
       </c>
@@ -5138,7 +5809,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
         <v>614</v>
       </c>
@@ -5149,22 +5820,22 @@
         <v>616</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4">
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -5175,7 +5846,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4">
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -5189,7 +5860,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4">
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2">
         <v>6</v>
       </c>
@@ -5203,7 +5874,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.4">
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2">
         <v>7</v>
       </c>
@@ -5217,7 +5888,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="2">
         <v>8</v>
       </c>
@@ -5231,7 +5902,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B46" s="112">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -5245,15 +5916,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="B61:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.83984375" style="8" bestFit="1" customWidth="1"/>
@@ -5264,7 +5935,7 @@
     <col min="7" max="7" width="16.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>519</v>
       </c>
@@ -5287,7 +5958,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
@@ -5298,7 +5969,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
@@ -5309,7 +5980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -5320,7 +5991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1">
+    <row r="5" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
         <v>46</v>
       </c>
@@ -5334,7 +6005,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>46</v>
       </c>
@@ -5345,7 +6016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -5356,7 +6027,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
@@ -5367,7 +6038,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -5378,7 +6049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -5389,7 +6060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -5400,7 +6071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
@@ -5411,7 +6082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
@@ -5422,7 +6093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
@@ -5433,7 +6104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -5444,7 +6115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -5455,7 +6126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -5466,7 +6137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -5477,7 +6148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>46</v>
       </c>
@@ -5488,7 +6159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
@@ -5499,7 +6170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
@@ -5510,7 +6181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
@@ -5521,7 +6192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -5532,7 +6203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -5546,7 +6217,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
@@ -5560,7 +6231,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
@@ -5574,7 +6245,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>46</v>
       </c>
@@ -5585,7 +6256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1">
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -5596,7 +6267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
@@ -5607,7 +6278,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5618,7 +6289,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
@@ -5629,7 +6300,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
@@ -5640,7 +6311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>48</v>
       </c>
@@ -5651,7 +6322,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
@@ -5662,7 +6333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>48</v>
       </c>
@@ -5673,7 +6344,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>49</v>
       </c>
@@ -5684,7 +6355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -5695,7 +6366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -5706,7 +6377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -5717,7 +6388,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>50</v>
       </c>
@@ -5728,7 +6399,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
@@ -5739,7 +6410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>51</v>
       </c>
@@ -5750,7 +6421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>51</v>
       </c>
@@ -5761,7 +6432,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>51</v>
       </c>
@@ -5772,7 +6443,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>51</v>
       </c>
@@ -5783,7 +6454,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>51</v>
       </c>
@@ -5794,7 +6465,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>52</v>
       </c>
@@ -5805,7 +6476,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -5816,7 +6487,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5827,7 +6498,7 @@
         <v>1.6724858092486401</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>52</v>
       </c>
@@ -5838,7 +6509,7 @@
         <v>1.4522320737216501</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
@@ -5849,7 +6520,7 @@
         <v>3.9792416752925099</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
@@ -5860,7 +6531,7 @@
         <v>0.172979234117665</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
@@ -5871,7 +6542,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>52</v>
       </c>
@@ -5882,7 +6553,7 @@
         <v>5.08489365888276</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5893,7 +6564,7 @@
         <v>2.3669378692197398</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5904,7 +6575,7 @@
         <v>4.4825774640604799</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>52</v>
       </c>
@@ -5915,7 +6586,7 @@
         <v>0.645563228322237</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5926,7 +6597,7 @@
         <v>1.8965519432548701</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>52</v>
       </c>
@@ -5937,7 +6608,7 @@
         <v>1.66966067574903</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5948,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>52</v>
       </c>
@@ -5959,7 +6630,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>53</v>
       </c>
@@ -5970,7 +6641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="17" customFormat="1">
+    <row r="63" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="15" t="s">
         <v>53</v>
       </c>
@@ -5981,7 +6652,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="17" customFormat="1">
+    <row r="64" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="15" t="s">
         <v>53</v>
       </c>
@@ -5992,7 +6663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>53</v>
       </c>
@@ -6003,7 +6674,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>53</v>
       </c>
@@ -6014,7 +6685,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>53</v>
       </c>
@@ -6025,7 +6696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>54</v>
       </c>
@@ -6036,7 +6707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>54</v>
       </c>
@@ -6047,7 +6718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>54</v>
       </c>
@@ -6058,7 +6729,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>54</v>
       </c>
@@ -6069,7 +6740,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>54</v>
       </c>
@@ -6080,7 +6751,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>54</v>
       </c>
@@ -6091,7 +6762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>54</v>
       </c>
@@ -6102,7 +6773,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>54</v>
       </c>
@@ -6113,7 +6784,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>54</v>
       </c>
@@ -6124,7 +6795,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>54</v>
       </c>
@@ -6135,7 +6806,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>54</v>
       </c>
@@ -6146,7 +6817,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>54</v>
       </c>
@@ -6157,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>55</v>
       </c>
@@ -6168,7 +6839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>55</v>
       </c>
@@ -6179,7 +6850,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>55</v>
       </c>
@@ -6190,7 +6861,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>55</v>
       </c>
@@ -6201,7 +6872,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>55</v>
       </c>
@@ -6212,7 +6883,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>55</v>
       </c>
@@ -6223,7 +6894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>55</v>
       </c>
@@ -6234,7 +6905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>55</v>
       </c>
@@ -6245,7 +6916,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>55</v>
       </c>
@@ -6256,7 +6927,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>55</v>
       </c>
@@ -6267,7 +6938,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>55</v>
       </c>
@@ -6278,7 +6949,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>55</v>
       </c>
@@ -6289,7 +6960,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
         <v>55</v>
       </c>
@@ -6300,7 +6971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
         <v>56</v>
       </c>
@@ -6311,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>56</v>
       </c>
@@ -6322,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>56</v>
       </c>
@@ -6333,7 +7004,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>56</v>
       </c>
@@ -6344,7 +7015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
         <v>56</v>
       </c>
@@ -6355,7 +7026,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7" t="s">
         <v>56</v>
       </c>
@@ -6366,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7" t="s">
         <v>56</v>
       </c>
@@ -6377,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>56</v>
       </c>
@@ -6388,7 +7059,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>57</v>
       </c>
@@ -6399,7 +7070,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>57</v>
       </c>
@@ -6410,7 +7081,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7" t="s">
         <v>57</v>
       </c>
@@ -6421,7 +7092,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
         <v>57</v>
       </c>
@@ -6432,7 +7103,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7" t="s">
         <v>58</v>
       </c>
@@ -6443,7 +7114,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>59</v>
       </c>
@@ -6454,7 +7125,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>59</v>
       </c>
@@ -6465,7 +7136,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>59</v>
       </c>
@@ -6476,7 +7147,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7" t="s">
         <v>59</v>
       </c>
@@ -6487,7 +7158,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7" t="s">
         <v>59</v>
       </c>
@@ -6498,7 +7169,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7" t="s">
         <v>59</v>
       </c>
@@ -6509,7 +7180,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>59</v>
       </c>
@@ -6520,7 +7191,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>59</v>
       </c>
@@ -6531,7 +7202,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>59</v>
       </c>
@@ -6542,7 +7213,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
         <v>59</v>
       </c>
@@ -6553,7 +7224,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
         <v>59</v>
       </c>
@@ -6564,7 +7235,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7" t="s">
         <v>59</v>
       </c>
@@ -6575,7 +7246,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7" t="s">
         <v>59</v>
       </c>
@@ -6586,7 +7257,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7" t="s">
         <v>59</v>
       </c>
@@ -6597,7 +7268,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7" t="s">
         <v>59</v>
       </c>
@@ -6608,7 +7279,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7" t="s">
         <v>59</v>
       </c>
@@ -6619,7 +7290,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7" t="s">
         <v>59</v>
       </c>
@@ -6630,7 +7301,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7" t="s">
         <v>59</v>
       </c>
@@ -6641,7 +7312,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7" t="s">
         <v>59</v>
       </c>
@@ -6652,7 +7323,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7" t="s">
         <v>59</v>
       </c>
@@ -6663,7 +7334,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7" t="s">
         <v>59</v>
       </c>
@@ -6674,7 +7345,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7" t="s">
         <v>59</v>
       </c>
@@ -6685,7 +7356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7" t="s">
         <v>59</v>
       </c>
@@ -6696,7 +7367,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7" t="s">
         <v>59</v>
       </c>
@@ -6707,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7" t="s">
         <v>59</v>
       </c>
@@ -6718,7 +7389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7" t="s">
         <v>59</v>
       </c>
@@ -6729,7 +7400,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7" t="s">
         <v>60</v>
       </c>
@@ -6740,7 +7411,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7" t="s">
         <v>60</v>
       </c>
@@ -6751,7 +7422,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7" t="s">
         <v>60</v>
       </c>
@@ -6762,7 +7433,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7" t="s">
         <v>60</v>
       </c>
@@ -6773,7 +7444,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7" t="s">
         <v>60</v>
       </c>
@@ -6784,7 +7455,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7" t="s">
         <v>60</v>
       </c>
@@ -6795,7 +7466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7" t="s">
         <v>60</v>
       </c>
@@ -6806,7 +7477,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7" t="s">
         <v>60</v>
       </c>
@@ -6817,7 +7488,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7" t="s">
         <v>60</v>
       </c>
@@ -6828,7 +7499,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="7" t="s">
         <v>60</v>
       </c>
@@ -6839,7 +7510,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="7" t="s">
         <v>60</v>
       </c>
@@ -6850,7 +7521,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="7" t="s">
         <v>60</v>
       </c>
@@ -6861,7 +7532,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="7" t="s">
         <v>60</v>
       </c>
@@ -6872,7 +7543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7" t="s">
         <v>60</v>
       </c>
@@ -6883,7 +7554,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="7" t="s">
         <v>61</v>
       </c>
@@ -6894,7 +7565,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="7" t="s">
         <v>61</v>
       </c>
@@ -6905,7 +7576,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="7" t="s">
         <v>61</v>
       </c>
@@ -6916,7 +7587,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="7" t="s">
         <v>61</v>
       </c>
@@ -6927,7 +7598,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7" t="s">
         <v>61</v>
       </c>
@@ -6938,7 +7609,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7" t="s">
         <v>61</v>
       </c>
@@ -6949,7 +7620,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="7" t="s">
         <v>61</v>
       </c>
@@ -6960,7 +7631,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="7" t="s">
         <v>61</v>
       </c>
@@ -6971,7 +7642,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -6982,7 +7653,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7" t="s">
         <v>61</v>
       </c>
@@ -6993,7 +7664,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="7" t="s">
         <v>61</v>
       </c>
@@ -7004,7 +7675,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="7" t="s">
         <v>61</v>
       </c>
@@ -7015,7 +7686,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="7" t="s">
         <v>61</v>
       </c>
@@ -7026,7 +7697,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="7" t="s">
         <v>61</v>
       </c>
@@ -7037,7 +7708,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="7" t="s">
         <v>61</v>
       </c>
@@ -7048,7 +7719,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="7" t="s">
         <v>61</v>
       </c>
@@ -7059,7 +7730,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="7" t="s">
         <v>61</v>
       </c>
@@ -7070,7 +7741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="7" t="s">
         <v>61</v>
       </c>
@@ -7081,7 +7752,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="7" t="s">
         <v>61</v>
       </c>
@@ -7092,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="7" t="s">
         <v>61</v>
       </c>
@@ -7103,7 +7774,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="7" t="s">
         <v>61</v>
       </c>
@@ -7114,7 +7785,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="7" t="s">
         <v>61</v>
       </c>
@@ -7125,7 +7796,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="7" t="s">
         <v>61</v>
       </c>
@@ -7136,7 +7807,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7" t="s">
         <v>61</v>
       </c>
@@ -7147,7 +7818,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="7" t="s">
         <v>62</v>
       </c>
@@ -7158,7 +7829,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="7" t="s">
         <v>62</v>
       </c>
@@ -7169,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="7" t="s">
         <v>62</v>
       </c>
@@ -7180,7 +7851,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="7" t="s">
         <v>62</v>
       </c>
@@ -7191,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="7" t="s">
         <v>62</v>
       </c>
@@ -7202,7 +7873,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="7" t="s">
         <v>62</v>
       </c>
@@ -7213,7 +7884,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="7" t="s">
         <v>62</v>
       </c>
@@ -7224,7 +7895,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="7" t="s">
         <v>62</v>
       </c>
@@ -7235,7 +7906,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7" t="s">
         <v>62</v>
       </c>
@@ -7246,7 +7917,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="7" t="s">
         <v>63</v>
       </c>
@@ -7257,7 +7928,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="7" t="s">
         <v>63</v>
       </c>
@@ -7268,7 +7939,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="7" t="s">
         <v>63</v>
       </c>
@@ -7279,7 +7950,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="7" t="s">
         <v>63</v>
       </c>
@@ -7290,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="7" t="s">
         <v>63</v>
       </c>
@@ -7301,7 +7972,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="7" t="s">
         <v>63</v>
       </c>
@@ -7312,7 +7983,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="7" t="s">
         <v>63</v>
       </c>
@@ -7323,7 +7994,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="7" t="s">
         <v>63</v>
       </c>
@@ -7334,7 +8005,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7" t="s">
         <v>63</v>
       </c>
@@ -7345,7 +8016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="7" t="s">
         <v>64</v>
       </c>
@@ -7356,7 +8027,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="7" t="s">
         <v>64</v>
       </c>
@@ -7367,7 +8038,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="7" t="s">
         <v>64</v>
       </c>
@@ -7378,7 +8049,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="7" t="s">
         <v>64</v>
       </c>
@@ -7389,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="7" t="s">
         <v>64</v>
       </c>
@@ -7400,7 +8071,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="7" t="s">
         <v>64</v>
       </c>
@@ -7411,7 +8082,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="7" t="s">
         <v>64</v>
       </c>
@@ -7422,7 +8093,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7" t="s">
         <v>64</v>
       </c>
@@ -7433,7 +8104,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7" t="s">
         <v>65</v>
       </c>
@@ -7444,7 +8115,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="7" t="s">
         <v>66</v>
       </c>
@@ -7455,7 +8126,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7" t="s">
         <v>66</v>
       </c>
@@ -7466,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7" t="s">
         <v>67</v>
       </c>
@@ -7477,7 +8148,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7" t="s">
         <v>67</v>
       </c>
@@ -7488,7 +8159,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="7" t="s">
         <v>67</v>
       </c>
@@ -7499,7 +8170,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="7" t="s">
         <v>67</v>
       </c>
@@ -7510,7 +8181,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="7" t="s">
         <v>68</v>
       </c>
@@ -7521,7 +8192,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="7" t="s">
         <v>68</v>
       </c>
@@ -7532,7 +8203,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="7" t="s">
         <v>68</v>
       </c>
@@ -7543,7 +8214,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="7" t="s">
         <v>68</v>
       </c>
@@ -7554,7 +8225,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="7" t="s">
         <v>68</v>
       </c>
@@ -7565,7 +8236,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="7" t="s">
         <v>68</v>
       </c>
@@ -7576,7 +8247,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="7" t="s">
         <v>68</v>
       </c>
@@ -7587,7 +8258,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="7" t="s">
         <v>68</v>
       </c>
@@ -7598,7 +8269,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="7" t="s">
         <v>68</v>
       </c>
@@ -7609,7 +8280,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="7" t="s">
         <v>68</v>
       </c>
@@ -7620,7 +8291,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="7" t="s">
         <v>68</v>
       </c>
@@ -7631,7 +8302,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="7" t="s">
         <v>68</v>
       </c>
@@ -7642,7 +8313,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="7" t="s">
         <v>68</v>
       </c>
@@ -7653,7 +8324,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="7" t="s">
         <v>68</v>
       </c>
@@ -7664,7 +8335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="7" t="s">
         <v>68</v>
       </c>
@@ -7675,7 +8346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="7" t="s">
         <v>68</v>
       </c>
@@ -7686,7 +8357,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="7" t="s">
         <v>68</v>
       </c>
@@ -7697,7 +8368,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="7" t="s">
         <v>68</v>
       </c>
@@ -7708,7 +8379,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="7" t="s">
         <v>68</v>
       </c>
@@ -7719,7 +8390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="7" t="s">
         <v>68</v>
       </c>
@@ -7730,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="7" t="s">
         <v>68</v>
       </c>
@@ -7741,7 +8412,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="7" t="s">
         <v>68</v>
       </c>
@@ -7752,7 +8423,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="7" t="s">
         <v>68</v>
       </c>
@@ -7763,7 +8434,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="7" t="s">
         <v>68</v>
       </c>
@@ -7774,7 +8445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="7" t="s">
         <v>68</v>
       </c>
@@ -7785,7 +8456,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="7" t="s">
         <v>68</v>
       </c>
@@ -7796,7 +8467,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="7" t="s">
         <v>68</v>
       </c>
@@ -7807,7 +8478,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="7" t="s">
         <v>69</v>
       </c>
@@ -7818,7 +8489,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="8" customFormat="1">
+    <row r="231" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="7" t="s">
         <v>69</v>
       </c>
@@ -7829,7 +8500,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="7" t="s">
         <v>69</v>
       </c>
@@ -7840,7 +8511,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="7" t="s">
         <v>69</v>
       </c>
@@ -7851,7 +8522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="7" t="s">
         <v>69</v>
       </c>
@@ -7862,7 +8533,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="7" t="s">
         <v>69</v>
       </c>
@@ -7873,7 +8544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="7" t="s">
         <v>69</v>
       </c>
@@ -7884,7 +8555,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="7" t="s">
         <v>69</v>
       </c>
@@ -7895,7 +8566,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="7" t="s">
         <v>69</v>
       </c>
@@ -7906,7 +8577,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="7" t="s">
         <v>69</v>
       </c>
@@ -7917,7 +8588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="7" t="s">
         <v>69</v>
       </c>
@@ -7928,7 +8599,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="7" t="s">
         <v>69</v>
       </c>
@@ -7939,7 +8610,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="7" t="s">
         <v>69</v>
       </c>
@@ -7950,7 +8621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="7" t="s">
         <v>69</v>
       </c>
@@ -7961,7 +8632,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="7" t="s">
         <v>69</v>
       </c>
@@ -7972,7 +8643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="7" t="s">
         <v>69</v>
       </c>
@@ -7983,7 +8654,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="7" t="s">
         <v>69</v>
       </c>
@@ -7994,7 +8665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="7" t="s">
         <v>69</v>
       </c>
@@ -8005,7 +8676,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="7" t="s">
         <v>69</v>
       </c>
@@ -8016,7 +8687,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="7" t="s">
         <v>69</v>
       </c>
@@ -8027,7 +8698,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="7" t="s">
         <v>69</v>
       </c>
@@ -8038,7 +8709,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" s="17" customFormat="1">
+    <row r="251" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="15" t="s">
         <v>69</v>
       </c>
@@ -8049,7 +8720,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="7" t="s">
         <v>69</v>
       </c>
@@ -8060,7 +8731,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="7" t="s">
         <v>69</v>
       </c>
@@ -8071,7 +8742,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="7" t="s">
         <v>69</v>
       </c>
@@ -8082,7 +8753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="7" t="s">
         <v>70</v>
       </c>
@@ -8093,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="7" t="s">
         <v>70</v>
       </c>
@@ -8104,7 +8775,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="7" t="s">
         <v>70</v>
       </c>
@@ -8115,7 +8786,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="7" t="s">
         <v>70</v>
       </c>
@@ -8126,7 +8797,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="7" t="s">
         <v>70</v>
       </c>
@@ -8137,7 +8808,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="7" t="s">
         <v>70</v>
       </c>
@@ -8148,7 +8819,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="7" t="s">
         <v>70</v>
       </c>
@@ -8159,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="7" t="s">
         <v>70</v>
       </c>
@@ -8170,7 +8841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="7" t="s">
         <v>71</v>
       </c>
@@ -8181,7 +8852,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="7" t="s">
         <v>71</v>
       </c>
@@ -8192,7 +8863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="7" t="s">
         <v>71</v>
       </c>
@@ -8203,7 +8874,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="7" t="s">
         <v>71</v>
       </c>
@@ -8214,7 +8885,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="7" t="s">
         <v>71</v>
       </c>
@@ -8225,7 +8896,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="7" t="s">
         <v>71</v>
       </c>
@@ -8236,7 +8907,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="7" t="s">
         <v>71</v>
       </c>
@@ -8247,7 +8918,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="7" t="s">
         <v>71</v>
       </c>
@@ -8258,7 +8929,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="7" t="s">
         <v>71</v>
       </c>
@@ -8269,7 +8940,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="7" t="s">
         <v>72</v>
       </c>
@@ -8280,7 +8951,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="7" t="s">
         <v>72</v>
       </c>
@@ -8291,7 +8962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="7" t="s">
         <v>72</v>
       </c>
@@ -8302,7 +8973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="7" t="s">
         <v>72</v>
       </c>
@@ -8313,7 +8984,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="7" t="s">
         <v>72</v>
       </c>
@@ -8324,7 +8995,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="7" t="s">
         <v>72</v>
       </c>
@@ -8335,7 +9006,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="7" t="s">
         <v>72</v>
       </c>
@@ -8346,7 +9017,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="7" t="s">
         <v>72</v>
       </c>
@@ -8357,7 +9028,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="7" t="s">
         <v>72</v>
       </c>
@@ -8368,7 +9039,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="7" t="s">
         <v>72</v>
       </c>
@@ -8379,7 +9050,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="7" t="s">
         <v>72</v>
       </c>
@@ -8390,7 +9061,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="7" t="s">
         <v>72</v>
       </c>
@@ -8401,7 +9072,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="7" t="s">
         <v>72</v>
       </c>
@@ -8412,7 +9083,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="7" t="s">
         <v>72</v>
       </c>
@@ -8423,7 +9094,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="7" t="s">
         <v>72</v>
       </c>
@@ -8434,7 +9105,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="7" t="s">
         <v>72</v>
       </c>
@@ -8445,7 +9116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="7" t="s">
         <v>72</v>
       </c>
@@ -8456,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="7" t="s">
         <v>72</v>
       </c>
@@ -8467,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="7" t="s">
         <v>72</v>
       </c>
@@ -8478,7 +9149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="7" t="s">
         <v>72</v>
       </c>
@@ -8489,7 +9160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="7" t="s">
         <v>72</v>
       </c>
@@ -8500,7 +9171,7 @@
         <v>0.92969999999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="7" t="s">
         <v>72</v>
       </c>
@@ -8511,7 +9182,7 @@
         <v>0.94969999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="7" t="s">
         <v>72</v>
       </c>
@@ -8522,7 +9193,7 @@
         <v>0.98499999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="7" t="s">
         <v>72</v>
       </c>
@@ -8533,7 +9204,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="7" t="s">
         <v>73</v>
       </c>
@@ -8544,7 +9215,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="7" t="s">
         <v>73</v>
       </c>
@@ -8555,7 +9226,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="7" t="s">
         <v>73</v>
       </c>
@@ -8566,7 +9237,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="7" t="s">
         <v>74</v>
       </c>
@@ -8577,7 +9248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="7" t="s">
         <v>74</v>
       </c>
@@ -8588,7 +9259,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="7" t="s">
         <v>74</v>
       </c>
@@ -8599,7 +9270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="7" t="s">
         <v>75</v>
       </c>
@@ -8610,7 +9281,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="7" t="s">
         <v>75</v>
       </c>
@@ -8621,7 +9292,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="7" t="s">
         <v>75</v>
       </c>
@@ -8632,608 +9303,608 @@
         <v>545</v>
       </c>
     </row>
-    <row r="305" spans="2:3">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B305" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C305" s="9">
         <v>1.5726409471325802E-2</v>
       </c>
     </row>
-    <row r="306" spans="2:3">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B306" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C306" s="10">
         <v>9.0740750883425193E-6</v>
       </c>
     </row>
-    <row r="307" spans="2:3">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B307"/>
     </row>
-    <row r="308" spans="2:3">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B308"/>
     </row>
-    <row r="309" spans="2:3">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B309"/>
     </row>
-    <row r="310" spans="2:3">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B310"/>
     </row>
-    <row r="311" spans="2:3">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B311"/>
     </row>
-    <row r="312" spans="2:3">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B312"/>
     </row>
-    <row r="313" spans="2:3">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B313"/>
     </row>
-    <row r="314" spans="2:3">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B314"/>
     </row>
-    <row r="315" spans="2:3">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B315"/>
     </row>
-    <row r="316" spans="2:3">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B316"/>
     </row>
-    <row r="317" spans="2:3">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B317"/>
     </row>
-    <row r="318" spans="2:3">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B318"/>
     </row>
-    <row r="319" spans="2:3">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B319"/>
     </row>
-    <row r="320" spans="2:3">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B320"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B321"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B322"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B323"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B324"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B325"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B326"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B327"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B328"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B329"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B330"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B331"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B332"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B333"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B334"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B335"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B336"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B337"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B338"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B339"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B340"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B341"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B342"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B343"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B344"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B345"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B346"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B347"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B348"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B349"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B350"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B351"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B352"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B353"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B354"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B355"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B356"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B357"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B358"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B359"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B360"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B361"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B362"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B363"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B364"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B365"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B366"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B367"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B368"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B369"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B370"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B371"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B372"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B373"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B374"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B375"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B376"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B377"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B378"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B379"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B380"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B381"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B382"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B383"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B384"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B385"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B386"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B387"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B388"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B389"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B390"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B391"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B392"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B393"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B394"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B395"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B396"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B397"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B398"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B399"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B400"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B401"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B402"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B403"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B404"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B405"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B406"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B407"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B408"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B409"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B410"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B411"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B412"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B413"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B414"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B415"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B416"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B417"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B418"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B419"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B420"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B421"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B422"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B423"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B424"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B425"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B426"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B427"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B428"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B429"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B430"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B431"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B432"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B433"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B434"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B435"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B436"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B437"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B438"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B439"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B440"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B441"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B442"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B443"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B444"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B445"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B446"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B447"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B448"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B449"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B450"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B451"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B452"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B453"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B454"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B455"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B456"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B457"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B458"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B459"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B460"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B461"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B462"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B463"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B464"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B465"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B466"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B467"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B468"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B469"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B470"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B471"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B472"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B473"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B474"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B475"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B476"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B477"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B478"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B479"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B480"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B481"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B482"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B483"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B484"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B485"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B486"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B487"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B488"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B489"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B490"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B491"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B492"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B493"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B494"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B495"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B496"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B497"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B498"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B499"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B500"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B501"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B502"/>
     </row>
   </sheetData>
@@ -9241,15 +9912,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB740-2696-4061-9D1F-96ECA011A915}">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
     <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
@@ -9258,7 +9929,7 @@
     <col min="5" max="16384" width="8.83984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.3">
+    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -9269,7 +9940,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>123</v>
       </c>
@@ -9282,7 +9953,7 @@
       </c>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="14.7" thickBot="1">
+    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="41" t="s">
         <v>124</v>
       </c>
@@ -9293,7 +9964,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41" t="s">
         <v>126</v>
       </c>
@@ -9309,7 +9980,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41" t="s">
         <v>407</v>
       </c>
@@ -9320,7 +9991,7 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41" t="s">
         <v>557</v>
       </c>
@@ -9331,7 +10002,7 @@
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="41" t="s">
         <v>544</v>
       </c>
@@ -9342,7 +10013,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="41" t="s">
         <v>517</v>
       </c>
@@ -9353,7 +10024,7 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="41" t="s">
         <v>561</v>
       </c>
@@ -9362,7 +10033,7 @@
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="41" t="s">
         <v>562</v>
       </c>
@@ -9371,7 +10042,7 @@
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="41" t="s">
         <v>563</v>
       </c>
@@ -9380,7 +10051,7 @@
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="41" t="s">
         <v>564</v>
       </c>
@@ -9391,7 +10062,7 @@
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="41" t="s">
         <v>100</v>
       </c>
@@ -9402,7 +10073,7 @@
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="41" t="s">
         <v>101</v>
       </c>
@@ -9413,7 +10084,7 @@
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="41" t="s">
         <v>103</v>
       </c>
@@ -9424,7 +10095,7 @@
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="41" t="s">
         <v>117</v>
       </c>
@@ -9435,7 +10106,7 @@
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="41" t="s">
         <v>79</v>
       </c>
@@ -9446,7 +10117,7 @@
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="41" t="s">
         <v>105</v>
       </c>
@@ -9457,7 +10128,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="41" t="s">
         <v>127</v>
       </c>
@@ -9468,7 +10139,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="41" t="s">
         <v>128</v>
       </c>
@@ -9481,7 +10152,7 @@
       </c>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="41" t="s">
         <v>129</v>
       </c>
@@ -9492,7 +10163,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="14.7" thickBot="1">
+    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="41" t="s">
         <v>130</v>
       </c>
@@ -9503,7 +10174,7 @@
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="41" t="s">
         <v>131</v>
       </c>
@@ -9514,7 +10185,7 @@
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="44" t="s">
         <v>390</v>
       </c>
@@ -9525,7 +10196,7 @@
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="44" t="s">
         <v>391</v>
       </c>
@@ -9546,7 +10217,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="44" t="s">
         <v>132</v>
       </c>
@@ -9567,7 +10238,7 @@
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="44" t="s">
         <v>551</v>
       </c>
@@ -9588,7 +10259,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="44" t="s">
         <v>171</v>
       </c>
@@ -9599,7 +10270,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="44" t="s">
         <v>173</v>
       </c>
@@ -9610,7 +10281,7 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>277</v>
       </c>
@@ -9621,7 +10292,7 @@
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>269</v>
       </c>
@@ -9631,7 +10302,7 @@
       <c r="C31" s="29"/>
       <c r="E31" s="32"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
@@ -9642,56 +10313,56 @@
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="47"/>
       <c r="B33" s="42"/>
       <c r="C33" s="29"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="47"/>
       <c r="B34" s="42"/>
       <c r="C34" s="29"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="47"/>
       <c r="B35" s="42"/>
       <c r="C35" s="29"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="47"/>
       <c r="B36" s="42"/>
       <c r="C36" s="29"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="47"/>
       <c r="B37" s="42"/>
       <c r="C37" s="29"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="47"/>
       <c r="B38" s="42"/>
       <c r="C38" s="29"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="47"/>
       <c r="B39" s="42"/>
       <c r="C39" s="29"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="47"/>
       <c r="B40" s="42"/>
       <c r="C40" s="29"/>
@@ -9701,4 +10372,508 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC21375-A8E9-4EF5-B764-254BB08A3B84}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5234375" customWidth="1"/>
+    <col min="4" max="4" width="11.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2">
+        <v>1173524298</v>
+      </c>
+      <c r="C2">
+        <v>1635740736</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>462216438</v>
+      </c>
+      <c r="E2">
+        <f>D2/C2</f>
+        <v>0.28257316567801122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3">
+        <v>687968655.75</v>
+      </c>
+      <c r="C3">
+        <v>2035995179.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D25" si="0">C3-B3</f>
+        <v>1348026523.75</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="1">D3/C3</f>
+        <v>0.66209710971960578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4">
+        <v>544699600</v>
+      </c>
+      <c r="C4">
+        <v>1337267300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>792567700</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.59267709604504648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B5">
+        <v>10218742.25</v>
+      </c>
+      <c r="C5">
+        <v>7779472.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-2439269.75</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-0.3135520756709404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6">
+        <v>2447434</v>
+      </c>
+      <c r="C6">
+        <v>464663870</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>462216436</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.99473289369367146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B7">
+        <v>1171076900</v>
+      </c>
+      <c r="C7">
+        <v>1171076900</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B8">
+        <v>125091650</v>
+      </c>
+      <c r="C8">
+        <v>81961350</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-43130300</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>-0.5262273010388433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B9">
+        <v>537552830</v>
+      </c>
+      <c r="C9">
+        <v>537099200</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-453630</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>-8.4459258178005102E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B10">
+        <v>3363224.2</v>
+      </c>
+      <c r="C10">
+        <v>3046679</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-316545.20000000019</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-0.10389844154897847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B11">
+        <v>7864247.5</v>
+      </c>
+      <c r="C11">
+        <v>7440844.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-423403</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-5.6902546478427282E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>686</v>
+      </c>
+      <c r="B12">
+        <v>14096704</v>
+      </c>
+      <c r="C12">
+        <v>1406447100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1392350396</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.98997708196774692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>687</v>
+      </c>
+      <c r="B13">
+        <v>34681344</v>
+      </c>
+      <c r="C13">
+        <v>776028160</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>741346816</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.95530916816214506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B14">
+        <v>17078852</v>
+      </c>
+      <c r="C14">
+        <v>45307804</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>28228952</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.62304833842752561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>689</v>
+      </c>
+      <c r="B15">
+        <v>22894464</v>
+      </c>
+      <c r="C15">
+        <v>51314656</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>28420192</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.55384161593132375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16">
+        <v>470044930</v>
+      </c>
+      <c r="C16">
+        <v>464616700</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-5428230</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-1.1683243413334045E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>691</v>
+      </c>
+      <c r="B17">
+        <v>250146300</v>
+      </c>
+      <c r="C17">
+        <v>249872580</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-273720</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-1.0954383230044689E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>692</v>
+      </c>
+      <c r="B18">
+        <v>137950560</v>
+      </c>
+      <c r="C18">
+        <v>137928750</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-21810</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-1.5812511894728256E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>693</v>
+      </c>
+      <c r="B19">
+        <v>99182340</v>
+      </c>
+      <c r="C19">
+        <v>99182340</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>694</v>
+      </c>
+      <c r="B20">
+        <v>13925209</v>
+      </c>
+      <c r="C20">
+        <v>13720085</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-205124</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-1.4950636238769658E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>695</v>
+      </c>
+      <c r="B21">
+        <v>36348400</v>
+      </c>
+      <c r="C21">
+        <v>36395400</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>47000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.2913719865697314E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>696</v>
+      </c>
+      <c r="B22">
+        <v>33232778</v>
+      </c>
+      <c r="C22">
+        <v>33142118</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-90660</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-2.7354920406716314E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>697</v>
+      </c>
+      <c r="B23">
+        <v>94131540</v>
+      </c>
+      <c r="C23">
+        <v>93959490</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-172050</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-1.8311082786847822E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>698</v>
+      </c>
+      <c r="B24">
+        <v>3289157.8</v>
+      </c>
+      <c r="C24">
+        <v>3279886.8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-9271</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>-2.8266219431719412E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B25">
+        <v>119492816</v>
+      </c>
+      <c r="C25">
+        <v>119491083.25</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-1732.75</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>-1.4501082029482732E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093CE072-5428-4B9E-AB6D-1184B95D1A45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EFEF8-334C-4C7F-91D0-71379AE2A0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="-96" windowWidth="22092" windowHeight="13152" tabRatio="868" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="1140" yWindow="6282" windowWidth="14328" windowHeight="2370" tabRatio="868" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="3" r:id="rId1"/>
@@ -3918,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C738CC-1DE1-414B-A1C0-2A9C6D8CD3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B927AA-C6E2-481C-9121-B2FE72157E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1032" yWindow="-96" windowWidth="22104" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="13" r:id="rId1"/>
@@ -18,12 +18,13 @@
     <sheet name="CWatM_input_all" sheetId="12" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
     <sheet name="Crops" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
-    <sheet name="Notepad" sheetId="1" r:id="rId7"/>
-    <sheet name="All_Settings_Template" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId11"/>
+    <sheet name="Crops (2)" sheetId="14" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="Notepad" sheetId="1" r:id="rId8"/>
+    <sheet name="All_Settings_Template" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="763">
   <si>
     <t>PathRoot</t>
   </si>
@@ -2163,12 +2164,6 @@
     <t xml:space="preserve"> 28/05/1992</t>
   </si>
   <si>
-    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/UB</t>
-  </si>
-  <si>
-    <t>fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7],  fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C:/GitHub/FUSE/Input/landsurface/waterDemand/Agents_raster.tif</t>
   </si>
   <si>
@@ -2181,29 +2176,224 @@
     <t>ETRefAverage_segments</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/06/2004</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 31/12/2007</t>
   </si>
   <si>
+    <t>, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, gwstorage_cell_avail, allowedPumping, gwstorage_cell_avail</t>
+  </si>
+  <si>
+    <t>availableGWStorageFraction</t>
+  </si>
+  <si>
+    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landsurface/waterDemand/availableGWStorageFraction_totalend.nc</t>
+  </si>
+  <si>
+    <t>C:/GitHub/FUSE/Input/landcover/crops/Sugar_JY2.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Sugar_JY2.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Sorghum_1km.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Groundnut_30sec.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Wheat_30sec.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Maize_30sec.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landsurface/waterDemand/availableGWStorageFraction_Anjuli.nc</t>
+  </si>
+  <si>
+    <t>75.12083 17.97083 Nira</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Nira_20070427.nc</t>
+  </si>
+  <si>
+    <t>75.89583 17.3875 Bhima</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0378-3774(94)90025-6</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>FruitVegK</t>
+  </si>
+  <si>
+    <t>FruitVegR</t>
+  </si>
+  <si>
+    <t>SpicesK</t>
+  </si>
+  <si>
+    <t>SpicesR</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Gram.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Soybean.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/Cotton.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/CondimentsSpicesRabi.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/CondimentsSpicesKharif.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/FruitVegRabi.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/FruitVegKharif.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modflowWaterLevel, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], areaCrops_Irr_segment[15], head_development_segments, allowedPumping, gwstorage_cell_avail, fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15]     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/07/2006</t>
+  </si>
+  <si>
+    <t>FarmerAgent_rev_raster.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landsurface/waterDemand/AgentsRaster_10July20.tif</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Currently not included</t>
+  </si>
+  <si>
+    <t>Suru variety</t>
+  </si>
+  <si>
+    <t>Pre-seasonal variety</t>
+  </si>
+  <si>
+    <t>Adsali variety</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">KC# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Crop coefficient of growth stage #</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>KY#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Yield coefficient of growth stage #</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>EM#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Months since the day of planting to the end of growth stage #</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], areaCrops_Irr_segment[15], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15]     </t>
+  </si>
+  <si>
+    <t>Outputs for Taher</t>
+  </si>
+  <si>
+    <t>fracVegCover[3], cropKC[1], cropKC[3], totalPotET[1], totalPotET[3], Yield_Irr[1], Yield_Irr[5], Yield_Irr[7], Yield_Irr[10], Yield_Irr[12], ratio_a_p_Irr[1], ratio_a_p_Irr[5], ratio_a_p_Irr[7],ratio_a_p_Irr[10], ratio_a_p_Irr[12], totalPotET_month_Irr[1], actTransTotal_month_Irr[1]</t>
+  </si>
+  <si>
+    <t>75.89583 17.3875</t>
+  </si>
+  <si>
+    <t>rainAverage_segments, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments</t>
+  </si>
+  <si>
+    <t>ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2004</t>
+  </si>
+  <si>
     <t>discharge</t>
   </si>
   <si>
-    <t>, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, gwstorage_cell_avail, allowedPumping, gwstorage_cell_avail</t>
-  </si>
-  <si>
-    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments</t>
-  </si>
-  <si>
-    <t>modflowWaterLevel, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], head_development_segments, allowedPumping, gwstorage_cell_avail, fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7],  fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2]</t>
+    <t xml:space="preserve"> 12/06/2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2375,8 +2565,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3644F8"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2527,8 +2736,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A87C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF004835"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007E5D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF996633"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF960032"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3034,11 +3273,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00A87C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00A87C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00A87C"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00A87C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00A87C"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00A87C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00A87C"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00A87C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3435,11 +3752,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="29" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="29" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="29" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="29" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="26" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="50">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3720,22 +4125,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3758,13 +4147,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="1" tint="0.499984740745262"/>
         </left>
@@ -3779,18 +4161,43 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00A87C"/>
+      <color rgb="FF996633"/>
+      <color rgb="FF636EFA"/>
+      <color rgb="FF960032"/>
+      <color rgb="FF007E5D"/>
+      <color rgb="FFFF6699"/>
+      <color rgb="FF202FF8"/>
+      <color rgb="FF004835"/>
       <color rgb="FF15FFC2"/>
       <color rgb="FF3644F8"/>
-      <color rgb="FF636EFA"/>
-      <color rgb="FF6699FF"/>
-      <color rgb="FF00966F"/>
-      <color rgb="FF00CC96"/>
-      <color rgb="FF00A87C"/>
-      <color rgb="FF007A5A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3966,11 +4373,65 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>826770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBE4819-89AE-43D5-A0B7-EE3343B2444C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="25604"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156210" y="336814"/>
+          <a:ext cx="670560" cy="714746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="39" dataDxfId="40" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="A1:A320" xr:uid="{899F2FC2-D930-4738-BF7B-C93ECDFC8D39}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4276,10 +4737,10 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4321,7 +4782,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="F2" s="107" t="s">
         <v>619</v>
@@ -4332,8 +4793,11 @@
       <c r="A3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="181" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>741</v>
       </c>
       <c r="F3" s="107" t="s">
         <v>578</v>
@@ -4347,10 +4811,13 @@
         <v>126</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="D4" s="181" t="s">
-        <v>713</v>
+        <v>710</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>742</v>
       </c>
       <c r="F4" s="107" t="s">
         <v>622</v>
@@ -4364,7 +4831,7 @@
         <v>407</v>
       </c>
       <c r="B5" s="169">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F5" s="93"/>
       <c r="G5" s="100"/>
@@ -4379,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="112" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F6" s="93" t="s">
         <v>630</v>
@@ -4391,7 +4858,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>714</v>
+        <v>761</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>685</v>
@@ -4408,18 +4875,10 @@
       <c r="A8" s="104" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="169" t="s">
-        <v>717</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>707</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>678</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>631</v>
-      </c>
+      <c r="B8" s="235" t="s">
+        <v>759</v>
+      </c>
+      <c r="F8" s="93"/>
       <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4427,7 +4886,7 @@
         <v>561</v>
       </c>
       <c r="B9" s="170" t="s">
-        <v>709</v>
+        <v>758</v>
       </c>
       <c r="F9" s="93"/>
       <c r="G9" s="100"/>
@@ -4437,10 +4896,10 @@
         <v>695</v>
       </c>
       <c r="B10" s="170" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F10" s="93"/>
       <c r="G10" s="100"/>
@@ -4458,6 +4917,9 @@
         <v>563</v>
       </c>
       <c r="B12" s="169"/>
+      <c r="D12" s="112" t="s">
+        <v>756</v>
+      </c>
       <c r="F12" s="93"/>
       <c r="G12" s="100"/>
     </row>
@@ -4466,7 +4928,7 @@
         <v>564</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="113"/>
@@ -4506,7 +4968,7 @@
       <c r="F16" s="93"/>
       <c r="G16" s="100"/>
     </row>
-    <row r="17" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="141" t="s">
         <v>117</v>
       </c>
@@ -4518,378 +4980,382 @@
       <c r="E17" s="142"/>
       <c r="F17" s="143"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="182" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="169" t="b">
+    <row r="18" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="143"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="169" t="b">
         <v>1</v>
       </c>
-      <c r="D18" s="112" t="b">
+      <c r="F19" s="93"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="182" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>640</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>723</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>684</v>
+      </c>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="169" t="b">
         <v>0</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="169" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="100"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="182" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>640</v>
-      </c>
-      <c r="D21" s="107" t="s">
-        <v>687</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>640</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>684</v>
+      <c r="F21" s="93" t="s">
+        <v>537</v>
       </c>
       <c r="G21" s="100"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="169" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>537</v>
-      </c>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="183" t="s">
+        <v>559</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>635</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>634</v>
+      </c>
+      <c r="F22" s="93"/>
       <c r="G22" s="100"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="183" t="s">
-        <v>706</v>
-      </c>
-      <c r="D23" s="112" t="s">
-        <v>635</v>
-      </c>
-      <c r="E23" s="117" t="s">
-        <v>634</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="181" t="s">
+        <v>762</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="100"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="169" t="s">
-        <v>683</v>
+        <v>390</v>
+      </c>
+      <c r="B24" s="169" t="b">
+        <v>0</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="100"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="104" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B25" s="169" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>641</v>
       </c>
       <c r="F25" s="93"/>
       <c r="G25" s="100"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="H25" s="98"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="104" t="s">
-        <v>391</v>
-      </c>
-      <c r="B26" s="169" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="117" t="s">
-        <v>641</v>
-      </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="98"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="104" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="169" t="s">
-        <v>638</v>
-      </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="94" t="s">
-        <v>621</v>
-      </c>
-      <c r="G27" s="101"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="88"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="169" t="s">
-        <v>639</v>
-      </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="93" t="s">
-        <v>620</v>
-      </c>
-      <c r="G28" s="102"/>
-      <c r="H28" s="98"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B26" s="169" t="s">
         <v>278</v>
       </c>
-      <c r="F29" s="93">
+      <c r="F26" s="93">
         <f>0.00003*24*60*60</f>
         <v>2.5920000000000001</v>
       </c>
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="93"/>
+      <c r="G27" s="100"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="169" t="s">
+        <v>629</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="169" t="s">
+        <v>629</v>
+      </c>
+      <c r="F28" s="93"/>
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="103" t="s">
+        <v>603</v>
+      </c>
+      <c r="B29" s="169" t="s">
+        <v>604</v>
+      </c>
+      <c r="F29" s="93"/>
       <c r="G29" s="100"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="104" t="s">
-        <v>269</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="103" t="s">
+        <v>586</v>
       </c>
       <c r="B30" s="169" t="s">
-        <v>270</v>
+        <v>716</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="100"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="182" t="s">
-        <v>118</v>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="103" t="s">
+        <v>610</v>
       </c>
       <c r="B31" s="169" t="s">
-        <v>629</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>119</v>
+        <v>716</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="100"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="103" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B32" s="169" t="s">
-        <v>604</v>
+        <v>716</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="100"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="103" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="B33" s="169" t="s">
-        <v>605</v>
+        <v>716</v>
+      </c>
+      <c r="D33" s="169" t="s">
+        <v>715</v>
       </c>
       <c r="F33" s="93"/>
       <c r="G33" s="100"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="103" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="B34" s="169" t="s">
-        <v>605</v>
+        <v>717</v>
       </c>
       <c r="F34" s="93"/>
       <c r="G34" s="100"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="103" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
       <c r="B35" s="169" t="s">
-        <v>605</v>
+        <v>718</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="100"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="103" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B36" s="169" t="s">
-        <v>605</v>
+        <v>719</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="100"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="103" t="s">
-        <v>583</v>
-      </c>
-      <c r="B37" s="169" t="s">
-        <v>607</v>
+        <v>588</v>
+      </c>
+      <c r="B37" s="173" t="s">
+        <v>720</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="103" t="s">
-        <v>584</v>
-      </c>
-      <c r="B38" s="169" t="s">
-        <v>608</v>
-      </c>
-      <c r="F38" s="93"/>
-      <c r="G38" s="100"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="103" t="s">
-        <v>585</v>
-      </c>
-      <c r="B39" s="169" t="s">
-        <v>609</v>
-      </c>
-      <c r="F39" s="93"/>
-      <c r="G39" s="100"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="103" t="s">
-        <v>588</v>
-      </c>
-      <c r="B40" s="173" t="s">
-        <v>606</v>
-      </c>
-      <c r="F40" s="93"/>
-      <c r="G40" s="100"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="15" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B41" s="174" t="s">
+      <c r="B38" s="174" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="184" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="D42" s="112" t="s">
-        <v>647</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7" t="s">
+      <c r="B39" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>722</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="184" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="185" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="185" t="s">
         <v>636</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="B41" s="90" t="s">
         <v>642</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D41" s="112" t="s">
         <v>637</v>
       </c>
-      <c r="E44" s="90" t="s">
+      <c r="E41" s="90" t="s">
         <v>642</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F41" s="112" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B45" s="175">
+      <c r="B42" s="175">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="7" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="112" t="s">
+      <c r="B43" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D43" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="90" t="s">
+      <c r="E43" s="90" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="144" t="s">
+    <row r="44" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="144" t="s">
         <v>651</v>
       </c>
-      <c r="B47" s="178" t="b">
+      <c r="B44" s="178" t="b">
         <v>1</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="139" t="s">
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="139" t="s">
         <v>676</v>
       </c>
-      <c r="B48" s="179">
+      <c r="B45" s="179">
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="139" t="s">
+        <v>680</v>
+      </c>
+      <c r="B46" s="179">
+        <v>1</v>
+      </c>
+      <c r="D46" s="112"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+    </row>
+    <row r="47" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="B47" s="179">
+        <v>1</v>
+      </c>
+      <c r="D47" s="112"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+    </row>
+    <row r="48" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="112"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+    </row>
     <row r="49" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="139" t="s">
-        <v>680</v>
+      <c r="A49" s="140" t="s">
+        <v>682</v>
       </c>
       <c r="B49" s="179">
         <v>1</v>
@@ -4903,11 +5369,11 @@
       <c r="J49" s="83"/>
     </row>
     <row r="50" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="83" t="s">
-        <v>681</v>
-      </c>
-      <c r="B50" s="179">
-        <v>0.5</v>
+      <c r="A50" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B50" s="180">
+        <v>1</v>
       </c>
       <c r="D50" s="112"/>
       <c r="E50" s="117"/>
@@ -4919,9 +5385,9 @@
     </row>
     <row r="51" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="179" t="b">
+        <v>702</v>
+      </c>
+      <c r="B51" s="180">
         <v>1</v>
       </c>
       <c r="D51" s="112"/>
@@ -4933,8 +5399,8 @@
       <c r="J51" s="83"/>
     </row>
     <row r="52" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="140" t="s">
-        <v>682</v>
+      <c r="A52" s="83" t="s">
+        <v>703</v>
       </c>
       <c r="B52" s="179">
         <v>1</v>
@@ -4947,132 +5413,223 @@
       <c r="I52" s="83"/>
       <c r="J52" s="83"/>
     </row>
-    <row r="53" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="B53" s="180">
-        <v>1</v>
-      </c>
-      <c r="D53" s="112"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-    </row>
-    <row r="54" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="B54" s="180">
-        <v>1</v>
-      </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-    </row>
-    <row r="55" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="83" t="s">
-        <v>703</v>
-      </c>
-      <c r="B55" s="179">
-        <v>1</v>
-      </c>
-      <c r="D55" s="112"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="147" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B56" s="148" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="147" t="s">
+      <c r="B53" s="148" t="s">
+        <v>744</v>
+      </c>
+      <c r="D53" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="E53" s="117" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="B57" s="148" t="s">
+      <c r="B54" s="148" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="145" t="s">
+        <v>712</v>
+      </c>
+      <c r="B55" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="112" t="s">
+        <v>714</v>
+      </c>
+      <c r="E55" s="112" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="B56" s="173" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="B57" s="173" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="B58" s="173" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B59" s="173" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="B60" s="173" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="B61" s="173" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="83" t="s">
+        <v>728</v>
+      </c>
+      <c r="B62" s="173" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="B5:B20 B25:B40 B22:B23">
-    <cfRule type="notContainsErrors" dxfId="38" priority="25">
-      <formula>NOT(ISERROR(B5))</formula>
+  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B11:B19">
+    <cfRule type="notContainsErrors" dxfId="43" priority="65">
+      <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="37" priority="24">
+    <cfRule type="notContainsErrors" dxfId="42" priority="64">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="36" priority="23">
+    <cfRule type="notContainsErrors" dxfId="41" priority="63">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="35" priority="22">
+    <cfRule type="notContainsErrors" dxfId="40" priority="62">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="notContainsErrors" dxfId="34" priority="21">
-      <formula>NOT(ISERROR(F21))</formula>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="notContainsErrors" dxfId="39" priority="61">
+      <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="notContainsErrors" dxfId="33" priority="20">
-      <formula>NOT(ISERROR(E21))</formula>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="notContainsErrors" dxfId="38" priority="60">
+      <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="notContainsErrors" dxfId="32" priority="19">
-      <formula>NOT(ISERROR(D21))</formula>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="notContainsErrors" dxfId="37" priority="59">
+      <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="notContainsErrors" dxfId="30" priority="17">
-      <formula>NOT(ISERROR(B24))</formula>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="notContainsErrors" dxfId="36" priority="42">
+      <formula>NOT(ISERROR(D4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="notContainsErrors" dxfId="33" priority="35">
+      <formula>NOT(ISERROR(B2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="notContainsErrors" dxfId="32" priority="33">
+      <formula>NOT(ISERROR(D33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="notContainsErrors" dxfId="31" priority="32">
+      <formula>NOT(ISERROR(E28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="notContainsErrors" dxfId="30" priority="20">
+      <formula>NOT(ISERROR(B58))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="notContainsErrors" dxfId="29" priority="18">
+      <formula>NOT(ISERROR(B56))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="notContainsErrors" dxfId="28" priority="24">
+      <formula>NOT(ISERROR(B62))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="notContainsErrors" dxfId="27" priority="23">
+      <formula>NOT(ISERROR(B61))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="notContainsErrors" dxfId="26" priority="22">
+      <formula>NOT(ISERROR(B60))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="notContainsErrors" dxfId="25" priority="21">
+      <formula>NOT(ISERROR(B59))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="notContainsErrors" dxfId="24" priority="19">
+      <formula>NOT(ISERROR(B57))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="notContainsErrors" dxfId="22" priority="13">
+      <formula>NOT(ISERROR(E4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="notContainsErrors" dxfId="5" priority="6">
+      <formula>NOT(ISERROR(B9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="notContainsErrors" dxfId="4" priority="5">
+      <formula>NOT(ISERROR(B20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="notContainsErrors" dxfId="3" priority="4">
+      <formula>NOT(ISERROR(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="2" priority="3">
+      <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="29" priority="14">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="28" priority="15">
-      <formula>NOT(ISERROR(B2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="notContainsErrors" dxfId="26" priority="13">
-      <formula>NOT(ISERROR(B21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="1" priority="2">
-      <formula>NOT(ISERROR(D4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B23">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(B4))</formula>
+      <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5082,6 +5639,468 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB740-2696-4061-9D1F-96ECA011A915}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="1.734375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="73" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="42">
+        <v>10</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="45">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="36">
+        <v>8.0484411999999994E-6</v>
+      </c>
+      <c r="E26" s="36">
+        <v>3.0484411999999999E-6</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G26" s="24">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="44" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="46">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F27" s="21">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="47"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="47"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="47"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="47"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="47"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="47"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="47"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="47"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB470B68-06CF-4878-82CF-51FDF4D94B75}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -5301,7 +6320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC21375-A8E9-4EF5-B764-254BB08A3B84}">
   <dimension ref="A1:B320"/>
   <sheetViews>
@@ -8546,67 +9565,67 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="23" priority="14">
+    <cfRule type="notContainsErrors" dxfId="19" priority="14">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="22" priority="13">
+    <cfRule type="notContainsErrors" dxfId="18" priority="13">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="21" priority="12">
+    <cfRule type="notContainsErrors" dxfId="17" priority="12">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="20" priority="11">
+    <cfRule type="notContainsErrors" dxfId="16" priority="11">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="19" priority="10">
+    <cfRule type="notContainsErrors" dxfId="15" priority="10">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="18" priority="9">
+    <cfRule type="notContainsErrors" dxfId="14" priority="9">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="17" priority="6">
+    <cfRule type="notContainsErrors" dxfId="13" priority="6">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="16" priority="8">
+    <cfRule type="notContainsErrors" dxfId="12" priority="8">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="14" priority="5">
+    <cfRule type="notContainsErrors" dxfId="11" priority="5">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="13" priority="4">
+    <cfRule type="notContainsErrors" dxfId="10" priority="4">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="12" priority="3">
+    <cfRule type="notContainsErrors" dxfId="9" priority="3">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="11" priority="2">
+    <cfRule type="notContainsErrors" dxfId="8" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="10" priority="1">
+    <cfRule type="notContainsErrors" dxfId="7" priority="1">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8621,10 +9640,10 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10736,63 +11755,63 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="145" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B263" s="146">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="147" t="s">
-        <v>451</v>
-      </c>
-      <c r="B264" s="148" t="s">
-        <v>452</v>
+      <c r="A264" s="145" t="s">
+        <v>712</v>
+      </c>
+      <c r="B264" s="146">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="147" t="s">
-        <v>453</v>
-      </c>
-      <c r="B265" s="148" t="s">
-        <v>454</v>
+      <c r="A265" s="145" t="s">
+        <v>680</v>
+      </c>
+      <c r="B265" s="146">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="147" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B266" s="148" t="s">
-        <v>77</v>
+        <v>452</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="147" t="s">
-        <v>456</v>
-      </c>
-      <c r="B267" s="148">
-        <v>1</v>
+        <v>453</v>
+      </c>
+      <c r="B267" s="148" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="147" t="s">
-        <v>457</v>
-      </c>
-      <c r="B268" s="148">
-        <v>0.5</v>
+        <v>455</v>
+      </c>
+      <c r="B268" s="148" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="147" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B269" s="148">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="147" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B270" s="148">
         <v>0.5</v>
@@ -10800,397 +11819,413 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="147" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B271" s="148">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="147" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B272" s="148">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="147" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B273" s="148">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="147" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B274" s="148">
-        <v>2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="147" t="s">
-        <v>464</v>
-      </c>
-      <c r="B275" s="148" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+      <c r="B275" s="148">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="147" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B276" s="148">
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="147" t="s">
-        <v>467</v>
-      </c>
-      <c r="B277" s="148">
-        <v>0.6</v>
+        <v>464</v>
+      </c>
+      <c r="B277" s="148" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="147" t="s">
-        <v>468</v>
-      </c>
-      <c r="B278" s="148" t="s">
-        <v>469</v>
+        <v>466</v>
+      </c>
+      <c r="B278" s="148">
+        <v>160</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="147" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B279" s="148">
-        <v>1E-4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="147" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B280" s="148" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="147" t="s">
-        <v>473</v>
-      </c>
-      <c r="B281" s="148" t="s">
-        <v>474</v>
+        <v>470</v>
+      </c>
+      <c r="B281" s="148">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="147" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B282" s="148" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="147" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B283" s="148" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="147" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B284" s="148" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="147" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B285" s="148" t="s">
-        <v>77</v>
+        <v>478</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="147" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B286" s="148" t="s">
-        <v>77</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="147" t="s">
-        <v>483</v>
-      </c>
-      <c r="B287" s="148">
-        <v>1961</v>
+        <v>481</v>
+      </c>
+      <c r="B287" s="148" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="147" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B288" s="148" t="s">
-        <v>485</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="147" t="s">
-        <v>486</v>
-      </c>
-      <c r="B289" s="148" t="s">
-        <v>487</v>
+        <v>483</v>
+      </c>
+      <c r="B289" s="148">
+        <v>1961</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="147" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B290" s="148" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="147" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B291" s="148" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="147" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B292" s="148" t="s">
-        <v>85</v>
+        <v>489</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="147" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B293" s="148" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="147" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B294" s="148" t="s">
-        <v>496</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="147" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B295" s="148" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="147" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B296" s="148" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="147" t="s">
-        <v>499</v>
-      </c>
-      <c r="B297" s="148">
-        <v>0.02</v>
+        <v>497</v>
+      </c>
+      <c r="B297" s="148" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="147" t="s">
-        <v>500</v>
-      </c>
-      <c r="B298" s="148">
-        <v>0.9</v>
+        <v>498</v>
+      </c>
+      <c r="B298" s="148" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="147" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B299" s="148">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="147" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B300" s="148">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="147" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B301" s="148">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="147" t="s">
+        <v>502</v>
+      </c>
+      <c r="B302" s="148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="147" t="s">
+        <v>503</v>
+      </c>
+      <c r="B303" s="148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="147" t="s">
         <v>504</v>
       </c>
-      <c r="B302" s="148">
+      <c r="B304" s="148">
         <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="145" t="s">
-        <v>108</v>
-      </c>
-      <c r="B303" s="146" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="B304" s="146">
-        <v>0.92969999999999997</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="145" t="s">
-        <v>111</v>
-      </c>
-      <c r="B305" s="146">
-        <v>0.94969999999999999</v>
+        <v>108</v>
+      </c>
+      <c r="B305" s="146" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="145" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B306" s="146">
-        <v>0.98499999999999999</v>
+        <v>0.92969999999999997</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="145" t="s">
+        <v>111</v>
+      </c>
+      <c r="B307" s="146">
+        <v>0.94969999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="B308" s="146">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="145" t="s">
         <v>531</v>
       </c>
-      <c r="B307" s="146">
+      <c r="B309" s="146">
         <v>0.7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="147" t="s">
-        <v>505</v>
-      </c>
-      <c r="B308" s="148" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="147" t="s">
-        <v>507</v>
-      </c>
-      <c r="B309" s="148" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="147" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B310" s="148" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="147" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B311" s="148" t="s">
-        <v>77</v>
+        <v>508</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="147" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B312" s="148" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="147" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B313" s="148" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="147" t="s">
+        <v>512</v>
+      </c>
+      <c r="B314" s="148" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="147" t="s">
+        <v>514</v>
+      </c>
+      <c r="B315" s="148" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="147" t="s">
         <v>515</v>
       </c>
-      <c r="B314" s="148" t="s">
+      <c r="B316" s="148" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="145" t="s">
-        <v>544</v>
-      </c>
-      <c r="B315" s="146"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="145" t="s">
-        <v>517</v>
-      </c>
-      <c r="B316" s="146"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="145" t="s">
-        <v>694</v>
+        <v>544</v>
       </c>
       <c r="B317" s="146"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="145" t="s">
-        <v>695</v>
+        <v>517</v>
       </c>
       <c r="B318" s="146"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="145" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B319" s="146"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="145" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B320" s="146"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="145" t="s">
+        <v>696</v>
+      </c>
+      <c r="B321" s="146"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="145" t="s">
+        <v>697</v>
+      </c>
+      <c r="B322" s="146"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="145" t="s">
         <v>564</v>
       </c>
-      <c r="B321" s="146"/>
+      <c r="B323" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11436,10 +12471,861 @@
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
   </sheetPr>
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="13.3125" style="191" customWidth="1"/>
+    <col min="2" max="2" width="3.3671875" style="191" customWidth="1"/>
+    <col min="3" max="3" width="11.3671875" style="191" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.05078125" style="191" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3.68359375" style="191" customWidth="1"/>
+    <col min="9" max="9" width="4.3671875" style="191" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1015625" style="191" customWidth="1"/>
+    <col min="11" max="14" width="4.3671875" style="191" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.20703125" style="191" customWidth="1"/>
+    <col min="16" max="16" width="4.3671875" style="191" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.68359375" style="191" customWidth="1"/>
+    <col min="18" max="18" width="54.7890625" style="191" customWidth="1"/>
+    <col min="19" max="16384" width="8.83984375" style="191"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="188"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="186" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1" s="187" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="197" t="s">
+        <v>589</v>
+      </c>
+      <c r="F1" s="198" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" s="198" t="s">
+        <v>591</v>
+      </c>
+      <c r="H1" s="199" t="s">
+        <v>592</v>
+      </c>
+      <c r="I1" s="200" t="s">
+        <v>593</v>
+      </c>
+      <c r="J1" s="201" t="s">
+        <v>594</v>
+      </c>
+      <c r="K1" s="201" t="s">
+        <v>595</v>
+      </c>
+      <c r="L1" s="202" t="s">
+        <v>596</v>
+      </c>
+      <c r="M1" s="203" t="s">
+        <v>597</v>
+      </c>
+      <c r="N1" s="204" t="s">
+        <v>598</v>
+      </c>
+      <c r="O1" s="204" t="s">
+        <v>599</v>
+      </c>
+      <c r="P1" s="205" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A2" s="192"/>
+      <c r="B2" s="193">
+        <v>0</v>
+      </c>
+      <c r="C2" s="206" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="207">
+        <v>1</v>
+      </c>
+      <c r="E2" s="208">
+        <v>1</v>
+      </c>
+      <c r="F2" s="209">
+        <v>3</v>
+      </c>
+      <c r="G2" s="209">
+        <v>9</v>
+      </c>
+      <c r="H2" s="210">
+        <v>11</v>
+      </c>
+      <c r="I2" s="211">
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="212">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="212">
+        <v>1.25</v>
+      </c>
+      <c r="L2" s="213">
+        <v>0.75</v>
+      </c>
+      <c r="M2" s="214">
+        <v>0.75</v>
+      </c>
+      <c r="N2" s="215">
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="215">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="216">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="194" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A3" s="192"/>
+      <c r="B3" s="193">
+        <v>1</v>
+      </c>
+      <c r="C3" s="206" t="s">
+        <v>610</v>
+      </c>
+      <c r="D3" s="207">
+        <v>6</v>
+      </c>
+      <c r="E3" s="217">
+        <v>2</v>
+      </c>
+      <c r="F3" s="218">
+        <v>5</v>
+      </c>
+      <c r="G3" s="218">
+        <v>14</v>
+      </c>
+      <c r="H3" s="219">
+        <v>17</v>
+      </c>
+      <c r="I3" s="220">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="221">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="221">
+        <v>1.25</v>
+      </c>
+      <c r="L3" s="222">
+        <v>0.75</v>
+      </c>
+      <c r="M3" s="223">
+        <v>0.75</v>
+      </c>
+      <c r="N3" s="224">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="224">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="225">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="195" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A4" s="192"/>
+      <c r="B4" s="193">
+        <v>2</v>
+      </c>
+      <c r="C4" s="206" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="207">
+        <v>11</v>
+      </c>
+      <c r="E4" s="217">
+        <v>1</v>
+      </c>
+      <c r="F4" s="218">
+        <v>4</v>
+      </c>
+      <c r="G4" s="218">
+        <v>12</v>
+      </c>
+      <c r="H4" s="219">
+        <v>15</v>
+      </c>
+      <c r="I4" s="220">
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="221">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="221">
+        <v>1.25</v>
+      </c>
+      <c r="L4" s="222">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="223">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="224">
+        <v>0.75</v>
+      </c>
+      <c r="O4" s="224">
+        <v>0.5</v>
+      </c>
+      <c r="P4" s="225">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="195" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A5" s="192"/>
+      <c r="B5" s="193">
+        <v>3</v>
+      </c>
+      <c r="C5" s="206" t="s">
+        <v>612</v>
+      </c>
+      <c r="D5" s="207">
+        <v>1</v>
+      </c>
+      <c r="E5" s="217">
+        <v>1</v>
+      </c>
+      <c r="F5" s="218">
+        <v>3</v>
+      </c>
+      <c r="G5" s="218">
+        <v>10</v>
+      </c>
+      <c r="H5" s="219">
+        <v>12</v>
+      </c>
+      <c r="I5" s="220">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="221">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="221">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="222">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="223">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="224">
+        <v>0.75</v>
+      </c>
+      <c r="O5" s="224">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="225">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="195" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A6" s="192"/>
+      <c r="B6" s="193">
+        <v>4</v>
+      </c>
+      <c r="C6" s="206" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" s="207">
+        <v>11</v>
+      </c>
+      <c r="E6" s="217">
+        <v>1</v>
+      </c>
+      <c r="F6" s="218">
+        <v>2</v>
+      </c>
+      <c r="G6" s="218">
+        <v>4</v>
+      </c>
+      <c r="H6" s="219">
+        <v>5</v>
+      </c>
+      <c r="I6" s="220">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="221">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L6" s="222">
+        <v>0.4</v>
+      </c>
+      <c r="M6" s="223">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="224">
+        <v>0.65</v>
+      </c>
+      <c r="O6" s="224">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P6" s="225">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="195"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A7" s="192"/>
+      <c r="B7" s="193">
+        <v>5</v>
+      </c>
+      <c r="C7" s="206" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" s="207">
+        <v>6</v>
+      </c>
+      <c r="E7" s="217">
+        <v>1</v>
+      </c>
+      <c r="F7" s="218">
+        <v>2</v>
+      </c>
+      <c r="G7" s="218">
+        <v>4</v>
+      </c>
+      <c r="H7" s="219">
+        <v>5</v>
+      </c>
+      <c r="I7" s="226">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="227">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="227">
+        <v>1.2</v>
+      </c>
+      <c r="L7" s="228">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="229">
+        <v>0.4</v>
+      </c>
+      <c r="N7" s="230">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O7" s="230">
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="231">
+        <v>0.4</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="195" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A8" s="192"/>
+      <c r="B8" s="193">
+        <v>6</v>
+      </c>
+      <c r="C8" s="206" t="s">
+        <v>730</v>
+      </c>
+      <c r="D8" s="207">
+        <v>11</v>
+      </c>
+      <c r="E8" s="217">
+        <v>1</v>
+      </c>
+      <c r="F8" s="218">
+        <v>2</v>
+      </c>
+      <c r="G8" s="218">
+        <v>4</v>
+      </c>
+      <c r="H8" s="219">
+        <v>5</v>
+      </c>
+      <c r="I8" s="226">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="227">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="227">
+        <v>1.05</v>
+      </c>
+      <c r="L8" s="228">
+        <v>0.75</v>
+      </c>
+      <c r="M8" s="229">
+        <v>0.45</v>
+      </c>
+      <c r="N8" s="230">
+        <v>0.65</v>
+      </c>
+      <c r="O8" s="230">
+        <v>0.8</v>
+      </c>
+      <c r="P8" s="231">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="195" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A9" s="192"/>
+      <c r="B9" s="193">
+        <v>7</v>
+      </c>
+      <c r="C9" s="206" t="s">
+        <v>731</v>
+      </c>
+      <c r="D9" s="207">
+        <v>6</v>
+      </c>
+      <c r="E9" s="217">
+        <v>1</v>
+      </c>
+      <c r="F9" s="218">
+        <v>2</v>
+      </c>
+      <c r="G9" s="218">
+        <v>4</v>
+      </c>
+      <c r="H9" s="219">
+        <v>5</v>
+      </c>
+      <c r="I9" s="220">
+        <v>0.3</v>
+      </c>
+      <c r="J9" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="221">
+        <v>1.2</v>
+      </c>
+      <c r="L9" s="222">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="223">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="224">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="224">
+        <v>1.3</v>
+      </c>
+      <c r="P9" s="225">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="195" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A10" s="196"/>
+      <c r="B10" s="193">
+        <v>8</v>
+      </c>
+      <c r="C10" s="206" t="s">
+        <v>732</v>
+      </c>
+      <c r="D10" s="207">
+        <v>11</v>
+      </c>
+      <c r="E10" s="217">
+        <v>1</v>
+      </c>
+      <c r="F10" s="218">
+        <v>2</v>
+      </c>
+      <c r="G10" s="218">
+        <v>4</v>
+      </c>
+      <c r="H10" s="219">
+        <v>5</v>
+      </c>
+      <c r="I10" s="220">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="221">
+        <v>1.2</v>
+      </c>
+      <c r="L10" s="222">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="223">
+        <v>0.4</v>
+      </c>
+      <c r="N10" s="224">
+        <v>0.4</v>
+      </c>
+      <c r="O10" s="224">
+        <v>1.3</v>
+      </c>
+      <c r="P10" s="225">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="195" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A11" s="196"/>
+      <c r="B11" s="193">
+        <v>9</v>
+      </c>
+      <c r="C11" s="206" t="s">
+        <v>725</v>
+      </c>
+      <c r="D11" s="207">
+        <v>4</v>
+      </c>
+      <c r="E11" s="217">
+        <v>1</v>
+      </c>
+      <c r="F11" s="218">
+        <v>2</v>
+      </c>
+      <c r="G11" s="218">
+        <v>5</v>
+      </c>
+      <c r="H11" s="219">
+        <v>7</v>
+      </c>
+      <c r="I11" s="226">
+        <v>0.46</v>
+      </c>
+      <c r="J11" s="227">
+        <v>0.7</v>
+      </c>
+      <c r="K11" s="227">
+        <v>1.01</v>
+      </c>
+      <c r="L11" s="228">
+        <v>0.39</v>
+      </c>
+      <c r="M11" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="230">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="230">
+        <v>0.5</v>
+      </c>
+      <c r="P11" s="231">
+        <v>0.25</v>
+      </c>
+      <c r="R11" s="195"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A12" s="196"/>
+      <c r="B12" s="193">
+        <v>10</v>
+      </c>
+      <c r="C12" s="206" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="207">
+        <v>6</v>
+      </c>
+      <c r="E12" s="217">
+        <v>1</v>
+      </c>
+      <c r="F12" s="218">
+        <v>2</v>
+      </c>
+      <c r="G12" s="218">
+        <v>4</v>
+      </c>
+      <c r="H12" s="219">
+        <v>5</v>
+      </c>
+      <c r="I12" s="226">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="227">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="227">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L12" s="228">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="229">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="230">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="230">
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="231">
+        <v>1</v>
+      </c>
+      <c r="R12" s="195"/>
+    </row>
+    <row r="13" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="196"/>
+      <c r="B13" s="193">
+        <v>11</v>
+      </c>
+      <c r="C13" s="206" t="s">
+        <v>728</v>
+      </c>
+      <c r="D13" s="207">
+        <v>11</v>
+      </c>
+      <c r="E13" s="217">
+        <v>1</v>
+      </c>
+      <c r="F13" s="218">
+        <v>2</v>
+      </c>
+      <c r="G13" s="218">
+        <v>4</v>
+      </c>
+      <c r="H13" s="219">
+        <v>5</v>
+      </c>
+      <c r="I13" s="220">
+        <v>0.4</v>
+      </c>
+      <c r="J13" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="221">
+        <v>1.05</v>
+      </c>
+      <c r="L13" s="222">
+        <v>0.35</v>
+      </c>
+      <c r="M13" s="223">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="224">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="224">
+        <v>0.6</v>
+      </c>
+      <c r="P13" s="225">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="195"/>
+    </row>
+    <row r="14" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="196"/>
+      <c r="B14" s="193">
+        <v>12</v>
+      </c>
+      <c r="C14" s="206" t="s">
+        <v>584</v>
+      </c>
+      <c r="D14" s="207">
+        <v>6</v>
+      </c>
+      <c r="E14" s="217">
+        <v>1</v>
+      </c>
+      <c r="F14" s="218">
+        <v>2</v>
+      </c>
+      <c r="G14" s="218">
+        <v>4</v>
+      </c>
+      <c r="H14" s="219">
+        <v>5</v>
+      </c>
+      <c r="I14" s="220">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="221">
+        <v>1.05</v>
+      </c>
+      <c r="L14" s="222">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="223">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="224">
+        <v>0.8</v>
+      </c>
+      <c r="O14" s="224">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="225">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="232" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="196"/>
+      <c r="B15" s="193">
+        <v>13</v>
+      </c>
+      <c r="C15" s="206" t="s">
+        <v>583</v>
+      </c>
+      <c r="D15" s="207">
+        <v>11</v>
+      </c>
+      <c r="E15" s="217">
+        <v>1</v>
+      </c>
+      <c r="F15" s="218">
+        <v>2</v>
+      </c>
+      <c r="G15" s="218">
+        <v>3</v>
+      </c>
+      <c r="H15" s="219">
+        <v>4</v>
+      </c>
+      <c r="I15" s="220">
+        <v>0.42</v>
+      </c>
+      <c r="J15" s="221">
+        <v>0.71</v>
+      </c>
+      <c r="K15" s="221">
+        <v>0.62</v>
+      </c>
+      <c r="L15" s="222">
+        <v>0.23</v>
+      </c>
+      <c r="M15" s="223">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="224">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O15" s="224">
+        <v>0.45</v>
+      </c>
+      <c r="P15" s="225">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="233" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="196"/>
+      <c r="B16" s="193">
+        <v>14</v>
+      </c>
+      <c r="C16" s="206" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="207">
+        <v>11</v>
+      </c>
+      <c r="E16" s="217">
+        <v>1</v>
+      </c>
+      <c r="F16" s="218">
+        <v>2</v>
+      </c>
+      <c r="G16" s="218">
+        <v>4</v>
+      </c>
+      <c r="H16" s="219">
+        <v>5</v>
+      </c>
+      <c r="I16" s="220">
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="221">
+        <v>1.2</v>
+      </c>
+      <c r="L16" s="222">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="223">
+        <v>0.4</v>
+      </c>
+      <c r="N16" s="224">
+        <v>0.4</v>
+      </c>
+      <c r="O16" s="224">
+        <v>1.3</v>
+      </c>
+      <c r="P16" s="225">
+        <v>0.5</v>
+      </c>
+      <c r="R16" s="234" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D2EFD-B359-4BA7-8894-C1EBC96E92BC}">
+  <sheetPr>
+    <tabColor rgb="FF15FFC2"/>
+  </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -11914,7 +13800,28 @@
       <c r="R9" s="72"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="C10" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="D10" s="49">
+        <v>4</v>
+      </c>
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49">
+        <v>2</v>
+      </c>
+      <c r="G10" s="49">
+        <v>5</v>
+      </c>
+      <c r="H10" s="49">
+        <v>7</v>
+      </c>
       <c r="Q10" s="51"/>
+      <c r="R10" s="49" t="s">
+        <v>726</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11923,136 +13830,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DE2398-4D66-4F9C-BA4E-2DE4F9D6B687}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="B1:D8"/>
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="20.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.05078125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="109"/>
-      <c r="B1" s="74" t="s">
-        <v>602</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>581</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="110">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>610</v>
-      </c>
-      <c r="C2" s="59">
-        <v>7</v>
-      </c>
-      <c r="D2" s="62">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="110">
-        <v>2</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>611</v>
-      </c>
-      <c r="C3" s="59">
-        <v>10</v>
-      </c>
-      <c r="D3" s="62">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="110">
-        <v>3</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>612</v>
-      </c>
-      <c r="C4" s="59">
-        <v>1</v>
-      </c>
-      <c r="D4" s="62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="110">
-        <v>4</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="59">
-        <v>11</v>
-      </c>
-      <c r="D5" s="62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="110">
-        <v>5</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>584</v>
-      </c>
-      <c r="C6" s="59">
-        <v>6</v>
-      </c>
-      <c r="D6" s="62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="110">
-        <v>6</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>585</v>
-      </c>
-      <c r="C7" s="59">
-        <v>11</v>
-      </c>
-      <c r="D7" s="62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="110">
-        <v>7</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>588</v>
-      </c>
-      <c r="C8" s="59">
-        <v>11</v>
-      </c>
-      <c r="D8" s="62">
-        <v>5</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" s="235" t="s">
+        <v>754</v>
+      </c>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="104" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>707</v>
+      </c>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="145" t="s">
+        <v>695</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="235"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="235"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="235"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="237"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="237"/>
+      <c r="D9" s="237"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="237"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="237"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="237"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="237"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="237"/>
+      <c r="G12" s="237"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="237"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="237"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="237"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="notContainsErrors" dxfId="6" priority="2">
+      <formula>NOT(ISERROR(B4))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -12486,7 +14437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
   <dimension ref="A1:G503"/>
   <sheetViews>
@@ -16492,466 +18443,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB740-2696-4061-9D1F-96ECA011A915}">
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="21.3125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="25.62890625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="1.734375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="73" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="42" t="s">
-        <v>577</v>
-      </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="42">
-        <v>10</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="B5" s="42">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="41" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="41" t="s">
-        <v>544</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="41" t="s">
-        <v>517</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="41" t="s">
-        <v>561</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="41" t="s">
-        <v>562</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="41" t="s">
-        <v>563</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="41" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="35" t="s">
-        <v>558</v>
-      </c>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>559</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="B24" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="44" t="s">
-        <v>391</v>
-      </c>
-      <c r="B25" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="45">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="36">
-        <v>8.0484411999999994E-6</v>
-      </c>
-      <c r="E26" s="36">
-        <v>3.0484411999999999E-6</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="G26" s="24">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="B27" s="46">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="37">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="F27" s="21">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>570</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="47"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="47"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="47"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="47"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="47"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="47"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="47"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="47"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94775A62-2F6A-44DA-9E61-A48267BCC83C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CC4D2-AB0F-420F-A8F7-E1A5B5F611BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="876" yWindow="-96" windowWidth="22260" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="776">
   <si>
     <t>PathRoot</t>
   </si>
@@ -2360,9 +2360,6 @@
     <t>fracVegCover[3], cropKC[1], cropKC[3], totalPotET[1], totalPotET[3], Yield_Irr[1], Yield_Irr[5], Yield_Irr[7], Yield_Irr[10], Yield_Irr[12], ratio_a_p_Irr[1], ratio_a_p_Irr[5], ratio_a_p_Irr[7],ratio_a_p_Irr[10], ratio_a_p_Irr[12], totalPotET_month_Irr[1], actTransTotal_month_Irr[1]</t>
   </si>
   <si>
-    <t>rainAverage_segments, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments</t>
-  </si>
-  <si>
     <t>ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1]</t>
   </si>
   <si>
@@ -2375,9 +2372,6 @@
     <t>0.2 produces negative gw abstraction results</t>
   </si>
   <si>
-    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/04/1998</t>
   </si>
   <si>
@@ -2402,9 +2396,6 @@
     <t>Pre-seasonal variety, from 15 to 14</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/2008</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira_20070501.nc</t>
   </si>
   <si>
@@ -2414,7 +2405,28 @@
     <t>$(PathGroundwaterModflowOutput)/Nira_steady_1May2007_30July2020.hds</t>
   </si>
   <si>
-    <t>act_channelAbstract_Lift, act_nonLocalchannelAbstract_M, act_nonLocalLakeAbstract_M, sum_prefFlow_GW, sum_perc3toGW_GW, discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, riverbedExchangeM, cropKC[1], cropKC[3], head_development</t>
+    <t xml:space="preserve"> 01/06/2007</t>
+  </si>
+  <si>
+    <t>leftOverGW, leftOverSW, nonSatisfiedGWrequest, act_channelAbstract_Lift, act_nonLocalchannelAbstract_M, act_nonLocalLakeAbstract_M, sum_prefFlow_GW, sum_perc3toGW_GW, discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, riverbedExchangeM, cropKC[1], cropKC[3], head_development</t>
+  </si>
+  <si>
+    <t>rainAverage_segments, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments, discharge</t>
+  </si>
+  <si>
+    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography, waterBodyID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/04/1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/04/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/04/1993</t>
+  </si>
+  <si>
+    <t>reslakeoutflow, ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1], Yield_nonIrr[1], Yield_Irr[5], Yield_nonIrr[5], Yield_Irr[13], Yield_nonIrr[13], frac_totalIrr_max</t>
   </si>
 </sst>
 </file>
@@ -3837,11 +3849,280 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="150">
+  <dxfs count="78">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4139,779 +4420,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5156,10 +4664,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" totalsRowBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:A320" xr:uid="{899F2FC2-D930-4738-BF7B-C93ECDFC8D39}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5467,8 +4975,8 @@
   </sheetPr>
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="83" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5510,10 +5018,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>566</v>
+        <v>774</v>
       </c>
       <c r="D2" s="181" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E2" s="181" t="s">
         <v>709</v>
@@ -5528,7 +5036,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>9</v>
+        <v>773</v>
       </c>
       <c r="D3" s="169" t="s">
         <v>738</v>
@@ -5545,7 +5053,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="D4" s="181" t="s">
         <v>709</v>
@@ -5568,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="169" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F5" s="93"/>
       <c r="G5" s="100"/>
@@ -5595,7 +5103,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>685</v>
@@ -5613,7 +5121,7 @@
         <v>517</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="F8" s="93"/>
       <c r="G8" s="100"/>
@@ -5623,7 +5131,7 @@
         <v>561</v>
       </c>
       <c r="B9" s="170" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="F9" s="93"/>
       <c r="G9" s="100"/>
@@ -5662,7 +5170,7 @@
         <v>564</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="113"/>
@@ -5690,7 +5198,7 @@
         <v>533</v>
       </c>
       <c r="D15" s="112" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="100"/>
@@ -5744,10 +5252,10 @@
         <v>128</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E20" s="107" t="s">
         <v>640</v>
@@ -5790,7 +5298,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="181" t="s">
-        <v>566</v>
+        <v>768</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="100"/>
@@ -5992,7 +5500,7 @@
         <v>636</v>
       </c>
       <c r="B41" s="112" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D41" s="112" t="s">
         <v>637</v>
@@ -6009,13 +5517,13 @@
         <v>466</v>
       </c>
       <c r="B42" s="175">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D42" s="175">
         <v>120</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6053,10 +5561,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="139" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B46" s="179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -6082,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="112" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E48" s="117"/>
       <c r="F48" s="83"/>
@@ -6114,7 +5622,7 @@
         <v>1.5</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="83"/>
@@ -6244,14 +5752,14 @@
         <v>733</v>
       </c>
       <c r="D61" s="83" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E61" s="179" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F61" s="91"/>
       <c r="G61" s="112" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -6270,10 +5778,10 @@
         <v>731</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F63" s="83" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6309,149 +5817,149 @@
         <v>531</v>
       </c>
       <c r="B66" s="179">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B11:B19">
-    <cfRule type="notContainsErrors" dxfId="143" priority="170">
+    <cfRule type="notContainsErrors" dxfId="77" priority="200">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="142" priority="169">
+    <cfRule type="notContainsErrors" dxfId="76" priority="199">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="141" priority="168">
+    <cfRule type="notContainsErrors" dxfId="75" priority="198">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="140" priority="167">
+    <cfRule type="notContainsErrors" dxfId="74" priority="197">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="139" priority="166">
+    <cfRule type="notContainsErrors" dxfId="73" priority="196">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="138" priority="165">
+    <cfRule type="notContainsErrors" dxfId="72" priority="195">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="136" priority="147">
+    <cfRule type="notContainsErrors" dxfId="71" priority="177">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="notContainsErrors" dxfId="135" priority="123">
+    <cfRule type="notContainsErrors" dxfId="70" priority="153">
       <formula>NOT(ISERROR(B57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsErrors" dxfId="134" priority="138">
+    <cfRule type="notContainsErrors" dxfId="69" priority="168">
       <formula>NOT(ISERROR(D33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="notContainsErrors" dxfId="133" priority="137">
+    <cfRule type="notContainsErrors" dxfId="68" priority="167">
       <formula>NOT(ISERROR(E28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="notContainsErrors" dxfId="132" priority="125">
+    <cfRule type="notContainsErrors" dxfId="67" priority="155">
       <formula>NOT(ISERROR(B59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsErrors" dxfId="130" priority="129">
+    <cfRule type="notContainsErrors" dxfId="66" priority="159">
       <formula>NOT(ISERROR(B63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsErrors" dxfId="129" priority="128">
+    <cfRule type="notContainsErrors" dxfId="65" priority="158">
       <formula>NOT(ISERROR(B62))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsErrors" dxfId="128" priority="127">
+    <cfRule type="notContainsErrors" dxfId="64" priority="157">
       <formula>NOT(ISERROR(B61))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsErrors" dxfId="127" priority="126">
+    <cfRule type="notContainsErrors" dxfId="63" priority="156">
       <formula>NOT(ISERROR(B60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="notContainsErrors" dxfId="126" priority="124">
+    <cfRule type="notContainsErrors" dxfId="62" priority="154">
       <formula>NOT(ISERROR(B58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="notContainsErrors" dxfId="125" priority="118">
+    <cfRule type="notContainsErrors" dxfId="61" priority="148">
       <formula>NOT(ISERROR(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsErrors" dxfId="124" priority="111">
+    <cfRule type="notContainsErrors" dxfId="60" priority="141">
       <formula>NOT(ISERROR(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsErrors" dxfId="114" priority="61">
+    <cfRule type="notContainsErrors" dxfId="59" priority="91">
       <formula>NOT(ISERROR(D2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsErrors" dxfId="109" priority="60">
+    <cfRule type="notContainsErrors" dxfId="58" priority="90">
       <formula>NOT(ISERROR(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsErrors" dxfId="94" priority="81">
+    <cfRule type="notContainsErrors" dxfId="57" priority="111">
       <formula>NOT(ISERROR(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="notContainsErrors" dxfId="44" priority="45">
+    <cfRule type="notContainsErrors" dxfId="56" priority="75">
       <formula>NOT(ISERROR(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="24" priority="25">
+    <cfRule type="notContainsErrors" dxfId="55" priority="55">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="23" priority="24">
+    <cfRule type="notContainsErrors" dxfId="54" priority="54">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="20" priority="21">
+    <cfRule type="notContainsErrors" dxfId="53" priority="51">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="8" priority="9">
-      <formula>NOT(ISERROR(B3))</formula>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="6" priority="7">
+      <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="7" priority="8">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B3">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(B4))</formula>
+      <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13734,7 +13242,7 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14395,67 +13903,67 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="58" priority="14">
+    <cfRule type="notContainsErrors" dxfId="49" priority="14">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="57" priority="13">
+    <cfRule type="notContainsErrors" dxfId="48" priority="13">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="56" priority="12">
+    <cfRule type="notContainsErrors" dxfId="47" priority="12">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="55" priority="11">
+    <cfRule type="notContainsErrors" dxfId="46" priority="11">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="54" priority="10">
+    <cfRule type="notContainsErrors" dxfId="45" priority="10">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="53" priority="9">
+    <cfRule type="notContainsErrors" dxfId="44" priority="9">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="52" priority="6">
+    <cfRule type="notContainsErrors" dxfId="43" priority="6">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="51" priority="8">
+    <cfRule type="notContainsErrors" dxfId="42" priority="8">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="50" priority="5">
+    <cfRule type="notContainsErrors" dxfId="41" priority="5">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="49" priority="4">
+    <cfRule type="notContainsErrors" dxfId="40" priority="4">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="48" priority="3">
+    <cfRule type="notContainsErrors" dxfId="39" priority="3">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="47" priority="2">
+    <cfRule type="notContainsErrors" dxfId="38" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="46" priority="1">
+    <cfRule type="notContainsErrors" dxfId="37" priority="1">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17338,7 +16846,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -17561,7 +17069,7 @@
       </c>
       <c r="Q4" s="51"/>
       <c r="R4" s="195" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
@@ -18859,7 +18367,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="notContainsErrors" dxfId="45" priority="2">
+    <cfRule type="notContainsErrors" dxfId="36" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CC4D2-AB0F-420F-A8F7-E1A5B5F611BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042C710-B0C0-4A9B-87E8-52CC6597E27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="876" yWindow="-96" windowWidth="22260" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="CWatM_input" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="806">
   <si>
     <t>PathRoot</t>
   </si>
@@ -2387,9 +2387,6 @@
     <t>$(PathWaterdemand)/Sarati_CommandAreas_1.tif</t>
   </si>
   <si>
-    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira_20070615.nc</t>
-  </si>
-  <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_27July2020.hds</t>
   </si>
   <si>
@@ -2402,31 +2399,124 @@
     <t>Nira_steady_1May2007_30July2020</t>
   </si>
   <si>
-    <t>$(PathGroundwaterModflowOutput)/Nira_steady_1May2007_30July2020.hds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/06/2007</t>
-  </si>
-  <si>
-    <t>leftOverGW, leftOverSW, nonSatisfiedGWrequest, act_channelAbstract_Lift, act_nonLocalchannelAbstract_M, act_nonLocalLakeAbstract_M, sum_prefFlow_GW, sum_perc3toGW_GW, discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, riverbedExchangeM, cropKC[1], cropKC[3], head_development</t>
-  </si>
-  <si>
-    <t>rainAverage_segments, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments, discharge</t>
-  </si>
-  <si>
-    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography, waterBodyID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/04/1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/04/1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/04/1993</t>
-  </si>
-  <si>
-    <t>reslakeoutflow, ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1], Yield_nonIrr[1], Yield_Irr[5], Yield_nonIrr[5], Yield_Irr[13], Yield_nonIrr[13], frac_totalIrr_max</t>
+    <t xml:space="preserve"> Nira_steady_1May2007_30July2020.hds</t>
+  </si>
+  <si>
+    <t>reslakeoutflow, ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1], Yield_nonIrr[1], Yield_Irr[5], Yield_nonIrr[5], Yield_Irr[13], Yield_nonIrr[13], fallowIrr, fallownonIrr, generalIrrCrop_max, generalnonIrrCrop_max</t>
+  </si>
+  <si>
+    <t>waterBodyTyp</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/lakesResID_Sarati.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/lakesResType_Sarati.tif</t>
+  </si>
+  <si>
+    <t>waterBodyDis</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/lakesResDis_Sarati.tif</t>
+  </si>
+  <si>
+    <t>waterBodyArea</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/lakesResArea_Sarati.tif</t>
+  </si>
+  <si>
+    <t>waterBodyVolRes</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/LiveVolume.tif</t>
+  </si>
+  <si>
+    <t>waterBodyYear</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/Reservoir_year_construction.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_FID.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Type.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Discharge.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_AreaMm2.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_VolumeLive.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Year.tif</t>
+  </si>
+  <si>
+    <t>lift_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima</t>
+  </si>
+  <si>
+    <t>75.89583 17.3875</t>
+  </si>
+  <si>
+    <t>Reservoir_releases_input_file</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases_median_Bhima.nc</t>
+  </si>
+  <si>
+    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography, waterBodyID, frac_totalIrr_max, frac_totalnonIrr_max, generalnonIrrCrop_max, generalIrrCrop_max, fallownonIrr_max, fallowIrr_max, lift_command_areas, reservoir_command_areas</t>
+  </si>
+  <si>
+    <t>Reservoir_releases_median_Bhima_07Aug2020</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases_median_Bhima_07Aug2020.nc</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_07Aug2020_2.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_19960501.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/01/2001</t>
+  </si>
+  <si>
+    <t>discharge, totalET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31/12/2001</t>
+  </si>
+  <si>
+    <t>act_channelAbstract_Lift, act_nonLocalchannelAbstract_M, act_nonLocalLakeAbstract_M, sum_prefFlow_GW, sum_perc3toGW_GW, discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, riverbedExchangeM, head_development, ETRef, EWRef, leakageCanals_M , canalsArea, leakageCanals_M, temp_leakageInCA</t>
+  </si>
+  <si>
+    <t>E0Maps</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/EWRef_daily_sarati.nc</t>
+  </si>
+  <si>
+    <t>ETMaps</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/ETRef_daily_sarati.nc</t>
+  </si>
+  <si>
+    <t>calc_evaporation</t>
   </si>
 </sst>
 </file>
@@ -3849,280 +3939,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4420,6 +4241,128 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4664,10 +4607,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
   <autoFilter ref="A1:A320" xr:uid="{899F2FC2-D930-4738-BF7B-C93ECDFC8D39}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4973,10 +4916,10 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5018,7 +4961,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="D2" s="181" t="s">
         <v>757</v>
@@ -5036,7 +4979,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>773</v>
+        <v>125</v>
       </c>
       <c r="D3" s="169" t="s">
         <v>738</v>
@@ -5053,7 +4996,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="D4" s="181" t="s">
         <v>709</v>
@@ -5103,7 +5046,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>769</v>
+        <v>800</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>685</v>
@@ -5121,7 +5064,7 @@
         <v>517</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F8" s="93"/>
       <c r="G8" s="100"/>
@@ -5130,9 +5073,7 @@
       <c r="A9" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="B9" s="170" t="s">
-        <v>770</v>
-      </c>
+      <c r="B9" s="170"/>
       <c r="F9" s="93"/>
       <c r="G9" s="100"/>
     </row>
@@ -5140,9 +5081,7 @@
       <c r="A10" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="B10" s="170" t="s">
-        <v>708</v>
-      </c>
+      <c r="B10" s="170"/>
       <c r="F10" s="93"/>
       <c r="G10" s="100"/>
     </row>
@@ -5150,7 +5089,6 @@
       <c r="A11" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="B11" s="169"/>
       <c r="F11" s="93"/>
       <c r="G11" s="100"/>
     </row>
@@ -5158,7 +5096,9 @@
       <c r="A12" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="B12" s="169"/>
+      <c r="B12" s="169" t="s">
+        <v>798</v>
+      </c>
       <c r="D12" s="112" t="s">
         <v>752</v>
       </c>
@@ -5170,7 +5110,7 @@
         <v>564</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="113"/>
@@ -5230,7 +5170,7 @@
         <v>105</v>
       </c>
       <c r="B18" s="172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="142"/>
       <c r="D18" s="142"/>
@@ -5252,10 +5192,10 @@
         <v>128</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E20" s="107" t="s">
         <v>640</v>
@@ -5272,6 +5212,9 @@
       <c r="B21" s="169" t="b">
         <v>0</v>
       </c>
+      <c r="E21" s="107" t="s">
+        <v>795</v>
+      </c>
       <c r="F21" s="93" t="s">
         <v>537</v>
       </c>
@@ -5282,7 +5225,7 @@
         <v>130</v>
       </c>
       <c r="B22" s="183" t="s">
-        <v>559</v>
+        <v>786</v>
       </c>
       <c r="D22" s="112" t="s">
         <v>635</v>
@@ -5298,7 +5241,7 @@
         <v>131</v>
       </c>
       <c r="B23" s="181" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="100"/>
@@ -5354,8 +5297,8 @@
       <c r="A28" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>119</v>
+      <c r="B28" s="169" t="s">
+        <v>629</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>119</v>
@@ -5472,7 +5415,7 @@
         <v>120</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>646</v>
+        <v>787</v>
       </c>
       <c r="D39" s="112" t="s">
         <v>720</v>
@@ -5486,7 +5429,7 @@
         <v>387</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>645</v>
@@ -5499,14 +5442,14 @@
       <c r="A41" s="185" t="s">
         <v>636</v>
       </c>
-      <c r="B41" s="112" t="s">
-        <v>767</v>
+      <c r="B41" s="90" t="s">
+        <v>794</v>
       </c>
       <c r="D41" s="112" t="s">
         <v>637</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>642</v>
+        <v>794</v>
       </c>
       <c r="F41" s="112" t="s">
         <v>648</v>
@@ -5517,21 +5460,21 @@
         <v>466</v>
       </c>
       <c r="B42" s="175">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D42" s="175">
         <v>120</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="90" t="s">
-        <v>650</v>
+      <c r="B43" s="112" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="112" t="s">
         <v>18</v>
@@ -5545,7 +5488,7 @@
         <v>651</v>
       </c>
       <c r="B44" s="178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="142"/>
       <c r="D44" s="142"/>
@@ -5558,13 +5501,16 @@
       <c r="B45" s="179">
         <v>0.15</v>
       </c>
+      <c r="D45" s="112" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="139" t="s">
         <v>754</v>
       </c>
       <c r="B46" s="179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -5572,7 +5518,7 @@
         <v>680</v>
       </c>
       <c r="B47" s="179">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D47" s="112"/>
       <c r="E47" s="117"/>
@@ -5587,7 +5533,7 @@
         <v>681</v>
       </c>
       <c r="B48" s="179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="112" t="s">
         <v>756</v>
@@ -5622,7 +5568,7 @@
         <v>1.5</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="83"/>
@@ -5636,7 +5582,7 @@
         <v>701</v>
       </c>
       <c r="B51" s="180">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="D51" s="112"/>
       <c r="E51" s="117"/>
@@ -5651,7 +5597,7 @@
         <v>702</v>
       </c>
       <c r="B52" s="180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="112"/>
       <c r="E52" s="117"/>
@@ -5789,7 +5735,7 @@
         <v>644</v>
       </c>
       <c r="B64" s="87">
-        <v>1.0000000000000001E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D64" s="83" t="s">
         <v>644</v>
@@ -5798,7 +5744,7 @@
         <v>9.0740750883425193E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="83" t="s">
         <v>551</v>
       </c>
@@ -5812,154 +5758,289 @@
         <v>1.5726409471325802E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="83" t="s">
         <v>531</v>
       </c>
       <c r="B66" s="179">
-        <v>0.7</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="83" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" s="179" t="s">
+        <v>779</v>
+      </c>
+      <c r="D67" s="179" t="s">
+        <v>769</v>
+      </c>
+      <c r="E67" s="179" t="s">
+        <v>761</v>
+      </c>
+      <c r="F67" s="83" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="83" t="s">
+        <v>768</v>
+      </c>
+      <c r="B68" s="179" t="s">
+        <v>780</v>
+      </c>
+      <c r="D68" s="179" t="s">
+        <v>770</v>
+      </c>
+      <c r="E68" s="179" t="s">
+        <v>761</v>
+      </c>
+      <c r="F68" s="83" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="83" t="s">
+        <v>771</v>
+      </c>
+      <c r="B69" s="179" t="s">
+        <v>781</v>
+      </c>
+      <c r="D69" s="179" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="83" t="s">
+        <v>773</v>
+      </c>
+      <c r="B70" s="179" t="s">
+        <v>782</v>
+      </c>
+      <c r="D70" s="179" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="83" t="s">
+        <v>775</v>
+      </c>
+      <c r="B71" s="179" t="s">
+        <v>783</v>
+      </c>
+      <c r="D71" s="179" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="83" t="s">
+        <v>777</v>
+      </c>
+      <c r="B72" s="179" t="s">
+        <v>784</v>
+      </c>
+      <c r="D72" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="E72" s="112" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="83" t="s">
+        <v>788</v>
+      </c>
+      <c r="B73" s="179" t="s">
+        <v>793</v>
+      </c>
+      <c r="D73" s="179" t="s">
+        <v>789</v>
+      </c>
+      <c r="E73" s="179" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="83" t="s">
+        <v>801</v>
+      </c>
+      <c r="B74" s="179" t="s">
+        <v>638</v>
+      </c>
+      <c r="D74" s="179" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="83" t="s">
+        <v>803</v>
+      </c>
+      <c r="B75" s="179" t="s">
+        <v>639</v>
+      </c>
+      <c r="D75" s="179" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="83" t="s">
+        <v>805</v>
+      </c>
+      <c r="B76" s="179" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B11:B19">
-    <cfRule type="notContainsErrors" dxfId="77" priority="200">
+  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B19">
+    <cfRule type="notContainsErrors" dxfId="50" priority="230">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="76" priority="199">
+    <cfRule type="notContainsErrors" dxfId="49" priority="229">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="75" priority="198">
+    <cfRule type="notContainsErrors" dxfId="48" priority="228">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="74" priority="197">
+    <cfRule type="notContainsErrors" dxfId="47" priority="227">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="73" priority="196">
+    <cfRule type="notContainsErrors" dxfId="46" priority="226">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="72" priority="195">
+    <cfRule type="notContainsErrors" dxfId="45" priority="225">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="71" priority="177">
+    <cfRule type="notContainsErrors" dxfId="44" priority="207">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="notContainsErrors" dxfId="70" priority="153">
+    <cfRule type="notContainsErrors" dxfId="43" priority="183">
       <formula>NOT(ISERROR(B57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsErrors" dxfId="69" priority="168">
+    <cfRule type="notContainsErrors" dxfId="42" priority="198">
       <formula>NOT(ISERROR(D33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="notContainsErrors" dxfId="68" priority="167">
+    <cfRule type="notContainsErrors" dxfId="41" priority="197">
       <formula>NOT(ISERROR(E28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="notContainsErrors" dxfId="67" priority="155">
+    <cfRule type="notContainsErrors" dxfId="40" priority="185">
       <formula>NOT(ISERROR(B59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsErrors" dxfId="66" priority="159">
+    <cfRule type="notContainsErrors" dxfId="39" priority="189">
       <formula>NOT(ISERROR(B63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsErrors" dxfId="65" priority="158">
+    <cfRule type="notContainsErrors" dxfId="38" priority="188">
       <formula>NOT(ISERROR(B62))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsErrors" dxfId="64" priority="157">
+    <cfRule type="notContainsErrors" dxfId="37" priority="187">
       <formula>NOT(ISERROR(B61))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsErrors" dxfId="63" priority="156">
+    <cfRule type="notContainsErrors" dxfId="36" priority="186">
       <formula>NOT(ISERROR(B60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="notContainsErrors" dxfId="62" priority="154">
+    <cfRule type="notContainsErrors" dxfId="35" priority="184">
       <formula>NOT(ISERROR(B58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="notContainsErrors" dxfId="61" priority="148">
+    <cfRule type="notContainsErrors" dxfId="34" priority="178">
       <formula>NOT(ISERROR(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsErrors" dxfId="60" priority="141">
+    <cfRule type="notContainsErrors" dxfId="33" priority="171">
       <formula>NOT(ISERROR(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsErrors" dxfId="59" priority="91">
+    <cfRule type="notContainsErrors" dxfId="32" priority="121">
       <formula>NOT(ISERROR(D2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsErrors" dxfId="58" priority="90">
+    <cfRule type="notContainsErrors" dxfId="31" priority="120">
       <formula>NOT(ISERROR(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsErrors" dxfId="57" priority="111">
+    <cfRule type="notContainsErrors" dxfId="30" priority="141">
       <formula>NOT(ISERROR(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="notContainsErrors" dxfId="56" priority="75">
+    <cfRule type="notContainsErrors" dxfId="29" priority="105">
       <formula>NOT(ISERROR(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="55" priority="55">
+    <cfRule type="notContainsErrors" dxfId="28" priority="28">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="54" priority="54">
-      <formula>NOT(ISERROR(B20))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="53" priority="51">
+    <cfRule type="notContainsErrors" dxfId="25" priority="9">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="6" priority="7">
-      <formula>NOT(ISERROR(B4))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="1" priority="2">
+    <cfRule type="notContainsErrors" dxfId="23" priority="8">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" dxfId="22" priority="11">
       <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="notContainsErrors" dxfId="6" priority="6">
+      <formula>NOT(ISERROR(E21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="3" priority="3">
+      <formula>NOT(ISERROR(B4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="notContainsErrors" dxfId="2" priority="2">
+      <formula>NOT(ISERROR(B20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="notContainsErrors" dxfId="1" priority="1">
+      <formula>NOT(ISERROR(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5973,7 +6054,7 @@
   <dimension ref="A1:G503"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13903,67 +13984,67 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="49" priority="14">
+    <cfRule type="notContainsErrors" dxfId="21" priority="14">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="48" priority="13">
+    <cfRule type="notContainsErrors" dxfId="20" priority="13">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="47" priority="12">
+    <cfRule type="notContainsErrors" dxfId="19" priority="12">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="46" priority="11">
+    <cfRule type="notContainsErrors" dxfId="18" priority="11">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="45" priority="10">
+    <cfRule type="notContainsErrors" dxfId="17" priority="10">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="44" priority="9">
+    <cfRule type="notContainsErrors" dxfId="16" priority="9">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="43" priority="6">
+    <cfRule type="notContainsErrors" dxfId="15" priority="6">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="42" priority="8">
+    <cfRule type="notContainsErrors" dxfId="14" priority="8">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="41" priority="5">
+    <cfRule type="notContainsErrors" dxfId="13" priority="5">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="40" priority="4">
+    <cfRule type="notContainsErrors" dxfId="12" priority="4">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="39" priority="3">
+    <cfRule type="notContainsErrors" dxfId="11" priority="3">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="38" priority="2">
+    <cfRule type="notContainsErrors" dxfId="10" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="37" priority="1">
+    <cfRule type="notContainsErrors" dxfId="9" priority="1">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16846,7 +16927,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -17069,7 +17150,7 @@
       </c>
       <c r="Q4" s="51"/>
       <c r="R4" s="195" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
@@ -18367,7 +18448,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="notContainsErrors" dxfId="36" priority="2">
+    <cfRule type="notContainsErrors" dxfId="8" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042C710-B0C0-4A9B-87E8-52CC6597E27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75034320-59D0-4B4D-AA0B-3C80FABDCE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="839">
   <si>
     <t>PathRoot</t>
   </si>
@@ -2369,9 +2369,6 @@
     <t>discharge, metRemainSegment_lift, act_channelAbstract, readAvlChannelStorageM, act_LocalLakeAbstract, act_channelAbstract_Local</t>
   </si>
   <si>
-    <t>0.2 produces negative gw abstraction results</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/04/1998</t>
   </si>
   <si>
@@ -2393,18 +2390,12 @@
     <t>Pre-seasonal variety, from 15 to 14</t>
   </si>
   <si>
-    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Nira_20070501.nc</t>
-  </si>
-  <si>
     <t>Nira_steady_1May2007_30July2020</t>
   </si>
   <si>
     <t xml:space="preserve"> Nira_steady_1May2007_30July2020.hds</t>
   </si>
   <si>
-    <t>reslakeoutflow, ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[1], fracVegCover[3], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1], Yield_nonIrr[1], Yield_Irr[5], Yield_nonIrr[5], Yield_Irr[13], Yield_nonIrr[13], fallowIrr, fallownonIrr, generalIrrCrop_max, generalnonIrrCrop_max</t>
-  </si>
-  <si>
     <t>waterBodyTyp</t>
   </si>
   <si>
@@ -2438,92 +2429,200 @@
     <t>$(PathLakesRes)/Reservoir_year_construction.tif</t>
   </si>
   <si>
-    <t>$(PathLakesRes)/WB_FID.tif</t>
-  </si>
-  <si>
-    <t>$(PathLakesRes)/WB_Type.tif</t>
-  </si>
-  <si>
-    <t>$(PathLakesRes)/WB_Discharge.tif</t>
-  </si>
-  <si>
-    <t>$(PathLakesRes)/WB_AreaMm2.tif</t>
-  </si>
-  <si>
-    <t>$(PathLakesRes)/WB_VolumeLive.tif</t>
-  </si>
-  <si>
-    <t>$(PathLakesRes)/WB_Year.tif</t>
-  </si>
-  <si>
     <t>lift_areas</t>
   </si>
   <si>
+    <t>Reservoir_releases_input_file</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases_median_Bhima.nc</t>
+  </si>
+  <si>
+    <t>Reservoir_releases_median_Bhima_07Aug2020</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_07Aug2020_2.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_19960501.nc</t>
+  </si>
+  <si>
+    <t>discharge, totalET</t>
+  </si>
+  <si>
+    <t>E0Maps</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/EWRef_daily_sarati.nc</t>
+  </si>
+  <si>
+    <t>ETMaps</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/ETRef_daily_sarati.nc</t>
+  </si>
+  <si>
+    <t>calc_evaporation</t>
+  </si>
+  <si>
+    <t>75.89583 17.3875</t>
+  </si>
+  <si>
+    <t>waterBodyElec</t>
+  </si>
+  <si>
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima</t>
   </si>
   <si>
-    <t>75.89583 17.3875</t>
-  </si>
-  <si>
-    <t>Reservoir_releases_input_file</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases.nc</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases_median_Bhima.nc</t>
-  </si>
-  <si>
-    <t>modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography, waterBodyID, frac_totalIrr_max, frac_totalnonIrr_max, generalnonIrrCrop_max, generalIrrCrop_max, fallownonIrr_max, fallowIrr_max, lift_command_areas, reservoir_command_areas</t>
-  </si>
-  <si>
-    <t>Reservoir_releases_median_Bhima_07Aug2020</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/Reservoir_releases_median_Bhima_07Aug2020.nc</t>
-  </si>
-  <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_07Aug2020_2.hds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_19960501.nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/01/1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/01/2001</t>
-  </si>
-  <si>
-    <t>discharge, totalET</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31/12/2001</t>
-  </si>
-  <si>
-    <t>act_channelAbstract_Lift, act_nonLocalchannelAbstract_M, act_nonLocalLakeAbstract_M, sum_prefFlow_GW, sum_perc3toGW_GW, discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, riverbedExchangeM, head_development, ETRef, EWRef, leakageCanals_M , canalsArea, leakageCanals_M, temp_leakageInCA</t>
-  </si>
-  <si>
-    <t>E0Maps</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMeteo)/EWRef_daily_sarati.nc</t>
-  </si>
-  <si>
-    <t>ETMaps</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMeteo)/ETRef_daily_sarati.nc</t>
-  </si>
-  <si>
-    <t>calc_evaporation</t>
+    <t>irrigation_returnfraction</t>
+  </si>
+  <si>
+    <t>factor_interflow</t>
+  </si>
+  <si>
+    <t>soildepth_factor</t>
+  </si>
+  <si>
+    <t>fraction_IncreaseIrrigation_Nonpaddy</t>
+  </si>
+  <si>
+    <t>GeneralCrop_Irr</t>
+  </si>
+  <si>
+    <t>GeneralCrop_nonIrr</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/generalIrrCrop_max_totalend.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/generalnonIrrCrop_max_totalend.nc</t>
+  </si>
+  <si>
+    <t>Bhima_steady_18Aug2020_postNatural</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/04/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/04/1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/04/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(PathGroundwaterModflow)/modflow_inputs/newModFlow_inputs500m_Bhima</t>
+  </si>
+  <si>
+    <t>preferentialFlowConstant</t>
+  </si>
+  <si>
+    <t>inflateReservoirs</t>
+  </si>
+  <si>
+    <t>dynamicLakesRes</t>
+  </si>
+  <si>
+    <t>reservoirStorageM3</t>
+  </si>
+  <si>
+    <t>Crop/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice production in tons </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1994</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Year_25Aug.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Discharge_25Aug.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Type_25Aug.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_HyElec_25Aug.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Area_Mm2_25Aug.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2000</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_Aug08.hds</t>
+  </si>
+  <si>
+    <t>resVolume_reservoir, modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography, waterBodyID,  lift_command_areas, reservoir_command_areas</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_FID_27Aug_2.tif</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Volume_28Aug.tif</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/reservoirOperations_Bhima_31Aug2020.nc</t>
+  </si>
+  <si>
+    <t>reslakeoutflow, ratio_a_p_Irr[1], modflowWaterLevel, head_development_segments, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14], fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], Yield_Irr[1], Yield_nonIrr[1], Yield_Irr[5], Yield_nonIrr[5], Yield_Irr[13], Yield_nonIrr[13], fallowIrr, fallownonIrr, head_development</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/pr_wfdei_025bil2.nc</t>
+  </si>
+  <si>
+    <t>usemeteodownscaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/11/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/11/1992</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/CRU_bhima_025.nc</t>
+  </si>
+  <si>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, head_development, CommandAreas_deCompressed, resStorageTotal_alloc, ETRef, EWRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_20000501.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/06/2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/06/2001</t>
+  </si>
+  <si>
+    <t>mswep_bhima_025</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/mswep_bhima_025.nc</t>
+  </si>
+  <si>
+    <t>lakeEvaFactor</t>
+  </si>
+  <si>
+    <t>pgfv21_bhima_025</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/pgfv21_bhima_025.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/10/1999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2714,6 +2813,12 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="31">
     <fill>
@@ -2897,7 +3002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3481,11 +3586,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3935,11 +4066,507 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="127">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4390,6 +5017,1087 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-AT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Notepad!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rice production in tons </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Notepad!$B$53:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Notepad!$B$55:$K$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-093D-453C-9591-9ECCA2D27861}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="273086760"/>
+        <c:axId val="273088400"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notepad!$A$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notepad!$B$53:$K$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notepad!$B$54:$K$54</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-093D-453C-9591-9ECCA2D27861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notepad!$A$56</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notepad!$B$53:$K$53</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Notepad!$B$56:$K$56</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-093D-453C-9591-9ECCA2D27861}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="273086760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273088400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273088400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-AT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273086760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-AT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4606,11 +6314,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4668487</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2664526</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>144483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D420C7B-710A-4468-8120-80F55ECBDE77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="56" dataDxfId="54" headerRowBorderDxfId="55" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123" totalsRowBorderDxfId="122">
   <autoFilter ref="A1:A320" xr:uid="{899F2FC2-D930-4738-BF7B-C93ECDFC8D39}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4916,16 +6665,16 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.20703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.3125" style="179" customWidth="1"/>
+    <col min="1" max="1" width="33.734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.26171875" style="179" customWidth="1"/>
     <col min="3" max="3" width="4.5234375" style="91" customWidth="1"/>
     <col min="4" max="4" width="55.9453125" style="112" customWidth="1"/>
     <col min="5" max="5" width="74.9453125" style="117" customWidth="1"/>
@@ -4961,10 +6710,10 @@
         <v>123</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="D2" s="181" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E2" s="181" t="s">
         <v>709</v>
@@ -4979,7 +6728,7 @@
         <v>124</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>125</v>
+        <v>831</v>
       </c>
       <c r="D3" s="169" t="s">
         <v>738</v>
@@ -4996,7 +6745,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>799</v>
+        <v>832</v>
       </c>
       <c r="D4" s="181" t="s">
         <v>709</v>
@@ -5046,7 +6795,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>685</v>
@@ -5064,7 +6813,7 @@
         <v>517</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>767</v>
+        <v>823</v>
       </c>
       <c r="F8" s="93"/>
       <c r="G8" s="100"/>
@@ -5081,7 +6830,9 @@
       <c r="A10" s="145" t="s">
         <v>695</v>
       </c>
-      <c r="B10" s="170"/>
+      <c r="B10" s="170" t="s">
+        <v>808</v>
+      </c>
       <c r="F10" s="93"/>
       <c r="G10" s="100"/>
     </row>
@@ -5097,7 +6848,7 @@
         <v>563</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="D12" s="112" t="s">
         <v>752</v>
@@ -5110,7 +6861,7 @@
         <v>564</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="113"/>
@@ -5170,7 +6921,7 @@
         <v>105</v>
       </c>
       <c r="B18" s="172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="142"/>
       <c r="D18" s="142"/>
@@ -5192,10 +6943,10 @@
         <v>128</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>795</v>
+        <v>830</v>
       </c>
       <c r="D20" s="107" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="E20" s="107" t="s">
         <v>640</v>
@@ -5213,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="107" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F21" s="93" t="s">
         <v>537</v>
@@ -5225,7 +6976,7 @@
         <v>130</v>
       </c>
       <c r="B22" s="183" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D22" s="112" t="s">
         <v>635</v>
@@ -5241,7 +6992,10 @@
         <v>131</v>
       </c>
       <c r="B23" s="181" t="s">
-        <v>797</v>
+        <v>817</v>
+      </c>
+      <c r="D23" s="181" t="s">
+        <v>827</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="100"/>
@@ -5253,6 +7007,9 @@
       <c r="B24" s="169" t="b">
         <v>0</v>
       </c>
+      <c r="D24" s="181" t="s">
+        <v>811</v>
+      </c>
       <c r="F24" s="93"/>
       <c r="G24" s="100"/>
     </row>
@@ -5263,6 +7020,9 @@
       <c r="B25" s="169" t="b">
         <v>1</v>
       </c>
+      <c r="D25" s="181" t="s">
+        <v>826</v>
+      </c>
       <c r="E25" s="117" t="s">
         <v>641</v>
       </c>
@@ -5316,6 +7076,9 @@
       <c r="B29" s="169" t="s">
         <v>604</v>
       </c>
+      <c r="E29" s="181" t="s">
+        <v>801</v>
+      </c>
       <c r="F29" s="93"/>
       <c r="G29" s="100"/>
     </row>
@@ -5326,6 +7089,9 @@
       <c r="B30" s="169" t="s">
         <v>714</v>
       </c>
+      <c r="E30" s="181" t="s">
+        <v>803</v>
+      </c>
       <c r="F30" s="93"/>
       <c r="G30" s="100"/>
     </row>
@@ -5336,6 +7102,9 @@
       <c r="B31" s="169" t="s">
         <v>714</v>
       </c>
+      <c r="E31" s="181" t="s">
+        <v>802</v>
+      </c>
       <c r="F31" s="93"/>
       <c r="G31" s="100"/>
     </row>
@@ -5415,7 +7184,7 @@
         <v>120</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D39" s="112" t="s">
         <v>720</v>
@@ -5429,7 +7198,7 @@
         <v>387</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>632</v>
+        <v>804</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>645</v>
@@ -5443,13 +7212,13 @@
         <v>636</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="D41" s="112" t="s">
         <v>637</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="F41" s="112" t="s">
         <v>648</v>
@@ -5460,13 +7229,13 @@
         <v>466</v>
       </c>
       <c r="B42" s="175">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D42" s="175">
         <v>120</v>
       </c>
       <c r="E42" s="112" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5499,10 +7268,13 @@
         <v>676</v>
       </c>
       <c r="B45" s="179">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D45" s="112" t="s">
-        <v>766</v>
+        <v>764</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5510,7 +7282,7 @@
         <v>754</v>
       </c>
       <c r="B46" s="179">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -5518,7 +7290,7 @@
         <v>680</v>
       </c>
       <c r="B47" s="179">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D47" s="112"/>
       <c r="E47" s="117"/>
@@ -5535,9 +7307,7 @@
       <c r="B48" s="179">
         <v>1</v>
       </c>
-      <c r="D48" s="112" t="s">
-        <v>756</v>
-      </c>
+      <c r="D48" s="112"/>
       <c r="E48" s="117"/>
       <c r="F48" s="83"/>
       <c r="G48" s="83"/>
@@ -5565,10 +7335,10 @@
         <v>682</v>
       </c>
       <c r="B50" s="179">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="83"/>
@@ -5582,7 +7352,7 @@
         <v>701</v>
       </c>
       <c r="B51" s="180">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D51" s="112"/>
       <c r="E51" s="117"/>
@@ -5649,7 +7419,7 @@
         <v>711</v>
       </c>
       <c r="B56" s="112">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="D56" s="112" t="s">
         <v>712</v>
@@ -5698,14 +7468,14 @@
         <v>733</v>
       </c>
       <c r="D61" s="83" t="s">
+        <v>759</v>
+      </c>
+      <c r="E61" s="179" t="s">
         <v>760</v>
-      </c>
-      <c r="E61" s="179" t="s">
-        <v>761</v>
       </c>
       <c r="F61" s="91"/>
       <c r="G61" s="112" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5724,10 +7494,10 @@
         <v>731</v>
       </c>
       <c r="D63" s="112" t="s">
+        <v>757</v>
+      </c>
+      <c r="F63" s="83" t="s">
         <v>758</v>
-      </c>
-      <c r="F63" s="83" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -5735,10 +7505,10 @@
         <v>644</v>
       </c>
       <c r="B64" s="87">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D64" s="87">
         <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D64" s="83" t="s">
-        <v>644</v>
       </c>
       <c r="E64" s="87">
         <v>9.0740750883425193E-6</v>
@@ -5749,7 +7519,7 @@
         <v>551</v>
       </c>
       <c r="B65" s="179">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D65" s="83" t="s">
         <v>551</v>
@@ -5760,27 +7530,36 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="83" t="s">
-        <v>531</v>
-      </c>
-      <c r="B66" s="179">
-        <v>1</v>
+        <v>484</v>
+      </c>
+      <c r="B66" s="179" t="s">
+        <v>820</v>
+      </c>
+      <c r="D66" s="179" t="s">
+        <v>766</v>
+      </c>
+      <c r="E66" s="179" t="s">
+        <v>760</v>
+      </c>
+      <c r="F66" s="83" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="83" t="s">
-        <v>484</v>
+        <v>765</v>
       </c>
       <c r="B67" s="179" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="D67" s="179" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E67" s="179" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F67" s="83" t="s">
-        <v>785</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5788,49 +7567,46 @@
         <v>768</v>
       </c>
       <c r="B68" s="179" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="D68" s="179" t="s">
-        <v>770</v>
-      </c>
-      <c r="E68" s="179" t="s">
-        <v>761</v>
-      </c>
-      <c r="F68" s="83" t="s">
-        <v>541</v>
+        <v>769</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="83" t="s">
+        <v>770</v>
+      </c>
+      <c r="B69" s="179" t="s">
+        <v>816</v>
+      </c>
+      <c r="D69" s="179" t="s">
         <v>771</v>
-      </c>
-      <c r="B69" s="179" t="s">
-        <v>781</v>
-      </c>
-      <c r="D69" s="179" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="B70" s="179" t="s">
+        <v>821</v>
+      </c>
+      <c r="D70" s="179" t="s">
         <v>773</v>
-      </c>
-      <c r="B70" s="179" t="s">
-        <v>782</v>
-      </c>
-      <c r="D70" s="179" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="83" t="s">
+        <v>774</v>
+      </c>
+      <c r="B71" s="179" t="s">
+        <v>812</v>
+      </c>
+      <c r="D71" s="179" t="s">
         <v>775</v>
       </c>
-      <c r="B71" s="179" t="s">
-        <v>783</v>
-      </c>
-      <c r="D71" s="179" t="s">
-        <v>776</v>
+      <c r="E71" s="112" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5838,209 +7614,386 @@
         <v>777</v>
       </c>
       <c r="B72" s="179" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="D72" s="179" t="s">
         <v>778</v>
       </c>
-      <c r="E72" s="112" t="s">
-        <v>792</v>
+      <c r="E72" s="179" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="83" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B73" s="179" t="s">
-        <v>793</v>
+        <v>638</v>
       </c>
       <c r="D73" s="179" t="s">
-        <v>789</v>
-      </c>
-      <c r="E73" s="179" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="83" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="B74" s="179" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D74" s="179" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="83" t="s">
-        <v>803</v>
-      </c>
-      <c r="B75" s="179" t="s">
-        <v>639</v>
-      </c>
-      <c r="D75" s="179" t="s">
-        <v>804</v>
+        <v>788</v>
+      </c>
+      <c r="B75" s="179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="B76" s="179">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="83" t="s">
+        <v>790</v>
+      </c>
+      <c r="B77" s="179" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="83" t="s">
+        <v>792</v>
+      </c>
+      <c r="B78" s="179">
+        <v>0.3</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="179" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="83" t="s">
+        <v>793</v>
+      </c>
+      <c r="B79" s="179">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="179" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="B80" s="179">
+        <v>2</v>
+      </c>
+      <c r="D80" s="112" t="s">
+        <v>836</v>
+      </c>
+      <c r="E80" s="179" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="B81" s="179">
+        <v>0.6</v>
+      </c>
+      <c r="D81" s="112">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="B82" s="179">
+        <v>1.2</v>
+      </c>
+      <c r="D82" s="112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="179">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="B84" s="179" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="B85" s="179" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="83" t="s">
         <v>805</v>
       </c>
-      <c r="B76" s="179" t="b">
+      <c r="B86" s="179">
+        <v>8</v>
+      </c>
+      <c r="D86" s="112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="83" t="s">
+        <v>806</v>
+      </c>
+      <c r="B87" s="179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="83" t="s">
+        <v>807</v>
+      </c>
+      <c r="B88" s="179" t="b">
         <v>0</v>
+      </c>
+      <c r="D88" s="112" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="83" t="s">
+        <v>825</v>
+      </c>
+      <c r="B89" s="179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="179" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="83" t="s">
+        <v>835</v>
+      </c>
+      <c r="B91" s="179">
+        <v>1.2</v>
+      </c>
+      <c r="D91" s="112">
+        <v>1.5932766384205801</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B19">
-    <cfRule type="notContainsErrors" dxfId="50" priority="230">
+    <cfRule type="notContainsErrors" dxfId="120" priority="380">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="49" priority="229">
+    <cfRule type="notContainsErrors" dxfId="119" priority="379">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="48" priority="228">
+    <cfRule type="notContainsErrors" dxfId="118" priority="378">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="47" priority="227">
+    <cfRule type="notContainsErrors" dxfId="117" priority="377">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="46" priority="226">
+    <cfRule type="notContainsErrors" dxfId="116" priority="376">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="45" priority="225">
+    <cfRule type="notContainsErrors" dxfId="115" priority="375">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="44" priority="207">
+    <cfRule type="notContainsErrors" dxfId="114" priority="357">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="notContainsErrors" dxfId="43" priority="183">
+    <cfRule type="notContainsErrors" dxfId="113" priority="333">
       <formula>NOT(ISERROR(B57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsErrors" dxfId="42" priority="198">
+    <cfRule type="notContainsErrors" dxfId="112" priority="348">
       <formula>NOT(ISERROR(D33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="notContainsErrors" dxfId="41" priority="197">
+    <cfRule type="notContainsErrors" dxfId="111" priority="347">
       <formula>NOT(ISERROR(E28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="notContainsErrors" dxfId="40" priority="185">
+    <cfRule type="notContainsErrors" dxfId="110" priority="335">
       <formula>NOT(ISERROR(B59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsErrors" dxfId="39" priority="189">
+    <cfRule type="notContainsErrors" dxfId="109" priority="339">
       <formula>NOT(ISERROR(B63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsErrors" dxfId="38" priority="188">
+    <cfRule type="notContainsErrors" dxfId="108" priority="338">
       <formula>NOT(ISERROR(B62))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsErrors" dxfId="37" priority="187">
+    <cfRule type="notContainsErrors" dxfId="107" priority="337">
       <formula>NOT(ISERROR(B61))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsErrors" dxfId="36" priority="186">
+    <cfRule type="notContainsErrors" dxfId="106" priority="336">
       <formula>NOT(ISERROR(B60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="notContainsErrors" dxfId="35" priority="184">
+    <cfRule type="notContainsErrors" dxfId="105" priority="334">
       <formula>NOT(ISERROR(B58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="notContainsErrors" dxfId="34" priority="178">
+    <cfRule type="notContainsErrors" dxfId="104" priority="328">
       <formula>NOT(ISERROR(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsErrors" dxfId="33" priority="171">
+    <cfRule type="notContainsErrors" dxfId="103" priority="321">
       <formula>NOT(ISERROR(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsErrors" dxfId="32" priority="121">
+    <cfRule type="notContainsErrors" dxfId="102" priority="271">
       <formula>NOT(ISERROR(D2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsErrors" dxfId="31" priority="120">
+    <cfRule type="notContainsErrors" dxfId="101" priority="270">
       <formula>NOT(ISERROR(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsErrors" dxfId="30" priority="141">
+    <cfRule type="notContainsErrors" dxfId="100" priority="291">
       <formula>NOT(ISERROR(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="notContainsErrors" dxfId="29" priority="105">
+    <cfRule type="notContainsErrors" dxfId="99" priority="255">
       <formula>NOT(ISERROR(B8))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="notContainsErrors" dxfId="98" priority="156">
+      <formula>NOT(ISERROR(E21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="notContainsErrors" dxfId="96" priority="137">
+      <formula>NOT(ISERROR(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="notContainsErrors" dxfId="95" priority="99">
+      <formula>NOT(ISERROR(B20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="notContainsErrors" dxfId="94" priority="95">
+      <formula>NOT(ISERROR(E29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="notContainsErrors" dxfId="93" priority="94">
+      <formula>NOT(ISERROR(E31))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="notContainsErrors" dxfId="92" priority="93">
+      <formula>NOT(ISERROR(E30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="notContainsErrors" dxfId="91" priority="12">
+      <formula>NOT(ISERROR(D23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="87" priority="3">
+      <formula>NOT(ISERROR(B4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="notContainsErrors" dxfId="84" priority="4">
+      <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="notContainsErrors" dxfId="76" priority="14">
+      <formula>NOT(ISERROR(D24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="notContainsErrors" dxfId="58" priority="13">
+      <formula>NOT(ISERROR(D25))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="28" priority="28">
+    <cfRule type="notContainsErrors" dxfId="37" priority="24">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="25" priority="9">
-      <formula>NOT(ISERROR(B23))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="23" priority="8">
+    <cfRule type="notContainsErrors" dxfId="1" priority="2">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="22" priority="11">
-      <formula>NOT(ISERROR(B3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="notContainsErrors" dxfId="6" priority="6">
-      <formula>NOT(ISERROR(E21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="3" priority="3">
-      <formula>NOT(ISERROR(B4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="2" priority="2">
-      <formula>NOT(ISERROR(B20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="notContainsErrors" dxfId="1" priority="1">
-      <formula>NOT(ISERROR(B28))</formula>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13324,7 +15277,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13984,67 +15937,67 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="21" priority="14">
+    <cfRule type="notContainsErrors" dxfId="15" priority="14">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="20" priority="13">
+    <cfRule type="notContainsErrors" dxfId="14" priority="13">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="19" priority="12">
+    <cfRule type="notContainsErrors" dxfId="13" priority="12">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="18" priority="11">
+    <cfRule type="notContainsErrors" dxfId="12" priority="11">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="17" priority="10">
+    <cfRule type="notContainsErrors" dxfId="11" priority="10">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="16" priority="9">
+    <cfRule type="notContainsErrors" dxfId="10" priority="9">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="15" priority="6">
+    <cfRule type="notContainsErrors" dxfId="9" priority="6">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="14" priority="8">
+    <cfRule type="notContainsErrors" dxfId="8" priority="8">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="13" priority="5">
+    <cfRule type="notContainsErrors" dxfId="7" priority="5">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="12" priority="4">
+    <cfRule type="notContainsErrors" dxfId="6" priority="4">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="11" priority="3">
+    <cfRule type="notContainsErrors" dxfId="5" priority="3">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="10" priority="2">
+    <cfRule type="notContainsErrors" dxfId="4" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="9" priority="1">
+    <cfRule type="notContainsErrors" dxfId="3" priority="1">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16927,7 +18880,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -17150,7 +19103,7 @@
       </c>
       <c r="Q4" s="51"/>
       <c r="R4" s="195" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
@@ -17778,7 +19731,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -18288,7 +20241,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="H17" sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18448,7 +20401,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="notContainsErrors" dxfId="8" priority="2">
+    <cfRule type="notContainsErrors" dxfId="2" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18458,10 +20411,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A22" zoomScale="77" workbookViewId="0">
+      <selection activeCell="K55" sqref="A53:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -18884,8 +20837,130 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="52" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A53" s="239" t="s">
+        <v>809</v>
+      </c>
+      <c r="B53" s="239">
+        <v>2007</v>
+      </c>
+      <c r="C53" s="239">
+        <v>2008</v>
+      </c>
+      <c r="D53" s="239">
+        <v>2009</v>
+      </c>
+      <c r="E53" s="239">
+        <v>2010</v>
+      </c>
+      <c r="F53" s="239">
+        <v>2011</v>
+      </c>
+      <c r="G53" s="239">
+        <v>2012</v>
+      </c>
+      <c r="H53" s="239">
+        <v>2013</v>
+      </c>
+      <c r="I53" s="239">
+        <v>2014</v>
+      </c>
+      <c r="J53" s="239">
+        <v>2015</v>
+      </c>
+      <c r="K53" s="239">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="240"/>
+      <c r="B54" s="240"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="240"/>
+      <c r="E54" s="240"/>
+      <c r="F54" s="240"/>
+      <c r="G54" s="240"/>
+      <c r="H54" s="240"/>
+      <c r="I54" s="240"/>
+      <c r="J54" s="240"/>
+      <c r="K54" s="240"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A55" s="239" t="s">
+        <v>810</v>
+      </c>
+      <c r="B55" s="239">
+        <v>70911</v>
+      </c>
+      <c r="C55" s="239">
+        <v>74492</v>
+      </c>
+      <c r="D55" s="239">
+        <v>78432</v>
+      </c>
+      <c r="E55" s="239">
+        <v>83019</v>
+      </c>
+      <c r="F55" s="239">
+        <v>91415</v>
+      </c>
+      <c r="G55" s="239">
+        <v>64629</v>
+      </c>
+      <c r="H55" s="239">
+        <v>41456</v>
+      </c>
+      <c r="I55" s="239">
+        <v>67377</v>
+      </c>
+      <c r="J55" s="239">
+        <v>38674</v>
+      </c>
+      <c r="K55" s="239">
+        <v>146633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="240"/>
+      <c r="B56" s="240"/>
+      <c r="C56" s="240"/>
+      <c r="D56" s="240"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="240"/>
+      <c r="G56" s="240"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="240"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="240"/>
+    </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75034320-59D0-4B4D-AA0B-3C80FABDCE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6133206D-926F-4E68-8AE6-F37F7DD54906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="CWatM_input" sheetId="13" r:id="rId1"/>
-    <sheet name="CWatM_input_Nira" sheetId="11" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="15" r:id="rId3"/>
-    <sheet name="CWatM_input_all" sheetId="12" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
-    <sheet name="Crops" sheetId="4" r:id="rId6"/>
-    <sheet name="Crops (2)" sheetId="14" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
-    <sheet name="Notepad" sheetId="1" r:id="rId9"/>
-    <sheet name="All_Settings_Template" sheetId="2" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId12"/>
-    <sheet name="Sheet5" sheetId="9" r:id="rId13"/>
+    <sheet name="CWatM_input_lowerRainfall" sheetId="13" r:id="rId1"/>
+    <sheet name="CWatM_input_higherRainfall" sheetId="16" r:id="rId2"/>
+    <sheet name="CWatM_input_Nira" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="15" r:id="rId4"/>
+    <sheet name="CWatM_input_all" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Crops" sheetId="4" r:id="rId7"/>
+    <sheet name="Crops (2)" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
+    <sheet name="Notepad" sheetId="1" r:id="rId10"/>
+    <sheet name="All_Settings_Template" sheetId="2" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="857">
   <si>
     <t>PathRoot</t>
   </si>
@@ -2552,9 +2553,6 @@
     <t>$(PathLakesRes)/WB_Area_Mm2_25Aug.tif</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/2000</t>
-  </si>
-  <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_Aug08.hds</t>
   </si>
   <si>
@@ -2588,18 +2586,9 @@
     <t>$(FILE_PATHS:PathMeteo)/CRU_bhima_025.nc</t>
   </si>
   <si>
-    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, head_development, CommandAreas_deCompressed, resStorageTotal_alloc, ETRef, EWRef</t>
-  </si>
-  <si>
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_20000501.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/06/2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/06/2001</t>
-  </si>
-  <si>
     <t>mswep_bhima_025</t>
   </si>
   <si>
@@ -2615,7 +2604,73 @@
     <t>$(FILE_PATHS:PathMeteo)/pgfv21_bhima_025.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/10/1999</t>
+    <t xml:space="preserve"> 01/05/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/10/1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2002</t>
+  </si>
+  <si>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, head_development, CommandAreas_deCompressed, resStorageTotal_alloc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/EWRef_daily_04Sept.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/ETRef_daily_04Sept.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/1996</t>
+  </si>
+  <si>
+    <t>$(PathLakesRes)/WB_Year_05Sept.tif</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_05Sept2020.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_20070601.nc</t>
+  </si>
+  <si>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, act_LocalLakeAbstract, head_development, resStorageTotal_alloc, ETRef, EWRef</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/12/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/meteo/010deg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/12/1996</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/groundwater/permeability_0727.tif</t>
+  </si>
+  <si>
+    <t>resVolume_reservoir, modflowtotalSoilThickness, cellArea, adminSegments_area, adminSegments, availableGWStorageFraction, modflowTopography, waterBodyID,  lift_command_areas, reservoir_command_areas, permeability</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/reservoirOperations_Bhima_09Sept2020_mswep.nc</t>
+  </si>
+  <si>
+    <t>Ujjani_c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31/12/2005</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>discharge, totalET, Rain</t>
   </si>
 </sst>
 </file>
@@ -2820,7 +2875,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3001,8 +3056,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -3612,11 +3673,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4072,207 +4159,44 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF636EFA"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -4994,12 +4918,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6699"/>
       <color rgb="FF00A87C"/>
       <color rgb="FF996633"/>
       <color rgb="FF636EFA"/>
       <color rgb="FF960032"/>
       <color rgb="FF007E5D"/>
-      <color rgb="FFFF6699"/>
       <color rgb="FF202FF8"/>
       <color rgb="FF004835"/>
       <color rgb="FF15FFC2"/>
@@ -5295,7 +5219,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Notepad!$A$56</c15:sqref>
@@ -5321,7 +5245,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Notepad!$B$53:$K$53</c15:sqref>
@@ -5366,7 +5290,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Notepad!$B$56:$K$56</c15:sqref>
@@ -5380,7 +5304,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-093D-453C-9591-9ECCA2D27861}"/>
                   </c:ext>
@@ -6172,6 +6096,60 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D63235-5133-4E06-92CE-83DCA69D7D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="25604"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23912512" y="176213"/>
+          <a:ext cx="674370" cy="721413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>869632</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB41CDAC-1F63-4B4E-B9FD-C39E0AC6E725}"/>
             </a:ext>
           </a:extLst>
@@ -6206,7 +6184,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6260,7 +6238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6314,7 +6292,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6356,10 +6334,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="126" dataDxfId="124" headerRowBorderDxfId="125" tableBorderDxfId="123" totalsRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="A1:A320" xr:uid="{899F2FC2-D930-4738-BF7B-C93ECDFC8D39}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6665,17 +6643,17 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.734375" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.26171875" style="179" customWidth="1"/>
-    <col min="3" max="3" width="4.5234375" style="91" customWidth="1"/>
+    <col min="3" max="3" width="4.5234375" style="247" customWidth="1"/>
     <col min="4" max="4" width="55.9453125" style="112" customWidth="1"/>
     <col min="5" max="5" width="74.9453125" style="117" customWidth="1"/>
     <col min="6" max="6" width="74.20703125" style="83" bestFit="1" customWidth="1"/>
@@ -6693,7 +6671,7 @@
       <c r="B1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="105"/>
+      <c r="C1" s="246"/>
       <c r="D1" s="111" t="s">
         <v>635</v>
       </c>
@@ -6709,10 +6687,10 @@
       <c r="A2" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="181" t="s">
-        <v>838</v>
-      </c>
-      <c r="D2" s="181" t="s">
+      <c r="B2" s="241" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" s="244" t="s">
         <v>756</v>
       </c>
       <c r="E2" s="181" t="s">
@@ -6727,8 +6705,8 @@
       <c r="A3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="181" t="s">
-        <v>831</v>
+      <c r="B3" s="241" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="169" t="s">
         <v>738</v>
@@ -6744,11 +6722,11 @@
       <c r="A4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="181" t="s">
-        <v>832</v>
-      </c>
-      <c r="D4" s="181" t="s">
-        <v>709</v>
+      <c r="B4" s="241" t="s">
+        <v>854</v>
+      </c>
+      <c r="D4" s="241" t="s">
+        <v>846</v>
       </c>
       <c r="E4" s="181" t="s">
         <v>739</v>
@@ -6765,7 +6743,7 @@
         <v>407</v>
       </c>
       <c r="B5" s="169">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="169" t="s">
         <v>755</v>
@@ -6795,7 +6773,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>685</v>
@@ -6813,7 +6791,7 @@
         <v>517</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F8" s="93"/>
       <c r="G8" s="100"/>
@@ -6822,7 +6800,12 @@
       <c r="A9" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="B9" s="170"/>
+      <c r="B9" s="170" t="s">
+        <v>855</v>
+      </c>
+      <c r="D9" s="241" t="s">
+        <v>840</v>
+      </c>
       <c r="F9" s="93"/>
       <c r="G9" s="100"/>
     </row>
@@ -6833,6 +6816,9 @@
       <c r="B10" s="170" t="s">
         <v>808</v>
       </c>
+      <c r="D10" s="241" t="s">
+        <v>843</v>
+      </c>
       <c r="F10" s="93"/>
       <c r="G10" s="100"/>
     </row>
@@ -6840,6 +6826,9 @@
       <c r="A11" s="104" t="s">
         <v>562</v>
       </c>
+      <c r="D11" s="241" t="s">
+        <v>846</v>
+      </c>
       <c r="F11" s="93"/>
       <c r="G11" s="100"/>
     </row>
@@ -6848,7 +6837,7 @@
         <v>563</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>783</v>
+        <v>856</v>
       </c>
       <c r="D12" s="112" t="s">
         <v>752</v>
@@ -6861,9 +6850,9 @@
         <v>564</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>819</v>
-      </c>
-      <c r="C13" s="95"/>
+        <v>850</v>
+      </c>
+      <c r="C13" s="248"/>
       <c r="D13" s="113"/>
       <c r="E13" s="118"/>
       <c r="F13" s="93" t="s">
@@ -6898,8 +6887,14 @@
       <c r="A16" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="179" t="s">
+        <v>847</v>
+      </c>
+      <c r="D16" s="179" t="s">
         <v>104</v>
+      </c>
+      <c r="E16" s="179" t="s">
+        <v>847</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="100"/>
@@ -6911,7 +6906,7 @@
       <c r="B17" s="172" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="142"/>
+      <c r="C17" s="249"/>
       <c r="D17" s="142"/>
       <c r="E17" s="142"/>
       <c r="F17" s="143"/>
@@ -6921,15 +6916,15 @@
         <v>105</v>
       </c>
       <c r="B18" s="172" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="142"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="249"/>
       <c r="D18" s="142"/>
       <c r="E18" s="142"/>
       <c r="F18" s="143"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="251" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="169" t="b">
@@ -6943,7 +6938,7 @@
         <v>128</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="D20" s="107" t="s">
         <v>782</v>
@@ -6961,7 +6956,10 @@
         <v>129</v>
       </c>
       <c r="B21" s="169" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="107" t="s">
+        <v>828</v>
       </c>
       <c r="E21" s="107" t="s">
         <v>782</v>
@@ -6991,11 +6989,11 @@
       <c r="A23" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="181" t="s">
-        <v>817</v>
-      </c>
-      <c r="D23" s="181" t="s">
-        <v>827</v>
+      <c r="B23" s="241" t="s">
+        <v>840</v>
+      </c>
+      <c r="D23" s="244" t="s">
+        <v>826</v>
       </c>
       <c r="F23" s="93"/>
       <c r="G23" s="100"/>
@@ -7007,21 +7005,21 @@
       <c r="B24" s="169" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="244" t="s">
         <v>811</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="251" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="169" t="b">
+      <c r="B25" s="250" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="181" t="s">
-        <v>826</v>
+      <c r="D25" s="244" t="s">
+        <v>848</v>
       </c>
       <c r="E25" s="117" t="s">
         <v>641</v>
@@ -7076,6 +7074,9 @@
       <c r="B29" s="169" t="s">
         <v>604</v>
       </c>
+      <c r="D29" s="112" t="s">
+        <v>852</v>
+      </c>
       <c r="E29" s="181" t="s">
         <v>801</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>636</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="D41" s="112" t="s">
         <v>637</v>
@@ -7229,7 +7230,7 @@
         <v>466</v>
       </c>
       <c r="B42" s="175">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D42" s="175">
         <v>120</v>
@@ -7259,7 +7260,7 @@
       <c r="B44" s="178" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="249"/>
       <c r="D44" s="142"/>
       <c r="E44" s="142"/>
     </row>
@@ -7292,6 +7293,7 @@
       <c r="B47" s="179">
         <v>1</v>
       </c>
+      <c r="C47" s="247"/>
       <c r="D47" s="112"/>
       <c r="E47" s="117"/>
       <c r="F47" s="83"/>
@@ -7307,6 +7309,7 @@
       <c r="B48" s="179">
         <v>1</v>
       </c>
+      <c r="C48" s="247"/>
       <c r="D48" s="112"/>
       <c r="E48" s="117"/>
       <c r="F48" s="83"/>
@@ -7322,6 +7325,7 @@
       <c r="B49" s="179" t="b">
         <v>1</v>
       </c>
+      <c r="C49" s="247"/>
       <c r="D49" s="112"/>
       <c r="E49" s="117"/>
       <c r="F49" s="83"/>
@@ -7335,8 +7339,9 @@
         <v>682</v>
       </c>
       <c r="B50" s="179">
-        <v>2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="C50" s="247"/>
       <c r="D50" s="112" t="s">
         <v>763</v>
       </c>
@@ -7351,7 +7356,10 @@
       <c r="A51" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B51" s="180">
+      <c r="B51" s="242">
+        <v>1.2</v>
+      </c>
+      <c r="C51" s="247">
         <v>1.7</v>
       </c>
       <c r="D51" s="112"/>
@@ -7366,9 +7374,10 @@
       <c r="A52" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B52" s="180">
+      <c r="B52" s="242">
         <v>1</v>
       </c>
+      <c r="C52" s="247"/>
       <c r="D52" s="112"/>
       <c r="E52" s="117"/>
       <c r="F52" s="83"/>
@@ -7384,6 +7393,7 @@
       <c r="B53" s="179">
         <v>1</v>
       </c>
+      <c r="C53" s="247"/>
       <c r="D53" s="112"/>
       <c r="E53" s="117"/>
       <c r="F53" s="83"/>
@@ -7396,10 +7406,10 @@
       <c r="A54" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B54" s="148" t="s">
+      <c r="B54" s="243" t="s">
         <v>741</v>
       </c>
-      <c r="D54" s="148" t="s">
+      <c r="D54" s="245" t="s">
         <v>706</v>
       </c>
       <c r="E54" s="117" t="s">
@@ -7410,7 +7420,7 @@
       <c r="A55" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="B55" s="148" t="s">
+      <c r="B55" s="243" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7505,13 +7515,13 @@
         <v>644</v>
       </c>
       <c r="B64" s="87">
-        <v>1.0000000000000001E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D64" s="87">
         <v>9.0000000000000002E-6</v>
       </c>
-      <c r="E64" s="87">
-        <v>9.0740750883425193E-6</v>
+      <c r="E64" s="87" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7519,7 +7529,7 @@
         <v>551</v>
       </c>
       <c r="B65" s="179">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D65" s="83" t="s">
         <v>551</v>
@@ -7533,7 +7543,7 @@
         <v>484</v>
       </c>
       <c r="B66" s="179" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D66" s="179" t="s">
         <v>766</v>
@@ -7589,7 +7599,7 @@
         <v>772</v>
       </c>
       <c r="B70" s="179" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D70" s="179" t="s">
         <v>773</v>
@@ -7600,7 +7610,7 @@
         <v>774</v>
       </c>
       <c r="B71" s="179" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
       <c r="D71" s="179" t="s">
         <v>775</v>
@@ -7614,7 +7624,7 @@
         <v>777</v>
       </c>
       <c r="B72" s="179" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="D72" s="179" t="s">
         <v>778</v>
@@ -7650,7 +7660,7 @@
         <v>788</v>
       </c>
       <c r="B75" s="179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7660,6 +7670,9 @@
       <c r="B76" s="179">
         <v>0.6</v>
       </c>
+      <c r="C76" s="179">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="83" t="s">
@@ -7674,13 +7687,16 @@
         <v>792</v>
       </c>
       <c r="B78" s="179">
+        <v>0.5</v>
+      </c>
+      <c r="C78" s="247">
         <v>0.3</v>
       </c>
       <c r="D78" s="83" t="s">
         <v>167</v>
       </c>
       <c r="E78" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7688,13 +7704,16 @@
         <v>793</v>
       </c>
       <c r="B79" s="179">
+        <v>0.9</v>
+      </c>
+      <c r="C79" s="247">
         <v>0.5</v>
       </c>
       <c r="D79" s="83" t="s">
         <v>167</v>
       </c>
       <c r="E79" s="179" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7702,27 +7721,33 @@
         <v>794</v>
       </c>
       <c r="B80" s="179">
+        <v>1</v>
+      </c>
+      <c r="C80" s="247">
         <v>2</v>
       </c>
       <c r="D80" s="112" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E80" s="179" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="83" t="s">
         <v>550</v>
       </c>
       <c r="B81" s="179">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D81" s="112">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" s="179" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="83" t="s">
         <v>795</v>
       </c>
@@ -7733,267 +7758,290 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="83" t="s">
         <v>45</v>
       </c>
       <c r="B83" s="179">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="83" t="s">
+        <v>805</v>
+      </c>
+      <c r="B84" s="179">
+        <v>3</v>
+      </c>
+      <c r="D84" s="83" t="s">
         <v>796</v>
       </c>
-      <c r="B84" s="179" t="s">
+      <c r="E84" s="179" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="83" t="s">
+        <v>806</v>
+      </c>
+      <c r="B85" s="179">
+        <v>1</v>
+      </c>
+      <c r="D85" s="83" t="s">
         <v>797</v>
       </c>
-      <c r="B85" s="179" t="s">
+      <c r="E85" s="179" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="83" t="s">
-        <v>805</v>
-      </c>
-      <c r="B86" s="179">
-        <v>8</v>
+        <v>807</v>
+      </c>
+      <c r="B86" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="247">
+        <v>12</v>
       </c>
       <c r="D86" s="112">
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="83" t="s">
-        <v>806</v>
-      </c>
-      <c r="B87" s="179">
+        <v>824</v>
+      </c>
+      <c r="B87" s="179" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="83" t="s">
-        <v>807</v>
-      </c>
-      <c r="B88" s="179" t="b">
-        <v>0</v>
+        <v>831</v>
+      </c>
+      <c r="B88" s="179">
+        <v>0.9</v>
       </c>
       <c r="D88" s="112" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="83" t="s">
-        <v>825</v>
-      </c>
-      <c r="B89" s="179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="179" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="83" t="s">
-        <v>835</v>
-      </c>
-      <c r="B91" s="179">
-        <v>1.2</v>
-      </c>
-      <c r="D91" s="112">
-        <v>1.5932766384205801</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B19">
-    <cfRule type="notContainsErrors" dxfId="120" priority="380">
+  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B15 B17:B19">
+    <cfRule type="notContainsErrors" dxfId="92" priority="417">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="119" priority="379">
+    <cfRule type="notContainsErrors" dxfId="91" priority="416">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="118" priority="378">
+    <cfRule type="notContainsErrors" dxfId="90" priority="415">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="117" priority="377">
+    <cfRule type="notContainsErrors" dxfId="89" priority="414">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="116" priority="376">
+    <cfRule type="notContainsErrors" dxfId="88" priority="413">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="115" priority="375">
+    <cfRule type="notContainsErrors" dxfId="87" priority="412">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="114" priority="357">
-      <formula>NOT(ISERROR(D4))</formula>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="notContainsErrors" dxfId="86" priority="371">
+      <formula>NOT(ISERROR(B58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="notContainsErrors" dxfId="113" priority="333">
+    <cfRule type="notContainsErrors" dxfId="85" priority="370">
       <formula>NOT(ISERROR(B57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsErrors" dxfId="112" priority="348">
+    <cfRule type="notContainsErrors" dxfId="84" priority="385">
       <formula>NOT(ISERROR(D33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="notContainsErrors" dxfId="111" priority="347">
+    <cfRule type="notContainsErrors" dxfId="83" priority="384">
       <formula>NOT(ISERROR(E28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="notContainsErrors" dxfId="110" priority="335">
+    <cfRule type="notContainsErrors" dxfId="82" priority="372">
       <formula>NOT(ISERROR(B59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsErrors" dxfId="109" priority="339">
+    <cfRule type="notContainsErrors" dxfId="81" priority="376">
       <formula>NOT(ISERROR(B63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsErrors" dxfId="108" priority="338">
+    <cfRule type="notContainsErrors" dxfId="80" priority="375">
       <formula>NOT(ISERROR(B62))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsErrors" dxfId="107" priority="337">
+    <cfRule type="notContainsErrors" dxfId="79" priority="374">
       <formula>NOT(ISERROR(B61))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsErrors" dxfId="106" priority="336">
+    <cfRule type="notContainsErrors" dxfId="78" priority="373">
       <formula>NOT(ISERROR(B60))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="notContainsErrors" dxfId="105" priority="334">
-      <formula>NOT(ISERROR(B58))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="notContainsErrors" dxfId="104" priority="328">
+    <cfRule type="notContainsErrors" dxfId="77" priority="365">
       <formula>NOT(ISERROR(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsErrors" dxfId="103" priority="321">
+    <cfRule type="notContainsErrors" dxfId="76" priority="358">
       <formula>NOT(ISERROR(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsErrors" dxfId="102" priority="271">
+    <cfRule type="notContainsErrors" dxfId="75" priority="308">
       <formula>NOT(ISERROR(D2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsErrors" dxfId="101" priority="270">
+    <cfRule type="notContainsErrors" dxfId="74" priority="307">
       <formula>NOT(ISERROR(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsErrors" dxfId="100" priority="291">
+    <cfRule type="notContainsErrors" dxfId="73" priority="328">
       <formula>NOT(ISERROR(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="notContainsErrors" dxfId="99" priority="255">
+    <cfRule type="notContainsErrors" dxfId="72" priority="292">
       <formula>NOT(ISERROR(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="notContainsErrors" dxfId="98" priority="156">
+    <cfRule type="notContainsErrors" dxfId="71" priority="193">
       <formula>NOT(ISERROR(E21))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="notContainsErrors" dxfId="96" priority="137">
-      <formula>NOT(ISERROR(B28))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="95" priority="99">
+    <cfRule type="notContainsErrors" dxfId="70" priority="136">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsErrors" dxfId="94" priority="95">
+    <cfRule type="notContainsErrors" dxfId="69" priority="132">
       <formula>NOT(ISERROR(E29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsErrors" dxfId="93" priority="94">
+    <cfRule type="notContainsErrors" dxfId="68" priority="131">
       <formula>NOT(ISERROR(E31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="notContainsErrors" dxfId="92" priority="93">
+    <cfRule type="notContainsErrors" dxfId="67" priority="130">
       <formula>NOT(ISERROR(E30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="notContainsErrors" dxfId="91" priority="12">
+    <cfRule type="notContainsErrors" dxfId="66" priority="49">
       <formula>NOT(ISERROR(D23))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="87" priority="3">
-      <formula>NOT(ISERROR(B4))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="84" priority="4">
+    <cfRule type="notContainsErrors" dxfId="65" priority="6">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="notContainsErrors" dxfId="64" priority="20">
+      <formula>NOT(ISERROR(D10))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="notContainsErrors" dxfId="76" priority="14">
+    <cfRule type="notContainsErrors" dxfId="63" priority="51">
       <formula>NOT(ISERROR(D24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="notContainsErrors" dxfId="58" priority="13">
+    <cfRule type="notContainsErrors" dxfId="62" priority="50">
       <formula>NOT(ISERROR(D25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="37" priority="24">
+    <cfRule type="notContainsErrors" dxfId="61" priority="61">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="notContainsErrors" dxfId="60" priority="27">
+      <formula>NOT(ISERROR(D21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="notContainsErrors" dxfId="59" priority="21">
+      <formula>NOT(ISERROR(D11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="notContainsErrors" dxfId="58" priority="22">
+      <formula>NOT(ISERROR(D9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="notContainsErrors" dxfId="57" priority="9">
+      <formula>NOT(ISERROR(E16))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="1" priority="2">
+    <cfRule type="notContainsErrors" dxfId="56" priority="15">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" dxfId="55" priority="28">
       <formula>NOT(ISERROR(B23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="notContainsErrors" dxfId="54" priority="3">
+      <formula>NOT(ISERROR(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="notContainsErrors" dxfId="53" priority="14">
+      <formula>NOT(ISERROR(D4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="52" priority="4">
+      <formula>NOT(ISERROR(B4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="notContainsErrors" dxfId="51" priority="1">
+      <formula>NOT(ISERROR(B16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="notContainsErrors" dxfId="50" priority="2">
+      <formula>NOT(ISERROR(D16))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8003,6 +8051,562 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="77" workbookViewId="0">
+      <selection activeCell="K55" sqref="A53:K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.15625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.41796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.15625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B23" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="93" t="s">
+        <v>572</v>
+      </c>
+      <c r="B32" s="82" t="s">
+        <v>573</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="94">
+        <v>8.0484411999999994E-6</v>
+      </c>
+      <c r="B33" s="85">
+        <v>3.0484411999999999E-6</v>
+      </c>
+      <c r="C33" s="86">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D33" s="87">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E33" s="88">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="93">
+        <v>0.01</v>
+      </c>
+      <c r="B34" s="89">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C34" s="84">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D34" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="E34" s="83">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="88">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C41" s="84">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42" s="88">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C42" s="83">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="88">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="88">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="108">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B46" s="108">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A53" s="239" t="s">
+        <v>809</v>
+      </c>
+      <c r="B53" s="239">
+        <v>2007</v>
+      </c>
+      <c r="C53" s="239">
+        <v>2008</v>
+      </c>
+      <c r="D53" s="239">
+        <v>2009</v>
+      </c>
+      <c r="E53" s="239">
+        <v>2010</v>
+      </c>
+      <c r="F53" s="239">
+        <v>2011</v>
+      </c>
+      <c r="G53" s="239">
+        <v>2012</v>
+      </c>
+      <c r="H53" s="239">
+        <v>2013</v>
+      </c>
+      <c r="I53" s="239">
+        <v>2014</v>
+      </c>
+      <c r="J53" s="239">
+        <v>2015</v>
+      </c>
+      <c r="K53" s="239">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="240"/>
+      <c r="B54" s="240"/>
+      <c r="C54" s="240"/>
+      <c r="D54" s="240"/>
+      <c r="E54" s="240"/>
+      <c r="F54" s="240"/>
+      <c r="G54" s="240"/>
+      <c r="H54" s="240"/>
+      <c r="I54" s="240"/>
+      <c r="J54" s="240"/>
+      <c r="K54" s="240"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A55" s="239" t="s">
+        <v>810</v>
+      </c>
+      <c r="B55" s="239">
+        <v>70911</v>
+      </c>
+      <c r="C55" s="239">
+        <v>74492</v>
+      </c>
+      <c r="D55" s="239">
+        <v>78432</v>
+      </c>
+      <c r="E55" s="239">
+        <v>83019</v>
+      </c>
+      <c r="F55" s="239">
+        <v>91415</v>
+      </c>
+      <c r="G55" s="239">
+        <v>64629</v>
+      </c>
+      <c r="H55" s="239">
+        <v>41456</v>
+      </c>
+      <c r="I55" s="239">
+        <v>67377</v>
+      </c>
+      <c r="J55" s="239">
+        <v>38674</v>
+      </c>
+      <c r="K55" s="239">
+        <v>146633</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="240"/>
+      <c r="B56" s="240"/>
+      <c r="C56" s="240"/>
+      <c r="D56" s="240"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="240"/>
+      <c r="G56" s="240"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="240"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="240"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68B577-1ED3-4341-9ED6-7148A85D6559}">
   <dimension ref="A1:G503"/>
   <sheetViews>
@@ -12010,7 +12614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BB740-2696-4061-9D1F-96ECA011A915}">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -12472,7 +13076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB470B68-06CF-4878-82CF-51FDF4D94B75}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -12692,7 +13296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC21375-A8E9-4EF5-B764-254BB08A3B84}">
   <dimension ref="A1:B320"/>
   <sheetViews>
@@ -15270,14 +15874,1375 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675652AC-3D6D-4F6C-9D18-FE1701789090}">
+  <sheetPr>
+    <tabColor rgb="FF636EFA"/>
+  </sheetPr>
+  <dimension ref="A1:J91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.734375" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.26171875" style="179" customWidth="1"/>
+    <col min="3" max="3" width="4.5234375" style="247" customWidth="1"/>
+    <col min="4" max="4" width="55.9453125" style="112" customWidth="1"/>
+    <col min="5" max="5" width="74.9453125" style="117" customWidth="1"/>
+    <col min="6" max="6" width="74.20703125" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.578125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="9.15625" style="83" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.89453125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="8.89453125" style="83" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83984375" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="246"/>
+      <c r="D1" s="111" t="s">
+        <v>635</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>634</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="100"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="241" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="244" t="s">
+        <v>756</v>
+      </c>
+      <c r="E2" s="181" t="s">
+        <v>709</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>619</v>
+      </c>
+      <c r="G2" s="100"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>738</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="241" t="s">
+        <v>836</v>
+      </c>
+      <c r="D4" s="244" t="s">
+        <v>709</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>739</v>
+      </c>
+      <c r="F4" s="107" t="s">
+        <v>622</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B5" s="169">
+        <v>15</v>
+      </c>
+      <c r="D5" s="169" t="s">
+        <v>755</v>
+      </c>
+      <c r="F5" s="93"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="169" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="112" t="s">
+        <v>710</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>630</v>
+      </c>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="104" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>837</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>685</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>677</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>618</v>
+      </c>
+      <c r="G7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>822</v>
+      </c>
+      <c r="F8" s="93"/>
+      <c r="G8" s="100"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="104" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="170"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="100"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="145" t="s">
+        <v>695</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>808</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="104" t="s">
+        <v>562</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="100"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="104" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="169" t="s">
+        <v>783</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>752</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="100"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>818</v>
+      </c>
+      <c r="C13" s="248"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="93" t="s">
+        <v>623</v>
+      </c>
+      <c r="G13" s="100"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="169" t="s">
+        <v>532</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="100"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="169" t="s">
+        <v>533</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="F15" s="93"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="169" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="93"/>
+      <c r="G16" s="100"/>
+    </row>
+    <row r="17" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="172" t="s">
+        <v>560</v>
+      </c>
+      <c r="C17" s="249"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="143"/>
+    </row>
+    <row r="18" spans="1:8" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="172" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="249"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="143"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="169" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="93"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="182" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>828</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>782</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>640</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>684</v>
+      </c>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>782</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>537</v>
+      </c>
+      <c r="G21" s="100"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="183" t="s">
+        <v>791</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>635</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>634</v>
+      </c>
+      <c r="F22" s="93"/>
+      <c r="G22" s="100"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="241" t="s">
+        <v>834</v>
+      </c>
+      <c r="D23" s="244" t="s">
+        <v>826</v>
+      </c>
+      <c r="F23" s="93"/>
+      <c r="G23" s="100"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="104" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="169" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="244" t="s">
+        <v>811</v>
+      </c>
+      <c r="F24" s="93"/>
+      <c r="G24" s="100"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="B25" s="169" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="244" t="s">
+        <v>825</v>
+      </c>
+      <c r="E25" s="117" t="s">
+        <v>641</v>
+      </c>
+      <c r="F25" s="93"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="98"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" s="169" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="93">
+        <f>0.00003*24*60*60</f>
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="104" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="169" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" s="93"/>
+      <c r="G27" s="100"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="169" t="s">
+        <v>629</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="169" t="s">
+        <v>629</v>
+      </c>
+      <c r="F28" s="93"/>
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="103" t="s">
+        <v>603</v>
+      </c>
+      <c r="B29" s="169" t="s">
+        <v>604</v>
+      </c>
+      <c r="E29" s="181" t="s">
+        <v>801</v>
+      </c>
+      <c r="F29" s="93"/>
+      <c r="G29" s="100"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="103" t="s">
+        <v>586</v>
+      </c>
+      <c r="B30" s="169" t="s">
+        <v>714</v>
+      </c>
+      <c r="E30" s="181" t="s">
+        <v>803</v>
+      </c>
+      <c r="F30" s="93"/>
+      <c r="G30" s="100"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="103" t="s">
+        <v>610</v>
+      </c>
+      <c r="B31" s="169" t="s">
+        <v>714</v>
+      </c>
+      <c r="E31" s="181" t="s">
+        <v>802</v>
+      </c>
+      <c r="F31" s="93"/>
+      <c r="G31" s="100"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="103" t="s">
+        <v>611</v>
+      </c>
+      <c r="B32" s="169" t="s">
+        <v>714</v>
+      </c>
+      <c r="F32" s="93"/>
+      <c r="G32" s="100"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="103" t="s">
+        <v>612</v>
+      </c>
+      <c r="B33" s="169" t="s">
+        <v>714</v>
+      </c>
+      <c r="D33" s="169" t="s">
+        <v>713</v>
+      </c>
+      <c r="F33" s="93"/>
+      <c r="G33" s="100"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="103" t="s">
+        <v>583</v>
+      </c>
+      <c r="B34" s="169" t="s">
+        <v>715</v>
+      </c>
+      <c r="F34" s="93"/>
+      <c r="G34" s="100"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="103" t="s">
+        <v>584</v>
+      </c>
+      <c r="B35" s="169" t="s">
+        <v>716</v>
+      </c>
+      <c r="F35" s="93"/>
+      <c r="G35" s="100"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="103" t="s">
+        <v>585</v>
+      </c>
+      <c r="B36" s="169" t="s">
+        <v>717</v>
+      </c>
+      <c r="F36" s="93"/>
+      <c r="G36" s="100"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="103" t="s">
+        <v>588</v>
+      </c>
+      <c r="B37" s="173" t="s">
+        <v>718</v>
+      </c>
+      <c r="F37" s="93"/>
+      <c r="G37" s="100"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B38" s="174" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="184" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>720</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="184" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="185" t="s">
+        <v>636</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>817</v>
+      </c>
+      <c r="D41" s="112" t="s">
+        <v>637</v>
+      </c>
+      <c r="E41" s="90" t="s">
+        <v>781</v>
+      </c>
+      <c r="F41" s="112" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" s="175">
+        <v>75</v>
+      </c>
+      <c r="D42" s="175">
+        <v>120</v>
+      </c>
+      <c r="E42" s="112" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="144" t="s">
+        <v>651</v>
+      </c>
+      <c r="B44" s="178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="249"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="139" t="s">
+        <v>676</v>
+      </c>
+      <c r="B45" s="179">
+        <v>0.2</v>
+      </c>
+      <c r="D45" s="112" t="s">
+        <v>764</v>
+      </c>
+      <c r="E45" s="117" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="139" t="s">
+        <v>754</v>
+      </c>
+      <c r="B46" s="179">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="139" t="s">
+        <v>680</v>
+      </c>
+      <c r="B47" s="179">
+        <v>1</v>
+      </c>
+      <c r="C47" s="247"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+    </row>
+    <row r="48" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="B48" s="179">
+        <v>1</v>
+      </c>
+      <c r="C48" s="247"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+    </row>
+    <row r="49" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="247"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+    </row>
+    <row r="50" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="140" t="s">
+        <v>682</v>
+      </c>
+      <c r="B50" s="179">
+        <v>1.5</v>
+      </c>
+      <c r="C50" s="247"/>
+      <c r="D50" s="112" t="s">
+        <v>763</v>
+      </c>
+      <c r="E50" s="117"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+    </row>
+    <row r="51" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B51" s="242">
+        <v>1.7</v>
+      </c>
+      <c r="C51" s="247">
+        <v>1.7</v>
+      </c>
+      <c r="D51" s="112"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+    </row>
+    <row r="52" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B52" s="242">
+        <v>1</v>
+      </c>
+      <c r="C52" s="247"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+    </row>
+    <row r="53" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="83" t="s">
+        <v>703</v>
+      </c>
+      <c r="B53" s="179">
+        <v>1</v>
+      </c>
+      <c r="C53" s="247"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="147" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="243" t="s">
+        <v>741</v>
+      </c>
+      <c r="D54" s="245" t="s">
+        <v>706</v>
+      </c>
+      <c r="E54" s="117" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="147" t="s">
+        <v>540</v>
+      </c>
+      <c r="B55" s="243" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="145" t="s">
+        <v>711</v>
+      </c>
+      <c r="B56" s="112">
+        <v>0.15</v>
+      </c>
+      <c r="D56" s="112" t="s">
+        <v>712</v>
+      </c>
+      <c r="E56" s="112" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="B57" s="173" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="B58" s="173" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B59" s="173" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="B60" s="173" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="B61" s="173" t="s">
+        <v>733</v>
+      </c>
+      <c r="D61" s="83" t="s">
+        <v>759</v>
+      </c>
+      <c r="E61" s="179" t="s">
+        <v>760</v>
+      </c>
+      <c r="F61" s="91"/>
+      <c r="G61" s="112" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="B62" s="173" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="83" t="s">
+        <v>725</v>
+      </c>
+      <c r="B63" s="173" t="s">
+        <v>731</v>
+      </c>
+      <c r="D63" s="112" t="s">
+        <v>757</v>
+      </c>
+      <c r="F63" s="83" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="83" t="s">
+        <v>644</v>
+      </c>
+      <c r="B64" s="87">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D64" s="87">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E64" s="87">
+        <v>9.0740750883425193E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="B65" s="179">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D65" s="83" t="s">
+        <v>551</v>
+      </c>
+      <c r="E65" s="179">
+        <v>1.5726409471325802E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="83" t="s">
+        <v>484</v>
+      </c>
+      <c r="B66" s="179" t="s">
+        <v>819</v>
+      </c>
+      <c r="D66" s="179" t="s">
+        <v>766</v>
+      </c>
+      <c r="E66" s="179" t="s">
+        <v>760</v>
+      </c>
+      <c r="F66" s="83" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="83" t="s">
+        <v>765</v>
+      </c>
+      <c r="B67" s="179" t="s">
+        <v>814</v>
+      </c>
+      <c r="D67" s="179" t="s">
+        <v>767</v>
+      </c>
+      <c r="E67" s="179" t="s">
+        <v>760</v>
+      </c>
+      <c r="F67" s="83" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="83" t="s">
+        <v>768</v>
+      </c>
+      <c r="B68" s="179" t="s">
+        <v>813</v>
+      </c>
+      <c r="D68" s="179" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="83" t="s">
+        <v>770</v>
+      </c>
+      <c r="B69" s="179" t="s">
+        <v>816</v>
+      </c>
+      <c r="D69" s="179" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="83" t="s">
+        <v>772</v>
+      </c>
+      <c r="B70" s="179" t="s">
+        <v>820</v>
+      </c>
+      <c r="D70" s="179" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="83" t="s">
+        <v>774</v>
+      </c>
+      <c r="B71" s="179" t="s">
+        <v>812</v>
+      </c>
+      <c r="D71" s="179" t="s">
+        <v>775</v>
+      </c>
+      <c r="E71" s="112" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="83" t="s">
+        <v>777</v>
+      </c>
+      <c r="B72" s="179" t="s">
+        <v>821</v>
+      </c>
+      <c r="D72" s="179" t="s">
+        <v>778</v>
+      </c>
+      <c r="E72" s="179" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="83" t="s">
+        <v>784</v>
+      </c>
+      <c r="B73" s="179" t="s">
+        <v>838</v>
+      </c>
+      <c r="D73" s="179" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="83" t="s">
+        <v>786</v>
+      </c>
+      <c r="B74" s="179" t="s">
+        <v>839</v>
+      </c>
+      <c r="D74" s="179" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="83" t="s">
+        <v>788</v>
+      </c>
+      <c r="B75" s="179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="B76" s="179">
+        <v>0.6</v>
+      </c>
+      <c r="C76" s="179">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="83" t="s">
+        <v>790</v>
+      </c>
+      <c r="B77" s="179" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="83" t="s">
+        <v>792</v>
+      </c>
+      <c r="B78" s="179">
+        <v>0.3</v>
+      </c>
+      <c r="C78" s="247">
+        <v>0.3</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="179" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="83" t="s">
+        <v>793</v>
+      </c>
+      <c r="B79" s="179">
+        <v>0.5</v>
+      </c>
+      <c r="C79" s="247">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="179" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="83" t="s">
+        <v>794</v>
+      </c>
+      <c r="B80" s="179">
+        <v>2</v>
+      </c>
+      <c r="C80" s="247">
+        <v>2</v>
+      </c>
+      <c r="D80" s="112" t="s">
+        <v>832</v>
+      </c>
+      <c r="E80" s="179" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="B81" s="179">
+        <v>1</v>
+      </c>
+      <c r="D81" s="112">
+        <v>0.6</v>
+      </c>
+      <c r="E81" s="179" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="B82" s="179">
+        <v>1.2</v>
+      </c>
+      <c r="D82" s="112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="179">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="B84" s="179" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="B85" s="179" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="83" t="s">
+        <v>805</v>
+      </c>
+      <c r="B86" s="247">
+        <v>12</v>
+      </c>
+      <c r="C86" s="247">
+        <v>12</v>
+      </c>
+      <c r="D86" s="112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="83" t="s">
+        <v>806</v>
+      </c>
+      <c r="B87" s="179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="83" t="s">
+        <v>807</v>
+      </c>
+      <c r="B88" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" s="112" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="83" t="s">
+        <v>824</v>
+      </c>
+      <c r="B89" s="179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="83" t="s">
+        <v>831</v>
+      </c>
+      <c r="B90" s="179">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="112"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B19">
+    <cfRule type="notContainsErrors" dxfId="49" priority="41">
+      <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="notContainsErrors" dxfId="48" priority="40">
+      <formula>NOT(ISERROR(F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="notContainsErrors" dxfId="47" priority="39">
+      <formula>NOT(ISERROR(F2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="notContainsErrors" dxfId="46" priority="38">
+      <formula>NOT(ISERROR(F3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="notContainsErrors" dxfId="45" priority="37">
+      <formula>NOT(ISERROR(F20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="notContainsErrors" dxfId="44" priority="36">
+      <formula>NOT(ISERROR(E20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="notContainsErrors" dxfId="43" priority="35">
+      <formula>NOT(ISERROR(D4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="notContainsErrors" dxfId="42" priority="26">
+      <formula>NOT(ISERROR(B57))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="notContainsErrors" dxfId="41" priority="34">
+      <formula>NOT(ISERROR(D33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="notContainsErrors" dxfId="40" priority="33">
+      <formula>NOT(ISERROR(E28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="notContainsErrors" dxfId="39" priority="28">
+      <formula>NOT(ISERROR(B59))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="notContainsErrors" dxfId="38" priority="32">
+      <formula>NOT(ISERROR(B63))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="notContainsErrors" dxfId="37" priority="31">
+      <formula>NOT(ISERROR(B62))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
+    <cfRule type="notContainsErrors" dxfId="36" priority="30">
+      <formula>NOT(ISERROR(B61))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
+    <cfRule type="notContainsErrors" dxfId="35" priority="29">
+      <formula>NOT(ISERROR(B60))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="notContainsErrors" dxfId="34" priority="27">
+      <formula>NOT(ISERROR(B58))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="notContainsErrors" dxfId="33" priority="25">
+      <formula>NOT(ISERROR(E4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="notContainsErrors" dxfId="32" priority="24">
+      <formula>NOT(ISERROR(B9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="notContainsErrors" dxfId="31" priority="22">
+      <formula>NOT(ISERROR(D2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="notContainsErrors" dxfId="30" priority="21">
+      <formula>NOT(ISERROR(E2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="notContainsErrors" dxfId="29" priority="23">
+      <formula>NOT(ISERROR(D5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="notContainsErrors" dxfId="28" priority="20">
+      <formula>NOT(ISERROR(B8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="notContainsErrors" dxfId="27" priority="19">
+      <formula>NOT(ISERROR(E21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="notContainsErrors" dxfId="26" priority="18">
+      <formula>NOT(ISERROR(B28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="notContainsErrors" dxfId="25" priority="17">
+      <formula>NOT(ISERROR(B20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="notContainsErrors" dxfId="24" priority="16">
+      <formula>NOT(ISERROR(E29))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="notContainsErrors" dxfId="23" priority="15">
+      <formula>NOT(ISERROR(E31))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="notContainsErrors" dxfId="22" priority="14">
+      <formula>NOT(ISERROR(E30))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="notContainsErrors" dxfId="21" priority="10">
+      <formula>NOT(ISERROR(D23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="notContainsErrors" dxfId="20" priority="3">
+      <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="notContainsErrors" dxfId="19" priority="12">
+      <formula>NOT(ISERROR(D24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="notContainsErrors" dxfId="18" priority="11">
+      <formula>NOT(ISERROR(D25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="notContainsErrors" dxfId="17" priority="13">
+      <formula>NOT(ISERROR(D20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="notContainsErrors" dxfId="16" priority="7">
+      <formula>NOT(ISERROR(B23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="notContainsErrors" dxfId="15" priority="2">
+      <formula>NOT(ISERROR(B4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="notContainsErrors" dxfId="14" priority="1">
+      <formula>NOT(ISERROR(B2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8190D62B-02BF-4FF4-960D-F5C64592015A}">
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15937,67 +17902,67 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="15" priority="14">
+    <cfRule type="notContainsErrors" dxfId="13" priority="14">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="14" priority="13">
+    <cfRule type="notContainsErrors" dxfId="12" priority="13">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="13" priority="12">
+    <cfRule type="notContainsErrors" dxfId="11" priority="12">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="12" priority="11">
+    <cfRule type="notContainsErrors" dxfId="10" priority="11">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="11" priority="10">
+    <cfRule type="notContainsErrors" dxfId="9" priority="10">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="10" priority="9">
+    <cfRule type="notContainsErrors" dxfId="8" priority="9">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="9" priority="6">
+    <cfRule type="notContainsErrors" dxfId="7" priority="6">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="8" priority="8">
+    <cfRule type="notContainsErrors" dxfId="6" priority="8">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="7" priority="5">
+    <cfRule type="notContainsErrors" dxfId="5" priority="5">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="6" priority="4">
+    <cfRule type="notContainsErrors" dxfId="4" priority="4">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="5" priority="3">
+    <cfRule type="notContainsErrors" dxfId="3" priority="3">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="4" priority="2">
+    <cfRule type="notContainsErrors" dxfId="2" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="3" priority="1">
+    <cfRule type="notContainsErrors" dxfId="1" priority="1">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16007,7 +17972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE4C6F-AD9F-47E7-A7AE-2E8ED168524F}">
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
@@ -16041,7 +18006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E5BEA-5028-4D9B-974D-E5E66D3FFB63}">
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
@@ -18639,7 +20604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3E8FC2-B4BB-4D64-99B8-6E6C78B89461}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -18872,7 +20837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
@@ -18880,7 +20845,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -19723,7 +21688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2D2EFD-B359-4BA7-8894-C1EBC96E92BC}">
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
@@ -20236,7 +22201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DE2398-4D66-4F9C-BA4E-2DE4F9D6B687}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -20401,566 +22366,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="notContainsErrors" dxfId="2" priority="2">
+    <cfRule type="notContainsErrors" dxfId="0" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0B17ED-365F-42A2-8A56-1051B9FEC7F3}">
-  <dimension ref="A1:K56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="77" workbookViewId="0">
-      <selection activeCell="K55" sqref="A53:K56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="25.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B23" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="93" t="s">
-        <v>572</v>
-      </c>
-      <c r="B32" s="82" t="s">
-        <v>573</v>
-      </c>
-      <c r="C32" s="84" t="s">
-        <v>574</v>
-      </c>
-      <c r="D32" s="83" t="s">
-        <v>575</v>
-      </c>
-      <c r="E32" s="83" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="94">
-        <v>8.0484411999999994E-6</v>
-      </c>
-      <c r="B33" s="85">
-        <v>3.0484411999999999E-6</v>
-      </c>
-      <c r="C33" s="86">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D33" s="87">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="E33" s="88">
-        <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="93">
-        <v>0.01</v>
-      </c>
-      <c r="B34" s="89">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C34" s="84">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D34" s="83">
-        <v>0.02</v>
-      </c>
-      <c r="E34" s="83">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
-        <v>4</v>
-      </c>
-      <c r="B41" s="88">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C41" s="84">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
-        <v>5</v>
-      </c>
-      <c r="B42" s="88">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="C42" s="83">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
-        <v>6</v>
-      </c>
-      <c r="B43" s="88">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C43" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <v>7</v>
-      </c>
-      <c r="B44" s="88">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="C44" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="2">
-        <v>8</v>
-      </c>
-      <c r="B45" s="108">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C45" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B46" s="108">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="C46" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A53" s="239" t="s">
-        <v>809</v>
-      </c>
-      <c r="B53" s="239">
-        <v>2007</v>
-      </c>
-      <c r="C53" s="239">
-        <v>2008</v>
-      </c>
-      <c r="D53" s="239">
-        <v>2009</v>
-      </c>
-      <c r="E53" s="239">
-        <v>2010</v>
-      </c>
-      <c r="F53" s="239">
-        <v>2011</v>
-      </c>
-      <c r="G53" s="239">
-        <v>2012</v>
-      </c>
-      <c r="H53" s="239">
-        <v>2013</v>
-      </c>
-      <c r="I53" s="239">
-        <v>2014</v>
-      </c>
-      <c r="J53" s="239">
-        <v>2015</v>
-      </c>
-      <c r="K53" s="239">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="240"/>
-      <c r="B54" s="240"/>
-      <c r="C54" s="240"/>
-      <c r="D54" s="240"/>
-      <c r="E54" s="240"/>
-      <c r="F54" s="240"/>
-      <c r="G54" s="240"/>
-      <c r="H54" s="240"/>
-      <c r="I54" s="240"/>
-      <c r="J54" s="240"/>
-      <c r="K54" s="240"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A55" s="239" t="s">
-        <v>810</v>
-      </c>
-      <c r="B55" s="239">
-        <v>70911</v>
-      </c>
-      <c r="C55" s="239">
-        <v>74492</v>
-      </c>
-      <c r="D55" s="239">
-        <v>78432</v>
-      </c>
-      <c r="E55" s="239">
-        <v>83019</v>
-      </c>
-      <c r="F55" s="239">
-        <v>91415</v>
-      </c>
-      <c r="G55" s="239">
-        <v>64629</v>
-      </c>
-      <c r="H55" s="239">
-        <v>41456</v>
-      </c>
-      <c r="I55" s="239">
-        <v>67377</v>
-      </c>
-      <c r="J55" s="239">
-        <v>38674</v>
-      </c>
-      <c r="K55" s="239">
-        <v>146633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="240"/>
-      <c r="B56" s="240"/>
-      <c r="C56" s="240"/>
-      <c r="D56" s="240"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="240"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6133206D-926F-4E68-8AE6-F37F7DD54906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1776C35C-507D-47AD-98AA-C0B9DCF2AE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="996" yWindow="-96" windowWidth="22140" windowHeight="13152" tabRatio="633" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="880">
   <si>
     <t>PathRoot</t>
   </si>
@@ -2637,9 +2637,6 @@
     <t xml:space="preserve"> $(FILE_PATHS:PathMaps)/init/Bhima_20070601.nc</t>
   </si>
   <si>
-    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, act_LocalLakeAbstract, head_development, resStorageTotal_alloc, ETRef, EWRef</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 30/12/2005</t>
   </si>
   <si>
@@ -2661,16 +2658,88 @@
     <t>Ujjani_c0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/01/1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31/12/2005</t>
-  </si>
-  <si>
     <t>Rain</t>
   </si>
   <si>
     <t>discharge, totalET, Rain</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMeteo)/pr_ub_010deg_mswep.nc</t>
+  </si>
+  <si>
+    <t>discharge, lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, act_LocalLakeAbstract, head_development, resStorageTotal_alloc</t>
+  </si>
+  <si>
+    <t>MaizeK</t>
+  </si>
+  <si>
+    <t>MaizeR</t>
+  </si>
+  <si>
+    <t>Changed planting from 4 to 6</t>
+  </si>
+  <si>
+    <t>SorghumK</t>
+  </si>
+  <si>
+    <t>SorghumR</t>
+  </si>
+  <si>
+    <t>discharge, soildepth[0], soildepth[1], soildepth[2], lakeResInflowDis, lakeResOutflowDis, lakeResStorage, act_bigLakeResAbst_alloc, act_LocalLakeAbstract, head_development, resStorageTotal_alloc, head_development</t>
+  </si>
+  <si>
+    <t>soildepth[0], reslakeoutflow, ratio_a_p_Irr[1], modflowWaterLevel, allowedPumping, gwstorage_cell_avail, areaCrops_Irr_segment[0], areaCrops_Irr_segment[1], areaCrops_Irr_segment[2], areaCrops_Irr_segment[3], areaCrops_Irr_segment[4], areaCrops_Irr_segment[5], areaCrops_Irr_segment[6], areaCrops_Irr_segment[7], areaCrops_Irr_segment[8], areaCrops_Irr_segment[9], areaCrops_Irr_segment[10], areaCrops_Irr_segment[11], areaCrops_Irr_segment[12], areaCrops_Irr_segment[13], areaCrops_Irr_segment[14],  areaCrops_Irr_segment[15],areaCrops_Irr_segment[16], fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], Yield_Irr[1], Yield_nonIrr[1], Yield_Irr[5], Yield_nonIrr[5], Yield_Irr[13], Yield_nonIrr[13], fallowIrr, fallownonIrr, head_development</t>
+  </si>
+  <si>
+    <t>Sugar1_Irr</t>
+  </si>
+  <si>
+    <t>Sugar2_Irr</t>
+  </si>
+  <si>
+    <t>Sugar3_Irr</t>
+  </si>
+  <si>
+    <t>SorghumK_Irr</t>
+  </si>
+  <si>
+    <t>SorghumR_Irr</t>
+  </si>
+  <si>
+    <t>Groundnut_Irr</t>
+  </si>
+  <si>
+    <t>Wheat_Irr</t>
+  </si>
+  <si>
+    <t>Maize_Irr</t>
+  </si>
+  <si>
+    <t>FruitVegK_Irr</t>
+  </si>
+  <si>
+    <t>FruitVegR_Irr</t>
+  </si>
+  <si>
+    <t>SpicesK_Irr</t>
+  </si>
+  <si>
+    <t>SpicesR_Irr</t>
+  </si>
+  <si>
+    <t>Cotton_Irr</t>
+  </si>
+  <si>
+    <t>Soybean_Irr</t>
+  </si>
+  <si>
+    <t>Gram_Irr</t>
+  </si>
+  <si>
+    <t>Ratoon_Irr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31/12/1998</t>
   </si>
 </sst>
 </file>
@@ -4153,12 +4222,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4192,11 +4255,90 @@
     <xf numFmtId="0" fontId="20" fillId="31" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4850,67 +4992,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FF636EFA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6334,10 +6424,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCB2946F-7D22-4D9D-A1A7-700B60BA5471}" name="Table3" displayName="Table3" ref="A1:A320" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="A1:A320" xr:uid="{899F2FC2-D930-4738-BF7B-C93ECDFC8D39}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{263307C3-FD93-4A08-AAD3-3D1779039680}" name="Column1" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6643,17 +6733,17 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.734375" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.26171875" style="179" customWidth="1"/>
-    <col min="3" max="3" width="4.5234375" style="247" customWidth="1"/>
+    <col min="3" max="3" width="4.5234375" style="245" customWidth="1"/>
     <col min="4" max="4" width="55.9453125" style="112" customWidth="1"/>
     <col min="5" max="5" width="74.9453125" style="117" customWidth="1"/>
     <col min="6" max="6" width="74.20703125" style="83" bestFit="1" customWidth="1"/>
@@ -6671,7 +6761,7 @@
       <c r="B1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="244"/>
       <c r="D1" s="111" t="s">
         <v>635</v>
       </c>
@@ -6687,10 +6777,10 @@
       <c r="A2" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="241" t="s">
-        <v>853</v>
-      </c>
-      <c r="D2" s="244" t="s">
+      <c r="B2" s="239" t="s">
+        <v>840</v>
+      </c>
+      <c r="D2" s="242" t="s">
         <v>756</v>
       </c>
       <c r="E2" s="181" t="s">
@@ -6705,7 +6795,7 @@
       <c r="A3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="239" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="169" t="s">
@@ -6722,11 +6812,11 @@
       <c r="A4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="241" t="s">
-        <v>854</v>
-      </c>
-      <c r="D4" s="241" t="s">
-        <v>846</v>
+      <c r="B4" s="239" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4" s="239" t="s">
+        <v>845</v>
       </c>
       <c r="E4" s="181" t="s">
         <v>739</v>
@@ -6743,7 +6833,7 @@
         <v>407</v>
       </c>
       <c r="B5" s="169">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="169" t="s">
         <v>755</v>
@@ -6773,7 +6863,7 @@
         <v>544</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="D7" s="112" t="s">
         <v>685</v>
@@ -6791,7 +6881,7 @@
         <v>517</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>822</v>
+        <v>862</v>
       </c>
       <c r="F8" s="93"/>
       <c r="G8" s="100"/>
@@ -6801,9 +6891,9 @@
         <v>561</v>
       </c>
       <c r="B9" s="170" t="s">
-        <v>855</v>
-      </c>
-      <c r="D9" s="241" t="s">
+        <v>852</v>
+      </c>
+      <c r="D9" s="239" t="s">
         <v>840</v>
       </c>
       <c r="F9" s="93"/>
@@ -6816,7 +6906,7 @@
       <c r="B10" s="170" t="s">
         <v>808</v>
       </c>
-      <c r="D10" s="241" t="s">
+      <c r="D10" s="239" t="s">
         <v>843</v>
       </c>
       <c r="F10" s="93"/>
@@ -6826,8 +6916,8 @@
       <c r="A11" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="D11" s="241" t="s">
-        <v>846</v>
+      <c r="D11" s="239" t="s">
+        <v>845</v>
       </c>
       <c r="F11" s="93"/>
       <c r="G11" s="100"/>
@@ -6837,7 +6927,7 @@
         <v>563</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D12" s="112" t="s">
         <v>752</v>
@@ -6850,9 +6940,9 @@
         <v>564</v>
       </c>
       <c r="B13" s="171" t="s">
-        <v>850</v>
-      </c>
-      <c r="C13" s="248"/>
+        <v>849</v>
+      </c>
+      <c r="C13" s="246"/>
       <c r="D13" s="113"/>
       <c r="E13" s="118"/>
       <c r="F13" s="93" t="s">
@@ -6888,13 +6978,13 @@
         <v>103</v>
       </c>
       <c r="B16" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D16" s="179" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F16" s="93"/>
       <c r="G16" s="100"/>
@@ -6906,8 +6996,10 @@
       <c r="B17" s="172" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="249"/>
-      <c r="D17" s="142"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="169" t="s">
+        <v>855</v>
+      </c>
       <c r="E17" s="142"/>
       <c r="F17" s="143"/>
     </row>
@@ -6918,13 +7010,13 @@
       <c r="B18" s="172" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="249"/>
+      <c r="C18" s="247"/>
       <c r="D18" s="142"/>
       <c r="E18" s="142"/>
       <c r="F18" s="143"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="251" t="s">
+      <c r="A19" s="249" t="s">
         <v>127</v>
       </c>
       <c r="B19" s="169" t="b">
@@ -6989,10 +7081,10 @@
       <c r="A23" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="241" t="s">
+      <c r="B23" s="239" t="s">
         <v>840</v>
       </c>
-      <c r="D23" s="244" t="s">
+      <c r="D23" s="242" t="s">
         <v>826</v>
       </c>
       <c r="F23" s="93"/>
@@ -7005,21 +7097,21 @@
       <c r="B24" s="169" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="244" t="s">
+      <c r="D24" s="242" t="s">
         <v>811</v>
       </c>
       <c r="F24" s="93"/>
       <c r="G24" s="100"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="251" t="s">
+      <c r="A25" s="249" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="250" t="b">
+      <c r="B25" s="248" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="244" t="s">
-        <v>848</v>
+      <c r="D25" s="242" t="s">
+        <v>847</v>
       </c>
       <c r="E25" s="117" t="s">
         <v>641</v>
@@ -7075,7 +7167,7 @@
         <v>604</v>
       </c>
       <c r="D29" s="112" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E29" s="181" t="s">
         <v>801</v>
@@ -7085,7 +7177,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="103" t="s">
-        <v>586</v>
+        <v>878</v>
       </c>
       <c r="B30" s="169" t="s">
         <v>714</v>
@@ -7098,7 +7190,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="103" t="s">
-        <v>610</v>
+        <v>863</v>
       </c>
       <c r="B31" s="169" t="s">
         <v>714</v>
@@ -7111,7 +7203,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="103" t="s">
-        <v>611</v>
+        <v>864</v>
       </c>
       <c r="B32" s="169" t="s">
         <v>714</v>
@@ -7121,7 +7213,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="103" t="s">
-        <v>612</v>
+        <v>865</v>
       </c>
       <c r="B33" s="169" t="s">
         <v>714</v>
@@ -7134,7 +7226,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="103" t="s">
-        <v>583</v>
+        <v>866</v>
       </c>
       <c r="B34" s="169" t="s">
         <v>715</v>
@@ -7144,172 +7236,166 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="103" t="s">
-        <v>584</v>
+        <v>867</v>
       </c>
       <c r="B35" s="169" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="100"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="103" t="s">
-        <v>585</v>
+        <v>868</v>
       </c>
       <c r="B36" s="169" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="100"/>
     </row>
-    <row r="37" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="103" t="s">
-        <v>588</v>
-      </c>
-      <c r="B37" s="173" t="s">
-        <v>718</v>
+        <v>869</v>
+      </c>
+      <c r="B37" s="169" t="s">
+        <v>717</v>
       </c>
       <c r="F37" s="93"/>
       <c r="G37" s="100"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="103" t="s">
+        <v>870</v>
+      </c>
+      <c r="B38" s="173" t="s">
+        <v>718</v>
+      </c>
+      <c r="F38" s="93"/>
+      <c r="G38" s="100"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B38" s="174" t="s">
+      <c r="B39" s="174" t="s">
         <v>624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="184" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>720</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="184" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="D40" s="112" t="s">
+        <v>720</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="184" t="s">
         <v>387</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>804</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="185" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="185" t="s">
         <v>636</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B42" s="90" t="s">
         <v>842</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D42" s="112" t="s">
         <v>637</v>
       </c>
-      <c r="E41" s="90" t="s">
+      <c r="E42" s="90" t="s">
         <v>781</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F42" s="112" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B42" s="175">
+      <c r="B43" s="175">
         <v>85</v>
       </c>
-      <c r="D42" s="175">
+      <c r="D43" s="175">
         <v>120</v>
       </c>
-      <c r="E42" s="112" t="s">
+      <c r="E43" s="112" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="184" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="B44" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D44" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="90" t="s">
+      <c r="E44" s="90" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="144" t="s">
+    <row r="45" spans="1:10" s="144" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="144" t="s">
         <v>651</v>
       </c>
-      <c r="B44" s="178" t="b">
+      <c r="B45" s="178" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="249"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="139" t="s">
-        <v>676</v>
-      </c>
-      <c r="B45" s="179">
-        <v>0.2</v>
-      </c>
-      <c r="D45" s="112" t="s">
-        <v>764</v>
-      </c>
-      <c r="E45" s="117" t="s">
-        <v>800</v>
-      </c>
+      <c r="C45" s="247"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="139" t="s">
-        <v>754</v>
+        <v>676</v>
       </c>
       <c r="B46" s="179">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" s="112" t="s">
+        <v>764</v>
+      </c>
+      <c r="E46" s="117" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="139" t="s">
+        <v>754</v>
+      </c>
+      <c r="B47" s="179">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="139" t="s">
         <v>680</v>
-      </c>
-      <c r="B47" s="179">
-        <v>1</v>
-      </c>
-      <c r="C47" s="247"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-    </row>
-    <row r="48" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="83" t="s">
-        <v>681</v>
       </c>
       <c r="B48" s="179">
         <v>1</v>
       </c>
-      <c r="C48" s="247"/>
+      <c r="C48" s="245"/>
       <c r="D48" s="112"/>
       <c r="E48" s="117"/>
       <c r="F48" s="83"/>
@@ -7319,13 +7405,13 @@
       <c r="J48" s="83"/>
     </row>
     <row r="49" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="179" t="b">
+      <c r="A49" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="B49" s="179">
         <v>1</v>
       </c>
-      <c r="C49" s="247"/>
+      <c r="C49" s="245"/>
       <c r="D49" s="112"/>
       <c r="E49" s="117"/>
       <c r="F49" s="83"/>
@@ -7335,16 +7421,14 @@
       <c r="J49" s="83"/>
     </row>
     <row r="50" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="140" t="s">
-        <v>682</v>
-      </c>
-      <c r="B50" s="179">
-        <v>1.5</v>
-      </c>
-      <c r="C50" s="247"/>
-      <c r="D50" s="112" t="s">
-        <v>763</v>
-      </c>
+      <c r="A50" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="245"/>
+      <c r="D50" s="112"/>
       <c r="E50" s="117"/>
       <c r="F50" s="83"/>
       <c r="G50" s="83"/>
@@ -7353,16 +7437,16 @@
       <c r="J50" s="83"/>
     </row>
     <row r="51" spans="1:10" s="91" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="B51" s="242">
-        <v>1.2</v>
-      </c>
-      <c r="C51" s="247">
-        <v>1.7</v>
-      </c>
-      <c r="D51" s="112"/>
+      <c r="A51" s="140" t="s">
+        <v>682</v>
+      </c>
+      <c r="B51" s="179">
+        <v>1.5</v>
+      </c>
+      <c r="C51" s="245"/>
+      <c r="D51" s="112" t="s">
+        <v>763</v>
+      </c>
       <c r="E51" s="117"/>
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
@@ -7374,10 +7458,10 @@
       <c r="A52" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B52" s="242">
+      <c r="B52" s="240">
         <v>1</v>
       </c>
-      <c r="C52" s="247"/>
+      <c r="C52" s="245"/>
       <c r="D52" s="112"/>
       <c r="E52" s="117"/>
       <c r="F52" s="83"/>
@@ -7393,7 +7477,7 @@
       <c r="B53" s="179">
         <v>1</v>
       </c>
-      <c r="C53" s="247"/>
+      <c r="C53" s="245"/>
       <c r="D53" s="112"/>
       <c r="E53" s="117"/>
       <c r="F53" s="83"/>
@@ -7406,10 +7490,10 @@
       <c r="A54" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B54" s="243" t="s">
+      <c r="B54" s="241" t="s">
         <v>741</v>
       </c>
-      <c r="D54" s="245" t="s">
+      <c r="D54" s="243" t="s">
         <v>706</v>
       </c>
       <c r="E54" s="117" t="s">
@@ -7420,7 +7504,7 @@
       <c r="A55" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="B55" s="243" t="s">
+      <c r="B55" s="241" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7440,7 +7524,7 @@
     </row>
     <row r="57" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="49" t="s">
-        <v>726</v>
+        <v>871</v>
       </c>
       <c r="B57" s="173" t="s">
         <v>737</v>
@@ -7448,7 +7532,7 @@
     </row>
     <row r="58" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="49" t="s">
-        <v>727</v>
+        <v>872</v>
       </c>
       <c r="B58" s="173" t="s">
         <v>736</v>
@@ -7456,7 +7540,7 @@
     </row>
     <row r="59" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="49" t="s">
-        <v>728</v>
+        <v>873</v>
       </c>
       <c r="B59" s="173" t="s">
         <v>735</v>
@@ -7464,7 +7548,7 @@
     </row>
     <row r="60" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="49" t="s">
-        <v>729</v>
+        <v>874</v>
       </c>
       <c r="B60" s="173" t="s">
         <v>734</v>
@@ -7472,7 +7556,7 @@
     </row>
     <row r="61" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="49" t="s">
-        <v>722</v>
+        <v>875</v>
       </c>
       <c r="B61" s="173" t="s">
         <v>733</v>
@@ -7490,7 +7574,7 @@
     </row>
     <row r="62" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A62" s="49" t="s">
-        <v>724</v>
+        <v>876</v>
       </c>
       <c r="B62" s="173" t="s">
         <v>732</v>
@@ -7498,7 +7582,7 @@
     </row>
     <row r="63" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="83" t="s">
-        <v>725</v>
+        <v>877</v>
       </c>
       <c r="B63" s="173" t="s">
         <v>731</v>
@@ -7515,13 +7599,13 @@
         <v>644</v>
       </c>
       <c r="B64" s="87">
-        <v>9.0000000000000002E-6</v>
+        <v>6.40387785498472E-6</v>
       </c>
       <c r="D64" s="87">
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="E64" s="87" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7529,7 +7613,7 @@
         <v>551</v>
       </c>
       <c r="B65" s="179">
-        <v>0.03</v>
+        <v>1.5628838893995599E-2</v>
       </c>
       <c r="D65" s="83" t="s">
         <v>551</v>
@@ -7624,7 +7708,7 @@
         <v>777</v>
       </c>
       <c r="B72" s="179" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D72" s="179" t="s">
         <v>778</v>
@@ -7689,7 +7773,7 @@
       <c r="B78" s="179">
         <v>0.5</v>
       </c>
-      <c r="C78" s="247">
+      <c r="C78" s="245">
         <v>0.3</v>
       </c>
       <c r="D78" s="83" t="s">
@@ -7701,347 +7785,295 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="83" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B79" s="179">
-        <v>0.9</v>
-      </c>
-      <c r="C79" s="247">
-        <v>0.5</v>
-      </c>
-      <c r="D79" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="179" t="s">
-        <v>827</v>
+        <v>1.2</v>
+      </c>
+      <c r="D79" s="112">
+        <v>1.3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="83" t="s">
-        <v>794</v>
+        <v>45</v>
       </c>
       <c r="B80" s="179">
-        <v>1</v>
-      </c>
-      <c r="C80" s="247">
-        <v>2</v>
-      </c>
-      <c r="D80" s="112" t="s">
-        <v>832</v>
-      </c>
-      <c r="E80" s="179" t="s">
-        <v>830</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="83" t="s">
-        <v>550</v>
+        <v>806</v>
       </c>
       <c r="B81" s="179">
         <v>1</v>
       </c>
-      <c r="D81" s="112">
-        <v>0.6</v>
+      <c r="D81" s="83" t="s">
+        <v>797</v>
       </c>
       <c r="E81" s="179" t="s">
-        <v>833</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="83" t="s">
-        <v>795</v>
-      </c>
-      <c r="B82" s="179">
-        <v>1.2</v>
+        <v>807</v>
+      </c>
+      <c r="B82" s="179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="245">
+        <v>12</v>
       </c>
       <c r="D82" s="112">
-        <v>1.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="179">
-        <v>0.7</v>
+        <v>824</v>
+      </c>
+      <c r="B83" s="179" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="83" t="s">
-        <v>805</v>
-      </c>
-      <c r="B84" s="179">
-        <v>3</v>
-      </c>
-      <c r="D84" s="83" t="s">
-        <v>796</v>
-      </c>
-      <c r="E84" s="179" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="83" t="s">
-        <v>806</v>
-      </c>
-      <c r="B85" s="179">
-        <v>1</v>
-      </c>
-      <c r="D85" s="83" t="s">
-        <v>797</v>
-      </c>
-      <c r="E85" s="179" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="83" t="s">
-        <v>807</v>
-      </c>
-      <c r="B86" s="179" t="b">
-        <v>1</v>
-      </c>
-      <c r="C86" s="247">
-        <v>12</v>
-      </c>
-      <c r="D86" s="112">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="83" t="s">
-        <v>824</v>
-      </c>
-      <c r="B87" s="179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="83" t="s">
-        <v>831</v>
-      </c>
-      <c r="B88" s="179">
-        <v>0.9</v>
-      </c>
-      <c r="D88" s="112" t="s">
-        <v>829</v>
+        <v>167</v>
+      </c>
+      <c r="B84" s="112" t="s">
+        <v>854</v>
+      </c>
+      <c r="D84" s="112" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B15 B17:B19">
-    <cfRule type="notContainsErrors" dxfId="92" priority="417">
+  <conditionalFormatting sqref="B21:B22 B29:B34 B5:B7 D3 B24:B27 B12:B15 B17:B19 B36:B38">
+    <cfRule type="notContainsErrors" dxfId="101" priority="440">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="91" priority="416">
+    <cfRule type="notContainsErrors" dxfId="100" priority="439">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="90" priority="415">
+    <cfRule type="notContainsErrors" dxfId="99" priority="438">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="89" priority="414">
+    <cfRule type="notContainsErrors" dxfId="98" priority="437">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="88" priority="413">
+    <cfRule type="notContainsErrors" dxfId="97" priority="436">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="87" priority="412">
+    <cfRule type="notContainsErrors" dxfId="96" priority="435">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="notContainsErrors" dxfId="86" priority="371">
+    <cfRule type="notContainsErrors" dxfId="95" priority="394">
       <formula>NOT(ISERROR(B58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="notContainsErrors" dxfId="85" priority="370">
+    <cfRule type="notContainsErrors" dxfId="94" priority="393">
       <formula>NOT(ISERROR(B57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsErrors" dxfId="84" priority="385">
+    <cfRule type="notContainsErrors" dxfId="93" priority="408">
       <formula>NOT(ISERROR(D33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="notContainsErrors" dxfId="83" priority="384">
+    <cfRule type="notContainsErrors" dxfId="92" priority="407">
       <formula>NOT(ISERROR(E28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="notContainsErrors" dxfId="82" priority="372">
+    <cfRule type="notContainsErrors" dxfId="91" priority="395">
       <formula>NOT(ISERROR(B59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsErrors" dxfId="81" priority="376">
+    <cfRule type="notContainsErrors" dxfId="90" priority="399">
       <formula>NOT(ISERROR(B63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsErrors" dxfId="80" priority="375">
+    <cfRule type="notContainsErrors" dxfId="89" priority="398">
       <formula>NOT(ISERROR(B62))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsErrors" dxfId="79" priority="374">
+    <cfRule type="notContainsErrors" dxfId="88" priority="397">
       <formula>NOT(ISERROR(B61))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsErrors" dxfId="78" priority="373">
+    <cfRule type="notContainsErrors" dxfId="87" priority="396">
       <formula>NOT(ISERROR(B60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="notContainsErrors" dxfId="77" priority="365">
+    <cfRule type="notContainsErrors" dxfId="86" priority="388">
       <formula>NOT(ISERROR(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsErrors" dxfId="76" priority="358">
+    <cfRule type="notContainsErrors" dxfId="85" priority="381">
       <formula>NOT(ISERROR(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsErrors" dxfId="75" priority="308">
+    <cfRule type="notContainsErrors" dxfId="84" priority="331">
       <formula>NOT(ISERROR(D2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsErrors" dxfId="74" priority="307">
+    <cfRule type="notContainsErrors" dxfId="83" priority="330">
       <formula>NOT(ISERROR(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsErrors" dxfId="73" priority="328">
+    <cfRule type="notContainsErrors" dxfId="82" priority="351">
       <formula>NOT(ISERROR(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="notContainsErrors" dxfId="72" priority="292">
+    <cfRule type="notContainsErrors" dxfId="81" priority="315">
       <formula>NOT(ISERROR(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="notContainsErrors" dxfId="71" priority="193">
+    <cfRule type="notContainsErrors" dxfId="80" priority="216">
       <formula>NOT(ISERROR(E21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="70" priority="136">
+    <cfRule type="notContainsErrors" dxfId="79" priority="159">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsErrors" dxfId="69" priority="132">
+    <cfRule type="notContainsErrors" dxfId="78" priority="155">
       <formula>NOT(ISERROR(E29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsErrors" dxfId="68" priority="131">
+    <cfRule type="notContainsErrors" dxfId="77" priority="154">
       <formula>NOT(ISERROR(E31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="notContainsErrors" dxfId="67" priority="130">
+    <cfRule type="notContainsErrors" dxfId="76" priority="153">
       <formula>NOT(ISERROR(E30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="notContainsErrors" dxfId="66" priority="49">
+    <cfRule type="notContainsErrors" dxfId="75" priority="72">
       <formula>NOT(ISERROR(D23))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="65" priority="6">
-      <formula>NOT(ISERROR(B3))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="notContainsErrors" dxfId="64" priority="20">
+    <cfRule type="notContainsErrors" dxfId="74" priority="43">
       <formula>NOT(ISERROR(D10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="notContainsErrors" dxfId="63" priority="51">
+    <cfRule type="notContainsErrors" dxfId="73" priority="74">
       <formula>NOT(ISERROR(D24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="notContainsErrors" dxfId="62" priority="50">
+    <cfRule type="notContainsErrors" dxfId="72" priority="73">
       <formula>NOT(ISERROR(D25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="61" priority="61">
+    <cfRule type="notContainsErrors" dxfId="71" priority="84">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="notContainsErrors" dxfId="60" priority="27">
+    <cfRule type="notContainsErrors" dxfId="70" priority="50">
       <formula>NOT(ISERROR(D21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="notContainsErrors" dxfId="59" priority="21">
+    <cfRule type="notContainsErrors" dxfId="69" priority="44">
       <formula>NOT(ISERROR(D11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="notContainsErrors" dxfId="58" priority="22">
+    <cfRule type="notContainsErrors" dxfId="68" priority="45">
       <formula>NOT(ISERROR(D9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="notContainsErrors" dxfId="57" priority="9">
+    <cfRule type="notContainsErrors" dxfId="67" priority="32">
       <formula>NOT(ISERROR(E16))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="56" priority="15">
-      <formula>NOT(ISERROR(B2))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="55" priority="28">
+    <cfRule type="notContainsErrors" dxfId="66" priority="51">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="notContainsErrors" dxfId="54" priority="3">
+    <cfRule type="notContainsErrors" dxfId="65" priority="26">
       <formula>NOT(ISERROR(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="53" priority="14">
+    <cfRule type="notContainsErrors" dxfId="64" priority="37">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="notContainsErrors" dxfId="63" priority="25">
+      <formula>NOT(ISERROR(D16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="notContainsErrors" dxfId="62" priority="11">
+      <formula>NOT(ISERROR(B2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="notContainsErrors" dxfId="61" priority="14">
+      <formula>NOT(ISERROR(D17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="notContainsErrors" dxfId="60" priority="6">
+      <formula>NOT(ISERROR(B35))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="notContainsErrors" dxfId="59" priority="4">
+      <formula>NOT(ISERROR(B3))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="52" priority="4">
+    <cfRule type="notContainsErrors" dxfId="58" priority="3">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="notContainsErrors" dxfId="51" priority="1">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(B16))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="notContainsErrors" dxfId="50" priority="2">
-      <formula>NOT(ISERROR(D16))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8480,100 +8512,100 @@
     </row>
     <row r="52" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="53" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A53" s="239" t="s">
+      <c r="A53" s="250" t="s">
         <v>809</v>
       </c>
-      <c r="B53" s="239">
+      <c r="B53" s="250">
         <v>2007</v>
       </c>
-      <c r="C53" s="239">
+      <c r="C53" s="250">
         <v>2008</v>
       </c>
-      <c r="D53" s="239">
+      <c r="D53" s="250">
         <v>2009</v>
       </c>
-      <c r="E53" s="239">
+      <c r="E53" s="250">
         <v>2010</v>
       </c>
-      <c r="F53" s="239">
+      <c r="F53" s="250">
         <v>2011</v>
       </c>
-      <c r="G53" s="239">
+      <c r="G53" s="250">
         <v>2012</v>
       </c>
-      <c r="H53" s="239">
+      <c r="H53" s="250">
         <v>2013</v>
       </c>
-      <c r="I53" s="239">
+      <c r="I53" s="250">
         <v>2014</v>
       </c>
-      <c r="J53" s="239">
+      <c r="J53" s="250">
         <v>2015</v>
       </c>
-      <c r="K53" s="239">
+      <c r="K53" s="250">
         <v>2016</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="240"/>
-      <c r="B54" s="240"/>
-      <c r="C54" s="240"/>
-      <c r="D54" s="240"/>
-      <c r="E54" s="240"/>
-      <c r="F54" s="240"/>
-      <c r="G54" s="240"/>
-      <c r="H54" s="240"/>
-      <c r="I54" s="240"/>
-      <c r="J54" s="240"/>
-      <c r="K54" s="240"/>
+      <c r="A54" s="251"/>
+      <c r="B54" s="251"/>
+      <c r="C54" s="251"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="251"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="251"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="251"/>
+      <c r="J54" s="251"/>
+      <c r="K54" s="251"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A55" s="239" t="s">
+      <c r="A55" s="250" t="s">
         <v>810</v>
       </c>
-      <c r="B55" s="239">
+      <c r="B55" s="250">
         <v>70911</v>
       </c>
-      <c r="C55" s="239">
+      <c r="C55" s="250">
         <v>74492</v>
       </c>
-      <c r="D55" s="239">
+      <c r="D55" s="250">
         <v>78432</v>
       </c>
-      <c r="E55" s="239">
+      <c r="E55" s="250">
         <v>83019</v>
       </c>
-      <c r="F55" s="239">
+      <c r="F55" s="250">
         <v>91415</v>
       </c>
-      <c r="G55" s="239">
+      <c r="G55" s="250">
         <v>64629</v>
       </c>
-      <c r="H55" s="239">
+      <c r="H55" s="250">
         <v>41456</v>
       </c>
-      <c r="I55" s="239">
+      <c r="I55" s="250">
         <v>67377</v>
       </c>
-      <c r="J55" s="239">
+      <c r="J55" s="250">
         <v>38674</v>
       </c>
-      <c r="K55" s="239">
+      <c r="K55" s="250">
         <v>146633</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="240"/>
-      <c r="B56" s="240"/>
-      <c r="C56" s="240"/>
-      <c r="D56" s="240"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="240"/>
+      <c r="A56" s="251"/>
+      <c r="B56" s="251"/>
+      <c r="C56" s="251"/>
+      <c r="D56" s="251"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="251"/>
+      <c r="G56" s="251"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="251"/>
+      <c r="K56" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -15880,15 +15912,15 @@
   </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.734375" style="83" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="84.26171875" style="179" customWidth="1"/>
-    <col min="3" max="3" width="4.5234375" style="247" customWidth="1"/>
+    <col min="3" max="3" width="4.5234375" style="245" customWidth="1"/>
     <col min="4" max="4" width="55.9453125" style="112" customWidth="1"/>
     <col min="5" max="5" width="74.9453125" style="117" customWidth="1"/>
     <col min="6" max="6" width="74.20703125" style="83" bestFit="1" customWidth="1"/>
@@ -15906,7 +15938,7 @@
       <c r="B1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="246"/>
+      <c r="C1" s="244"/>
       <c r="D1" s="111" t="s">
         <v>635</v>
       </c>
@@ -15922,10 +15954,10 @@
       <c r="A2" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="239" t="s">
         <v>835</v>
       </c>
-      <c r="D2" s="244" t="s">
+      <c r="D2" s="242" t="s">
         <v>756</v>
       </c>
       <c r="E2" s="181" t="s">
@@ -15940,7 +15972,7 @@
       <c r="A3" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="241" t="s">
+      <c r="B3" s="239" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="169" t="s">
@@ -15957,10 +15989,10 @@
       <c r="A4" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="239" t="s">
         <v>836</v>
       </c>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="242" t="s">
         <v>709</v>
       </c>
       <c r="E4" s="181" t="s">
@@ -16076,7 +16108,7 @@
       <c r="B13" s="171" t="s">
         <v>818</v>
       </c>
-      <c r="C13" s="248"/>
+      <c r="C13" s="246"/>
       <c r="D13" s="113"/>
       <c r="E13" s="118"/>
       <c r="F13" s="93" t="s">
@@ -16124,7 +16156,7 @@
       <c r="B17" s="172" t="s">
         <v>560</v>
       </c>
-      <c r="C17" s="249"/>
+      <c r="C17" s="247"/>
       <c r="D17" s="142"/>
       <c r="E17" s="142"/>
       <c r="F17" s="143"/>
@@ -16136,7 +16168,7 @@
       <c r="B18" s="172" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="249"/>
+      <c r="C18" s="247"/>
       <c r="D18" s="142"/>
       <c r="E18" s="142"/>
       <c r="F18" s="143"/>
@@ -16204,10 +16236,10 @@
       <c r="A23" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="241" t="s">
+      <c r="B23" s="239" t="s">
         <v>834</v>
       </c>
-      <c r="D23" s="244" t="s">
+      <c r="D23" s="242" t="s">
         <v>826</v>
       </c>
       <c r="F23" s="93"/>
@@ -16220,7 +16252,7 @@
       <c r="B24" s="169" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="244" t="s">
+      <c r="D24" s="242" t="s">
         <v>811</v>
       </c>
       <c r="F24" s="93"/>
@@ -16233,7 +16265,7 @@
       <c r="B25" s="169" t="b">
         <v>1</v>
       </c>
-      <c r="D25" s="244" t="s">
+      <c r="D25" s="242" t="s">
         <v>825</v>
       </c>
       <c r="E25" s="117" t="s">
@@ -16472,7 +16504,7 @@
       <c r="B44" s="178" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="249"/>
+      <c r="C44" s="247"/>
       <c r="D44" s="142"/>
       <c r="E44" s="142"/>
     </row>
@@ -16505,7 +16537,7 @@
       <c r="B47" s="179">
         <v>1</v>
       </c>
-      <c r="C47" s="247"/>
+      <c r="C47" s="245"/>
       <c r="D47" s="112"/>
       <c r="E47" s="117"/>
       <c r="F47" s="83"/>
@@ -16521,7 +16553,7 @@
       <c r="B48" s="179">
         <v>1</v>
       </c>
-      <c r="C48" s="247"/>
+      <c r="C48" s="245"/>
       <c r="D48" s="112"/>
       <c r="E48" s="117"/>
       <c r="F48" s="83"/>
@@ -16537,7 +16569,7 @@
       <c r="B49" s="179" t="b">
         <v>1</v>
       </c>
-      <c r="C49" s="247"/>
+      <c r="C49" s="245"/>
       <c r="D49" s="112"/>
       <c r="E49" s="117"/>
       <c r="F49" s="83"/>
@@ -16553,7 +16585,7 @@
       <c r="B50" s="179">
         <v>1.5</v>
       </c>
-      <c r="C50" s="247"/>
+      <c r="C50" s="245"/>
       <c r="D50" s="112" t="s">
         <v>763</v>
       </c>
@@ -16568,10 +16600,10 @@
       <c r="A51" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B51" s="242">
+      <c r="B51" s="240">
         <v>1.7</v>
       </c>
-      <c r="C51" s="247">
+      <c r="C51" s="245">
         <v>1.7</v>
       </c>
       <c r="D51" s="112"/>
@@ -16586,10 +16618,10 @@
       <c r="A52" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B52" s="242">
+      <c r="B52" s="240">
         <v>1</v>
       </c>
-      <c r="C52" s="247"/>
+      <c r="C52" s="245"/>
       <c r="D52" s="112"/>
       <c r="E52" s="117"/>
       <c r="F52" s="83"/>
@@ -16605,7 +16637,7 @@
       <c r="B53" s="179">
         <v>1</v>
       </c>
-      <c r="C53" s="247"/>
+      <c r="C53" s="245"/>
       <c r="D53" s="112"/>
       <c r="E53" s="117"/>
       <c r="F53" s="83"/>
@@ -16618,10 +16650,10 @@
       <c r="A54" s="147" t="s">
         <v>425</v>
       </c>
-      <c r="B54" s="243" t="s">
+      <c r="B54" s="241" t="s">
         <v>741</v>
       </c>
-      <c r="D54" s="245" t="s">
+      <c r="D54" s="243" t="s">
         <v>706</v>
       </c>
       <c r="E54" s="117" t="s">
@@ -16632,7 +16664,7 @@
       <c r="A55" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="B55" s="243" t="s">
+      <c r="B55" s="241" t="s">
         <v>77</v>
       </c>
     </row>
@@ -16901,7 +16933,7 @@
       <c r="B78" s="179">
         <v>0.3</v>
       </c>
-      <c r="C78" s="247">
+      <c r="C78" s="245">
         <v>0.3</v>
       </c>
       <c r="D78" s="83" t="s">
@@ -16918,7 +16950,7 @@
       <c r="B79" s="179">
         <v>0.5</v>
       </c>
-      <c r="C79" s="247">
+      <c r="C79" s="245">
         <v>0.5</v>
       </c>
       <c r="D79" s="83" t="s">
@@ -16935,7 +16967,7 @@
       <c r="B80" s="179">
         <v>2</v>
       </c>
-      <c r="C80" s="247">
+      <c r="C80" s="245">
         <v>2</v>
       </c>
       <c r="D80" s="112" t="s">
@@ -16998,10 +17030,10 @@
       <c r="A86" s="83" t="s">
         <v>805</v>
       </c>
-      <c r="B86" s="247">
+      <c r="B86" s="245">
         <v>12</v>
       </c>
-      <c r="C86" s="247">
+      <c r="C86" s="245">
         <v>12</v>
       </c>
       <c r="D86" s="112">
@@ -17049,182 +17081,182 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B21:B22 B29:B37 B5:B7 D3 B24:B27 B12:B19">
-    <cfRule type="notContainsErrors" dxfId="49" priority="41">
+    <cfRule type="notContainsErrors" dxfId="56" priority="41">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="48" priority="40">
+    <cfRule type="notContainsErrors" dxfId="55" priority="40">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="47" priority="39">
+    <cfRule type="notContainsErrors" dxfId="54" priority="39">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="46" priority="38">
+    <cfRule type="notContainsErrors" dxfId="53" priority="38">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="45" priority="37">
+    <cfRule type="notContainsErrors" dxfId="52" priority="37">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="44" priority="36">
+    <cfRule type="notContainsErrors" dxfId="51" priority="36">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="43" priority="35">
+    <cfRule type="notContainsErrors" dxfId="50" priority="35">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="notContainsErrors" dxfId="42" priority="26">
+    <cfRule type="notContainsErrors" dxfId="49" priority="26">
       <formula>NOT(ISERROR(B57))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsErrors" dxfId="41" priority="34">
+    <cfRule type="notContainsErrors" dxfId="48" priority="34">
       <formula>NOT(ISERROR(D33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="notContainsErrors" dxfId="40" priority="33">
+    <cfRule type="notContainsErrors" dxfId="47" priority="33">
       <formula>NOT(ISERROR(E28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="notContainsErrors" dxfId="39" priority="28">
+    <cfRule type="notContainsErrors" dxfId="46" priority="28">
       <formula>NOT(ISERROR(B59))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="notContainsErrors" dxfId="38" priority="32">
+    <cfRule type="notContainsErrors" dxfId="45" priority="32">
       <formula>NOT(ISERROR(B63))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="notContainsErrors" dxfId="37" priority="31">
+    <cfRule type="notContainsErrors" dxfId="44" priority="31">
       <formula>NOT(ISERROR(B62))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="notContainsErrors" dxfId="36" priority="30">
+    <cfRule type="notContainsErrors" dxfId="43" priority="30">
       <formula>NOT(ISERROR(B61))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="notContainsErrors" dxfId="35" priority="29">
+    <cfRule type="notContainsErrors" dxfId="42" priority="29">
       <formula>NOT(ISERROR(B60))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="notContainsErrors" dxfId="34" priority="27">
+    <cfRule type="notContainsErrors" dxfId="41" priority="27">
       <formula>NOT(ISERROR(B58))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="notContainsErrors" dxfId="33" priority="25">
+    <cfRule type="notContainsErrors" dxfId="40" priority="25">
       <formula>NOT(ISERROR(E4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="notContainsErrors" dxfId="32" priority="24">
+    <cfRule type="notContainsErrors" dxfId="39" priority="24">
       <formula>NOT(ISERROR(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsErrors" dxfId="31" priority="22">
+    <cfRule type="notContainsErrors" dxfId="38" priority="22">
       <formula>NOT(ISERROR(D2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="notContainsErrors" dxfId="30" priority="21">
+    <cfRule type="notContainsErrors" dxfId="37" priority="21">
       <formula>NOT(ISERROR(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="notContainsErrors" dxfId="29" priority="23">
+    <cfRule type="notContainsErrors" dxfId="36" priority="23">
       <formula>NOT(ISERROR(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="notContainsErrors" dxfId="28" priority="20">
+    <cfRule type="notContainsErrors" dxfId="35" priority="20">
       <formula>NOT(ISERROR(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="notContainsErrors" dxfId="27" priority="19">
+    <cfRule type="notContainsErrors" dxfId="34" priority="19">
       <formula>NOT(ISERROR(E21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="notContainsErrors" dxfId="26" priority="18">
+    <cfRule type="notContainsErrors" dxfId="33" priority="18">
       <formula>NOT(ISERROR(B28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="25" priority="17">
+    <cfRule type="notContainsErrors" dxfId="32" priority="17">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsErrors" dxfId="24" priority="16">
+    <cfRule type="notContainsErrors" dxfId="31" priority="16">
       <formula>NOT(ISERROR(E29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsErrors" dxfId="23" priority="15">
+    <cfRule type="notContainsErrors" dxfId="30" priority="15">
       <formula>NOT(ISERROR(E31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="notContainsErrors" dxfId="22" priority="14">
+    <cfRule type="notContainsErrors" dxfId="29" priority="14">
       <formula>NOT(ISERROR(E30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="notContainsErrors" dxfId="21" priority="10">
+    <cfRule type="notContainsErrors" dxfId="28" priority="10">
       <formula>NOT(ISERROR(D23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="20" priority="3">
+    <cfRule type="notContainsErrors" dxfId="27" priority="3">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="notContainsErrors" dxfId="19" priority="12">
+    <cfRule type="notContainsErrors" dxfId="26" priority="12">
       <formula>NOT(ISERROR(D24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="notContainsErrors" dxfId="18" priority="11">
+    <cfRule type="notContainsErrors" dxfId="25" priority="11">
       <formula>NOT(ISERROR(D25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="17" priority="13">
+    <cfRule type="notContainsErrors" dxfId="24" priority="13">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="16" priority="7">
+    <cfRule type="notContainsErrors" dxfId="23" priority="7">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="15" priority="2">
+    <cfRule type="notContainsErrors" dxfId="22" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="14" priority="1">
+    <cfRule type="notContainsErrors" dxfId="21" priority="1">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17902,67 +17934,67 @@
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B5:B19 B24:B39 B21:B22">
-    <cfRule type="notContainsErrors" dxfId="13" priority="14">
+    <cfRule type="notContainsErrors" dxfId="20" priority="14">
       <formula>NOT(ISERROR(B5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="notContainsErrors" dxfId="12" priority="13">
+    <cfRule type="notContainsErrors" dxfId="19" priority="13">
       <formula>NOT(ISERROR(F4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsErrors" dxfId="11" priority="12">
+    <cfRule type="notContainsErrors" dxfId="18" priority="12">
       <formula>NOT(ISERROR(F2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="notContainsErrors" dxfId="10" priority="11">
+    <cfRule type="notContainsErrors" dxfId="17" priority="11">
       <formula>NOT(ISERROR(F3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="notContainsErrors" dxfId="9" priority="10">
+    <cfRule type="notContainsErrors" dxfId="16" priority="10">
       <formula>NOT(ISERROR(F20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="notContainsErrors" dxfId="8" priority="9">
+    <cfRule type="notContainsErrors" dxfId="15" priority="9">
       <formula>NOT(ISERROR(E20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsErrors" dxfId="7" priority="6">
+    <cfRule type="notContainsErrors" dxfId="14" priority="6">
       <formula>NOT(ISERROR(D4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="notContainsErrors" dxfId="6" priority="8">
+    <cfRule type="notContainsErrors" dxfId="13" priority="8">
       <formula>NOT(ISERROR(D20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="notContainsErrors" dxfId="5" priority="5">
+    <cfRule type="notContainsErrors" dxfId="12" priority="5">
       <formula>NOT(ISERROR(B23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="notContainsErrors" dxfId="4" priority="4">
+    <cfRule type="notContainsErrors" dxfId="11" priority="4">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="notContainsErrors" dxfId="3" priority="3">
+    <cfRule type="notContainsErrors" dxfId="10" priority="3">
       <formula>NOT(ISERROR(B2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsErrors" dxfId="2" priority="2">
+    <cfRule type="notContainsErrors" dxfId="9" priority="2">
       <formula>NOT(ISERROR(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="notContainsErrors" dxfId="1" priority="1">
+    <cfRule type="notContainsErrors" dxfId="8" priority="1">
       <formula>NOT(ISERROR(B20))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20842,10 +20874,10 @@
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -21390,7 +21422,7 @@
         <v>722</v>
       </c>
       <c r="D11" s="207">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="217">
         <v>1</v>
@@ -21428,7 +21460,9 @@
       <c r="P11" s="231">
         <v>0.25</v>
       </c>
-      <c r="R11" s="195"/>
+      <c r="R11" s="195" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12" s="196"/>
@@ -21585,10 +21619,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="206" t="s">
-        <v>583</v>
+        <v>859</v>
       </c>
       <c r="D15" s="207">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" s="217">
         <v>1</v>
@@ -21636,7 +21670,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="206" t="s">
-        <v>588</v>
+        <v>860</v>
       </c>
       <c r="D16" s="207">
         <v>11</v>
@@ -21648,38 +21682,138 @@
         <v>2</v>
       </c>
       <c r="G16" s="218">
+        <v>3</v>
+      </c>
+      <c r="H16" s="219">
         <v>4</v>
       </c>
-      <c r="H16" s="219">
+      <c r="I16" s="220">
+        <v>0.42</v>
+      </c>
+      <c r="J16" s="221">
+        <v>0.71</v>
+      </c>
+      <c r="K16" s="221">
+        <v>0.62</v>
+      </c>
+      <c r="L16" s="222">
+        <v>0.23</v>
+      </c>
+      <c r="M16" s="223">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="224">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O16" s="224">
+        <v>0.45</v>
+      </c>
+      <c r="P16" s="225">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="233" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="196"/>
+      <c r="B17" s="193">
+        <v>15</v>
+      </c>
+      <c r="C17" s="206" t="s">
+        <v>856</v>
+      </c>
+      <c r="D17" s="207">
+        <v>6</v>
+      </c>
+      <c r="E17" s="217">
+        <v>1</v>
+      </c>
+      <c r="F17" s="218">
+        <v>2</v>
+      </c>
+      <c r="G17" s="218">
+        <v>4</v>
+      </c>
+      <c r="H17" s="219">
         <v>5</v>
       </c>
-      <c r="I16" s="220">
+      <c r="I17" s="220">
         <v>0.3</v>
       </c>
-      <c r="J16" s="221">
+      <c r="J17" s="221">
         <v>0.75</v>
       </c>
-      <c r="K16" s="221">
+      <c r="K17" s="221">
         <v>1.2</v>
       </c>
-      <c r="L16" s="222">
+      <c r="L17" s="222">
         <v>0.5</v>
       </c>
-      <c r="M16" s="223">
+      <c r="M17" s="223">
         <v>0.4</v>
       </c>
-      <c r="N16" s="224">
+      <c r="N17" s="224">
         <v>0.4</v>
       </c>
-      <c r="O16" s="224">
+      <c r="O17" s="224">
         <v>1.3</v>
       </c>
-      <c r="P16" s="225">
+      <c r="P17" s="225">
         <v>0.5</v>
       </c>
-      <c r="R16" s="234" t="s">
+      <c r="R17" s="234" t="s">
         <v>748</v>
       </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A18" s="196"/>
+      <c r="B18" s="193">
+        <v>16</v>
+      </c>
+      <c r="C18" s="206" t="s">
+        <v>857</v>
+      </c>
+      <c r="D18" s="207">
+        <v>11</v>
+      </c>
+      <c r="E18" s="217">
+        <v>1</v>
+      </c>
+      <c r="F18" s="218">
+        <v>2</v>
+      </c>
+      <c r="G18" s="218">
+        <v>4</v>
+      </c>
+      <c r="H18" s="219">
+        <v>5</v>
+      </c>
+      <c r="I18" s="220">
+        <v>0.3</v>
+      </c>
+      <c r="J18" s="221">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="221">
+        <v>1.2</v>
+      </c>
+      <c r="L18" s="222">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="223">
+        <v>0.4</v>
+      </c>
+      <c r="N18" s="224">
+        <v>0.4</v>
+      </c>
+      <c r="O18" s="224">
+        <v>1.3</v>
+      </c>
+      <c r="P18" s="225">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="195"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22366,7 +22500,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="notContainsErrors" dxfId="0" priority="2">
+    <cfRule type="notContainsErrors" dxfId="7" priority="2">
       <formula>NOT(ISERROR(B4))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD9B4B-EAEB-48C9-8C3B-90D37999E983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BDDEDB-F129-4749-B9A9-2604899E5DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="978" yWindow="-96" windowWidth="22158" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
     <sheet name="Crops" sheetId="4" r:id="rId2"/>
+    <sheet name="User_Inputs (2)" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="195">
   <si>
     <t>Key</t>
   </si>
@@ -175,15 +176,6 @@
   </si>
   <si>
     <t>Excel_settings_file</t>
-  </si>
-  <si>
-    <t>Sugar1</t>
-  </si>
-  <si>
-    <t>Sugar2</t>
-  </si>
-  <si>
-    <t>Sugar3</t>
   </si>
   <si>
     <t>modflow_steadyInit</t>
@@ -327,9 +319,6 @@
     <t>$(FILE_PATHS:PathMaps)/landcover/crops/generalnonIrrCrop_max_totalend.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/1996</t>
-  </si>
-  <si>
     <t>MaizeK</t>
   </si>
   <si>
@@ -342,15 +331,6 @@
     <t>SorghumR</t>
   </si>
   <si>
-    <t>Sugar1_Irr</t>
-  </si>
-  <si>
-    <t>Sugar2_Irr</t>
-  </si>
-  <si>
-    <t>Sugar3_Irr</t>
-  </si>
-  <si>
     <t>SorghumK_Irr</t>
   </si>
   <si>
@@ -381,9 +361,6 @@
     <t>Soybean_Irr</t>
   </si>
   <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_17Sept2020_3.hds</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -438,15 +415,6 @@
     <t>MaizeR_Irr</t>
   </si>
   <si>
-    <t>Sugar1_nonIrr</t>
-  </si>
-  <si>
-    <t>Sugar2_nonIrr</t>
-  </si>
-  <si>
-    <t>Sugar3_nonIrr</t>
-  </si>
-  <si>
     <t>SorghumK_nonIrr</t>
   </si>
   <si>
@@ -492,9 +460,6 @@
     <t>$(PathLandcover)/Urban_fraction.tif</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/05/1996</t>
-  </si>
-  <si>
     <t>[~75, ~200]</t>
   </si>
   <si>
@@ -552,9 +517,6 @@
     <t>Scale domestic demand everywhere</t>
   </si>
   <si>
-    <t>Domestic water demand</t>
-  </si>
-  <si>
     <t>fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development</t>
   </si>
   <si>
@@ -601,9 +563,6 @@
   </si>
   <si>
     <t>Path/Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/05/2010</t>
   </si>
   <si>
     <t>$(PathLandcover)/Rice_30sec.tif</t>
@@ -645,9 +604,6 @@
     </r>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20100501.nc</t>
-  </si>
-  <si>
     <t>Path to Modflow folder</t>
   </si>
   <si>
@@ -658,6 +614,66 @@
   </si>
   <si>
     <t>Pre-seasonal variety</t>
+  </si>
+  <si>
+    <t>Domestic water demand input</t>
+  </si>
+  <si>
+    <t>leftoverIrrigatedCropIsRainfed</t>
+  </si>
+  <si>
+    <t>use_GeneralCropIrr</t>
+  </si>
+  <si>
+    <t>use_GeneralCropnonIrr</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_19970501.nc</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_23Sept.hds</t>
+  </si>
+  <si>
+    <t>Bhima_20100501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/05/1995</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_19950530.nc</t>
+  </si>
+  <si>
+    <t>SugarAdsali</t>
+  </si>
+  <si>
+    <t>SugarPreseasonal</t>
+  </si>
+  <si>
+    <t>SugarSuru</t>
+  </si>
+  <si>
+    <t>SugarAdsali_Irr</t>
+  </si>
+  <si>
+    <t>SugarPreseasonal_Irr</t>
+  </si>
+  <si>
+    <t>SugarSuru_Irr</t>
+  </si>
+  <si>
+    <t>SugarAdsali_nonIrr</t>
+  </si>
+  <si>
+    <t>SugarPreseasonal_nonIrr</t>
+  </si>
+  <si>
+    <t>SugarSuru_nonIrr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10/05/1995</t>
   </si>
 </sst>
 </file>
@@ -1581,11 +1597,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1609,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1620,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1637,10 +1653,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1648,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F4" s="49"/>
     </row>
@@ -1663,13 +1679,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1677,13 +1693,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="53">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1692,10 +1708,10 @@
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="48" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1703,13 +1719,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1718,22 +1734,22 @@
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="48" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="48" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1741,10 +1757,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1753,10 +1769,10 @@
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="48" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1765,10 +1781,10 @@
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="48" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1779,10 +1795,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1793,10 +1809,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1804,16 +1820,16 @@
         <v>46</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="72" t="s">
         <v>3</v>
       </c>
@@ -1821,41 +1837,41 @@
         <v>23</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="72" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="72" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B19" s="73" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="55" t="s">
         <v>11</v>
       </c>
@@ -1863,27 +1879,33 @@
         <v>1</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="55" t="s">
         <v>13</v>
       </c>
@@ -1891,628 +1913,132 @@
         <v>0</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="53">
+        <v>1</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="65"/>
-    </row>
-    <row r="42" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="65"/>
-    </row>
-    <row r="58" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="67" t="s">
+      <c r="B31" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="49">
-        <v>0.15</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="53">
-        <v>1</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>156</v>
+      <c r="B32" s="53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2531,14 +2057,14 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="13.3125" style="8" customWidth="1"/>
     <col min="2" max="2" width="3.3671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.3671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26171875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.05078125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="3.68359375" style="8" customWidth="1"/>
     <col min="9" max="9" width="4.3671875" style="8" bestFit="1" customWidth="1"/>
@@ -2607,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D2" s="23">
         <v>6</v>
@@ -2650,7 +2176,7 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.5">
@@ -2659,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="D3" s="23">
         <v>11</v>
@@ -2702,7 +2228,7 @@
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="11" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.5">
@@ -2711,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
@@ -2754,7 +2280,7 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
@@ -2813,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="23">
         <v>6</v>
@@ -2856,7 +2382,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.5">
@@ -2865,7 +2391,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" s="23">
         <v>11</v>
@@ -2908,7 +2434,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
@@ -2917,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="23">
         <v>6</v>
@@ -2960,7 +2486,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
@@ -2969,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="23">
         <v>11</v>
@@ -3012,7 +2538,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
@@ -3021,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="23">
         <v>6</v>
@@ -3070,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="23">
         <v>6</v>
@@ -3119,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D12" s="23">
         <v>11</v>
@@ -3210,7 +2736,7 @@
         <v>0.2</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3219,7 +2745,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="23">
         <v>6</v>
@@ -3261,7 +2787,7 @@
         <v>0.2</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3270,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="23">
         <v>11</v>
@@ -3312,7 +2838,7 @@
         <v>0.2</v>
       </c>
       <c r="R15" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3321,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="23">
         <v>6</v>
@@ -3363,7 +2889,7 @@
         <v>0.5</v>
       </c>
       <c r="R16" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
@@ -3372,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D17" s="23">
         <v>11</v>
@@ -3420,4 +2946,980 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E59C3E-9FBB-4943-9C43-2283A2E98CD3}">
+  <sheetPr>
+    <tabColor rgb="FF636EFA"/>
+  </sheetPr>
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.734375" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.3671875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="59.41796875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89453125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="8.89453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="42" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51">
+        <v>10</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="53">
+        <v>60</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="65"/>
+    </row>
+    <row r="42" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="65"/>
+    </row>
+    <row r="58" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="49">
+        <v>0.15</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="53">
+        <v>1</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BDDEDB-F129-4749-B9A9-2604899E5DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69040C1E-5776-416A-A497-C051D1E708DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="User_Inputs (2)" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="232">
   <si>
     <t>Key</t>
   </si>
@@ -674,6 +675,117 @@
   </si>
   <si>
     <t xml:space="preserve"> 10/05/1995</t>
+  </si>
+  <si>
+    <t>PathMeteo</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/meteo/025_ISIMIP3a</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/meteo/010deg</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_Local</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_Lift</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_nonLocal</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_Irr</t>
+  </si>
+  <si>
+    <t>Water_conveyance_efficiency</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20000801.nc</t>
+  </si>
+  <si>
+    <t>Bhima_steady_03Oct</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20010503.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20011001.nc</t>
+  </si>
+  <si>
+    <t>precipEffectiveAverage_segments, ETRefAverage_segments</t>
+  </si>
+  <si>
+    <t>actual_totalWithdrawal, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/fracVegCover[0]_monthend.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/fracVegCover[4]_monthend.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/fracVegCover[3]_monthend.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/fracVegCover[2]_monthend.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/fracVegCover[5]_monthend.nc</t>
+  </si>
+  <si>
+    <t>[1, ~7]</t>
+  </si>
+  <si>
+    <t>GeneralK</t>
+  </si>
+  <si>
+    <t>GeneralR</t>
+  </si>
+  <si>
+    <t>Chickpea adapted</t>
+  </si>
+  <si>
+    <t>Forest_fraction</t>
+  </si>
+  <si>
+    <t>Sealed_fraction</t>
+  </si>
+  <si>
+    <t>IrrigationEquipped_fraction</t>
+  </si>
+  <si>
+    <t>Water_fraction</t>
+  </si>
+  <si>
+    <t>Paddy_fraction</t>
+  </si>
+  <si>
+    <t>activate_fallow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28/04/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2016</t>
+  </si>
+  <si>
+    <t>actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge</t>
+  </si>
+  <si>
+    <t>010deg</t>
+  </si>
+  <si>
+    <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
+  </si>
+  <si>
+    <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_12Oct.hds</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20160501.nc</t>
   </si>
 </sst>
 </file>
@@ -1220,15 +1332,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF004835"/>
+      <color rgb="FF636EFA"/>
+      <color rgb="FF960032"/>
       <color rgb="FF6C0024"/>
-      <color rgb="FF960032"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF00A87C"/>
       <color rgb="FF996633"/>
-      <color rgb="FF636EFA"/>
       <color rgb="FF007E5D"/>
       <color rgb="FF202FF8"/>
-      <color rgb="FF004835"/>
       <color rgb="FF15FFC2"/>
     </mruColors>
   </colors>
@@ -1597,11 +1709,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1610,7 +1722,7 @@
     <col min="2" max="2" width="66.3671875" style="53" customWidth="1"/>
     <col min="3" max="3" width="59.41796875" style="48" customWidth="1"/>
     <col min="4" max="4" width="21.41796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="56.3671875" style="50" customWidth="1"/>
     <col min="6" max="6" width="9.15625" style="50" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.89453125" style="50" customWidth="1"/>
     <col min="8" max="8" width="8.89453125" style="50" bestFit="1" customWidth="1"/>
@@ -1636,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>150</v>
@@ -1664,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>151</v>
@@ -1679,13 +1791,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1693,7 +1805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="53">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>101</v>
@@ -1718,21 +1830,26 @@
       <c r="A8" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>148</v>
+      <c r="B8" s="53" t="s">
+        <v>228</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>156</v>
       </c>
       <c r="D8" s="49" t="s">
         <v>155</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="51" t="s">
+        <v>208</v>
+      </c>
       <c r="C9" s="48" t="s">
         <v>158</v>
       </c>
@@ -1744,7 +1861,9 @@
       <c r="A10" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="51" t="s">
+        <v>207</v>
+      </c>
       <c r="C10" s="48" t="s">
         <v>161</v>
       </c>
@@ -1767,7 +1886,9 @@
       <c r="A12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="51" t="s">
+        <v>226</v>
+      </c>
       <c r="C12" s="48" t="s">
         <v>159</v>
       </c>
@@ -1779,7 +1900,9 @@
       <c r="A13" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54" t="s">
+        <v>229</v>
+      </c>
       <c r="C13" s="48" t="s">
         <v>162</v>
       </c>
@@ -1829,7 +1952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="72" t="s">
         <v>3</v>
       </c>
@@ -1843,7 +1966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="72" t="s">
         <v>166</v>
       </c>
@@ -1857,7 +1980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="72" t="s">
         <v>168</v>
       </c>
@@ -1871,7 +1994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="55" t="s">
         <v>11</v>
       </c>
@@ -1884,13 +2007,16 @@
       <c r="D20" s="58" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="60" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>137</v>
@@ -1898,19 +2024,22 @@
       <c r="D21" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>181</v>
+      <c r="E21" s="60" t="s">
+        <v>231</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>205</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="56" t="b">
-        <v>0</v>
+      <c r="B22" s="47" t="b">
+        <v>1</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>99</v>
@@ -1919,7 +2048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="55" t="s">
         <v>14</v>
       </c>
@@ -1933,12 +2062,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="61" t="s">
-        <v>183</v>
+      <c r="B24" s="47" t="s">
+        <v>225</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>108</v>
@@ -1947,12 +2076,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>136</v>
@@ -1960,8 +2089,17 @@
       <c r="D25" s="58" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="50" t="s">
         <v>52</v>
       </c>
@@ -1975,7 +2113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="50" t="s">
         <v>48</v>
       </c>
@@ -1989,7 +2127,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="50" t="s">
         <v>143</v>
       </c>
@@ -2003,12 +2141,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="50" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="53">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>147</v>
@@ -2017,7 +2155,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="50" t="s">
         <v>176</v>
       </c>
@@ -2025,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="50" t="s">
         <v>177</v>
       </c>
@@ -2033,12 +2171,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="50" t="s">
         <v>178</v>
       </c>
       <c r="B32" s="53" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="53">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="53" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2053,11 +2296,11 @@
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -2941,6 +3184,106 @@
       </c>
       <c r="R17" s="11"/>
     </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" s="23">
+        <v>6</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2</v>
+      </c>
+      <c r="G18" s="25">
+        <v>4</v>
+      </c>
+      <c r="H18" s="26">
+        <v>5</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="J18" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0.35</v>
+      </c>
+      <c r="M18" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="O18" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="P18" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="23">
+        <v>11</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25">
+        <v>4</v>
+      </c>
+      <c r="H19" s="26">
+        <v>5</v>
+      </c>
+      <c r="I19" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0.35</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="O19" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="P19" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2956,8 +3299,8 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69040C1E-5776-416A-A497-C051D1E708DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C337FBE-16FA-4745-A695-691DC99788B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
-    <sheet name="Crops" sheetId="4" r:id="rId2"/>
+    <sheet name="Crops" sheetId="17" r:id="rId2"/>
     <sheet name="User_Inputs (2)" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="236">
   <si>
     <t>Key</t>
   </si>
@@ -764,15 +763,6 @@
     <t>activate_fallow</t>
   </si>
   <si>
-    <t xml:space="preserve"> 28/04/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/05/2016</t>
-  </si>
-  <si>
-    <t>actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge</t>
-  </si>
-  <si>
     <t>010deg</t>
   </si>
   <si>
@@ -786,6 +776,27 @@
   </si>
   <si>
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20160501.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05/05/2015</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20150505.nc</t>
+  </si>
+  <si>
+    <t>act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge, act_irrWithdrawal, act_nonIrrWithdrawal</t>
+  </si>
+  <si>
+    <t>automaticFallowingIrr</t>
+  </si>
+  <si>
+    <t>True for MS, False for FUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/06/2015</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1383,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8981CA1-6D6E-4B83-92FF-0E4D2CCF23B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7AA27D-BECF-4A97-8734-CFF627D163CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1407,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="156210" y="664474"/>
+          <a:off x="156210" y="336814"/>
           <a:ext cx="670560" cy="714746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1709,11 +1720,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1748,7 +1759,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>150</v>
@@ -1776,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>151</v>
@@ -1831,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>156</v>
@@ -1887,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>159</v>
@@ -1901,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>162</v>
@@ -2007,6 +2018,9 @@
       <c r="D20" s="58" t="s">
         <v>139</v>
       </c>
+      <c r="E20" s="60" t="s">
+        <v>205</v>
+      </c>
       <c r="F20" s="60" t="s">
         <v>206</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>137</v>
@@ -2025,7 +2039,7 @@
         <v>138</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F21" s="60" t="s">
         <v>205</v>
@@ -2039,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>99</v>
@@ -2067,7 +2081,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>108</v>
@@ -2081,7 +2095,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>136</v>
@@ -2146,7 +2160,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="53">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="48" t="s">
         <v>147</v>
@@ -2193,7 +2207,7 @@
         <v>196</v>
       </c>
       <c r="K33" s="50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2233,7 +2247,7 @@
         <v>202</v>
       </c>
       <c r="B38" s="53">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2282,6 +2296,25 @@
       </c>
       <c r="B44" s="53" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="53" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E152A-DDEA-4ED5-80E8-41B2C329C3DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAC1800-26ED-46C3-93D8-3B84400791F2}">
   <sheetPr>
     <tabColor rgb="FF15FFC2"/>
   </sheetPr>
@@ -2300,7 +2333,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C19"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C337FBE-16FA-4745-A695-691DC99788B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1591BB3-E8F6-46B0-9472-3E80079258D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="237">
   <si>
     <t>Key</t>
   </si>
@@ -796,7 +796,10 @@
     <t xml:space="preserve"> 30/05/2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/06/2015</t>
+    <t xml:space="preserve"> 01/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/04/2015</t>
   </si>
 </sst>
 </file>
@@ -1720,11 +1723,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1759,7 +1762,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>150</v>
@@ -1773,7 +1776,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>152</v>
@@ -1816,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="53">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>101</v>
@@ -2303,18 +2306,10 @@
         <v>232</v>
       </c>
       <c r="B45" s="53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B46" s="53" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1591BB3-E8F6-46B0-9472-3E80079258D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA064A-BB07-44F9-BFAD-0806E98ED563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="229">
   <si>
     <t>Key</t>
   </si>
@@ -718,21 +718,6 @@
     <t>actual_totalWithdrawal, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments</t>
   </si>
   <si>
-    <t>$(PathLandcover)/fracVegCover[0]_monthend.nc</t>
-  </si>
-  <si>
-    <t>$(PathLandcover)/fracVegCover[4]_monthend.nc</t>
-  </si>
-  <si>
-    <t>$(PathLandcover)/fracVegCover[3]_monthend.nc</t>
-  </si>
-  <si>
-    <t>$(PathLandcover)/fracVegCover[2]_monthend.nc</t>
-  </si>
-  <si>
-    <t>$(PathLandcover)/fracVegCover[5]_monthend.nc</t>
-  </si>
-  <si>
     <t>[1, ~7]</t>
   </si>
   <si>
@@ -745,61 +730,52 @@
     <t>Chickpea adapted</t>
   </si>
   <si>
-    <t>Forest_fraction</t>
-  </si>
-  <si>
-    <t>Sealed_fraction</t>
-  </si>
-  <si>
-    <t>IrrigationEquipped_fraction</t>
-  </si>
-  <si>
-    <t>Water_fraction</t>
-  </si>
-  <si>
-    <t>Paddy_fraction</t>
-  </si>
-  <si>
     <t>activate_fallow</t>
   </si>
   <si>
     <t>010deg</t>
   </si>
   <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20160501.nc</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20150505.nc</t>
+  </si>
+  <si>
+    <t>act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge, act_irrWithdrawal, act_nonIrrWithdrawal</t>
+  </si>
+  <si>
+    <t>automaticFallowingIrr</t>
+  </si>
+  <si>
+    <t>True for MS, False for FUSE</t>
+  </si>
+  <si>
+    <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness, adminSegments, reservoir_command_areas, lift_command_areas</t>
+  </si>
+  <si>
+    <t>reservoir_command_areas</t>
+  </si>
+  <si>
+    <t>$(PathWaterdemand)/CommandLiftAreas_15Oct.tif</t>
+  </si>
+  <si>
     <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
-    <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness</t>
-  </si>
-  <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_12Oct.hds</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20160501.nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/05/2015</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20150505.nc</t>
-  </si>
-  <si>
-    <t>act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge, act_irrWithdrawal, act_nonIrrWithdrawal</t>
-  </si>
-  <si>
-    <t>automaticFallowingIrr</t>
-  </si>
-  <si>
-    <t>True for MS, False for FUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30/05/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/07/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30/04/2015</t>
+    <t xml:space="preserve"> 30/05/2010</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_17Oct.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02/01/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02/01/1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12/01/2007</t>
   </si>
 </sst>
 </file>
@@ -1723,11 +1699,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1762,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>150</v>
@@ -1776,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>152</v>
@@ -1790,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>151</v>
@@ -1805,13 +1781,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1819,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="53">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>101</v>
@@ -1845,7 +1821,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>156</v>
@@ -1901,7 +1877,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>159</v>
@@ -1915,7 +1891,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>162</v>
@@ -2033,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>137</v>
@@ -2042,7 +2018,7 @@
         <v>138</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F21" s="60" t="s">
         <v>205</v>
@@ -2056,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>99</v>
@@ -2084,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>108</v>
@@ -2098,7 +2074,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>136</v>
@@ -2210,7 +2186,7 @@
         <v>196</v>
       </c>
       <c r="K33" s="50" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2218,7 +2194,7 @@
         <v>198</v>
       </c>
       <c r="B34" s="53">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2250,66 +2226,32 @@
         <v>202</v>
       </c>
       <c r="B38" s="53">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>209</v>
+        <v>213</v>
+      </c>
+      <c r="B39" s="53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="50" t="s">
+      <c r="D40" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="53" t="s">
         <v>222</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="B45" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C45" s="48" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3160,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D18" s="23">
         <v>6</v>
@@ -3260,7 +3202,7 @@
         <v>0.2</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.5">
@@ -3269,7 +3211,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D19" s="23">
         <v>11</v>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA064A-BB07-44F9-BFAD-0806E98ED563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F93D7F9-6561-4007-A97A-B0E52A057BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-96" windowWidth="22284" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="4944" yWindow="1440" windowWidth="15744" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="228">
   <si>
     <t>Key</t>
   </si>
@@ -736,9 +736,6 @@
     <t>010deg</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20160501.nc</t>
-  </si>
-  <si>
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20150505.nc</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
     <t>True for MS, False for FUSE</t>
   </si>
   <si>
-    <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness, adminSegments, reservoir_command_areas, lift_command_areas</t>
-  </si>
-  <si>
     <t>reservoir_command_areas</t>
   </si>
   <si>
@@ -763,19 +757,22 @@
     <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
-    <t xml:space="preserve"> 30/05/2010</t>
-  </si>
-  <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_17Oct.hds</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/01/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02/01/1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12/01/2007</t>
+    <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness, adminSegments, reservoir_command_areas, lift_command_areas, availableArableLand, availableArableLand_segment</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20100530.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29/05/2010</t>
+  </si>
+  <si>
+    <t>poro</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/groundwater/specificYield_UB_1km.nc</t>
   </si>
 </sst>
 </file>
@@ -1699,11 +1696,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1738,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>150</v>
@@ -1752,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>152</v>
@@ -1766,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>151</v>
@@ -1781,7 +1778,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="51">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>106</v>
@@ -1821,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>156</v>
@@ -1877,7 +1874,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>159</v>
@@ -1891,7 +1888,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>162</v>
@@ -2009,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>137</v>
@@ -2060,7 +2057,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>108</v>
@@ -2074,7 +2071,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>136</v>
@@ -2194,7 +2191,7 @@
         <v>198</v>
       </c>
       <c r="B34" s="53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2239,19 +2236,27 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B40" s="53" t="b">
         <v>1</v>
       </c>
       <c r="C40" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="50" t="s">
-        <v>221</v>
-      </c>
       <c r="E40" s="53" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="73" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2270,7 +2275,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F93D7F9-6561-4007-A97A-B0E52A057BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B9C17-FFDA-4E7A-82EF-569B1E04AC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="1440" windowWidth="15744" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="936" yWindow="996" windowWidth="15744" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
     <sheet name="Crops" sheetId="17" r:id="rId2"/>
-    <sheet name="User_Inputs (2)" sheetId="14" r:id="rId3"/>
+    <sheet name="Variables_list" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="270">
   <si>
     <t>Key</t>
   </si>
@@ -85,12 +85,6 @@
     <t xml:space="preserve">StepInit </t>
   </si>
   <si>
-    <t xml:space="preserve">Urban_1km </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irr_1km </t>
-  </si>
-  <si>
     <t xml:space="preserve">modflow_timestep </t>
   </si>
   <si>
@@ -122,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">OUT_MAP_TotalEnd </t>
-  </si>
-  <si>
-    <t>fracCrop_rice</t>
   </si>
   <si>
     <t>Planting month</t>
@@ -454,12 +445,6 @@
     <t>Chickpea_nonIrr</t>
   </si>
   <si>
-    <t>$(PathLandcover)/Irrigated_fraction.tif</t>
-  </si>
-  <si>
-    <t>$(PathLandcover)/Urban_fraction.tif</t>
-  </si>
-  <si>
     <t>[~75, ~200]</t>
   </si>
   <si>
@@ -514,9 +499,6 @@
     <t>Domestic demands are in m/day. Else, they are in Mm3/month.</t>
   </si>
   <si>
-    <t>Scale domestic demand everywhere</t>
-  </si>
-  <si>
     <t>fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development</t>
   </si>
   <si>
@@ -563,12 +545,6 @@
   </si>
   <si>
     <t>Path/Name</t>
-  </si>
-  <si>
-    <t>$(PathLandcover)/Rice_30sec.tif</t>
-  </si>
-  <si>
-    <t>Paddy rice input map</t>
   </si>
   <si>
     <t>modflow_exe</t>
@@ -745,18 +721,6 @@
     <t>automaticFallowingIrr</t>
   </si>
   <si>
-    <t>True for MS, False for FUSE</t>
-  </si>
-  <si>
-    <t>reservoir_command_areas</t>
-  </si>
-  <si>
-    <t>$(PathWaterdemand)/CommandLiftAreas_15Oct.tif</t>
-  </si>
-  <si>
-    <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
-  </si>
-  <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_17Oct.hds</t>
   </si>
   <si>
@@ -773,13 +737,175 @@
   </si>
   <si>
     <t>$(FILE_PATHS:PathMaps)/groundwater/specificYield_UB_1km.nc</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder of Meteo files, precipitation for example. </t>
+  </si>
+  <si>
+    <t>Folder path</t>
+  </si>
+  <si>
+    <t>Maimum fraction of surface water request from local water</t>
+  </si>
+  <si>
+    <t>Maximum fraction of surface water request from lift area</t>
+  </si>
+  <si>
+    <t>Maximum fraction of surface water request from command area</t>
+  </si>
+  <si>
+    <t>Maximum fraction of non-irrigation request from surface water</t>
+  </si>
+  <si>
+    <t>Conveyanace efficiency of reservoirs to fields through canals</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_nonIrr</t>
+  </si>
+  <si>
+    <t>gwAbstractionFraction_Irr</t>
+  </si>
+  <si>
+    <t>Maximum fraction of irrigation request from groundwater</t>
+  </si>
+  <si>
+    <t>Maximum fraction of the irrigation request to be satisfied with surface water</t>
+  </si>
+  <si>
+    <t>Map or Value, [0,1]</t>
+  </si>
+  <si>
+    <t>Map or value, [0,1]. Shared value in command areas.</t>
+  </si>
+  <si>
+    <t>Map or value, &gt;0.</t>
+  </si>
+  <si>
+    <t>Example value</t>
+  </si>
+  <si>
+    <t>True, automatic fallowing will happen on non-irrigated lands, and on irrigated lands if chosen. False, lands not currently planted with a crop are designated general land. This is overriden if use_GeneralCropIrr = True and designates fallow lands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The land request not satisfied for irrigated crops becomes the rainfed request. The rainfed input files are thus not considered. </t>
+  </si>
+  <si>
+    <t>A specific input file for general land is given, with the input variable GeneralCropIrr</t>
+  </si>
+  <si>
+    <t>A specific input file for general land is given, with the input variable GeneralCropnonIrr</t>
+  </si>
+  <si>
+    <t>Scales domestic demand</t>
+  </si>
+  <si>
+    <t>False, irrigated lands are either cropped or fallowed. True, only lands between croppings are fallowed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map or value, [0,1]. </t>
+  </si>
+  <si>
+    <t>OUT_MAP_MonthEnd</t>
+  </si>
+  <si>
+    <t>GeneralK_Irr</t>
+  </si>
+  <si>
+    <t>GeneralR_Irr</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landcover/crops/GeneralCrop_Irr_totalend.nc</t>
+  </si>
+  <si>
+    <t>GeneralK_nonIrr</t>
+  </si>
+  <si>
+    <t>GeneralR_nonIrr</t>
+  </si>
+  <si>
+    <t>IrrigationEquipped_fraction</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/IrrigationEquipped_fraction.nc</t>
+  </si>
+  <si>
+    <t>Forest_fraction</t>
+  </si>
+  <si>
+    <t>Paddy_fraction</t>
+  </si>
+  <si>
+    <t>Water_fraction</t>
+  </si>
+  <si>
+    <t>Sealed_fraction</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/Sealed_fraction.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/Paddy_fraction.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/Forest_fraction.nc</t>
+  </si>
+  <si>
+    <t>$(PathLandcover)/Water_fraction.nc</t>
+  </si>
+  <si>
+    <t>Forest fraction</t>
+  </si>
+  <si>
+    <t>Paddy fraction</t>
+  </si>
+  <si>
+    <t>Water fraction</t>
+  </si>
+  <si>
+    <t>Equipped for irrigation fraction</t>
+  </si>
+  <si>
+    <t>permeability</t>
+  </si>
+  <si>
+    <t>Map or value</t>
+  </si>
+  <si>
+    <t>Value (example)</t>
+  </si>
+  <si>
+    <t>fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
+  </si>
+  <si>
+    <t>head_development_segments, modflowWaterLevel</t>
+  </si>
+  <si>
+    <t>Aquifer thickness, metres</t>
+  </si>
+  <si>
+    <t>Hydraulic conductivity, metres/second</t>
+  </si>
+  <si>
+    <t>Specific yield, %</t>
+  </si>
+  <si>
+    <t>act_indWithdrawal, act_domWithdrawal, act_livWithdrawal, act_indConsumption, act_domConsumption, act_livConsumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/06/2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,27 +954,27 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Regular"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Regular"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
     <font>
@@ -856,11 +982,32 @@
       <i/>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibre Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibre Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,6 +1071,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C0024"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,7 +1333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1225,90 +1378,184 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1319,16 +1566,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6C0024"/>
+      <color rgb="FF960032"/>
+      <color rgb="FF3333CC"/>
       <color rgb="FF004835"/>
       <color rgb="FF636EFA"/>
-      <color rgb="FF960032"/>
-      <color rgb="FF6C0024"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF00A87C"/>
       <color rgb="FF996633"/>
       <color rgb="FF007E5D"/>
       <color rgb="FF202FF8"/>
-      <color rgb="FF15FFC2"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1696,567 +1943,490 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="33.734375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.3671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.3671875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="50"/>
+    <col min="1" max="1" width="29.62890625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="41.9453125" style="99" customWidth="1"/>
+    <col min="3" max="3" width="59.41796875" style="94" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.3671875" style="96" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89453125" style="96" customWidth="1"/>
+    <col min="8" max="8" width="8.89453125" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" s="104" customFormat="1" ht="18" x14ac:dyDescent="0.65">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="95"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="97">
+        <v>1</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="99">
+        <v>60</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D21" s="48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="E24" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A25" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="100">
+        <v>0.15</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A26" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A27" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="99">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A28" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="99">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A29" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A30" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A31" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="B31" s="99">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="88" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A32" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="91" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="53">
-        <v>60</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="F20" s="60" t="s">
+      <c r="C32" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A33" s="96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="96" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="49">
-        <v>0.15</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="53">
-        <v>1</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="K33" s="50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="53">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B39" s="53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" s="73" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2299,46 +2469,46 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="7" t="s">
@@ -2351,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D2" s="23">
         <v>6</v>
@@ -2394,7 +2564,7 @@
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.5">
@@ -2403,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D3" s="23">
         <v>11</v>
@@ -2446,7 +2616,7 @@
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.5">
@@ -2455,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
@@ -2498,7 +2668,7 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.5">
@@ -2507,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="23">
         <v>11</v>
@@ -2557,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="23">
         <v>6</v>
@@ -2600,7 +2770,7 @@
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.5">
@@ -2609,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="23">
         <v>11</v>
@@ -2652,7 +2822,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
@@ -2661,7 +2831,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D8" s="23">
         <v>6</v>
@@ -2704,7 +2874,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
@@ -2713,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="23">
         <v>11</v>
@@ -2756,7 +2926,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
@@ -2765,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" s="23">
         <v>6</v>
@@ -2814,7 +2984,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="23">
         <v>6</v>
@@ -2863,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="23">
         <v>11</v>
@@ -2912,7 +3082,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="23">
         <v>6</v>
@@ -2954,7 +3124,7 @@
         <v>0.2</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2963,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="23">
         <v>6</v>
@@ -3005,7 +3175,7 @@
         <v>0.2</v>
       </c>
       <c r="R14" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3014,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="23">
         <v>11</v>
@@ -3056,7 +3226,7 @@
         <v>0.2</v>
       </c>
       <c r="R15" s="40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3065,7 +3235,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16" s="23">
         <v>6</v>
@@ -3107,7 +3277,7 @@
         <v>0.5</v>
       </c>
       <c r="R16" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.5">
@@ -3116,7 +3286,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" s="23">
         <v>11</v>
@@ -3165,7 +3335,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D18" s="23">
         <v>6</v>
@@ -3207,7 +3377,7 @@
         <v>0.2</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.5">
@@ -3216,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D19" s="23">
         <v>11</v>
@@ -3271,969 +3441,1271 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:XFD73"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="33.734375" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.3671875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="50"/>
+    <col min="1" max="1" width="33.734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.3671875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="59.41796875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89453125" style="57" customWidth="1"/>
+    <col min="8" max="8" width="8.89453125" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="65">
+        <v>10</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="67">
+        <v>60</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C20" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D22" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="79" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="78" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="47" t="s">
+    <row r="26" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="89">
+        <v>0.15</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="91">
+        <v>1</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="47" t="s">
+      <c r="B38" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="85"/>
+    </row>
+    <row r="50" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="85"/>
+    </row>
+    <row r="68" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75" s="85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="87" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A79" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A80" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="C80" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A81" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="C81" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A82" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="67">
+        <v>1</v>
+      </c>
+      <c r="C82" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A83" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="67">
+        <v>1</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A84" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="67">
+        <v>1</v>
+      </c>
+      <c r="C84" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A85" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="67">
+        <v>1</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51">
-        <v>10</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="53">
-        <v>60</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="72" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B86" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="C86" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A87" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A88" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" s="67">
         <v>100</v>
       </c>
-      <c r="D23" s="58" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="66" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="65"/>
-    </row>
-    <row r="42" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="B45" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="65"/>
-    </row>
-    <row r="58" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="49">
-        <v>0.15</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C64" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="53">
-        <v>1</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="53" t="b">
-        <v>0</v>
-      </c>
+      <c r="C88" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A89" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" s="103">
+        <v>7.8364363403955501E-6</v>
+      </c>
+      <c r="C89" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589B9C17-FFDA-4E7A-82EF-569B1E04AC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0A0513-DD45-463F-B704-8D17952D5728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="996" windowWidth="15744" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="1356" yWindow="-96" windowWidth="21780" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -712,9 +712,6 @@
     <t>010deg</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20150505.nc</t>
-  </si>
-  <si>
     <t>act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge, act_irrWithdrawal, act_nonIrrWithdrawal</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20100530.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 29/05/2010</t>
-  </si>
-  <si>
     <t>poro</t>
   </si>
   <si>
@@ -877,12 +871,6 @@
     <t>Value (example)</t>
   </si>
   <si>
-    <t>fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
-  </si>
-  <si>
-    <t>head_development_segments, modflowWaterLevel</t>
-  </si>
-  <si>
     <t>Aquifer thickness, metres</t>
   </si>
   <si>
@@ -892,13 +880,25 @@
     <t>Specific yield, %</t>
   </si>
   <si>
-    <t>act_indWithdrawal, act_domWithdrawal, act_livWithdrawal, act_indConsumption, act_domConsumption, act_livConsumption</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/06/2008</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/2006</t>
+    <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080522.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25/05/2008</t>
+  </si>
+  <si>
+    <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment</t>
+  </si>
+  <si>
+    <t>head_development, head_development_segments, modflowWaterLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/06/2008</t>
   </si>
 </sst>
 </file>
@@ -1947,13 +1947,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="29.62890625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="41.9453125" style="99" customWidth="1"/>
+    <col min="2" max="2" width="47.62890625" style="99" customWidth="1"/>
     <col min="3" max="3" width="59.41796875" style="94" customWidth="1"/>
     <col min="4" max="4" width="21.41796875" style="95" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.3671875" style="96" customWidth="1"/>
@@ -1977,7 +1977,7 @@
         <v>128</v>
       </c>
       <c r="E1" s="104" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -1985,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" s="94" t="s">
         <v>144</v>
@@ -2013,7 +2013,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C4" s="94" t="s">
         <v>145</v>
@@ -2042,7 +2042,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="99">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C6" s="94" t="s">
         <v>98</v>
@@ -2055,9 +2055,7 @@
       <c r="A7" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>267</v>
-      </c>
+      <c r="B7" s="100"/>
       <c r="C7" s="94" t="s">
         <v>151</v>
       </c>
@@ -2067,10 +2065,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="92" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C8" s="94" t="s">
         <v>150</v>
@@ -2079,49 +2077,52 @@
         <v>149</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>200</v>
-      </c>
+      <c r="B9" s="97"/>
       <c r="C9" s="94" t="s">
         <v>152</v>
       </c>
       <c r="D9" s="95" t="s">
         <v>149</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="97" t="s">
-        <v>199</v>
-      </c>
+      <c r="B10" s="97"/>
       <c r="C10" s="94" t="s">
         <v>155</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>149</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="97" t="s">
-        <v>208</v>
-      </c>
+      <c r="B11" s="97"/>
       <c r="C11" s="94" t="s">
         <v>153</v>
       </c>
       <c r="D11" s="95" t="s">
         <v>149</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -2129,13 +2130,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="C12" s="94" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="95" t="s">
         <v>149</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
@@ -2247,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>132</v>
@@ -2255,8 +2259,8 @@
       <c r="D20" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>207</v>
+      <c r="E20" s="55" t="s">
+        <v>211</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>197</v>
@@ -2270,7 +2274,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>96</v>
@@ -2297,8 +2301,8 @@
       <c r="A23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>213</v>
+      <c r="B23" s="93" t="s">
+        <v>269</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>105</v>
@@ -2312,7 +2316,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>131</v>
@@ -2394,13 +2398,13 @@
     </row>
     <row r="32" spans="1:11" s="88" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A32" s="88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B32" s="91" t="b">
         <v>1</v>
       </c>
       <c r="C32" s="90" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D32" s="89" t="s">
         <v>134</v>
@@ -2414,10 +2418,10 @@
         <v>188</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D33" s="89" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E33" s="102" t="s">
         <v>189</v>
@@ -2445,7 +2449,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -3466,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C1" s="59" t="s">
         <v>93</v>
@@ -3816,7 +3820,7 @@
         <v>127</v>
       </c>
       <c r="D26" s="88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
@@ -3855,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D29" s="89" t="s">
         <v>139</v>
@@ -3863,10 +3867,10 @@
     </row>
     <row r="30" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A30" s="82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C30" s="84" t="s">
         <v>99</v>
@@ -3877,13 +3881,13 @@
     </row>
     <row r="31" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A31" s="82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B31" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="84" t="s">
         <v>253</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>255</v>
       </c>
       <c r="D31" s="85" t="s">
         <v>129</v>
@@ -3891,13 +3895,13 @@
     </row>
     <row r="32" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A32" s="82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B32" s="83" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D32" s="85" t="s">
         <v>129</v>
@@ -3905,13 +3909,13 @@
     </row>
     <row r="33" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A33" s="82" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D33" s="85" t="s">
         <v>129</v>
@@ -3919,13 +3923,13 @@
     </row>
     <row r="34" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D34" s="85" t="s">
         <v>129</v>
@@ -3933,10 +3937,10 @@
     </row>
     <row r="35" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A35" s="82" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C35" s="84" t="s">
         <v>100</v>
@@ -4172,10 +4176,10 @@
     </row>
     <row r="52" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A52" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="83" t="s">
         <v>240</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>242</v>
       </c>
       <c r="C52" s="84" t="s">
         <v>125</v>
@@ -4186,10 +4190,10 @@
     </row>
     <row r="53" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A53" s="86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C53" s="84" t="s">
         <v>125</v>
@@ -4425,10 +4429,10 @@
     </row>
     <row r="70" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A70" s="86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C70" s="84" t="s">
         <v>126</v>
@@ -4439,10 +4443,10 @@
     </row>
     <row r="71" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A71" s="86" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B71" s="83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C71" s="84" t="s">
         <v>126</v>
@@ -4487,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D74" s="85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
@@ -4501,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D75" s="85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
@@ -4515,10 +4519,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D76" s="85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
@@ -4529,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="84" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D77" s="85" t="s">
         <v>134</v>
@@ -4537,13 +4541,13 @@
     </row>
     <row r="78" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A78" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B78" s="87" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D78" s="85" t="s">
         <v>134</v>
@@ -4557,10 +4561,10 @@
         <v>188</v>
       </c>
       <c r="C79" s="63" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D79" s="64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.5">
@@ -4571,10 +4575,10 @@
         <v>0.2</v>
       </c>
       <c r="C80" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.5">
@@ -4585,10 +4589,10 @@
         <v>0.2</v>
       </c>
       <c r="C81" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D81" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.5">
@@ -4599,24 +4603,24 @@
         <v>1</v>
       </c>
       <c r="C82" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" s="57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B83" s="67">
         <v>1</v>
       </c>
       <c r="C83" s="63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D83" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.5">
@@ -4627,24 +4631,24 @@
         <v>1</v>
       </c>
       <c r="C84" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D84" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A85" s="57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B85" s="67">
         <v>1</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D85" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.5">
@@ -4655,52 +4659,52 @@
         <v>0.7</v>
       </c>
       <c r="C86" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D86" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A87" s="57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B87" s="64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C87" s="63" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D87" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A88" s="57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B88" s="67">
         <v>100</v>
       </c>
       <c r="C88" s="63" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D88" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A89" s="57" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B89" s="103">
         <v>7.8364363403955501E-6</v>
       </c>
       <c r="C89" s="63" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D89" s="64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.5">

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0A0513-DD45-463F-B704-8D17952D5728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C9DDB-AA3E-4F58-94CF-9DA2FCE0D3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1356" yWindow="-96" windowWidth="21780" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="269">
   <si>
     <t>Key</t>
   </si>
@@ -889,23 +889,20 @@
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080522.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25/05/2008</t>
-  </si>
-  <si>
     <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
-    <t>head_development, head_development_segments, modflowWaterLevel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 30/06/2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26/05/2008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,46 +949,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibre Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibre Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibre Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibre Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibre Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibre Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="10"/>
@@ -1002,6 +959,40 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -1333,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1378,52 +1369,11 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,7 +1385,7 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1409,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,7 +1425,7 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1494,7 +1444,7 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1508,41 +1458,10 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,6 +1475,66 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1947,489 +1926,487 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.62890625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="47.62890625" style="99" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="94" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="95" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.3671875" style="96" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="96" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="96"/>
+    <col min="1" max="1" width="29.62890625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="47.62890625" style="89" customWidth="1"/>
+    <col min="3" max="3" width="59.41796875" style="84" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.3671875" style="86" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89453125" style="86" customWidth="1"/>
+    <col min="8" max="8" width="8.89453125" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="104" customFormat="1" ht="18" x14ac:dyDescent="0.65">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:6" s="78" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="78" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="85"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="87">
+        <v>8</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="89">
+        <v>45</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="92" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="93" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="95"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="97">
+      <c r="C12" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="98" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="99">
-        <v>45</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="94" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="101" t="s">
+      <c r="C19" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="94" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="54" t="b">
+      <c r="C23" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="103" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="85">
+        <v>0.15</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="89" t="b">
         <v>1</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="48" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="89">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="73" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="A32" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="93" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="100">
-        <v>0.15</v>
-      </c>
-      <c r="C25" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="99" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="96" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="99">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="99">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="99">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="88" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A32" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="91" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A33" s="96" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="102" t="s">
+      <c r="E33" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="102" t="s">
+      <c r="F33" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="K33" s="96" t="s">
+      <c r="K33" s="86" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3449,1267 +3426,1267 @@
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="33.734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.3671875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="57"/>
+    <col min="1" max="1" width="33.734375" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.3671875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="59.41796875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89453125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="8.89453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="45" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="49" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="50">
         <v>10</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="52">
         <v>60</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="49" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="49" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="69" t="s">
+    <row r="14" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="69" t="s">
+    <row r="15" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="73" t="s">
+    <row r="17" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="73" t="s">
+    <row r="18" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="73" t="s">
+    <row r="19" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="76" t="b">
+      <c r="B20" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="75" t="s">
+    <row r="21" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="80" t="s">
+      <c r="F21" s="65" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="75" t="s">
+    <row r="22" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="76" t="b">
+      <c r="B22" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="63" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="63" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="75" t="s">
+    <row r="24" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="63" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="79" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="75" t="s">
+    <row r="25" spans="1:6" s="64" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="88" t="s">
+    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="89">
+      <c r="B26" s="74">
         <v>0.15</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="73" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="88" t="s">
+    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="91" t="b">
+      <c r="B27" s="76" t="b">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="74" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="88" t="s">
+    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="74" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="88" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="88" t="s">
+    <row r="29" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="91">
+      <c r="B29" s="76">
         <v>1</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="74" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="82" t="s">
+    <row r="30" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="82" t="s">
+    <row r="32" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="68" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="85" t="s">
+      <c r="D33" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="82" t="s">
+    <row r="34" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="67" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="82" t="s">
+    <row r="35" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="85" t="s">
+      <c r="D35" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="86" t="s">
+    <row r="36" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="85" t="s">
+      <c r="D36" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="86" t="s">
+    <row r="37" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="86" t="s">
+    <row r="38" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="85" t="s">
+      <c r="D38" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="86" t="s">
+    <row r="39" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="86" t="s">
+    <row r="40" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="85" t="s">
+      <c r="D40" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="86" t="s">
+    <row r="41" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="86" t="s">
+    <row r="42" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="83" t="s">
+      <c r="B42" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D42" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="86" t="s">
+    <row r="43" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D43" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="86" t="s">
+    <row r="44" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="86" t="s">
+    <row r="45" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="86" t="s">
+    <row r="46" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="85" t="s">
+      <c r="D46" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="86" t="s">
+    <row r="47" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="85" t="s">
+      <c r="D47" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="86" t="s">
+    <row r="48" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="85" t="s">
+      <c r="D48" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="86" t="s">
+    <row r="49" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="85"/>
-    </row>
-    <row r="50" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="86" t="s">
+      <c r="E49" s="70"/>
+    </row>
+    <row r="50" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="86" t="s">
+    <row r="51" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="86" t="s">
+    <row r="52" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="84" t="s">
+      <c r="C52" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="85" t="s">
+      <c r="D52" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="86" t="s">
+    <row r="53" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C53" s="84" t="s">
+      <c r="C53" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="86" t="s">
+    <row r="54" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="86" t="s">
+    <row r="55" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="86" t="s">
+    <row r="56" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="85" t="s">
+      <c r="D56" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="86" t="s">
+    <row r="57" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D57" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="86" t="s">
+    <row r="58" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="85" t="s">
+      <c r="D58" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="86" t="s">
+    <row r="59" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="86" t="s">
+    <row r="60" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="84" t="s">
+      <c r="C60" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="85" t="s">
+      <c r="D60" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="86" t="s">
+    <row r="61" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C61" s="84" t="s">
+      <c r="C61" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="86" t="s">
+    <row r="62" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="C62" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="86" t="s">
+    <row r="63" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="C63" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="85" t="s">
+      <c r="D63" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="86" t="s">
+    <row r="64" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="84" t="s">
+      <c r="C64" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D64" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="86" t="s">
+    <row r="65" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A65" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="84" t="s">
+      <c r="C65" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="85" t="s">
+      <c r="D65" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="86" t="s">
+    <row r="66" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="85" t="s">
+      <c r="D66" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="86" t="s">
+    <row r="67" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A67" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="85" t="s">
+      <c r="D67" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="E67" s="85"/>
-    </row>
-    <row r="68" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="86" t="s">
+      <c r="E67" s="70"/>
+    </row>
+    <row r="68" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A68" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="83" t="s">
+      <c r="B68" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="86" t="s">
+    <row r="69" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A69" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="84" t="s">
+      <c r="C69" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="85" t="s">
+      <c r="D69" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="86" t="s">
+    <row r="70" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="84" t="s">
+      <c r="C70" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="85" t="s">
+      <c r="D70" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="86" t="s">
+    <row r="71" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="85" t="s">
+      <c r="D71" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="86" t="s">
+    <row r="72" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A72" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="84" t="s">
+      <c r="C72" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="86" t="s">
+    <row r="73" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A73" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="87" t="s">
+      <c r="B73" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D73" s="85" t="s">
+      <c r="D73" s="70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="86" t="s">
+    <row r="74" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A74" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="87" t="b">
+      <c r="B74" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="85" t="s">
+      <c r="D74" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="86" t="s">
+    <row r="75" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="B75" s="87" t="b">
+      <c r="B75" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="C75" s="84" t="s">
+      <c r="C75" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="D75" s="85" t="s">
+      <c r="D75" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="86" t="s">
+    <row r="76" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A76" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="87" t="b">
+      <c r="B76" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="D76" s="85" t="s">
+      <c r="D76" s="70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="86" t="s">
+    <row r="77" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A77" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="B77" s="87" t="b">
+      <c r="B77" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="D77" s="70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="86" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="86" t="s">
+    <row r="78" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A78" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="B78" s="87" t="b">
+      <c r="B78" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="C78" s="84" t="s">
+      <c r="C78" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="70" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A79" s="57" t="s">
+      <c r="A79" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="67" t="s">
+      <c r="B79" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="63" t="s">
+      <c r="C79" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="D79" s="49" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="67">
+      <c r="B80" s="52">
         <v>0.2</v>
       </c>
-      <c r="C80" s="63" t="s">
+      <c r="C80" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D80" s="64" t="s">
+      <c r="D80" s="49" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A81" s="57" t="s">
+      <c r="A81" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="67">
+      <c r="B81" s="52">
         <v>0.2</v>
       </c>
-      <c r="C81" s="63" t="s">
+      <c r="C81" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="64" t="s">
+      <c r="D81" s="49" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A82" s="57" t="s">
+      <c r="A82" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="67">
+      <c r="B82" s="52">
         <v>1</v>
       </c>
-      <c r="C82" s="63" t="s">
+      <c r="C82" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D82" s="64" t="s">
+      <c r="D82" s="49" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A83" s="57" t="s">
+      <c r="A83" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B83" s="67">
+      <c r="B83" s="52">
         <v>1</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="D83" s="49" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A84" s="57" t="s">
+      <c r="A84" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B84" s="67">
+      <c r="B84" s="52">
         <v>1</v>
       </c>
-      <c r="C84" s="63" t="s">
+      <c r="C84" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="49" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B85" s="67">
+      <c r="B85" s="52">
         <v>1</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="49" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A86" s="57" t="s">
+      <c r="A86" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="67">
+      <c r="B86" s="52">
         <v>0.7</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="D86" s="64" t="s">
+      <c r="D86" s="49" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="D87" s="57" t="s">
+      <c r="D87" s="42" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B88" s="67">
+      <c r="B88" s="52">
         <v>100</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="64" t="s">
+      <c r="D88" s="49" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="B89" s="103">
+      <c r="B89" s="77">
         <v>7.8364363403955501E-6</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D89" s="64" t="s">
+      <c r="D89" s="49" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C9DDB-AA3E-4F58-94CF-9DA2FCE0D3A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF044393-45F2-4DCB-96F5-C5515901171B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="-96" windowWidth="21780" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="1338" yWindow="-96" windowWidth="21798" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="273">
   <si>
     <t>Key</t>
   </si>
@@ -724,9 +724,6 @@
     <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness, adminSegments, reservoir_command_areas, lift_command_areas, availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20100530.nc</t>
-  </si>
-  <si>
     <t>poro</t>
   </si>
   <si>
@@ -880,29 +877,44 @@
     <t>Specific yield, %</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/06/2008</t>
-  </si>
-  <si>
     <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080522.nc</t>
   </si>
   <si>
-    <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30/06/2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26/05/2008</t>
+    <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir</t>
+  </si>
+  <si>
+    <t>fraction_IncreaseIrrigation_Nonpaddy</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080531.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/2015</t>
+  </si>
+  <si>
+    <t>humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, industryDemand, livestockDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
+  </si>
+  <si>
+    <t>precipEffectiveAverage_woBare_segments</t>
+  </si>
+  <si>
+    <t>ETRefAverage_segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,31 +961,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
     <font>
@@ -981,20 +978,48 @@
       <i/>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibre Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibre Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibre Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
-      <name val="Trebuchet MS"/>
+      <name val="Calibre Medium"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1369,172 +1394,172 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1922,17 +1947,17 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="29.62890625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="47.62890625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="69.26171875" style="89" customWidth="1"/>
     <col min="3" max="3" width="59.41796875" style="84" customWidth="1"/>
     <col min="4" max="4" width="21.41796875" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.3671875" style="86" customWidth="1"/>
@@ -1942,29 +1967,29 @@
     <col min="9" max="16384" width="8.83984375" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="78" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:6" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.65">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -1973,7 +1998,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="82" t="s">
         <v>9</v>
       </c>
@@ -1987,12 +2012,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="82" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>145</v>
@@ -2002,12 +2027,12 @@
       </c>
       <c r="F4" s="85"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="87">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>103</v>
@@ -2016,7 +2041,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="82" t="s">
         <v>17</v>
       </c>
@@ -2030,11 +2055,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="85"/>
+      <c r="B7" s="85" t="s">
+        <v>268</v>
+      </c>
       <c r="C7" s="84" t="s">
         <v>151</v>
       </c>
@@ -2042,9 +2069,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="86"/>
       <c r="C8" s="84" t="s">
@@ -2054,14 +2081,16 @@
         <v>149</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="87" t="s">
+        <v>269</v>
+      </c>
       <c r="C9" s="84" t="s">
         <v>152</v>
       </c>
@@ -2072,11 +2101,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="87" t="s">
+        <v>270</v>
+      </c>
       <c r="C10" s="84" t="s">
         <v>155</v>
       </c>
@@ -2087,7 +2118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="82" t="s">
         <v>25</v>
       </c>
@@ -2102,12 +2133,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="82" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>156</v>
@@ -2119,7 +2150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A13" s="91" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2164,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="91" t="s">
         <v>7</v>
       </c>
@@ -2147,7 +2178,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="95" t="s">
         <v>43</v>
       </c>
@@ -2161,7 +2192,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="95" t="s">
         <v>3</v>
       </c>
@@ -2175,7 +2206,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A17" s="95" t="s">
         <v>158</v>
       </c>
@@ -2189,7 +2220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="95" t="s">
         <v>160</v>
       </c>
@@ -2203,7 +2234,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A19" s="97" t="s">
         <v>11</v>
       </c>
@@ -2223,12 +2254,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A20" s="97" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>132</v>
@@ -2237,7 +2268,7 @@
         <v>133</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="F20" s="101" t="s">
         <v>197</v>
@@ -2246,12 +2277,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A21" s="97" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>96</v>
@@ -2260,7 +2291,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="97" t="s">
         <v>14</v>
       </c>
@@ -2274,11 +2305,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A23" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="83" t="s">
         <v>267</v>
       </c>
       <c r="C23" s="99" t="s">
@@ -2288,7 +2319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A24" s="97" t="s">
         <v>44</v>
       </c>
@@ -2311,7 +2342,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="86" t="s">
         <v>49</v>
       </c>
@@ -2325,7 +2356,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" s="86" t="s">
         <v>168</v>
       </c>
@@ -2333,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" s="86" t="s">
         <v>190</v>
       </c>
@@ -2341,7 +2372,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" s="86" t="s">
         <v>191</v>
       </c>
@@ -2349,7 +2380,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" s="86" t="s">
         <v>192</v>
       </c>
@@ -2357,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="86" t="s">
         <v>193</v>
       </c>
@@ -2365,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" s="86" t="s">
         <v>194</v>
       </c>
@@ -2373,32 +2404,32 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="73" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="A32" s="73" t="s">
+    <row r="32" spans="1:11" s="71" customFormat="1" ht="12.6" x14ac:dyDescent="0.45">
+      <c r="A32" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="76" t="b">
+      <c r="B32" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="74" t="s">
+      <c r="C32" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="72" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="86" t="s">
         <v>187</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>215</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>216</v>
       </c>
       <c r="E33" s="89" t="s">
         <v>189</v>
@@ -2408,6 +2439,14 @@
       </c>
       <c r="K33" s="86" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A34" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="89">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3426,1267 +3465,1267 @@
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.734375" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.3671875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="42"/>
+    <col min="1" max="1" width="33.734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.3671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="59.41796875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="21.41796875" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.578125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.89453125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.89453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83984375" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="54">
+        <v>10</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="56">
+        <v>60</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="72">
+        <v>0.15</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="74">
+        <v>1</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="78"/>
+    </row>
+    <row r="50" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="78"/>
+    </row>
+    <row r="68" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="79" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B78" s="80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="56">
+        <v>0.2</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B82" s="56">
+        <v>1</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="56">
+        <v>1</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="56">
+        <v>1</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="56">
+        <v>1</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B86" s="56">
+        <v>0.7</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="56">
+        <v>100</v>
+      </c>
+      <c r="C88" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="50">
-        <v>10</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="52">
-        <v>60</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="64" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="73" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="76" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="76">
-        <v>1</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="69" t="s">
+      <c r="D88" s="53" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>252</v>
-      </c>
-      <c r="C34" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="70"/>
-    </row>
-    <row r="50" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D50" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D51" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C52" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="B53" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D54" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B65" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="70"/>
-    </row>
-    <row r="68" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B70" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="71" t="s">
-        <v>242</v>
-      </c>
-      <c r="B71" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="C71" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A73" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="C74" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="C75" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="C76" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" s="70" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="C77" s="69" t="s">
-        <v>230</v>
-      </c>
-      <c r="D77" s="70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="71" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="C78" s="69" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A79" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A80" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="B80" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D80" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A81" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B81" s="52">
-        <v>0.2</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D81" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A82" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B82" s="52">
-        <v>1</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A83" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B83" s="52">
-        <v>1</v>
-      </c>
-      <c r="C83" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D83" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A84" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B84" s="52">
-        <v>1</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A85" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B85" s="52">
-        <v>1</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="D85" s="49" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A86" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A87" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A88" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88" s="52">
-        <v>100</v>
-      </c>
-      <c r="C88" s="48" t="s">
+      <c r="B89" s="81">
+        <v>7.8364363403955501E-6</v>
+      </c>
+      <c r="C89" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A89" s="42" t="s">
+      <c r="D89" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B89" s="77">
-        <v>7.8364363403955501E-6</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF044393-45F2-4DCB-96F5-C5515901171B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF74E2-FE01-4D7B-B1B7-79189D5C77D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1338" yWindow="-96" windowWidth="21798" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="5454" yWindow="3228" windowWidth="15198" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Variables_list" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="275">
   <si>
     <t>Key</t>
   </si>
@@ -892,9 +893,6 @@
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080531.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/2015</t>
-  </si>
-  <si>
     <t>humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, industryDemand, livestockDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
   </si>
   <si>
@@ -904,10 +902,19 @@
     <t>ETRefAverage_segments</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/05/1998</t>
+    <t>modflowWaterLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30/05/2003</t>
+  </si>
+  <si>
+    <t>Bhima_steady_17Oct.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31/12/1999</t>
   </si>
 </sst>
 </file>
@@ -1949,9 +1956,9 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1989,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -2017,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>145</v>
@@ -2059,21 +2066,26 @@
       <c r="A7" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>268</v>
+      <c r="B7" s="86" t="s">
+        <v>267</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="85" t="s">
         <v>149</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="86"/>
+      <c r="B8" s="86" t="s">
+        <v>270</v>
+      </c>
       <c r="C8" s="84" t="s">
         <v>150</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>152</v>
@@ -2106,7 +2118,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="84" t="s">
         <v>155</v>
@@ -2282,7 +2294,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>96</v>
@@ -2310,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>105</v>
@@ -2355,6 +2367,9 @@
       <c r="D25" s="85" t="s">
         <v>130</v>
       </c>
+      <c r="E25" s="86" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" s="86" t="s">
@@ -2423,7 +2438,7 @@
         <v>187</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="73" t="s">
         <v>214</v>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BF74E2-FE01-4D7B-B1B7-79189D5C77D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C63233-D677-472D-9889-2356D40A5733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5454" yWindow="3228" windowWidth="15198" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="1104" yWindow="-96" windowWidth="22032" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Variables_list" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="277">
   <si>
     <t>Key</t>
   </si>
@@ -719,9 +718,6 @@
     <t>automaticFallowingIrr</t>
   </si>
   <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_17Oct.hds</t>
-  </si>
-  <si>
     <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness, adminSegments, reservoir_command_areas, lift_command_areas, availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
@@ -884,37 +880,46 @@
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080522.nc</t>
   </si>
   <si>
-    <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir</t>
-  </si>
-  <si>
     <t>fraction_IncreaseIrrigation_Nonpaddy</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080531.nc</t>
-  </si>
-  <si>
     <t>humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, industryDemand, livestockDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
   </si>
   <si>
-    <t>precipEffectiveAverage_woBare_segments</t>
-  </si>
-  <si>
-    <t>ETRefAverage_segments</t>
-  </si>
-  <si>
-    <t>modflowWaterLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30/05/2003</t>
-  </si>
-  <si>
     <t>Bhima_steady_17Oct.hds</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/01/1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31/12/1999</t>
+    <t>modflowWaterLevel, head_development, lakeResStorage</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/landsurface/UBB_built-up_res_2015.nc</t>
+  </si>
+  <si>
+    <t>gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
+  </si>
+  <si>
+    <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir, lift_command_areas, reservoir_command_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/05/1993</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_preMonsoon.hds</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_preMonsoon.nc</t>
+  </si>
+  <si>
+    <t>Bhima_preMonsoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/11/2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/2003</t>
   </si>
 </sst>
 </file>
@@ -1954,11 +1959,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1988,7 +1993,7 @@
         <v>128</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -1996,7 +2001,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -2024,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>145</v>
@@ -2039,7 +2044,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>103</v>
@@ -2053,7 +2058,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="89">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>98</v>
@@ -2067,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>151</v>
@@ -2076,15 +2081,15 @@
         <v>149</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>150</v>
@@ -2093,16 +2098,14 @@
         <v>149</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>268</v>
-      </c>
+      <c r="B9" s="87"/>
       <c r="C9" s="84" t="s">
         <v>152</v>
       </c>
@@ -2117,9 +2120,7 @@
       <c r="A10" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="87" t="s">
-        <v>269</v>
-      </c>
+      <c r="B10" s="87"/>
       <c r="C10" s="84" t="s">
         <v>155</v>
       </c>
@@ -2150,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>156</v>
@@ -2159,7 +2160,7 @@
         <v>149</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
@@ -2203,6 +2204,9 @@
       <c r="D15" s="94" t="s">
         <v>135</v>
       </c>
+      <c r="E15" s="95" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A16" s="95" t="s">
@@ -2271,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>132</v>
@@ -2280,7 +2284,7 @@
         <v>133</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F20" s="101" t="s">
         <v>197</v>
@@ -2322,7 +2326,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>105</v>
@@ -2336,7 +2340,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="C24" s="99" t="s">
         <v>131</v>
@@ -2359,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="85">
-        <v>0.15</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>127</v>
@@ -2368,7 +2372,7 @@
         <v>130</v>
       </c>
       <c r="E25" s="86" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
@@ -2376,7 +2380,10 @@
         <v>168</v>
       </c>
       <c r="B26" s="89" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C26" s="84" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
@@ -2384,7 +2391,10 @@
         <v>190</v>
       </c>
       <c r="B27" s="89">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
@@ -2392,7 +2402,10 @@
         <v>191</v>
       </c>
       <c r="B28" s="89">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
@@ -2427,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D32" s="72" t="s">
         <v>134</v>
@@ -2438,13 +2451,13 @@
         <v>187</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C33" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>214</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>215</v>
       </c>
       <c r="E33" s="89" t="s">
         <v>189</v>
@@ -2458,10 +2471,18 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B34" s="89">
         <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A35" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3480,7 +3501,7 @@
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
@@ -3501,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>93</v>
@@ -3851,7 +3872,7 @@
         <v>127</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
@@ -3890,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D29" s="72" t="s">
         <v>139</v>
@@ -3898,10 +3919,10 @@
     </row>
     <row r="30" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="76" t="s">
         <v>242</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>243</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>99</v>
@@ -3912,13 +3933,13 @@
     </row>
     <row r="31" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>129</v>
@@ -3926,13 +3947,13 @@
     </row>
     <row r="32" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>129</v>
@@ -3940,13 +3961,13 @@
     </row>
     <row r="33" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>243</v>
-      </c>
       <c r="C33" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D33" s="78" t="s">
         <v>129</v>
@@ -3954,13 +3975,13 @@
     </row>
     <row r="34" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>129</v>
@@ -3968,10 +3989,10 @@
     </row>
     <row r="35" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>247</v>
-      </c>
-      <c r="B35" s="76" t="s">
-        <v>248</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>100</v>
@@ -4207,10 +4228,10 @@
     </row>
     <row r="52" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" s="77" t="s">
         <v>125</v>
@@ -4221,10 +4242,10 @@
     </row>
     <row r="53" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>239</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>125</v>
@@ -4460,10 +4481,10 @@
     </row>
     <row r="70" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C70" s="77" t="s">
         <v>126</v>
@@ -4474,10 +4495,10 @@
     </row>
     <row r="71" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C71" s="77" t="s">
         <v>126</v>
@@ -4522,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74" s="78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
@@ -4536,10 +4557,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
@@ -4550,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" s="78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
@@ -4564,7 +4585,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="78" t="s">
         <v>134</v>
@@ -4578,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="78" t="s">
         <v>134</v>
@@ -4592,10 +4613,10 @@
         <v>188</v>
       </c>
       <c r="C79" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D79" s="53" t="s">
         <v>214</v>
-      </c>
-      <c r="D79" s="53" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -4606,10 +4627,10 @@
         <v>0.2</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -4620,10 +4641,10 @@
         <v>0.2</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -4634,24 +4655,24 @@
         <v>1</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B83" s="56">
         <v>1</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -4662,24 +4683,24 @@
         <v>1</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B85" s="56">
         <v>1</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -4690,52 +4711,52 @@
         <v>0.7</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="B87" s="53" t="s">
-        <v>212</v>
-      </c>
       <c r="C87" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B88" s="56">
         <v>100</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B89" s="81">
         <v>7.8364363403955501E-6</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C63233-D677-472D-9889-2356D40A5733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D292DA-EC0F-46B4-B86B-DB581D98710D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="-96" windowWidth="22032" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="22248" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="279">
   <si>
     <t>Key</t>
   </si>
@@ -682,9 +682,6 @@
     <t>Bhima_steady_03Oct</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20010503.nc</t>
-  </si>
-  <si>
     <t>$(FILE_PATHS:PathMaps)/init/Bhima_20011001.nc</t>
   </si>
   <si>
@@ -877,33 +874,18 @@
     <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20080522.nc</t>
-  </si>
-  <si>
     <t>fraction_IncreaseIrrigation_Nonpaddy</t>
   </si>
   <si>
-    <t>humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, industryDemand, livestockDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
-  </si>
-  <si>
-    <t>Bhima_steady_17Oct.hds</t>
-  </si>
-  <si>
     <t>modflowWaterLevel, head_development, lakeResStorage</t>
   </si>
   <si>
     <t>$(FILE_PATHS:PathMaps)/landsurface/UBB_built-up_res_2015.nc</t>
   </si>
   <si>
-    <t>gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
-  </si>
-  <si>
     <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir, lift_command_areas, reservoir_command_areas</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/05/1993</t>
-  </si>
-  <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_preMonsoon.hds</t>
   </si>
   <si>
@@ -916,10 +898,34 @@
     <t xml:space="preserve">FUSE </t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/11/2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/01/2003</t>
+    <t>Bhima_20030615</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20030615.nc</t>
+  </si>
+  <si>
+    <t>, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20001101.nc</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_postMonsoon.hds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/2001</t>
+  </si>
+  <si>
+    <t>gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/01/2004</t>
   </si>
 </sst>
 </file>
@@ -1959,11 +1965,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1993,7 +1999,7 @@
         <v>128</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -2001,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -2015,7 +2021,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>146</v>
@@ -2029,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>145</v>
@@ -2044,13 +2050,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -2066,13 +2072,16 @@
       <c r="D6" s="88" t="s">
         <v>124</v>
       </c>
+      <c r="E6" s="86" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>151</v>
@@ -2081,15 +2090,15 @@
         <v>149</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>150</v>
@@ -2098,7 +2107,7 @@
         <v>149</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -2113,7 +2122,7 @@
         <v>149</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -2128,7 +2137,7 @@
         <v>149</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
@@ -2143,7 +2152,7 @@
         <v>149</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -2151,7 +2160,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>156</v>
@@ -2160,7 +2169,7 @@
         <v>149</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
@@ -2205,7 +2214,7 @@
         <v>135</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
@@ -2264,10 +2273,10 @@
         <v>134</v>
       </c>
       <c r="E19" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" s="101" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
@@ -2275,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>132</v>
@@ -2284,10 +2293,10 @@
         <v>133</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="K20" s="101" t="s">
         <v>195</v>
@@ -2298,13 +2307,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="100" t="s">
         <v>134</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
@@ -2326,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>105</v>
@@ -2340,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C24" s="99" t="s">
         <v>131</v>
@@ -2349,7 +2361,7 @@
         <v>133</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="G24" s="102" t="s">
         <v>196</v>
@@ -2363,7 +2375,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="85">
-        <v>0.13500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>127</v>
@@ -2371,7 +2383,7 @@
       <c r="D25" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="86" t="s">
+      <c r="E25" s="103" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2380,10 +2392,10 @@
         <v>168</v>
       </c>
       <c r="B26" s="89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
@@ -2391,10 +2403,10 @@
         <v>190</v>
       </c>
       <c r="B27" s="89">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
@@ -2402,10 +2414,10 @@
         <v>191</v>
       </c>
       <c r="B28" s="89">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
@@ -2413,7 +2425,7 @@
         <v>192</v>
       </c>
       <c r="B29" s="89">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
@@ -2426,64 +2438,78 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A32" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="89">
+      <c r="B32" s="89">
         <v>0.7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="71" customFormat="1" ht="12.6" x14ac:dyDescent="0.45">
-      <c r="A32" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="74" t="b">
+    <row r="33" spans="1:11" s="71" customFormat="1" ht="12.6" x14ac:dyDescent="0.45">
+      <c r="A33" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="B33" s="74" t="b">
         <v>1</v>
       </c>
-      <c r="C32" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="D32" s="72" t="s">
+      <c r="C33" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A33" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="K34" s="86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A35" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A36" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="B34" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A35" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>267</v>
-      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A37" s="84"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2501,7 +2527,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
@@ -3391,7 +3417,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="23">
         <v>6</v>
@@ -3433,7 +3459,7 @@
         <v>0.2</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.5">
@@ -3442,7 +3468,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="23">
         <v>11</v>
@@ -3522,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>93</v>
@@ -3872,7 +3898,7 @@
         <v>127</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
@@ -3911,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D29" s="72" t="s">
         <v>139</v>
@@ -3919,10 +3945,10 @@
     </row>
     <row r="30" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="76" t="s">
         <v>241</v>
-      </c>
-      <c r="B30" s="76" t="s">
-        <v>242</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>99</v>
@@ -3933,13 +3959,13 @@
     </row>
     <row r="31" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>129</v>
@@ -3947,13 +3973,13 @@
     </row>
     <row r="32" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>129</v>
@@ -3961,13 +3987,13 @@
     </row>
     <row r="33" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>242</v>
-      </c>
       <c r="C33" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D33" s="78" t="s">
         <v>129</v>
@@ -3975,13 +4001,13 @@
     </row>
     <row r="34" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D34" s="78" t="s">
         <v>129</v>
@@ -3989,10 +4015,10 @@
     </row>
     <row r="35" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>246</v>
-      </c>
-      <c r="B35" s="76" t="s">
-        <v>247</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>100</v>
@@ -4228,10 +4254,10 @@
     </row>
     <row r="52" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="77" t="s">
         <v>125</v>
@@ -4242,10 +4268,10 @@
     </row>
     <row r="53" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="76" t="s">
         <v>237</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>238</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>125</v>
@@ -4481,10 +4507,10 @@
     </row>
     <row r="70" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="79" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="77" t="s">
         <v>126</v>
@@ -4495,10 +4521,10 @@
     </row>
     <row r="71" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C71" s="77" t="s">
         <v>126</v>
@@ -4543,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D74" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
@@ -4557,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
@@ -4571,21 +4597,21 @@
         <v>0</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B77" s="80" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="78" t="s">
         <v>134</v>
@@ -4593,13 +4619,13 @@
     </row>
     <row r="78" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" s="80" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="78" t="s">
         <v>134</v>
@@ -4613,10 +4639,10 @@
         <v>188</v>
       </c>
       <c r="C79" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="53" t="s">
         <v>213</v>
-      </c>
-      <c r="D79" s="53" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -4627,10 +4653,10 @@
         <v>0.2</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -4641,10 +4667,10 @@
         <v>0.2</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
@@ -4655,24 +4681,24 @@
         <v>1</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B83" s="56">
         <v>1</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
@@ -4683,24 +4709,24 @@
         <v>1</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85" s="56">
         <v>1</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -4711,52 +4737,52 @@
         <v>0.7</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="53" t="s">
-        <v>211</v>
-      </c>
       <c r="C87" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B88" s="56">
         <v>100</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B89" s="81">
         <v>7.8364363403955501E-6</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D292DA-EC0F-46B4-B86B-DB581D98710D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25785C4F-F2A2-4724-AC61-06046CFAECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="22248" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="21864" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="287">
   <si>
     <t>Key</t>
   </si>
@@ -877,15 +877,9 @@
     <t>fraction_IncreaseIrrigation_Nonpaddy</t>
   </si>
   <si>
-    <t>modflowWaterLevel, head_development, lakeResStorage</t>
-  </si>
-  <si>
     <t>$(FILE_PATHS:PathMaps)/landsurface/UBB_built-up_res_2015.nc</t>
   </si>
   <si>
-    <t>waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir, lift_command_areas, reservoir_command_areas</t>
-  </si>
-  <si>
     <t>$(PathGroundwaterModflowOutput)/Bhima_steady_preMonsoon.hds</t>
   </si>
   <si>
@@ -919,13 +913,43 @@
     <t>gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/01/2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/01/2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/01/2004</t>
+    <t>Reservoir_releases_input_file</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/reservoirOperations_Bhima_July6.nc</t>
+  </si>
+  <si>
+    <t>preferentialFlowConstant</t>
+  </si>
+  <si>
+    <t>soildepth_factor</t>
+  </si>
+  <si>
+    <t>$(PathGroundwaterModflowOutput)/Bhima_11July2021.hds</t>
+  </si>
+  <si>
+    <t>waterBodyElec</t>
+  </si>
+  <si>
+    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/createIndustryDemandInput_totalend.nc</t>
+  </si>
+  <si>
+    <t>crop_correct</t>
+  </si>
+  <si>
+    <t>irrWithdrawalGW_max, modflowWaterLevel, head_development, lakeResStorage, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month</t>
+  </si>
+  <si>
+    <t>gwAbstractionFraction_Irr, unmetDomestic, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
+  </si>
+  <si>
+    <t>irrWithdrawalSW_max, irrWithdrawalGW_max, waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir, lift_command_areas, reservoir_command_areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/06/2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/06/2004</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1578,6 +1602,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1965,11 +1995,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2007,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -2021,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>146</v>
@@ -2035,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>145</v>
@@ -2050,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="87">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>103</v>
@@ -2064,7 +2094,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="89">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>98</v>
@@ -2073,7 +2103,7 @@
         <v>124</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
@@ -2081,16 +2111,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>151</v>
+        <v>283</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>273</v>
       </c>
       <c r="D7" s="85" t="s">
         <v>149</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
@@ -2098,7 +2128,7 @@
         <v>234</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>150</v>
@@ -2160,7 +2190,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>156</v>
@@ -2214,7 +2244,7 @@
         <v>135</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
@@ -2273,7 +2303,7 @@
         <v>134</v>
       </c>
       <c r="E19" s="101" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F19" s="101" t="s">
         <v>197</v>
@@ -2284,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C20" s="99" t="s">
         <v>132</v>
@@ -2293,10 +2323,10 @@
         <v>133</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K20" s="101" t="s">
         <v>195</v>
@@ -2316,7 +2346,7 @@
         <v>134</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
@@ -2338,7 +2368,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" s="99" t="s">
         <v>105</v>
@@ -2352,7 +2382,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C24" s="99" t="s">
         <v>131</v>
@@ -2361,7 +2391,7 @@
         <v>133</v>
       </c>
       <c r="E24" s="103" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G24" s="102" t="s">
         <v>196</v>
@@ -2375,7 +2405,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="85">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C25" s="84" t="s">
         <v>127</v>
@@ -2384,7 +2414,7 @@
         <v>130</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
@@ -2395,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
@@ -2403,10 +2433,10 @@
         <v>190</v>
       </c>
       <c r="B27" s="89">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
@@ -2414,10 +2444,10 @@
         <v>191</v>
       </c>
       <c r="B28" s="89">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
@@ -2425,7 +2455,7 @@
         <v>192</v>
       </c>
       <c r="B29" s="89">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
@@ -2441,7 +2471,7 @@
         <v>220</v>
       </c>
       <c r="B31" s="89">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
@@ -2502,14 +2532,94 @@
         <v>245</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
+      <c r="A37" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="85">
+        <v>3.5</v>
+      </c>
       <c r="C37" s="86"/>
       <c r="D37" s="86"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A38" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A39" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="89">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C39" s="84">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A40" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="104">
+        <v>1.5E-6</v>
+      </c>
+      <c r="C40" s="105">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A41" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A42" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" s="89">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A43" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A44" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="89">
+        <v>1.2</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A45" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="89">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3526,8 +3636,8 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="A90:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
@@ -4785,7 +4895,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+      <c r="A90" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B90" s="89" t="s">
+        <v>275</v>
+      </c>
       <c r="C90" s="46"/>
       <c r="D90" s="46"/>
     </row>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25785C4F-F2A2-4724-AC61-06046CFAECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF97B6CE-14DE-4357-91C1-0C49BC152F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21864" windowHeight="13152" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="6774" yWindow="2958" windowWidth="15198" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="294">
   <si>
     <t>Key</t>
   </si>
@@ -937,19 +937,40 @@
     <t>crop_correct</t>
   </si>
   <si>
-    <t>irrWithdrawalGW_max, modflowWaterLevel, head_development, lakeResStorage, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month</t>
-  </si>
-  <si>
-    <t>gwAbstractionFraction_Irr, unmetDomestic, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
+    <t xml:space="preserve"> 01/06/2013</t>
   </si>
   <si>
     <t>irrWithdrawalSW_max, irrWithdrawalGW_max, waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir, lift_command_areas, reservoir_command_areas</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/06/2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15/06/2004</t>
+    <t>gw_agents_month_m3</t>
+  </si>
+  <si>
+    <t>sw_agents_month_m3</t>
+  </si>
+  <si>
+    <t>$(PathWaterdemand)/gw_6.nc</t>
+  </si>
+  <si>
+    <t>$(PathWaterdemand)/sw_6.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/05/2013</t>
+  </si>
+  <si>
+    <t>ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month, gwAbstractionFraction_Irr, unmetDomestic, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
+  </si>
+  <si>
+    <t>ETRefAverage_segments</t>
+  </si>
+  <si>
+    <t>precipEffectiveAverage_woBare_segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/10/2013</t>
+  </si>
+  <si>
+    <t>ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, irrWithdrawalGW_max, modflowWaterLevel, head_development, lakeResStorage, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month</t>
   </si>
 </sst>
 </file>
@@ -1995,11 +2016,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2037,7 +2058,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -2051,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>146</v>
@@ -2065,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>145</v>
@@ -2080,7 +2101,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="87">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>103</v>
@@ -2094,7 +2115,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="89">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>98</v>
@@ -2111,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>273</v>
@@ -2128,7 +2149,7 @@
         <v>234</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>150</v>
@@ -2144,7 +2165,9 @@
       <c r="A9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="87" t="s">
+        <v>291</v>
+      </c>
       <c r="C9" s="84" t="s">
         <v>152</v>
       </c>
@@ -2159,7 +2182,9 @@
       <c r="A10" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="87" t="s">
+        <v>290</v>
+      </c>
       <c r="C10" s="84" t="s">
         <v>155</v>
       </c>
@@ -2190,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>156</v>
@@ -2433,7 +2458,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="89">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C27" s="84" t="s">
         <v>266</v>
@@ -2471,7 +2496,7 @@
         <v>220</v>
       </c>
       <c r="B31" s="89">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
@@ -2619,6 +2644,22 @@
       </c>
       <c r="B45" s="89">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A46" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A47" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF97B6CE-14DE-4357-91C1-0C49BC152F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE514A4-F44B-4E93-A8E2-D3B7CE33A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6774" yWindow="2958" windowWidth="15198" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="296">
   <si>
     <t>Key</t>
   </si>
@@ -955,22 +955,28 @@
     <t>$(PathWaterdemand)/sw_6.nc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15/05/2013</t>
-  </si>
-  <si>
-    <t>ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month, gwAbstractionFraction_Irr, unmetDomestic, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
-  </si>
-  <si>
     <t>ETRefAverage_segments</t>
   </si>
   <si>
     <t>precipEffectiveAverage_woBare_segments</t>
   </si>
   <si>
+    <t>ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, irrWithdrawalGW_max, modflowWaterLevel, head_development, lakeResStorage, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25/04/2013</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 01/10/2013</t>
   </si>
   <si>
-    <t>ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, irrWithdrawalGW_max, modflowWaterLevel, head_development, lakeResStorage, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month</t>
+    <t>adminSegments</t>
+  </si>
+  <si>
+    <t>$(PathWaterdemand)/2020-10-14_Agents.nc</t>
+  </si>
+  <si>
+    <t>swAbstractionFraction_Irr, gwAbstractionFraction_Irr, ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month, gwAbstractionFraction_Irr, unmetDomestic, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
   </si>
 </sst>
 </file>
@@ -2016,11 +2022,11 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2058,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>144</v>
@@ -2101,7 +2107,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="87">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>103</v>
@@ -2115,7 +2121,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="89">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>98</v>
@@ -2132,7 +2138,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>273</v>
@@ -2149,7 +2155,7 @@
         <v>234</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>150</v>
@@ -2166,7 +2172,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>152</v>
@@ -2183,7 +2189,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" s="84" t="s">
         <v>155</v>
@@ -2458,7 +2464,7 @@
         <v>190</v>
       </c>
       <c r="B27" s="89">
-        <v>0.3</v>
+        <v>1E-3</v>
       </c>
       <c r="C27" s="84" t="s">
         <v>266</v>
@@ -2480,7 +2486,7 @@
         <v>192</v>
       </c>
       <c r="B29" s="89">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
@@ -2488,7 +2494,7 @@
         <v>193</v>
       </c>
       <c r="B30" s="89">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
@@ -2496,7 +2502,7 @@
         <v>220</v>
       </c>
       <c r="B31" s="89">
-        <v>0.15</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
@@ -2660,6 +2666,14 @@
       </c>
       <c r="B47" s="89" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A48" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/CWatM_settings/cwatm_settings.xlsx
+++ b/CWatM_settings/cwatm_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FUSE\CWatM_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE514A4-F44B-4E93-A8E2-D3B7CE33A8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231ED4D4-0950-4536-8897-E29478095FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6774" yWindow="2958" windowWidth="15198" windowHeight="9444" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
+    <workbookView xWindow="8808" yWindow="2808" windowWidth="13824" windowHeight="7176" tabRatio="820" xr2:uid="{3B47940C-5F20-42D1-80D0-733DA86DBAA8}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Inputs" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="252">
   <si>
     <t>Key</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Map, [0, 1]</t>
   </si>
   <si>
-    <t>Value or Map, [0, 1]</t>
-  </si>
-  <si>
     <t>Initialisation file for groundwater heads</t>
   </si>
   <si>
@@ -658,9 +655,6 @@
     <t>$(FILE_PATHS:PathMaps)/meteo/025_ISIMIP3a</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/meteo/010deg</t>
-  </si>
-  <si>
     <t>swAbstractionFraction_Local</t>
   </si>
   <si>
@@ -676,24 +670,6 @@
     <t>Water_conveyance_efficiency</t>
   </si>
   <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20000801.nc</t>
-  </si>
-  <si>
-    <t>Bhima_steady_03Oct</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20011001.nc</t>
-  </si>
-  <si>
-    <t>precipEffectiveAverage_segments, ETRefAverage_segments</t>
-  </si>
-  <si>
-    <t>actual_totalWithdrawal, precipEffectiveAverage_segments, precipEffectiveAverage_woBare_segments</t>
-  </si>
-  <si>
-    <t>[1, ~7]</t>
-  </si>
-  <si>
     <t>GeneralK</t>
   </si>
   <si>
@@ -706,18 +682,9 @@
     <t>activate_fallow</t>
   </si>
   <si>
-    <t>010deg</t>
-  </si>
-  <si>
-    <t>act_irrWithdrawalSW, act_irrWithdrawalGW, act_nonIrrWithdrawalSW, act_nonIrrWithdrawalGW, actual_totalWithdrawal, actTransTotal_grasslands, actTransTotal_nonpaddy, discharge, act_irrWithdrawal, act_nonIrrWithdrawal</t>
-  </si>
-  <si>
     <t>automaticFallowingIrr</t>
   </si>
   <si>
-    <t>waterBodyID, resVolume_reservoir, cellArea, adminSegments, GeneralCrop_Irr, modflowtotalSoilThickness, adminSegments, reservoir_command_areas, lift_command_areas, availableArableLand, availableArableLand_segment</t>
-  </si>
-  <si>
     <t>poro</t>
   </si>
   <si>
@@ -793,9 +760,6 @@
     <t xml:space="preserve">Map or value, [0,1]. </t>
   </si>
   <si>
-    <t>OUT_MAP_MonthEnd</t>
-  </si>
-  <si>
     <t>GeneralK_Irr</t>
   </si>
   <si>
@@ -871,119 +835,23 @@
     <t>Specific yield, %</t>
   </si>
   <si>
-    <t>head_development_segments, modflowWaterLevel, fracVegCover[0], fracVegCover[1], fracVegCover[2], fracVegCover[3], fracVegCover[4], fracVegCover[5], frac_totalIrr, frac_totalnonIrr, fracCrops_Irr[0],  fracCrops_Irr[1], fracCrops_Irr[2], fracCrops_Irr[3], fracCrops_Irr[4], fracCrops_Irr[5], fracCrops_Irr[6], fracCrops_Irr[7], fracCrops_Irr[8], fracCrops_Irr[9], fracCrops_Irr[10], fracCrops_Irr[11], fracCrops_Irr[12], fracCrops_Irr[13], fracCrops_Irr[14], fracCrops_Irr[15], fracCrops_Irr[16], fracCrops_Irr[17], fracCrops_nonIrr[0], fracCrops_nonIrr[1], fracCrops_nonIrr[2], fracCrops_nonIrr[3], fracCrops_nonIrr[4], fracCrops_nonIrr[5], fracCrops_nonIrr[6], fracCrops_nonIrr[7],  fracCrops_nonIrr[8], fracCrops_nonIrr[9], fracCrops_nonIrr[10], fracCrops_nonIrr[11], fracCrops_nonIrr[12], fracCrops_nonIrr[13], fracCrops_nonIrr[14], fracCrops_nonIrr[15], fracCrops_nonIrr[16], fracCrops_nonIrr[17], fracCrops_IrrLandDemand[0],  fracCrops_IrrLandDemand[1], fracCrops_IrrLandDemand[2], fracCrops_IrrLandDemand[3], fracCrops_IrrLandDemand[4], fracCrops_IrrLandDemand[5], fracCrops_IrrLandDemand[6], fracCrops_IrrLandDemand[7],fracCrops_IrrLandDemand[8], fracCrops_IrrLandDemand[9], fracCrops_IrrLandDemand[10], fracCrops_IrrLandDemand[11], fracCrops_IrrLandDemand[12], fracCrops_IrrLandDemand[13], fracCrops_IrrLandDemand[14], fracCrops_IrrLandDemand[15], fracCrops_IrrLandDemand[16], fracCrops_IrrLandDemand[17], fracCrops_nonIrrLandDemand[0],  fracCrops_nonIrrLandDemand[1], fracCrops_nonIrrLandDemand[2], fracCrops_nonIrrLandDemand[3], fracCrops_nonIrrLandDemand[4], fracCrops_nonIrrLandDemand[5], fracCrops_nonIrrLandDemand[6], fracCrops_nonIrrLandDemand[7], fracCrops_nonIrrLandDemand[8], fracCrops_nonIrrLandDemand[9], fracCrops_nonIrrLandDemand[10], fracCrops_nonIrrLandDemand[11], fracCrops_nonIrrLandDemand[12], fracCrops_nonIrrLandDemand[13], fracCrops_nonIrrLandDemand[14], fracCrops_nonIrrLandDemand[15], fracCrops_nonIrrLandDemand[16], fracCrops_nonIrrLandDemand[17], fallowIrr, fallownonIrr, GeneralCrop_Irr, GeneralCrop_nonIrr, head_development, areaPaddy_Irr_segment, areaCrops_Irr_segment[0], areaCrops_nonIrr_segment[0], areaCrops_Irr_segment[1], areaCrops_nonIrr_segment[1], areaCrops_Irr_segment[2], areaCrops_nonIrr_segment[2], areaCrops_Irr_segment[3], areaCrops_nonIrr_segment[3], areaCrops_Irr_segment[4], areaCrops_nonIrr_segment[4], areaCrops_Irr_segment[5], areaCrops_nonIrr_segment[5], areaCrops_Irr_segment[6], areaCrops_nonIrr_segment[6], areaCrops_Irr_segment[7], areaCrops_nonIrr_segment[7], areaCrops_Irr_segment[8], areaCrops_nonIrr_segment[8], areaCrops_Irr_segment[9], areaCrops_nonIrr_segment[9], areaCrops_Irr_segment[10], areaCrops_nonIrr_segment[10], areaCrops_Irr_segment[11], areaCrops_nonIrr_segment[11], areaCrops_Irr_segment[12], areaCrops_nonIrr_segment[12], areaCrops_Irr_segment[13], areaCrops_nonIrr_segment[13], areaCrops_Irr_segment[14], areaCrops_nonIrr_segment[14], areaCrops_Irr_segment[15], areaCrops_nonIrr_segment[15] , areaCrops_Irr_segment[16], areaCrops_nonIrr_segment[16],  areaCrops_Irr_segment[17], areaCrops_nonIrr_segment[17], availableArableLand, availableArableLand_segment</t>
-  </si>
-  <si>
-    <t>fraction_IncreaseIrrigation_Nonpaddy</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/landsurface/UBB_built-up_res_2015.nc</t>
-  </si>
-  <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_steady_preMonsoon.hds</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_preMonsoon.nc</t>
-  </si>
-  <si>
-    <t>Bhima_preMonsoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSE </t>
-  </si>
-  <si>
-    <t>Bhima_20030615</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20030615.nc</t>
-  </si>
-  <si>
-    <t>, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/init/Bhima_20001101.nc</t>
-  </si>
-  <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_postMonsoon.hds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/01/2001</t>
-  </si>
-  <si>
-    <t>gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
-  </si>
-  <si>
     <t>Reservoir_releases_input_file</t>
   </si>
   <si>
     <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/reservoirOperations_Bhima_July6.nc</t>
   </si>
   <si>
-    <t>preferentialFlowConstant</t>
-  </si>
-  <si>
-    <t>soildepth_factor</t>
-  </si>
-  <si>
-    <t>$(PathGroundwaterModflowOutput)/Bhima_11July2021.hds</t>
-  </si>
-  <si>
-    <t>waterBodyElec</t>
-  </si>
-  <si>
-    <t>$(FILE_PATHS:PathMaps)/routing/lakesreservoirs/createIndustryDemandInput_totalend.nc</t>
-  </si>
-  <si>
-    <t>crop_correct</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01/06/2013</t>
   </si>
   <si>
-    <t>irrWithdrawalSW_max, irrWithdrawalGW_max, waterBodyID, cellArea, adminSegments, modflowtotalSoilThickness, availableArableLand, availableArableLand_segment, resVolume_reservoir, lift_command_areas, reservoir_command_areas</t>
-  </si>
-  <si>
-    <t>gw_agents_month_m3</t>
-  </si>
-  <si>
-    <t>sw_agents_month_m3</t>
-  </si>
-  <si>
-    <t>$(PathWaterdemand)/gw_6.nc</t>
-  </si>
-  <si>
-    <t>$(PathWaterdemand)/sw_6.nc</t>
-  </si>
-  <si>
-    <t>ETRefAverage_segments</t>
-  </si>
-  <si>
-    <t>precipEffectiveAverage_woBare_segments</t>
-  </si>
-  <si>
-    <t>ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, irrWithdrawalGW_max, modflowWaterLevel, head_development, lakeResStorage, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25/04/2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/10/2013</t>
-  </si>
-  <si>
-    <t>adminSegments</t>
-  </si>
-  <si>
-    <t>$(PathWaterdemand)/2020-10-14_Agents.nc</t>
-  </si>
-  <si>
-    <t>swAbstractionFraction_Irr, gwAbstractionFraction_Irr, ratio_irrWithdrawalGW_month, ratio_irrWithdrawalSW_month, act_irrWithdrawalSW_month, act_irrWithdrawalGW_month, gwAbstractionFraction_Irr, unmetDomestic, gwstorage_cell, humanUse, nonIrrDemand, totalIrrDemand, domesticDemand, livestockDemand, industryDemand, unmetDemandPaddy, unmetDemandNonpaddy, unmetDemand, act_irrPaddyDemand, act_irrNonpaddyDemand, act_LocalLakeAbstractM3, totalWaterDemand</t>
+    <t xml:space="preserve"> 01/07/2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1584,57 +1452,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="15" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2022,27 +1840,27 @@
   <sheetPr>
     <tabColor rgb="FF636EFA"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.62890625" style="86" customWidth="1"/>
-    <col min="2" max="2" width="69.26171875" style="89" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="84" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.3671875" style="86" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="86" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="86"/>
+    <col min="1" max="1" width="29.6640625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="69.21875" style="87" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" style="86" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="86" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="18" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:6" s="42" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2056,625 +1874,51 @@
         <v>128</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="C2" s="84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="82" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>282</v>
+        <v>2</v>
       </c>
       <c r="C3" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="82" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="85"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="87">
-        <v>8</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="89">
-        <v>25</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="87" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="91" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="98" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>264</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="101" t="s">
-        <v>270</v>
-      </c>
-      <c r="K20" s="101" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="103" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="102" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="100" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="97" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="102" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="103" t="s">
-        <v>263</v>
-      </c>
-      <c r="G24" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="J24" s="103" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="85">
-        <v>0.15</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="89" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="89">
-        <v>1E-3</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="89">
-        <v>1</v>
-      </c>
-      <c r="C28" s="84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="89">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="89">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="B31" s="89">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="89">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="71" customFormat="1" ht="12.6" x14ac:dyDescent="0.45">
-      <c r="A33" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="B33" s="74" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A34" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="E34" s="89" t="s">
-        <v>189</v>
-      </c>
-      <c r="F34" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A35" s="86" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A36" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="89" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="85">
-        <v>3.5</v>
-      </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A38" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="89" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="86" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="89">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C39" s="84">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" s="104">
-        <v>1.5E-6</v>
-      </c>
-      <c r="C40" s="105">
-        <v>2.5000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A41" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="B42" s="89">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="B43" s="89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A44" s="86" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" s="89">
-        <v>1.2</v>
-      </c>
-      <c r="C44" s="86" t="s">
-        <v>279</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A45" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="89" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A47" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="B47" s="89" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="89" t="s">
-        <v>294</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -2695,24 +1939,24 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.3125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="3.3671875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.26171875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.05078125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="3.68359375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="4.3671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.1015625" style="8" customWidth="1"/>
-    <col min="11" max="14" width="4.3671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.20703125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="4.3671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.68359375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="54.7890625" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="8.83984375" style="8"/>
+    <col min="1" max="1" width="13.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="3.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="8" customWidth="1"/>
+    <col min="11" max="14" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.21875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="4.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="54.77734375" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" thickBot="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="3" t="s">
@@ -2762,13 +2006,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:18">
       <c r="A2" s="9"/>
       <c r="B2" s="10">
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="23">
         <v>6</v>
@@ -2814,13 +2058,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="23">
         <v>11</v>
@@ -2863,16 +2107,16 @@
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="23">
         <v>1</v>
@@ -2918,7 +2162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:18">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>3</v>
@@ -2968,7 +2212,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>4</v>
@@ -3020,7 +2264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>5</v>
@@ -3072,7 +2316,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>6</v>
@@ -3124,7 +2368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>7</v>
@@ -3176,7 +2420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18">
       <c r="A10" s="12"/>
       <c r="B10" s="10">
         <v>8</v>
@@ -3225,7 +2469,7 @@
       </c>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18">
       <c r="A11" s="12"/>
       <c r="B11" s="10">
         <v>9</v>
@@ -3274,7 +2518,7 @@
       </c>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" ht="15" thickBot="1">
       <c r="A12" s="12"/>
       <c r="B12" s="10">
         <v>10</v>
@@ -3323,7 +2567,7 @@
       </c>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" ht="15" thickBot="1">
       <c r="A13" s="12"/>
       <c r="B13" s="10">
         <v>11</v>
@@ -3371,10 +2615,10 @@
         <v>0.2</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1">
       <c r="A14" s="12"/>
       <c r="B14" s="10">
         <v>12</v>
@@ -3425,7 +2669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" ht="15" thickBot="1">
       <c r="A15" s="12"/>
       <c r="B15" s="10">
         <v>13</v>
@@ -3476,7 +2720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" ht="15" thickBot="1">
       <c r="A16" s="12"/>
       <c r="B16" s="10">
         <v>14</v>
@@ -3527,7 +2771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:18">
       <c r="A17" s="12"/>
       <c r="B17" s="10">
         <v>15</v>
@@ -3576,13 +2820,13 @@
       </c>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:18">
       <c r="A18" s="12"/>
       <c r="B18" s="10">
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D18" s="23">
         <v>6</v>
@@ -3624,16 +2868,16 @@
         <v>0.2</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="12"/>
       <c r="B19" s="10">
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D19" s="23">
         <v>11</v>
@@ -3695,25 +2939,25 @@
       <selection pane="bottomLeft" activeCell="B90" sqref="A90:B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.734375" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.3671875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="59.41796875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="21.41796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.89453125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="8.89453125" style="46" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83984375" style="46"/>
+    <col min="1" max="1" width="33.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="46" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C1" s="48" t="s">
         <v>93</v>
@@ -3722,21 +2966,21 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
@@ -3744,28 +2988,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="53"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" s="50" t="s">
         <v>16</v>
       </c>
@@ -3779,7 +3023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" s="50" t="s">
         <v>17</v>
       </c>
@@ -3793,92 +3037,92 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="50" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="54"/>
       <c r="C9" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="46" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="54"/>
       <c r="C10" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="50" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="54"/>
       <c r="C12" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="62" customFormat="1">
       <c r="A14" s="58" t="s">
         <v>6</v>
       </c>
@@ -3889,10 +3133,10 @@
         <v>102</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="62" customFormat="1">
       <c r="A15" s="58" t="s">
         <v>7</v>
       </c>
@@ -3903,10 +3147,10 @@
         <v>101</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="62" customFormat="1">
       <c r="A16" s="62" t="s">
         <v>43</v>
       </c>
@@ -3917,10 +3161,10 @@
         <v>106</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="62" customFormat="1">
       <c r="A17" s="62" t="s">
         <v>3</v>
       </c>
@@ -3928,41 +3172,41 @@
         <v>21</v>
       </c>
       <c r="C17" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="62" customFormat="1">
+      <c r="A18" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="63" t="s">
+      <c r="D18" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="62" customFormat="1">
+      <c r="A19" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="B19" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="62" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>165</v>
-      </c>
       <c r="D19" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="68" customFormat="1">
       <c r="A20" s="64" t="s">
         <v>11</v>
       </c>
@@ -3973,30 +3217,30 @@
         <v>95</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="68" customFormat="1">
       <c r="A21" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>133</v>
-      </c>
       <c r="E21" s="68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="68" customFormat="1">
       <c r="A22" s="64" t="s">
         <v>13</v>
       </c>
@@ -4007,29 +3251,29 @@
         <v>96</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="68" customFormat="1">
       <c r="A23" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="66" t="s">
         <v>97</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="68" customFormat="1" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="68" customFormat="1">
       <c r="A24" s="64" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="66" t="s">
         <v>105</v>
@@ -4038,21 +3282,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="68" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" s="68" customFormat="1" ht="13.8" customHeight="1">
       <c r="A25" s="64" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="71" customFormat="1">
       <c r="A26" s="71" t="s">
         <v>49</v>
       </c>
@@ -4063,10 +3307,10 @@
         <v>127</v>
       </c>
       <c r="D26" s="71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="71" customFormat="1">
       <c r="A27" s="71" t="s">
         <v>45</v>
       </c>
@@ -4074,27 +3318,27 @@
         <v>1</v>
       </c>
       <c r="C27" s="72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="71" customFormat="1">
       <c r="A28" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="71" customFormat="1" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="71" customFormat="1">
       <c r="A29" s="71" t="s">
         <v>46</v>
       </c>
@@ -4102,18 +3346,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="79" customFormat="1">
       <c r="A30" s="75" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>99</v>
@@ -4122,68 +3366,68 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" s="79" customFormat="1">
       <c r="A31" s="75" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D31" s="78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" s="79" customFormat="1">
       <c r="A32" s="75" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D32" s="78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" s="79" customFormat="1">
       <c r="A33" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="79" customFormat="1">
+      <c r="A34" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="77" t="s">
-        <v>252</v>
-      </c>
       <c r="D34" s="78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" s="79" customFormat="1">
       <c r="A35" s="75" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>100</v>
@@ -4192,9 +3436,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" s="79" customFormat="1">
       <c r="A36" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>50</v>
@@ -4206,9 +3450,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" s="79" customFormat="1">
       <c r="A37" s="79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" s="76" t="s">
         <v>50</v>
@@ -4220,9 +3464,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" s="79" customFormat="1">
       <c r="A38" s="79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B38" s="76" t="s">
         <v>50</v>
@@ -4234,7 +3478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" s="79" customFormat="1">
       <c r="A39" s="79" t="s">
         <v>83</v>
       </c>
@@ -4248,7 +3492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" s="79" customFormat="1">
       <c r="A40" s="79" t="s">
         <v>84</v>
       </c>
@@ -4262,7 +3506,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" s="79" customFormat="1">
       <c r="A41" s="79" t="s">
         <v>85</v>
       </c>
@@ -4276,7 +3520,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" s="79" customFormat="1">
       <c r="A42" s="79" t="s">
         <v>86</v>
       </c>
@@ -4290,7 +3534,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" s="79" customFormat="1">
       <c r="A43" s="79" t="s">
         <v>109</v>
       </c>
@@ -4304,7 +3548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" s="79" customFormat="1">
       <c r="A44" s="79" t="s">
         <v>110</v>
       </c>
@@ -4318,7 +3562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" s="79" customFormat="1">
       <c r="A45" s="79" t="s">
         <v>87</v>
       </c>
@@ -4332,7 +3576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" s="79" customFormat="1">
       <c r="A46" s="79" t="s">
         <v>88</v>
       </c>
@@ -4346,7 +3590,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" s="79" customFormat="1">
       <c r="A47" s="79" t="s">
         <v>89</v>
       </c>
@@ -4360,7 +3604,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" s="79" customFormat="1">
       <c r="A48" s="79" t="s">
         <v>90</v>
       </c>
@@ -4374,7 +3618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" s="79" customFormat="1">
       <c r="A49" s="79" t="s">
         <v>91</v>
       </c>
@@ -4389,7 +3633,7 @@
       </c>
       <c r="E49" s="78"/>
     </row>
-    <row r="50" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" s="79" customFormat="1">
       <c r="A50" s="79" t="s">
         <v>92</v>
       </c>
@@ -4403,7 +3647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" s="79" customFormat="1">
       <c r="A51" s="79" t="s">
         <v>108</v>
       </c>
@@ -4417,12 +3661,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" s="79" customFormat="1">
       <c r="A52" s="79" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C52" s="77" t="s">
         <v>125</v>
@@ -4431,12 +3675,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" s="79" customFormat="1">
       <c r="A53" s="79" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>125</v>
@@ -4445,9 +3689,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" s="79" customFormat="1">
       <c r="A54" s="79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" s="76" t="s">
         <v>50</v>
@@ -4459,9 +3703,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" s="79" customFormat="1">
       <c r="A55" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B55" s="76" t="s">
         <v>50</v>
@@ -4473,9 +3717,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" s="79" customFormat="1">
       <c r="A56" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" s="76" t="s">
         <v>50</v>
@@ -4487,7 +3731,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" s="79" customFormat="1">
       <c r="A57" s="79" t="s">
         <v>111</v>
       </c>
@@ -4501,7 +3745,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" s="79" customFormat="1">
       <c r="A58" s="79" t="s">
         <v>112</v>
       </c>
@@ -4515,7 +3759,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" s="79" customFormat="1">
       <c r="A59" s="79" t="s">
         <v>113</v>
       </c>
@@ -4529,7 +3773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" s="79" customFormat="1">
       <c r="A60" s="79" t="s">
         <v>114</v>
       </c>
@@ -4543,7 +3787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" s="79" customFormat="1">
       <c r="A61" s="79" t="s">
         <v>115</v>
       </c>
@@ -4557,7 +3801,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" s="79" customFormat="1">
       <c r="A62" s="79" t="s">
         <v>116</v>
       </c>
@@ -4571,7 +3815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" s="79" customFormat="1">
       <c r="A63" s="79" t="s">
         <v>117</v>
       </c>
@@ -4585,7 +3829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" s="79" customFormat="1">
       <c r="A64" s="79" t="s">
         <v>118</v>
       </c>
@@ -4599,7 +3843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" s="79" customFormat="1">
       <c r="A65" s="79" t="s">
         <v>119</v>
       </c>
@@ -4613,7 +3857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" s="79" customFormat="1">
       <c r="A66" s="79" t="s">
         <v>120</v>
       </c>
@@ -4627,7 +3871,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" s="79" customFormat="1">
       <c r="A67" s="79" t="s">
         <v>121</v>
       </c>
@@ -4642,7 +3886,7 @@
       </c>
       <c r="E67" s="78"/>
     </row>
-    <row r="68" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" s="79" customFormat="1">
       <c r="A68" s="79" t="s">
         <v>122</v>
       </c>
@@ -4656,7 +3900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" s="79" customFormat="1">
       <c r="A69" s="79" t="s">
         <v>123</v>
       </c>
@@ -4670,12 +3914,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" s="79" customFormat="1">
       <c r="A70" s="79" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C70" s="77" t="s">
         <v>126</v>
@@ -4684,12 +3928,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" s="79" customFormat="1">
       <c r="A71" s="79" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C71" s="77" t="s">
         <v>126</v>
@@ -4698,7 +3942,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" s="79" customFormat="1">
       <c r="A72" s="79" t="s">
         <v>75</v>
       </c>
@@ -4706,13 +3950,13 @@
         <v>77</v>
       </c>
       <c r="C72" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" s="79" customFormat="1">
       <c r="A73" s="79" t="s">
         <v>76</v>
       </c>
@@ -4720,242 +3964,242 @@
         <v>78</v>
       </c>
       <c r="C73" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D73" s="78" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" s="79" customFormat="1">
       <c r="A74" s="79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" s="80" t="b">
         <v>1</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D74" s="78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="79" customFormat="1">
       <c r="A75" s="79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B75" s="80" t="b">
         <v>0</v>
       </c>
       <c r="C75" s="77" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D75" s="78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="79" customFormat="1">
       <c r="A76" s="79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="80" t="b">
         <v>0</v>
       </c>
       <c r="C76" s="77" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D76" s="78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="79" customFormat="1">
       <c r="A77" s="79" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B77" s="80" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="77" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D77" s="78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="79" customFormat="1" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="79" customFormat="1">
       <c r="A78" s="79" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B78" s="80" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="77" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D78" s="78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="C79" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="46" t="s">
         <v>188</v>
-      </c>
-      <c r="C79" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="53" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A80" s="46" t="s">
-        <v>190</v>
       </c>
       <c r="B80" s="56">
         <v>0.2</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B81" s="56">
         <v>0.2</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B82" s="56">
         <v>1</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="46" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B83" s="56">
         <v>1</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" s="56">
         <v>1</v>
       </c>
       <c r="C84" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D84" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="46" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B85" s="56">
         <v>1</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B86" s="56">
         <v>0.7</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="46" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D87" s="46" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="46" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B88" s="56">
         <v>100</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="46" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B89" s="81">
         <v>7.8364363403955501E-6</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="14.1" x14ac:dyDescent="0.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="13.8">
       <c r="A90" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="B90" s="89" t="s">
-        <v>275</v>
+        <v>248</v>
+      </c>
+      <c r="B90" s="87" t="s">
+        <v>249</v>
       </c>
       <c r="C90" s="46"/>
       <c r="D90" s="46"/>
